--- a/AA怪物文档/moster_data.xlsx
+++ b/AA怪物文档/moster_data.xlsx
@@ -8,13 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="config_moster_data" sheetId="1" r:id="rId1"/>
+    <sheet name="属性类计算" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">属性类计算!$A$1:$K$19</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="227">
   <si>
     <t/>
   </si>
@@ -34,6 +38,12 @@
     <t>is_on</t>
   </si>
   <si>
+    <t>是否近战</t>
+  </si>
+  <si>
+    <t>是否物理</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -644,6 +654,51 @@
   </si>
   <si>
     <t>黄色坦克战士</t>
+  </si>
+  <si>
+    <t>警戒范围_Max</t>
+  </si>
+  <si>
+    <t>警戒范围_Min</t>
+  </si>
+  <si>
+    <t>生命值</t>
+  </si>
+  <si>
+    <t>物理防御</t>
+  </si>
+  <si>
+    <t>法术防御</t>
+  </si>
+  <si>
+    <t>物理攻击</t>
+  </si>
+  <si>
+    <t>法术攻击</t>
+  </si>
+  <si>
+    <t>移动速度</t>
+  </si>
+  <si>
+    <t>小怪</t>
+  </si>
+  <si>
+    <t>法术</t>
+  </si>
+  <si>
+    <t>近战</t>
+  </si>
+  <si>
+    <t>远程</t>
+  </si>
+  <si>
+    <t>物理</t>
+  </si>
+  <si>
+    <t>精英</t>
+  </si>
+  <si>
+    <t>BOSS</t>
   </si>
 </sst>
 </file>
@@ -1619,8 +1674,8 @@
   <sheetPr/>
   <dimension ref="A1:T104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1628,6 +1683,9 @@
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="1"/>
+    <col min="7" max="8" width="13.25" customWidth="1"/>
+    <col min="9" max="9" width="7" customWidth="1"/>
+    <col min="10" max="13" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -1706,28 +1764,10 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N2" t="s">
         <v>0</v>
@@ -1753,43 +1793,25 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" t="s">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="N3" t="s">
         <v>0</v>
@@ -1815,7 +1837,7 @@
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>0</v>
@@ -1877,10 +1899,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -1888,10 +1910,10 @@
       <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
@@ -1939,10 +1961,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -1950,10 +1972,10 @@
       <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
@@ -2001,10 +2023,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -2012,10 +2034,10 @@
       <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
@@ -2063,10 +2085,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -2074,11 +2096,11 @@
       <c r="E8" s="1">
         <v>1</v>
       </c>
-      <c r="F8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>0</v>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
       </c>
       <c r="H8" t="s">
         <v>0</v>
@@ -2125,10 +2147,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -2136,10 +2158,10 @@
       <c r="E9" s="1">
         <v>1</v>
       </c>
-      <c r="F9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
@@ -2187,10 +2209,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -2198,10 +2220,10 @@
       <c r="E10" s="1">
         <v>1</v>
       </c>
-      <c r="F10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
         <v>0</v>
       </c>
       <c r="H10" t="s">
@@ -2249,10 +2271,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -2260,11 +2282,11 @@
       <c r="E11" s="1">
         <v>1</v>
       </c>
-      <c r="F11" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" t="s">
-        <v>0</v>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
       </c>
       <c r="H11" t="s">
         <v>0</v>
@@ -2311,10 +2333,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
@@ -2322,10 +2344,10 @@
       <c r="E12" s="1">
         <v>1</v>
       </c>
-      <c r="F12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
         <v>0</v>
       </c>
       <c r="H12" t="s">
@@ -2373,10 +2395,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D13" s="1">
         <v>2</v>
@@ -2384,11 +2406,11 @@
       <c r="E13" s="1">
         <v>1</v>
       </c>
-      <c r="F13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" t="s">
-        <v>0</v>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
       </c>
       <c r="H13" t="s">
         <v>0</v>
@@ -2435,10 +2457,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D14" s="1">
         <v>2</v>
@@ -2446,11 +2468,11 @@
       <c r="E14" s="1">
         <v>1</v>
       </c>
-      <c r="F14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" t="s">
-        <v>0</v>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
       </c>
       <c r="H14" t="s">
         <v>0</v>
@@ -2497,10 +2519,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D15" s="1">
         <v>3</v>
@@ -2508,10 +2530,10 @@
       <c r="E15" s="1">
         <v>1</v>
       </c>
-      <c r="F15" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
         <v>0</v>
       </c>
       <c r="H15" t="s">
@@ -2559,10 +2581,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -2570,11 +2592,11 @@
       <c r="E16" s="1">
         <v>1</v>
       </c>
-      <c r="F16" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" t="s">
-        <v>0</v>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
       </c>
       <c r="H16" t="s">
         <v>0</v>
@@ -2621,10 +2643,10 @@
         <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -2632,11 +2654,11 @@
       <c r="E17" s="1">
         <v>1</v>
       </c>
-      <c r="F17" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" t="s">
-        <v>0</v>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
       </c>
       <c r="H17" t="s">
         <v>0</v>
@@ -2683,10 +2705,10 @@
         <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D18" s="1">
         <v>2</v>
@@ -2694,11 +2716,11 @@
       <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="F18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18" t="s">
-        <v>0</v>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
       </c>
       <c r="H18" t="s">
         <v>0</v>
@@ -2745,10 +2767,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D19" s="1">
         <v>2</v>
@@ -2756,11 +2778,11 @@
       <c r="E19" s="1">
         <v>1</v>
       </c>
-      <c r="F19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G19" t="s">
-        <v>0</v>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
       </c>
       <c r="H19" t="s">
         <v>0</v>
@@ -2807,10 +2829,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D20" s="1">
         <v>2</v>
@@ -2818,11 +2840,11 @@
       <c r="E20" s="1">
         <v>1</v>
       </c>
-      <c r="F20" t="s">
-        <v>0</v>
-      </c>
-      <c r="G20" t="s">
-        <v>0</v>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
       </c>
       <c r="H20" t="s">
         <v>0</v>
@@ -2869,10 +2891,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D21" s="1">
         <v>2</v>
@@ -2880,11 +2902,11 @@
       <c r="E21" s="1">
         <v>1</v>
       </c>
-      <c r="F21" t="s">
-        <v>0</v>
-      </c>
-      <c r="G21" t="s">
-        <v>0</v>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
       </c>
       <c r="H21" t="s">
         <v>0</v>
@@ -2931,10 +2953,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D22" s="1">
         <v>2</v>
@@ -2942,11 +2964,11 @@
       <c r="E22" s="1">
         <v>1</v>
       </c>
-      <c r="F22" t="s">
-        <v>0</v>
-      </c>
-      <c r="G22" t="s">
-        <v>0</v>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
       </c>
       <c r="H22" t="s">
         <v>0</v>
@@ -2993,10 +3015,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
@@ -3004,11 +3026,11 @@
       <c r="E23" s="1">
         <v>1</v>
       </c>
-      <c r="F23" t="s">
-        <v>0</v>
-      </c>
-      <c r="G23" t="s">
-        <v>0</v>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
       </c>
       <c r="H23" t="s">
         <v>0</v>
@@ -3055,10 +3077,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
@@ -3066,11 +3088,11 @@
       <c r="E24" s="1">
         <v>1</v>
       </c>
-      <c r="F24" t="s">
-        <v>0</v>
-      </c>
-      <c r="G24" t="s">
-        <v>0</v>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
       </c>
       <c r="H24" t="s">
         <v>0</v>
@@ -3117,10 +3139,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D25" s="1">
         <v>2</v>
@@ -3128,10 +3150,10 @@
       <c r="E25" s="1">
         <v>1</v>
       </c>
-      <c r="F25" t="s">
-        <v>0</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
         <v>0</v>
       </c>
       <c r="H25" t="s">
@@ -3179,10 +3201,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D26" s="1">
         <v>2</v>
@@ -3190,11 +3212,11 @@
       <c r="E26" s="1">
         <v>1</v>
       </c>
-      <c r="F26" t="s">
-        <v>0</v>
-      </c>
-      <c r="G26" t="s">
-        <v>0</v>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
       </c>
       <c r="H26" t="s">
         <v>0</v>
@@ -3241,10 +3263,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
@@ -3252,11 +3274,11 @@
       <c r="E27" s="1">
         <v>1</v>
       </c>
-      <c r="F27" t="s">
-        <v>0</v>
-      </c>
-      <c r="G27" t="s">
-        <v>0</v>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
       </c>
       <c r="H27" t="s">
         <v>0</v>
@@ -3303,10 +3325,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
@@ -3314,11 +3336,11 @@
       <c r="E28" s="1">
         <v>1</v>
       </c>
-      <c r="F28" t="s">
-        <v>0</v>
-      </c>
-      <c r="G28" t="s">
-        <v>0</v>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
       </c>
       <c r="H28" t="s">
         <v>0</v>
@@ -3365,10 +3387,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
@@ -3376,11 +3398,11 @@
       <c r="E29" s="1">
         <v>1</v>
       </c>
-      <c r="F29" t="s">
-        <v>0</v>
-      </c>
-      <c r="G29" t="s">
-        <v>0</v>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
       </c>
       <c r="H29" t="s">
         <v>0</v>
@@ -3427,10 +3449,10 @@
         <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
@@ -3438,11 +3460,11 @@
       <c r="E30" s="1">
         <v>1</v>
       </c>
-      <c r="F30" t="s">
-        <v>0</v>
-      </c>
-      <c r="G30" t="s">
-        <v>0</v>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
       </c>
       <c r="H30" t="s">
         <v>0</v>
@@ -3489,10 +3511,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D31" s="1">
         <v>2</v>
@@ -3500,11 +3522,11 @@
       <c r="E31" s="1">
         <v>1</v>
       </c>
-      <c r="F31" t="s">
-        <v>0</v>
-      </c>
-      <c r="G31" t="s">
-        <v>0</v>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
       </c>
       <c r="H31" t="s">
         <v>0</v>
@@ -3551,10 +3573,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
@@ -3562,11 +3584,11 @@
       <c r="E32" s="1">
         <v>1</v>
       </c>
-      <c r="F32" t="s">
-        <v>0</v>
-      </c>
-      <c r="G32" t="s">
-        <v>0</v>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
       </c>
       <c r="H32" t="s">
         <v>0</v>
@@ -3613,10 +3635,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D33" s="1">
         <v>1</v>
@@ -3624,11 +3646,11 @@
       <c r="E33" s="1">
         <v>1</v>
       </c>
-      <c r="F33" t="s">
-        <v>0</v>
-      </c>
-      <c r="G33" t="s">
-        <v>0</v>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
       </c>
       <c r="H33" t="s">
         <v>0</v>
@@ -3675,10 +3697,10 @@
         <v>30</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D34" s="1">
         <v>2</v>
@@ -3686,10 +3708,10 @@
       <c r="E34" s="1">
         <v>1</v>
       </c>
-      <c r="F34" t="s">
-        <v>0</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
         <v>0</v>
       </c>
       <c r="H34" t="s">
@@ -3737,10 +3759,10 @@
         <v>31</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D35" s="1">
         <v>2</v>
@@ -3748,11 +3770,11 @@
       <c r="E35" s="1">
         <v>1</v>
       </c>
-      <c r="F35" t="s">
-        <v>0</v>
-      </c>
-      <c r="G35" t="s">
-        <v>0</v>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
       </c>
       <c r="H35" t="s">
         <v>0</v>
@@ -3799,10 +3821,10 @@
         <v>32</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D36" s="1">
         <v>2</v>
@@ -3810,10 +3832,10 @@
       <c r="E36" s="1">
         <v>1</v>
       </c>
-      <c r="F36" t="s">
-        <v>0</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
         <v>0</v>
       </c>
       <c r="H36" t="s">
@@ -3861,10 +3883,10 @@
         <v>33</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D37" s="1">
         <v>2</v>
@@ -3872,11 +3894,11 @@
       <c r="E37" s="1">
         <v>1</v>
       </c>
-      <c r="F37" t="s">
-        <v>0</v>
-      </c>
-      <c r="G37" t="s">
-        <v>0</v>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
       </c>
       <c r="H37" t="s">
         <v>0</v>
@@ -3923,10 +3945,10 @@
         <v>34</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D38" s="1">
         <v>1</v>
@@ -3934,11 +3956,11 @@
       <c r="E38" s="1">
         <v>1</v>
       </c>
-      <c r="F38" t="s">
-        <v>0</v>
-      </c>
-      <c r="G38" t="s">
-        <v>0</v>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
       </c>
       <c r="H38" t="s">
         <v>0</v>
@@ -3985,10 +4007,10 @@
         <v>35</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D39" s="1">
         <v>2</v>
@@ -3996,11 +4018,11 @@
       <c r="E39" s="1">
         <v>1</v>
       </c>
-      <c r="F39" t="s">
-        <v>0</v>
-      </c>
-      <c r="G39" t="s">
-        <v>0</v>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
       </c>
       <c r="H39" t="s">
         <v>0</v>
@@ -4047,10 +4069,10 @@
         <v>36</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D40" s="1">
         <v>2</v>
@@ -4058,11 +4080,11 @@
       <c r="E40" s="1">
         <v>1</v>
       </c>
-      <c r="F40" t="s">
-        <v>0</v>
-      </c>
-      <c r="G40" t="s">
-        <v>0</v>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
       </c>
       <c r="H40" t="s">
         <v>0</v>
@@ -4109,10 +4131,10 @@
         <v>37</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D41" s="1">
         <v>2</v>
@@ -4120,10 +4142,10 @@
       <c r="E41" s="1">
         <v>1</v>
       </c>
-      <c r="F41" t="s">
-        <v>0</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
         <v>0</v>
       </c>
       <c r="H41" t="s">
@@ -4171,10 +4193,10 @@
         <v>38</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D42" s="1">
         <v>1</v>
@@ -4182,10 +4204,10 @@
       <c r="E42" s="1">
         <v>1</v>
       </c>
-      <c r="F42" t="s">
-        <v>0</v>
-      </c>
-      <c r="G42" t="s">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
         <v>0</v>
       </c>
       <c r="H42" t="s">
@@ -4233,10 +4255,10 @@
         <v>39</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D43" s="1">
         <v>2</v>
@@ -4244,11 +4266,11 @@
       <c r="E43" s="1">
         <v>1</v>
       </c>
-      <c r="F43" t="s">
-        <v>0</v>
-      </c>
-      <c r="G43" t="s">
-        <v>0</v>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
       </c>
       <c r="H43" t="s">
         <v>0</v>
@@ -4295,10 +4317,10 @@
         <v>40</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D44" s="1">
         <v>2</v>
@@ -4306,11 +4328,11 @@
       <c r="E44" s="1">
         <v>1</v>
       </c>
-      <c r="F44" t="s">
-        <v>0</v>
-      </c>
-      <c r="G44" t="s">
-        <v>0</v>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
       </c>
       <c r="H44" t="s">
         <v>0</v>
@@ -4357,10 +4379,10 @@
         <v>41</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D45" s="1">
         <v>1</v>
@@ -4368,11 +4390,11 @@
       <c r="E45" s="1">
         <v>1</v>
       </c>
-      <c r="F45" t="s">
-        <v>0</v>
-      </c>
-      <c r="G45" t="s">
-        <v>0</v>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
       </c>
       <c r="H45" t="s">
         <v>0</v>
@@ -4419,10 +4441,10 @@
         <v>42</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D46" s="1">
         <v>1</v>
@@ -4430,11 +4452,11 @@
       <c r="E46" s="1">
         <v>1</v>
       </c>
-      <c r="F46" t="s">
-        <v>0</v>
-      </c>
-      <c r="G46" t="s">
-        <v>0</v>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
       </c>
       <c r="H46" t="s">
         <v>0</v>
@@ -4481,10 +4503,10 @@
         <v>43</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D47" s="1">
         <v>1</v>
@@ -4492,11 +4514,11 @@
       <c r="E47" s="1">
         <v>1</v>
       </c>
-      <c r="F47" t="s">
-        <v>0</v>
-      </c>
-      <c r="G47" t="s">
-        <v>0</v>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
       </c>
       <c r="H47" t="s">
         <v>0</v>
@@ -4543,10 +4565,10 @@
         <v>44</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D48" s="1">
         <v>2</v>
@@ -4554,11 +4576,11 @@
       <c r="E48" s="1">
         <v>1</v>
       </c>
-      <c r="F48" t="s">
-        <v>0</v>
-      </c>
-      <c r="G48" t="s">
-        <v>0</v>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
       </c>
       <c r="H48" t="s">
         <v>0</v>
@@ -4605,10 +4627,10 @@
         <v>45</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D49" s="1">
         <v>3</v>
@@ -4616,10 +4638,10 @@
       <c r="E49" s="1">
         <v>1</v>
       </c>
-      <c r="F49" t="s">
-        <v>0</v>
-      </c>
-      <c r="G49" t="s">
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
         <v>0</v>
       </c>
       <c r="H49" t="s">
@@ -4667,10 +4689,10 @@
         <v>46</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D50" s="1">
         <v>2</v>
@@ -4678,11 +4700,11 @@
       <c r="E50" s="1">
         <v>1</v>
       </c>
-      <c r="F50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G50" t="s">
-        <v>0</v>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
       </c>
       <c r="H50" t="s">
         <v>0</v>
@@ -4729,10 +4751,10 @@
         <v>47</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D51" s="1">
         <v>3</v>
@@ -4740,11 +4762,11 @@
       <c r="E51" s="1">
         <v>1</v>
       </c>
-      <c r="F51" t="s">
-        <v>0</v>
-      </c>
-      <c r="G51" t="s">
-        <v>0</v>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
       </c>
       <c r="H51" t="s">
         <v>0</v>
@@ -4791,10 +4813,10 @@
         <v>48</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D52" s="1">
         <v>3</v>
@@ -4802,11 +4824,11 @@
       <c r="E52" s="1">
         <v>1</v>
       </c>
-      <c r="F52" t="s">
-        <v>0</v>
-      </c>
-      <c r="G52" t="s">
-        <v>0</v>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
       </c>
       <c r="H52" t="s">
         <v>0</v>
@@ -4848,15 +4870,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:6">
       <c r="A53" s="1">
         <v>49</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D53" s="1">
         <v>3</v>
@@ -4864,16 +4886,19 @@
       <c r="E53" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="F53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1">
         <v>50</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D54" s="1">
         <v>3</v>
@@ -4881,16 +4906,19 @@
       <c r="E54" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="F54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1">
         <v>51</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D55" s="1">
         <v>1</v>
@@ -4898,16 +4926,19 @@
       <c r="E55" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="F55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1">
         <v>52</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D56" s="1">
         <v>2</v>
@@ -4915,16 +4946,19 @@
       <c r="E56" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1">
         <v>53</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D57" s="1">
         <v>2</v>
@@ -4932,16 +4966,19 @@
       <c r="E57" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1">
         <v>54</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D58" s="1">
         <v>3</v>
@@ -4949,16 +4986,19 @@
       <c r="E58" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="F58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1">
         <v>55</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D59" s="1">
         <v>1</v>
@@ -4966,16 +5006,19 @@
       <c r="E59" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="F59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1">
         <v>56</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D60" s="1">
         <v>1</v>
@@ -4983,16 +5026,19 @@
       <c r="E60" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="F60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1">
         <v>57</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D61" s="1">
         <v>1</v>
@@ -5000,16 +5046,19 @@
       <c r="E61" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="F61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1">
         <v>58</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D62" s="1">
         <v>2</v>
@@ -5017,16 +5066,19 @@
       <c r="E62" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1">
         <v>59</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D63" s="1">
         <v>1</v>
@@ -5034,16 +5086,19 @@
       <c r="E63" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="F63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1">
         <v>60</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D64" s="1">
         <v>1</v>
@@ -5051,16 +5106,19 @@
       <c r="E64" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="F64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1">
         <v>61</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D65" s="1">
         <v>1</v>
@@ -5068,16 +5126,19 @@
       <c r="E65" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="F65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1">
         <v>62</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D66" s="1">
         <v>1</v>
@@ -5085,16 +5146,19 @@
       <c r="E66" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="F66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1">
         <v>63</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D67" s="1">
         <v>1</v>
@@ -5102,16 +5166,19 @@
       <c r="E67" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="F67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1">
         <v>64</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D68" s="1">
         <v>1</v>
@@ -5119,16 +5186,19 @@
       <c r="E68" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="F68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1">
         <v>65</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D69" s="1">
         <v>1</v>
@@ -5136,16 +5206,19 @@
       <c r="E69" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="F69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1">
         <v>66</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D70" s="1">
         <v>1</v>
@@ -5153,16 +5226,19 @@
       <c r="E70" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1">
         <v>67</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D71" s="1">
         <v>1</v>
@@ -5170,16 +5246,19 @@
       <c r="E71" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="F71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1">
         <v>68</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D72" s="1">
         <v>3</v>
@@ -5187,16 +5266,19 @@
       <c r="E72" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="F72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1">
         <v>69</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D73" s="1">
         <v>2</v>
@@ -5204,16 +5286,19 @@
       <c r="E73" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="F73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1">
         <v>70</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D74" s="1">
         <v>1</v>
@@ -5221,16 +5306,19 @@
       <c r="E74" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="F74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1">
         <v>71</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D75" s="1">
         <v>1</v>
@@ -5238,16 +5326,19 @@
       <c r="E75" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="F75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1">
         <v>72</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D76" s="1">
         <v>1</v>
@@ -5255,16 +5346,19 @@
       <c r="E76" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1">
         <v>73</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D77" s="1">
         <v>1</v>
@@ -5272,16 +5366,19 @@
       <c r="E77" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="F77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1">
         <v>74</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D78" s="1">
         <v>1</v>
@@ -5289,16 +5386,19 @@
       <c r="E78" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="F78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1">
         <v>75</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D79" s="1">
         <v>1</v>
@@ -5306,16 +5406,19 @@
       <c r="E79" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1">
         <v>76</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D80" s="1">
         <v>1</v>
@@ -5323,16 +5426,19 @@
       <c r="E80" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="F80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1">
         <v>77</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D81" s="1">
         <v>1</v>
@@ -5340,16 +5446,19 @@
       <c r="E81" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="F81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1">
         <v>78</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D82" s="1">
         <v>1</v>
@@ -5357,16 +5466,19 @@
       <c r="E82" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="F82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1">
         <v>79</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D83" s="1">
         <v>1</v>
@@ -5374,16 +5486,19 @@
       <c r="E83" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="F83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1">
         <v>80</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D84" s="1">
         <v>1</v>
@@ -5391,16 +5506,19 @@
       <c r="E84" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1">
         <v>81</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D85" s="1">
         <v>1</v>
@@ -5408,16 +5526,19 @@
       <c r="E85" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="F85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1">
         <v>82</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D86" s="1">
         <v>1</v>
@@ -5425,16 +5546,19 @@
       <c r="E86" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="F86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1">
         <v>83</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D87" s="1">
         <v>1</v>
@@ -5442,16 +5566,19 @@
       <c r="E87" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="F87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1">
         <v>84</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D88" s="1">
         <v>2</v>
@@ -5459,16 +5586,19 @@
       <c r="E88" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:5">
+      <c r="F88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1">
         <v>85</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D89" s="1">
         <v>1</v>
@@ -5476,16 +5606,19 @@
       <c r="E89" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="F89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1">
         <v>86</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D90" s="1">
         <v>1</v>
@@ -5493,16 +5626,19 @@
       <c r="E90" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="F90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1">
         <v>87</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D91" s="1">
         <v>1</v>
@@ -5510,16 +5646,19 @@
       <c r="E91" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:5">
+      <c r="F91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1">
         <v>88</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D92" s="1">
         <v>1</v>
@@ -5527,16 +5666,19 @@
       <c r="E92" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:5">
+      <c r="F92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1">
         <v>89</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D93" s="1">
         <v>1</v>
@@ -5544,16 +5686,19 @@
       <c r="E93" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:5">
+      <c r="F93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1">
         <v>90</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D94" s="1">
         <v>1</v>
@@ -5561,16 +5706,19 @@
       <c r="E94" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:5">
+      <c r="F94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1">
         <v>91</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D95" s="1">
         <v>1</v>
@@ -5578,16 +5726,19 @@
       <c r="E95" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:5">
+      <c r="F95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1">
         <v>92</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D96" s="1">
         <v>1</v>
@@ -5595,16 +5746,19 @@
       <c r="E96" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1">
         <v>93</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D97" s="1">
         <v>3</v>
@@ -5612,16 +5766,19 @@
       <c r="E97" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1">
         <v>94</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D98" s="1">
         <v>2</v>
@@ -5629,16 +5786,19 @@
       <c r="E98" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:5">
+      <c r="F98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1">
         <v>95</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D99" s="1">
         <v>1</v>
@@ -5646,16 +5806,19 @@
       <c r="E99" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1">
         <v>96</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D100" s="1">
         <v>1</v>
@@ -5663,16 +5826,19 @@
       <c r="E100" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1">
         <v>97</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D101" s="1">
         <v>1</v>
@@ -5680,16 +5846,19 @@
       <c r="E101" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:5">
+      <c r="F101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1">
         <v>98</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D102" s="1">
         <v>2</v>
@@ -5697,16 +5866,19 @@
       <c r="E102" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1">
         <v>99</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D103" s="1">
         <v>3</v>
@@ -5714,21 +5886,27 @@
       <c r="E103" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1">
         <v>100</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D104" s="1">
         <v>2</v>
       </c>
       <c r="E104" s="1">
+        <v>1</v>
+      </c>
+      <c r="F104">
         <v>1</v>
       </c>
     </row>
@@ -5736,4 +5914,534 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:K19"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="4" max="5" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="7" customWidth="1"/>
+    <col min="7" max="10" width="8.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:11">
+      <c r="D2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I2" t="s">
+        <v>217</v>
+      </c>
+      <c r="J2" t="s">
+        <v>218</v>
+      </c>
+      <c r="K2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="4:11">
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="4:10">
+      <c r="D4">
+        <v>600</v>
+      </c>
+      <c r="E4">
+        <v>1200</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>30</v>
+      </c>
+      <c r="H4">
+        <v>35</v>
+      </c>
+      <c r="I4">
+        <v>100</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="4:10">
+      <c r="D5">
+        <v>1000</v>
+      </c>
+      <c r="E5">
+        <v>1500</v>
+      </c>
+      <c r="F5">
+        <v>150</v>
+      </c>
+      <c r="G5">
+        <v>30</v>
+      </c>
+      <c r="H5">
+        <v>55</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="4:10">
+      <c r="D6">
+        <v>1000</v>
+      </c>
+      <c r="E6">
+        <v>1500</v>
+      </c>
+      <c r="F6">
+        <v>250</v>
+      </c>
+      <c r="G6">
+        <v>50</v>
+      </c>
+      <c r="H6">
+        <v>50</v>
+      </c>
+      <c r="I6">
+        <v>200</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D8">
+        <v>600</v>
+      </c>
+      <c r="E8">
+        <v>1200</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+      <c r="G8">
+        <v>30</v>
+      </c>
+      <c r="H8">
+        <v>35</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>220</v>
+      </c>
+      <c r="B9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C9" t="s">
+        <v>223</v>
+      </c>
+      <c r="D9">
+        <v>1200</v>
+      </c>
+      <c r="E9">
+        <v>2000</v>
+      </c>
+      <c r="F9">
+        <v>80</v>
+      </c>
+      <c r="G9">
+        <v>25</v>
+      </c>
+      <c r="H9">
+        <v>30</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D10">
+        <v>600</v>
+      </c>
+      <c r="E10">
+        <v>1200</v>
+      </c>
+      <c r="F10">
+        <v>100</v>
+      </c>
+      <c r="G10">
+        <v>30</v>
+      </c>
+      <c r="H10">
+        <v>35</v>
+      </c>
+      <c r="I10">
+        <v>100</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>220</v>
+      </c>
+      <c r="B11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C11" t="s">
+        <v>223</v>
+      </c>
+      <c r="D11">
+        <v>1200</v>
+      </c>
+      <c r="E11">
+        <v>2000</v>
+      </c>
+      <c r="F11">
+        <v>80</v>
+      </c>
+      <c r="G11">
+        <v>25</v>
+      </c>
+      <c r="H11">
+        <v>30</v>
+      </c>
+      <c r="I11">
+        <v>120</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>225</v>
+      </c>
+      <c r="B12" t="s">
+        <v>221</v>
+      </c>
+      <c r="C12" t="s">
+        <v>222</v>
+      </c>
+      <c r="D12">
+        <v>1000</v>
+      </c>
+      <c r="E12">
+        <v>1500</v>
+      </c>
+      <c r="F12">
+        <v>150</v>
+      </c>
+      <c r="G12">
+        <v>30</v>
+      </c>
+      <c r="H12">
+        <v>55</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>225</v>
+      </c>
+      <c r="B13" t="s">
+        <v>221</v>
+      </c>
+      <c r="C13" t="s">
+        <v>223</v>
+      </c>
+      <c r="D13">
+        <v>2000</v>
+      </c>
+      <c r="E13">
+        <v>3000</v>
+      </c>
+      <c r="F13">
+        <v>120</v>
+      </c>
+      <c r="G13">
+        <v>25</v>
+      </c>
+      <c r="H13">
+        <v>50</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>225</v>
+      </c>
+      <c r="B14" t="s">
+        <v>224</v>
+      </c>
+      <c r="C14" t="s">
+        <v>222</v>
+      </c>
+      <c r="D14">
+        <v>1000</v>
+      </c>
+      <c r="E14">
+        <v>1500</v>
+      </c>
+      <c r="F14">
+        <v>150</v>
+      </c>
+      <c r="G14">
+        <v>30</v>
+      </c>
+      <c r="H14">
+        <v>55</v>
+      </c>
+      <c r="I14">
+        <v>130</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>225</v>
+      </c>
+      <c r="B15" t="s">
+        <v>224</v>
+      </c>
+      <c r="C15" t="s">
+        <v>223</v>
+      </c>
+      <c r="D15">
+        <v>2000</v>
+      </c>
+      <c r="E15">
+        <v>3000</v>
+      </c>
+      <c r="F15">
+        <v>120</v>
+      </c>
+      <c r="G15">
+        <v>25</v>
+      </c>
+      <c r="H15">
+        <v>50</v>
+      </c>
+      <c r="I15">
+        <v>160</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>226</v>
+      </c>
+      <c r="B16" t="s">
+        <v>221</v>
+      </c>
+      <c r="C16" t="s">
+        <v>222</v>
+      </c>
+      <c r="D16">
+        <v>1000</v>
+      </c>
+      <c r="E16">
+        <v>1500</v>
+      </c>
+      <c r="F16">
+        <v>250</v>
+      </c>
+      <c r="G16">
+        <v>50</v>
+      </c>
+      <c r="H16">
+        <v>50</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>226</v>
+      </c>
+      <c r="B17" t="s">
+        <v>221</v>
+      </c>
+      <c r="C17" t="s">
+        <v>223</v>
+      </c>
+      <c r="D17">
+        <v>2000</v>
+      </c>
+      <c r="E17">
+        <v>3000</v>
+      </c>
+      <c r="F17">
+        <v>200</v>
+      </c>
+      <c r="G17">
+        <v>45</v>
+      </c>
+      <c r="H17">
+        <v>45</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>226</v>
+      </c>
+      <c r="B18" t="s">
+        <v>224</v>
+      </c>
+      <c r="C18" t="s">
+        <v>222</v>
+      </c>
+      <c r="D18">
+        <v>1000</v>
+      </c>
+      <c r="E18">
+        <v>1500</v>
+      </c>
+      <c r="F18">
+        <v>250</v>
+      </c>
+      <c r="G18">
+        <v>50</v>
+      </c>
+      <c r="H18">
+        <v>50</v>
+      </c>
+      <c r="I18">
+        <v>200</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>226</v>
+      </c>
+      <c r="B19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C19" t="s">
+        <v>223</v>
+      </c>
+      <c r="D19">
+        <v>2000</v>
+      </c>
+      <c r="E19">
+        <v>3000</v>
+      </c>
+      <c r="F19">
+        <v>200</v>
+      </c>
+      <c r="G19">
+        <v>45</v>
+      </c>
+      <c r="H19">
+        <v>45</v>
+      </c>
+      <c r="I19">
+        <v>240</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K19">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/AA怪物文档/moster_data.xlsx
+++ b/AA怪物文档/moster_data.xlsx
@@ -9,16 +9,18 @@
   <sheets>
     <sheet name="config_moster_data" sheetId="1" r:id="rId1"/>
     <sheet name="属性类计算" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">属性类计算!$A$1:$K$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">config_moster_data!$A$1:$T$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">属性类计算!$A$1:$O$19</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="242">
   <si>
     <t/>
   </si>
@@ -44,6 +46,39 @@
     <t>是否物理</t>
   </si>
   <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>警戒范围_Max</t>
+  </si>
+  <si>
+    <t>警戒范围_Min</t>
+  </si>
+  <si>
+    <t>生命值</t>
+  </si>
+  <si>
+    <t>物理防御</t>
+  </si>
+  <si>
+    <t>法术防御</t>
+  </si>
+  <si>
+    <t>物理攻击</t>
+  </si>
+  <si>
+    <t>法术攻击</t>
+  </si>
+  <si>
+    <t>金币数量</t>
+  </si>
+  <si>
+    <t>经验值</t>
+  </si>
+  <si>
+    <t>移动速度</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -656,30 +691,6 @@
     <t>黄色坦克战士</t>
   </si>
   <si>
-    <t>警戒范围_Max</t>
-  </si>
-  <si>
-    <t>警戒范围_Min</t>
-  </si>
-  <si>
-    <t>生命值</t>
-  </si>
-  <si>
-    <t>物理防御</t>
-  </si>
-  <si>
-    <t>法术防御</t>
-  </si>
-  <si>
-    <t>物理攻击</t>
-  </si>
-  <si>
-    <t>法术攻击</t>
-  </si>
-  <si>
-    <t>移动速度</t>
-  </si>
-  <si>
     <t>小怪</t>
   </si>
   <si>
@@ -689,16 +700,52 @@
     <t>近战</t>
   </si>
   <si>
+    <t>110</t>
+  </si>
+  <si>
     <t>远程</t>
   </si>
   <si>
+    <t>100</t>
+  </si>
+  <si>
     <t>物理</t>
   </si>
   <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
     <t>精英</t>
   </si>
   <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
     <t>BOSS</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>311</t>
+  </si>
+  <si>
+    <t>301</t>
   </si>
 </sst>
 </file>
@@ -711,7 +758,14 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1188,16 +1242,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1206,119 +1257,122 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1326,6 +1380,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1672,10 +1727,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T104"/>
+  <dimension ref="A1:V104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1737,9 +1792,7 @@
       <c r="Q1" t="s">
         <v>0</v>
       </c>
-      <c r="R1" t="s">
-        <v>0</v>
-      </c>
+      <c r="R1"/>
       <c r="S1" t="s">
         <v>0</v>
       </c>
@@ -1747,7 +1800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:22">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1769,75 +1822,101 @@
       <c r="G2" t="s">
         <v>7</v>
       </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
+        <v>11</v>
+      </c>
       <c r="N2" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="O2" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="P2" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Q2" t="s">
-        <v>0</v>
-      </c>
-      <c r="R2" t="s">
-        <v>0</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="R2"/>
       <c r="S2" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="T2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
+        <v>17</v>
+      </c>
+      <c r="V2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" t="s">
-        <v>0</v>
-      </c>
-      <c r="O3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R3" t="s">
-        <v>0</v>
-      </c>
-      <c r="S3" t="s">
-        <v>0</v>
-      </c>
-      <c r="T3" t="s">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>0</v>
@@ -1863,30 +1942,28 @@
       <c r="J4" t="s">
         <v>0</v>
       </c>
-      <c r="K4" t="s">
-        <v>0</v>
-      </c>
-      <c r="L4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M4" t="s">
-        <v>0</v>
-      </c>
-      <c r="N4" t="s">
-        <v>0</v>
-      </c>
-      <c r="O4" t="s">
-        <v>0</v>
-      </c>
-      <c r="P4" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>0</v>
-      </c>
-      <c r="R4" t="s">
-        <v>0</v>
-      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>4</v>
+      </c>
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>6</v>
+      </c>
+      <c r="P4">
+        <v>7</v>
+      </c>
+      <c r="Q4">
+        <v>8</v>
+      </c>
+      <c r="R4"/>
       <c r="S4" t="s">
         <v>0</v>
       </c>
@@ -1894,15 +1971,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:22">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -1919,52 +1996,60 @@
       <c r="H5" t="s">
         <v>0</v>
       </c>
-      <c r="I5" t="s">
-        <v>0</v>
+      <c r="I5" t="str">
+        <f t="shared" ref="I5:I36" si="0">D5&amp;F5&amp;G5</f>
+        <v>100</v>
       </c>
       <c r="J5" t="s">
         <v>0</v>
       </c>
-      <c r="K5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L5" t="s">
-        <v>0</v>
-      </c>
-      <c r="M5" t="s">
-        <v>0</v>
-      </c>
-      <c r="N5" t="s">
-        <v>0</v>
-      </c>
-      <c r="O5" t="s">
-        <v>0</v>
-      </c>
-      <c r="P5" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>0</v>
-      </c>
-      <c r="R5" t="s">
-        <v>0</v>
-      </c>
-      <c r="S5" t="s">
-        <v>0</v>
-      </c>
-      <c r="T5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="K5">
+        <f>VLOOKUP($I5,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>1200</v>
+      </c>
+      <c r="L5">
+        <f>VLOOKUP($I5,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>2000</v>
+      </c>
+      <c r="M5">
+        <f>VLOOKUP($I5,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="N5">
+        <f>VLOOKUP($I5,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="O5">
+        <f>VLOOKUP($I5,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="P5">
+        <f>VLOOKUP($I5,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <f>VLOOKUP($I5,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="S5">
+        <v>10</v>
+      </c>
+      <c r="T5">
+        <v>10</v>
+      </c>
+      <c r="V5" s="3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -1981,52 +2066,60 @@
       <c r="H6" t="s">
         <v>0</v>
       </c>
-      <c r="I6" t="s">
-        <v>0</v>
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="J6" t="s">
         <v>0</v>
       </c>
-      <c r="K6" t="s">
-        <v>0</v>
-      </c>
-      <c r="L6" t="s">
-        <v>0</v>
-      </c>
-      <c r="M6" t="s">
-        <v>0</v>
-      </c>
-      <c r="N6" t="s">
-        <v>0</v>
-      </c>
-      <c r="O6" t="s">
-        <v>0</v>
-      </c>
-      <c r="P6" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>0</v>
-      </c>
-      <c r="R6" t="s">
-        <v>0</v>
-      </c>
-      <c r="S6" t="s">
-        <v>0</v>
-      </c>
-      <c r="T6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="K6">
+        <f>VLOOKUP($I6,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>1200</v>
+      </c>
+      <c r="L6">
+        <f>VLOOKUP($I6,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>2000</v>
+      </c>
+      <c r="M6">
+        <f>VLOOKUP($I6,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="N6">
+        <f>VLOOKUP($I6,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="O6">
+        <f>VLOOKUP($I6,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="P6">
+        <f>VLOOKUP($I6,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f>VLOOKUP($I6,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="S6">
+        <v>10</v>
+      </c>
+      <c r="T6">
+        <v>10</v>
+      </c>
+      <c r="V6" s="3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -2043,52 +2136,60 @@
       <c r="H7" t="s">
         <v>0</v>
       </c>
-      <c r="I7" t="s">
-        <v>0</v>
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="J7" t="s">
         <v>0</v>
       </c>
-      <c r="K7" t="s">
-        <v>0</v>
-      </c>
-      <c r="L7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M7" t="s">
-        <v>0</v>
-      </c>
-      <c r="N7" t="s">
-        <v>0</v>
-      </c>
-      <c r="O7" t="s">
-        <v>0</v>
-      </c>
-      <c r="P7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>0</v>
-      </c>
-      <c r="R7" t="s">
-        <v>0</v>
-      </c>
-      <c r="S7" t="s">
-        <v>0</v>
-      </c>
-      <c r="T7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="K7">
+        <f>VLOOKUP($I7,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>1200</v>
+      </c>
+      <c r="L7">
+        <f>VLOOKUP($I7,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>2000</v>
+      </c>
+      <c r="M7">
+        <f>VLOOKUP($I7,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="N7">
+        <f>VLOOKUP($I7,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="O7">
+        <f>VLOOKUP($I7,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="P7">
+        <f>VLOOKUP($I7,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f>VLOOKUP($I7,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="S7">
+        <v>10</v>
+      </c>
+      <c r="T7">
+        <v>10</v>
+      </c>
+      <c r="V7" s="3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -2105,52 +2206,60 @@
       <c r="H8" t="s">
         <v>0</v>
       </c>
-      <c r="I8" t="s">
-        <v>0</v>
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>111</v>
       </c>
       <c r="J8" t="s">
         <v>0</v>
       </c>
-      <c r="K8" t="s">
-        <v>0</v>
-      </c>
-      <c r="L8" t="s">
-        <v>0</v>
-      </c>
-      <c r="M8" t="s">
-        <v>0</v>
-      </c>
-      <c r="N8" t="s">
-        <v>0</v>
-      </c>
-      <c r="O8" t="s">
-        <v>0</v>
-      </c>
-      <c r="P8" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>0</v>
-      </c>
-      <c r="R8" t="s">
-        <v>0</v>
-      </c>
-      <c r="S8" t="s">
-        <v>0</v>
-      </c>
-      <c r="T8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="K8">
+        <f>VLOOKUP($I8,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>600</v>
+      </c>
+      <c r="L8">
+        <f>VLOOKUP($I8,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1200</v>
+      </c>
+      <c r="M8">
+        <f>VLOOKUP($I8,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="N8">
+        <f>VLOOKUP($I8,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="O8">
+        <f>VLOOKUP($I8,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="P8">
+        <f>VLOOKUP($I8,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="Q8">
+        <f>VLOOKUP($I8,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>10</v>
+      </c>
+      <c r="T8">
+        <v>10</v>
+      </c>
+      <c r="V8" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="1">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -2167,52 +2276,60 @@
       <c r="H9" t="s">
         <v>0</v>
       </c>
-      <c r="I9" t="s">
-        <v>0</v>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="J9" t="s">
         <v>0</v>
       </c>
-      <c r="K9" t="s">
-        <v>0</v>
-      </c>
-      <c r="L9" t="s">
-        <v>0</v>
-      </c>
-      <c r="M9" t="s">
-        <v>0</v>
-      </c>
-      <c r="N9" t="s">
-        <v>0</v>
-      </c>
-      <c r="O9" t="s">
-        <v>0</v>
-      </c>
-      <c r="P9" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>0</v>
-      </c>
-      <c r="R9" t="s">
-        <v>0</v>
-      </c>
-      <c r="S9" t="s">
-        <v>0</v>
-      </c>
-      <c r="T9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="K9">
+        <f>VLOOKUP($I9,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>1200</v>
+      </c>
+      <c r="L9">
+        <f>VLOOKUP($I9,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>2000</v>
+      </c>
+      <c r="M9">
+        <f>VLOOKUP($I9,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="N9">
+        <f>VLOOKUP($I9,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="O9">
+        <f>VLOOKUP($I9,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="P9">
+        <f>VLOOKUP($I9,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <f>VLOOKUP($I9,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="S9">
+        <v>10</v>
+      </c>
+      <c r="T9">
+        <v>10</v>
+      </c>
+      <c r="V9" s="3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="1">
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -2229,52 +2346,60 @@
       <c r="H10" t="s">
         <v>0</v>
       </c>
-      <c r="I10" t="s">
-        <v>0</v>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="J10" t="s">
         <v>0</v>
       </c>
-      <c r="K10" t="s">
-        <v>0</v>
-      </c>
-      <c r="L10" t="s">
-        <v>0</v>
-      </c>
-      <c r="M10" t="s">
-        <v>0</v>
-      </c>
-      <c r="N10" t="s">
-        <v>0</v>
-      </c>
-      <c r="O10" t="s">
-        <v>0</v>
-      </c>
-      <c r="P10" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>0</v>
-      </c>
-      <c r="R10" t="s">
-        <v>0</v>
-      </c>
-      <c r="S10" t="s">
-        <v>0</v>
-      </c>
-      <c r="T10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
+      <c r="K10">
+        <f>VLOOKUP($I10,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>1200</v>
+      </c>
+      <c r="L10">
+        <f>VLOOKUP($I10,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>2000</v>
+      </c>
+      <c r="M10">
+        <f>VLOOKUP($I10,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="N10">
+        <f>VLOOKUP($I10,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="O10">
+        <f>VLOOKUP($I10,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="P10">
+        <f>VLOOKUP($I10,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <f>VLOOKUP($I10,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="S10">
+        <v>10</v>
+      </c>
+      <c r="T10">
+        <v>10</v>
+      </c>
+      <c r="V10" s="3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="1">
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -2291,52 +2416,60 @@
       <c r="H11" t="s">
         <v>0</v>
       </c>
-      <c r="I11" t="s">
-        <v>0</v>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>111</v>
       </c>
       <c r="J11" t="s">
         <v>0</v>
       </c>
-      <c r="K11" t="s">
-        <v>0</v>
-      </c>
-      <c r="L11" t="s">
-        <v>0</v>
-      </c>
-      <c r="M11" t="s">
-        <v>0</v>
-      </c>
-      <c r="N11" t="s">
-        <v>0</v>
-      </c>
-      <c r="O11" t="s">
-        <v>0</v>
-      </c>
-      <c r="P11" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>0</v>
-      </c>
-      <c r="R11" t="s">
-        <v>0</v>
-      </c>
-      <c r="S11" t="s">
-        <v>0</v>
-      </c>
-      <c r="T11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="K11">
+        <f>VLOOKUP($I11,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>600</v>
+      </c>
+      <c r="L11">
+        <f>VLOOKUP($I11,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1200</v>
+      </c>
+      <c r="M11">
+        <f>VLOOKUP($I11,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="N11">
+        <f>VLOOKUP($I11,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="O11">
+        <f>VLOOKUP($I11,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="P11">
+        <f>VLOOKUP($I11,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="Q11">
+        <f>VLOOKUP($I11,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>10</v>
+      </c>
+      <c r="T11">
+        <v>10</v>
+      </c>
+      <c r="V11" s="3">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="1">
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
@@ -2353,52 +2486,60 @@
       <c r="H12" t="s">
         <v>0</v>
       </c>
-      <c r="I12" t="s">
-        <v>0</v>
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
+        <v>200</v>
       </c>
       <c r="J12" t="s">
         <v>0</v>
       </c>
-      <c r="K12" t="s">
-        <v>0</v>
-      </c>
-      <c r="L12" t="s">
-        <v>0</v>
-      </c>
-      <c r="M12" t="s">
-        <v>0</v>
-      </c>
-      <c r="N12" t="s">
-        <v>0</v>
-      </c>
-      <c r="O12" t="s">
-        <v>0</v>
-      </c>
-      <c r="P12" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>0</v>
-      </c>
-      <c r="R12" t="s">
-        <v>0</v>
-      </c>
-      <c r="S12" t="s">
-        <v>0</v>
-      </c>
-      <c r="T12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
+      <c r="K12">
+        <f>VLOOKUP($I12,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>2000</v>
+      </c>
+      <c r="L12">
+        <f>VLOOKUP($I12,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>3000</v>
+      </c>
+      <c r="M12">
+        <f>VLOOKUP($I12,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>120</v>
+      </c>
+      <c r="N12">
+        <f>VLOOKUP($I12,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="O12">
+        <f>VLOOKUP($I12,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="P12">
+        <f>VLOOKUP($I12,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f>VLOOKUP($I12,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>180</v>
+      </c>
+      <c r="S12">
+        <v>50</v>
+      </c>
+      <c r="T12">
+        <v>30</v>
+      </c>
+      <c r="V12" s="3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="1">
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D13" s="1">
         <v>2</v>
@@ -2415,52 +2556,60 @@
       <c r="H13" t="s">
         <v>0</v>
       </c>
-      <c r="I13" t="s">
-        <v>0</v>
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
+        <v>211</v>
       </c>
       <c r="J13" t="s">
         <v>0</v>
       </c>
-      <c r="K13" t="s">
-        <v>0</v>
-      </c>
-      <c r="L13" t="s">
-        <v>0</v>
-      </c>
-      <c r="M13" t="s">
-        <v>0</v>
-      </c>
-      <c r="N13" t="s">
-        <v>0</v>
-      </c>
-      <c r="O13" t="s">
-        <v>0</v>
-      </c>
-      <c r="P13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>0</v>
-      </c>
-      <c r="R13" t="s">
-        <v>0</v>
-      </c>
-      <c r="S13" t="s">
-        <v>0</v>
-      </c>
-      <c r="T13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
+      <c r="K13">
+        <f>VLOOKUP($I13,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>1000</v>
+      </c>
+      <c r="L13">
+        <f>VLOOKUP($I13,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1500</v>
+      </c>
+      <c r="M13">
+        <f>VLOOKUP($I13,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>150</v>
+      </c>
+      <c r="N13">
+        <f>VLOOKUP($I13,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="O13">
+        <f>VLOOKUP($I13,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="P13">
+        <f>VLOOKUP($I13,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="Q13">
+        <f>VLOOKUP($I13,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>50</v>
+      </c>
+      <c r="T13">
+        <v>30</v>
+      </c>
+      <c r="V13" s="3">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="1">
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D14" s="1">
         <v>2</v>
@@ -2477,52 +2626,60 @@
       <c r="H14" t="s">
         <v>0</v>
       </c>
-      <c r="I14" t="s">
-        <v>0</v>
+      <c r="I14" t="str">
+        <f t="shared" si="0"/>
+        <v>211</v>
       </c>
       <c r="J14" t="s">
         <v>0</v>
       </c>
-      <c r="K14" t="s">
-        <v>0</v>
-      </c>
-      <c r="L14" t="s">
-        <v>0</v>
-      </c>
-      <c r="M14" t="s">
-        <v>0</v>
-      </c>
-      <c r="N14" t="s">
-        <v>0</v>
-      </c>
-      <c r="O14" t="s">
-        <v>0</v>
-      </c>
-      <c r="P14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>0</v>
-      </c>
-      <c r="R14" t="s">
-        <v>0</v>
-      </c>
-      <c r="S14" t="s">
-        <v>0</v>
-      </c>
-      <c r="T14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
+      <c r="K14">
+        <f>VLOOKUP($I14,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>1000</v>
+      </c>
+      <c r="L14">
+        <f>VLOOKUP($I14,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1500</v>
+      </c>
+      <c r="M14">
+        <f>VLOOKUP($I14,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>150</v>
+      </c>
+      <c r="N14">
+        <f>VLOOKUP($I14,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="O14">
+        <f>VLOOKUP($I14,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="P14">
+        <f>VLOOKUP($I14,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="Q14">
+        <f>VLOOKUP($I14,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>50</v>
+      </c>
+      <c r="T14">
+        <v>30</v>
+      </c>
+      <c r="V14" s="3">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="1">
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D15" s="1">
         <v>3</v>
@@ -2539,114 +2696,130 @@
       <c r="H15" t="s">
         <v>0</v>
       </c>
-      <c r="I15" t="s">
-        <v>0</v>
+      <c r="I15" t="str">
+        <f t="shared" si="0"/>
+        <v>300</v>
       </c>
       <c r="J15" t="s">
         <v>0</v>
       </c>
-      <c r="K15" t="s">
-        <v>0</v>
-      </c>
-      <c r="L15" t="s">
-        <v>0</v>
-      </c>
-      <c r="M15" t="s">
-        <v>0</v>
-      </c>
-      <c r="N15" t="s">
-        <v>0</v>
-      </c>
-      <c r="O15" t="s">
-        <v>0</v>
-      </c>
-      <c r="P15" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>0</v>
-      </c>
-      <c r="R15" t="s">
-        <v>0</v>
-      </c>
-      <c r="S15" t="s">
-        <v>0</v>
-      </c>
-      <c r="T15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
+      <c r="K15">
+        <f>VLOOKUP($I15,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>2000</v>
+      </c>
+      <c r="L15">
+        <f>VLOOKUP($I15,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>3000</v>
+      </c>
+      <c r="M15">
+        <f>VLOOKUP($I15,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>200</v>
+      </c>
+      <c r="N15">
+        <f>VLOOKUP($I15,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>45</v>
+      </c>
+      <c r="O15">
+        <f>VLOOKUP($I15,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>45</v>
+      </c>
+      <c r="P15">
+        <f>VLOOKUP($I15,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <f>VLOOKUP($I15,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>300</v>
+      </c>
+      <c r="S15">
+        <v>100</v>
+      </c>
+      <c r="T15">
+        <v>80</v>
+      </c>
+      <c r="V15" s="3">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="1">
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="0"/>
+        <v>111</v>
+      </c>
+      <c r="J16" t="s">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f>VLOOKUP($I16,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>600</v>
+      </c>
+      <c r="L16">
+        <f>VLOOKUP($I16,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1200</v>
+      </c>
+      <c r="M16">
+        <f>VLOOKUP($I16,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="N16">
+        <f>VLOOKUP($I16,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="O16">
+        <f>VLOOKUP($I16,属性类计算!$G:$O,O$4,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16" t="s">
-        <v>0</v>
-      </c>
-      <c r="I16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J16" t="s">
-        <v>0</v>
-      </c>
-      <c r="K16" t="s">
-        <v>0</v>
-      </c>
-      <c r="L16" t="s">
-        <v>0</v>
-      </c>
-      <c r="M16" t="s">
-        <v>0</v>
-      </c>
-      <c r="N16" t="s">
-        <v>0</v>
-      </c>
-      <c r="O16" t="s">
-        <v>0</v>
-      </c>
-      <c r="P16" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>0</v>
-      </c>
-      <c r="R16" t="s">
-        <v>0</v>
-      </c>
-      <c r="S16" t="s">
-        <v>0</v>
-      </c>
-      <c r="T16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
+      <c r="P16">
+        <f>VLOOKUP($I16,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="Q16">
+        <f>VLOOKUP($I16,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>10</v>
+      </c>
+      <c r="T16">
+        <v>10</v>
+      </c>
+      <c r="V16" s="3">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="1">
         <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -2663,52 +2836,60 @@
       <c r="H17" t="s">
         <v>0</v>
       </c>
-      <c r="I17" t="s">
-        <v>0</v>
+      <c r="I17" t="str">
+        <f t="shared" si="0"/>
+        <v>111</v>
       </c>
       <c r="J17" t="s">
         <v>0</v>
       </c>
-      <c r="K17" t="s">
-        <v>0</v>
-      </c>
-      <c r="L17" t="s">
-        <v>0</v>
-      </c>
-      <c r="M17" t="s">
-        <v>0</v>
-      </c>
-      <c r="N17" t="s">
-        <v>0</v>
-      </c>
-      <c r="O17" t="s">
-        <v>0</v>
-      </c>
-      <c r="P17" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>0</v>
-      </c>
-      <c r="R17" t="s">
-        <v>0</v>
-      </c>
-      <c r="S17" t="s">
-        <v>0</v>
-      </c>
-      <c r="T17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
+      <c r="K17">
+        <f>VLOOKUP($I17,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>600</v>
+      </c>
+      <c r="L17">
+        <f>VLOOKUP($I17,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1200</v>
+      </c>
+      <c r="M17">
+        <f>VLOOKUP($I17,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="N17">
+        <f>VLOOKUP($I17,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="O17">
+        <f>VLOOKUP($I17,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="P17">
+        <f>VLOOKUP($I17,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="Q17">
+        <f>VLOOKUP($I17,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>10</v>
+      </c>
+      <c r="T17">
+        <v>10</v>
+      </c>
+      <c r="V17" s="3">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="1">
         <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D18" s="1">
         <v>2</v>
@@ -2725,52 +2906,60 @@
       <c r="H18" t="s">
         <v>0</v>
       </c>
-      <c r="I18" t="s">
-        <v>0</v>
+      <c r="I18" t="str">
+        <f t="shared" si="0"/>
+        <v>211</v>
       </c>
       <c r="J18" t="s">
         <v>0</v>
       </c>
-      <c r="K18" t="s">
-        <v>0</v>
-      </c>
-      <c r="L18" t="s">
-        <v>0</v>
-      </c>
-      <c r="M18" t="s">
-        <v>0</v>
-      </c>
-      <c r="N18" t="s">
-        <v>0</v>
-      </c>
-      <c r="O18" t="s">
-        <v>0</v>
-      </c>
-      <c r="P18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>0</v>
-      </c>
-      <c r="R18" t="s">
-        <v>0</v>
-      </c>
-      <c r="S18" t="s">
-        <v>0</v>
-      </c>
-      <c r="T18" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
+      <c r="K18">
+        <f>VLOOKUP($I18,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>1000</v>
+      </c>
+      <c r="L18">
+        <f>VLOOKUP($I18,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1500</v>
+      </c>
+      <c r="M18">
+        <f>VLOOKUP($I18,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>150</v>
+      </c>
+      <c r="N18">
+        <f>VLOOKUP($I18,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="O18">
+        <f>VLOOKUP($I18,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="P18">
+        <f>VLOOKUP($I18,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="Q18">
+        <f>VLOOKUP($I18,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>50</v>
+      </c>
+      <c r="T18">
+        <v>30</v>
+      </c>
+      <c r="V18" s="3">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" s="1">
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D19" s="1">
         <v>2</v>
@@ -2787,52 +2976,60 @@
       <c r="H19" t="s">
         <v>0</v>
       </c>
-      <c r="I19" t="s">
-        <v>0</v>
+      <c r="I19" t="str">
+        <f t="shared" si="0"/>
+        <v>201</v>
       </c>
       <c r="J19" t="s">
         <v>0</v>
       </c>
-      <c r="K19" t="s">
-        <v>0</v>
-      </c>
-      <c r="L19" t="s">
-        <v>0</v>
-      </c>
-      <c r="M19" t="s">
-        <v>0</v>
-      </c>
-      <c r="N19" t="s">
-        <v>0</v>
-      </c>
-      <c r="O19" t="s">
-        <v>0</v>
-      </c>
-      <c r="P19" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>0</v>
-      </c>
-      <c r="R19" t="s">
-        <v>0</v>
-      </c>
-      <c r="S19" t="s">
-        <v>0</v>
-      </c>
-      <c r="T19" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
+      <c r="K19">
+        <f>VLOOKUP($I19,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>2000</v>
+      </c>
+      <c r="L19">
+        <f>VLOOKUP($I19,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>3000</v>
+      </c>
+      <c r="M19">
+        <f>VLOOKUP($I19,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>120</v>
+      </c>
+      <c r="N19">
+        <f>VLOOKUP($I19,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="O19">
+        <f>VLOOKUP($I19,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="P19">
+        <f>VLOOKUP($I19,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>160</v>
+      </c>
+      <c r="Q19">
+        <f>VLOOKUP($I19,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>50</v>
+      </c>
+      <c r="T19">
+        <v>30</v>
+      </c>
+      <c r="V19" s="3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" s="1">
         <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D20" s="1">
         <v>2</v>
@@ -2849,52 +3046,60 @@
       <c r="H20" t="s">
         <v>0</v>
       </c>
-      <c r="I20" t="s">
-        <v>0</v>
+      <c r="I20" t="str">
+        <f t="shared" si="0"/>
+        <v>211</v>
       </c>
       <c r="J20" t="s">
         <v>0</v>
       </c>
-      <c r="K20" t="s">
-        <v>0</v>
-      </c>
-      <c r="L20" t="s">
-        <v>0</v>
-      </c>
-      <c r="M20" t="s">
-        <v>0</v>
-      </c>
-      <c r="N20" t="s">
-        <v>0</v>
-      </c>
-      <c r="O20" t="s">
-        <v>0</v>
-      </c>
-      <c r="P20" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>0</v>
-      </c>
-      <c r="R20" t="s">
-        <v>0</v>
-      </c>
-      <c r="S20" t="s">
-        <v>0</v>
-      </c>
-      <c r="T20" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
+      <c r="K20">
+        <f>VLOOKUP($I20,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>1000</v>
+      </c>
+      <c r="L20">
+        <f>VLOOKUP($I20,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1500</v>
+      </c>
+      <c r="M20">
+        <f>VLOOKUP($I20,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>150</v>
+      </c>
+      <c r="N20">
+        <f>VLOOKUP($I20,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="O20">
+        <f>VLOOKUP($I20,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="P20">
+        <f>VLOOKUP($I20,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="Q20">
+        <f>VLOOKUP($I20,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>50</v>
+      </c>
+      <c r="T20">
+        <v>30</v>
+      </c>
+      <c r="V20" s="3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" s="1">
         <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D21" s="1">
         <v>2</v>
@@ -2911,52 +3116,60 @@
       <c r="H21" t="s">
         <v>0</v>
       </c>
-      <c r="I21" t="s">
-        <v>0</v>
+      <c r="I21" t="str">
+        <f t="shared" si="0"/>
+        <v>211</v>
       </c>
       <c r="J21" t="s">
         <v>0</v>
       </c>
-      <c r="K21" t="s">
-        <v>0</v>
-      </c>
-      <c r="L21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M21" t="s">
-        <v>0</v>
-      </c>
-      <c r="N21" t="s">
-        <v>0</v>
-      </c>
-      <c r="O21" t="s">
-        <v>0</v>
-      </c>
-      <c r="P21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R21" t="s">
-        <v>0</v>
-      </c>
-      <c r="S21" t="s">
-        <v>0</v>
-      </c>
-      <c r="T21" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
+      <c r="K21">
+        <f>VLOOKUP($I21,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>1000</v>
+      </c>
+      <c r="L21">
+        <f>VLOOKUP($I21,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1500</v>
+      </c>
+      <c r="M21">
+        <f>VLOOKUP($I21,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>150</v>
+      </c>
+      <c r="N21">
+        <f>VLOOKUP($I21,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="O21">
+        <f>VLOOKUP($I21,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="P21">
+        <f>VLOOKUP($I21,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="Q21">
+        <f>VLOOKUP($I21,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>50</v>
+      </c>
+      <c r="T21">
+        <v>30</v>
+      </c>
+      <c r="V21" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" s="1">
         <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D22" s="1">
         <v>2</v>
@@ -2973,52 +3186,60 @@
       <c r="H22" t="s">
         <v>0</v>
       </c>
-      <c r="I22" t="s">
-        <v>0</v>
+      <c r="I22" t="str">
+        <f t="shared" si="0"/>
+        <v>211</v>
       </c>
       <c r="J22" t="s">
         <v>0</v>
       </c>
-      <c r="K22" t="s">
-        <v>0</v>
-      </c>
-      <c r="L22" t="s">
-        <v>0</v>
-      </c>
-      <c r="M22" t="s">
-        <v>0</v>
-      </c>
-      <c r="N22" t="s">
-        <v>0</v>
-      </c>
-      <c r="O22" t="s">
-        <v>0</v>
-      </c>
-      <c r="P22" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>0</v>
-      </c>
-      <c r="R22" t="s">
-        <v>0</v>
-      </c>
-      <c r="S22" t="s">
-        <v>0</v>
-      </c>
-      <c r="T22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
+      <c r="K22">
+        <f>VLOOKUP($I22,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>1000</v>
+      </c>
+      <c r="L22">
+        <f>VLOOKUP($I22,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1500</v>
+      </c>
+      <c r="M22">
+        <f>VLOOKUP($I22,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>150</v>
+      </c>
+      <c r="N22">
+        <f>VLOOKUP($I22,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="O22">
+        <f>VLOOKUP($I22,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="P22">
+        <f>VLOOKUP($I22,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="Q22">
+        <f>VLOOKUP($I22,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>50</v>
+      </c>
+      <c r="T22">
+        <v>30</v>
+      </c>
+      <c r="V22" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" s="1">
         <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
@@ -3035,52 +3256,60 @@
       <c r="H23" t="s">
         <v>0</v>
       </c>
-      <c r="I23" t="s">
-        <v>0</v>
+      <c r="I23" t="str">
+        <f t="shared" si="0"/>
+        <v>111</v>
       </c>
       <c r="J23" t="s">
         <v>0</v>
       </c>
-      <c r="K23" t="s">
-        <v>0</v>
-      </c>
-      <c r="L23" t="s">
-        <v>0</v>
-      </c>
-      <c r="M23" t="s">
-        <v>0</v>
-      </c>
-      <c r="N23" t="s">
-        <v>0</v>
-      </c>
-      <c r="O23" t="s">
-        <v>0</v>
-      </c>
-      <c r="P23" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>0</v>
-      </c>
-      <c r="R23" t="s">
-        <v>0</v>
-      </c>
-      <c r="S23" t="s">
-        <v>0</v>
-      </c>
-      <c r="T23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
+      <c r="K23">
+        <f>VLOOKUP($I23,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>600</v>
+      </c>
+      <c r="L23">
+        <f>VLOOKUP($I23,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1200</v>
+      </c>
+      <c r="M23">
+        <f>VLOOKUP($I23,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="N23">
+        <f>VLOOKUP($I23,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="O23">
+        <f>VLOOKUP($I23,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="P23">
+        <f>VLOOKUP($I23,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="Q23">
+        <f>VLOOKUP($I23,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>10</v>
+      </c>
+      <c r="T23">
+        <v>10</v>
+      </c>
+      <c r="V23" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" s="1">
         <v>20</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
@@ -3097,52 +3326,60 @@
       <c r="H24" t="s">
         <v>0</v>
       </c>
-      <c r="I24" t="s">
-        <v>0</v>
+      <c r="I24" t="str">
+        <f t="shared" si="0"/>
+        <v>111</v>
       </c>
       <c r="J24" t="s">
         <v>0</v>
       </c>
-      <c r="K24" t="s">
-        <v>0</v>
-      </c>
-      <c r="L24" t="s">
-        <v>0</v>
-      </c>
-      <c r="M24" t="s">
-        <v>0</v>
-      </c>
-      <c r="N24" t="s">
-        <v>0</v>
-      </c>
-      <c r="O24" t="s">
-        <v>0</v>
-      </c>
-      <c r="P24" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>0</v>
-      </c>
-      <c r="R24" t="s">
-        <v>0</v>
-      </c>
-      <c r="S24" t="s">
-        <v>0</v>
-      </c>
-      <c r="T24" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
+      <c r="K24">
+        <f>VLOOKUP($I24,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>600</v>
+      </c>
+      <c r="L24">
+        <f>VLOOKUP($I24,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1200</v>
+      </c>
+      <c r="M24">
+        <f>VLOOKUP($I24,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="N24">
+        <f>VLOOKUP($I24,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="O24">
+        <f>VLOOKUP($I24,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="P24">
+        <f>VLOOKUP($I24,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="Q24">
+        <f>VLOOKUP($I24,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>10</v>
+      </c>
+      <c r="T24">
+        <v>10</v>
+      </c>
+      <c r="V24" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" s="1">
         <v>21</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="D25" s="1">
         <v>2</v>
@@ -3159,52 +3396,60 @@
       <c r="H25" t="s">
         <v>0</v>
       </c>
-      <c r="I25" t="s">
-        <v>0</v>
+      <c r="I25" t="str">
+        <f t="shared" si="0"/>
+        <v>210</v>
       </c>
       <c r="J25" t="s">
         <v>0</v>
       </c>
-      <c r="K25" t="s">
-        <v>0</v>
-      </c>
-      <c r="L25" t="s">
-        <v>0</v>
-      </c>
-      <c r="M25" t="s">
-        <v>0</v>
-      </c>
-      <c r="N25" t="s">
-        <v>0</v>
-      </c>
-      <c r="O25" t="s">
-        <v>0</v>
-      </c>
-      <c r="P25" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>0</v>
-      </c>
-      <c r="R25" t="s">
-        <v>0</v>
-      </c>
-      <c r="S25" t="s">
-        <v>0</v>
-      </c>
-      <c r="T25" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
+      <c r="K25">
+        <f>VLOOKUP($I25,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>1000</v>
+      </c>
+      <c r="L25">
+        <f>VLOOKUP($I25,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1500</v>
+      </c>
+      <c r="M25">
+        <f>VLOOKUP($I25,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>150</v>
+      </c>
+      <c r="N25">
+        <f>VLOOKUP($I25,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="O25">
+        <f>VLOOKUP($I25,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="P25">
+        <f>VLOOKUP($I25,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <f>VLOOKUP($I25,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>150</v>
+      </c>
+      <c r="S25">
+        <v>50</v>
+      </c>
+      <c r="T25">
+        <v>30</v>
+      </c>
+      <c r="V25" s="3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" s="1">
         <v>22</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D26" s="1">
         <v>2</v>
@@ -3221,52 +3466,60 @@
       <c r="H26" t="s">
         <v>0</v>
       </c>
-      <c r="I26" t="s">
-        <v>0</v>
+      <c r="I26" t="str">
+        <f t="shared" si="0"/>
+        <v>211</v>
       </c>
       <c r="J26" t="s">
         <v>0</v>
       </c>
-      <c r="K26" t="s">
-        <v>0</v>
-      </c>
-      <c r="L26" t="s">
-        <v>0</v>
-      </c>
-      <c r="M26" t="s">
-        <v>0</v>
-      </c>
-      <c r="N26" t="s">
-        <v>0</v>
-      </c>
-      <c r="O26" t="s">
-        <v>0</v>
-      </c>
-      <c r="P26" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>0</v>
-      </c>
-      <c r="R26" t="s">
-        <v>0</v>
-      </c>
-      <c r="S26" t="s">
-        <v>0</v>
-      </c>
-      <c r="T26" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
+      <c r="K26">
+        <f>VLOOKUP($I26,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>1000</v>
+      </c>
+      <c r="L26">
+        <f>VLOOKUP($I26,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1500</v>
+      </c>
+      <c r="M26">
+        <f>VLOOKUP($I26,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>150</v>
+      </c>
+      <c r="N26">
+        <f>VLOOKUP($I26,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="O26">
+        <f>VLOOKUP($I26,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="P26">
+        <f>VLOOKUP($I26,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="Q26">
+        <f>VLOOKUP($I26,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>50</v>
+      </c>
+      <c r="T26">
+        <v>30</v>
+      </c>
+      <c r="V26" s="3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" s="1">
         <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
@@ -3283,52 +3536,60 @@
       <c r="H27" t="s">
         <v>0</v>
       </c>
-      <c r="I27" t="s">
-        <v>0</v>
+      <c r="I27" t="str">
+        <f t="shared" si="0"/>
+        <v>101</v>
       </c>
       <c r="J27" t="s">
         <v>0</v>
       </c>
-      <c r="K27" t="s">
-        <v>0</v>
-      </c>
-      <c r="L27" t="s">
-        <v>0</v>
-      </c>
-      <c r="M27" t="s">
-        <v>0</v>
-      </c>
-      <c r="N27" t="s">
-        <v>0</v>
-      </c>
-      <c r="O27" t="s">
-        <v>0</v>
-      </c>
-      <c r="P27" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>0</v>
-      </c>
-      <c r="R27" t="s">
-        <v>0</v>
-      </c>
-      <c r="S27" t="s">
-        <v>0</v>
-      </c>
-      <c r="T27" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
+      <c r="K27">
+        <f>VLOOKUP($I27,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>1200</v>
+      </c>
+      <c r="L27">
+        <f>VLOOKUP($I27,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>2000</v>
+      </c>
+      <c r="M27">
+        <f>VLOOKUP($I27,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="N27">
+        <f>VLOOKUP($I27,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="O27">
+        <f>VLOOKUP($I27,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="P27">
+        <f>VLOOKUP($I27,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>120</v>
+      </c>
+      <c r="Q27">
+        <f>VLOOKUP($I27,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>10</v>
+      </c>
+      <c r="T27">
+        <v>10</v>
+      </c>
+      <c r="V27" s="3">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" s="1">
         <v>24</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
@@ -3345,52 +3606,60 @@
       <c r="H28" t="s">
         <v>0</v>
       </c>
-      <c r="I28" t="s">
-        <v>0</v>
+      <c r="I28" t="str">
+        <f t="shared" si="0"/>
+        <v>101</v>
       </c>
       <c r="J28" t="s">
         <v>0</v>
       </c>
-      <c r="K28" t="s">
-        <v>0</v>
-      </c>
-      <c r="L28" t="s">
-        <v>0</v>
-      </c>
-      <c r="M28" t="s">
-        <v>0</v>
-      </c>
-      <c r="N28" t="s">
-        <v>0</v>
-      </c>
-      <c r="O28" t="s">
-        <v>0</v>
-      </c>
-      <c r="P28" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>0</v>
-      </c>
-      <c r="R28" t="s">
-        <v>0</v>
-      </c>
-      <c r="S28" t="s">
-        <v>0</v>
-      </c>
-      <c r="T28" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
+      <c r="K28">
+        <f>VLOOKUP($I28,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>1200</v>
+      </c>
+      <c r="L28">
+        <f>VLOOKUP($I28,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>2000</v>
+      </c>
+      <c r="M28">
+        <f>VLOOKUP($I28,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="N28">
+        <f>VLOOKUP($I28,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="O28">
+        <f>VLOOKUP($I28,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="P28">
+        <f>VLOOKUP($I28,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>120</v>
+      </c>
+      <c r="Q28">
+        <f>VLOOKUP($I28,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>10</v>
+      </c>
+      <c r="T28">
+        <v>10</v>
+      </c>
+      <c r="V28" s="3">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" s="1">
         <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
@@ -3407,52 +3676,60 @@
       <c r="H29" t="s">
         <v>0</v>
       </c>
-      <c r="I29" t="s">
-        <v>0</v>
+      <c r="I29" t="str">
+        <f t="shared" si="0"/>
+        <v>111</v>
       </c>
       <c r="J29" t="s">
         <v>0</v>
       </c>
-      <c r="K29" t="s">
-        <v>0</v>
-      </c>
-      <c r="L29" t="s">
-        <v>0</v>
-      </c>
-      <c r="M29" t="s">
-        <v>0</v>
-      </c>
-      <c r="N29" t="s">
-        <v>0</v>
-      </c>
-      <c r="O29" t="s">
-        <v>0</v>
-      </c>
-      <c r="P29" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>0</v>
-      </c>
-      <c r="R29" t="s">
-        <v>0</v>
-      </c>
-      <c r="S29" t="s">
-        <v>0</v>
-      </c>
-      <c r="T29" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
+      <c r="K29">
+        <f>VLOOKUP($I29,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>600</v>
+      </c>
+      <c r="L29">
+        <f>VLOOKUP($I29,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1200</v>
+      </c>
+      <c r="M29">
+        <f>VLOOKUP($I29,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="N29">
+        <f>VLOOKUP($I29,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="O29">
+        <f>VLOOKUP($I29,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="P29">
+        <f>VLOOKUP($I29,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="Q29">
+        <f>VLOOKUP($I29,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>10</v>
+      </c>
+      <c r="T29">
+        <v>10</v>
+      </c>
+      <c r="V29" s="3">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" s="1">
         <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
@@ -3469,52 +3746,60 @@
       <c r="H30" t="s">
         <v>0</v>
       </c>
-      <c r="I30" t="s">
-        <v>0</v>
+      <c r="I30" t="str">
+        <f t="shared" si="0"/>
+        <v>111</v>
       </c>
       <c r="J30" t="s">
         <v>0</v>
       </c>
-      <c r="K30" t="s">
-        <v>0</v>
-      </c>
-      <c r="L30" t="s">
-        <v>0</v>
-      </c>
-      <c r="M30" t="s">
-        <v>0</v>
-      </c>
-      <c r="N30" t="s">
-        <v>0</v>
-      </c>
-      <c r="O30" t="s">
-        <v>0</v>
-      </c>
-      <c r="P30" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>0</v>
-      </c>
-      <c r="R30" t="s">
-        <v>0</v>
-      </c>
-      <c r="S30" t="s">
-        <v>0</v>
-      </c>
-      <c r="T30" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
+      <c r="K30">
+        <f>VLOOKUP($I30,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>600</v>
+      </c>
+      <c r="L30">
+        <f>VLOOKUP($I30,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1200</v>
+      </c>
+      <c r="M30">
+        <f>VLOOKUP($I30,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="N30">
+        <f>VLOOKUP($I30,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="O30">
+        <f>VLOOKUP($I30,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="P30">
+        <f>VLOOKUP($I30,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="Q30">
+        <f>VLOOKUP($I30,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>10</v>
+      </c>
+      <c r="T30">
+        <v>10</v>
+      </c>
+      <c r="V30" s="3">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31" s="1">
         <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D31" s="1">
         <v>2</v>
@@ -3531,52 +3816,60 @@
       <c r="H31" t="s">
         <v>0</v>
       </c>
-      <c r="I31" t="s">
-        <v>0</v>
+      <c r="I31" t="str">
+        <f t="shared" si="0"/>
+        <v>211</v>
       </c>
       <c r="J31" t="s">
         <v>0</v>
       </c>
-      <c r="K31" t="s">
-        <v>0</v>
-      </c>
-      <c r="L31" t="s">
-        <v>0</v>
-      </c>
-      <c r="M31" t="s">
-        <v>0</v>
-      </c>
-      <c r="N31" t="s">
-        <v>0</v>
-      </c>
-      <c r="O31" t="s">
-        <v>0</v>
-      </c>
-      <c r="P31" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>0</v>
-      </c>
-      <c r="R31" t="s">
-        <v>0</v>
-      </c>
-      <c r="S31" t="s">
-        <v>0</v>
-      </c>
-      <c r="T31" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
+      <c r="K31">
+        <f>VLOOKUP($I31,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>1000</v>
+      </c>
+      <c r="L31">
+        <f>VLOOKUP($I31,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1500</v>
+      </c>
+      <c r="M31">
+        <f>VLOOKUP($I31,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>150</v>
+      </c>
+      <c r="N31">
+        <f>VLOOKUP($I31,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="O31">
+        <f>VLOOKUP($I31,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="P31">
+        <f>VLOOKUP($I31,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="Q31">
+        <f>VLOOKUP($I31,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>50</v>
+      </c>
+      <c r="T31">
+        <v>30</v>
+      </c>
+      <c r="V31" s="3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32" s="1">
         <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
@@ -3593,52 +3886,60 @@
       <c r="H32" t="s">
         <v>0</v>
       </c>
-      <c r="I32" t="s">
-        <v>0</v>
+      <c r="I32" t="str">
+        <f t="shared" si="0"/>
+        <v>111</v>
       </c>
       <c r="J32" t="s">
         <v>0</v>
       </c>
-      <c r="K32" t="s">
-        <v>0</v>
-      </c>
-      <c r="L32" t="s">
-        <v>0</v>
-      </c>
-      <c r="M32" t="s">
-        <v>0</v>
-      </c>
-      <c r="N32" t="s">
-        <v>0</v>
-      </c>
-      <c r="O32" t="s">
-        <v>0</v>
-      </c>
-      <c r="P32" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>0</v>
-      </c>
-      <c r="R32" t="s">
-        <v>0</v>
-      </c>
-      <c r="S32" t="s">
-        <v>0</v>
-      </c>
-      <c r="T32" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
+      <c r="K32">
+        <f>VLOOKUP($I32,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>600</v>
+      </c>
+      <c r="L32">
+        <f>VLOOKUP($I32,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1200</v>
+      </c>
+      <c r="M32">
+        <f>VLOOKUP($I32,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="N32">
+        <f>VLOOKUP($I32,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="O32">
+        <f>VLOOKUP($I32,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="P32">
+        <f>VLOOKUP($I32,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="Q32">
+        <f>VLOOKUP($I32,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>10</v>
+      </c>
+      <c r="T32">
+        <v>10</v>
+      </c>
+      <c r="V32" s="3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33" s="1">
         <v>29</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D33" s="1">
         <v>1</v>
@@ -3655,52 +3956,60 @@
       <c r="H33" t="s">
         <v>0</v>
       </c>
-      <c r="I33" t="s">
-        <v>0</v>
+      <c r="I33" t="str">
+        <f t="shared" si="0"/>
+        <v>111</v>
       </c>
       <c r="J33" t="s">
         <v>0</v>
       </c>
-      <c r="K33" t="s">
-        <v>0</v>
-      </c>
-      <c r="L33" t="s">
-        <v>0</v>
-      </c>
-      <c r="M33" t="s">
-        <v>0</v>
-      </c>
-      <c r="N33" t="s">
-        <v>0</v>
-      </c>
-      <c r="O33" t="s">
-        <v>0</v>
-      </c>
-      <c r="P33" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>0</v>
-      </c>
-      <c r="R33" t="s">
-        <v>0</v>
-      </c>
-      <c r="S33" t="s">
-        <v>0</v>
-      </c>
-      <c r="T33" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
+      <c r="K33">
+        <f>VLOOKUP($I33,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>600</v>
+      </c>
+      <c r="L33">
+        <f>VLOOKUP($I33,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1200</v>
+      </c>
+      <c r="M33">
+        <f>VLOOKUP($I33,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="N33">
+        <f>VLOOKUP($I33,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="O33">
+        <f>VLOOKUP($I33,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="P33">
+        <f>VLOOKUP($I33,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="Q33">
+        <f>VLOOKUP($I33,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>10</v>
+      </c>
+      <c r="T33">
+        <v>10</v>
+      </c>
+      <c r="V33" s="3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
       <c r="A34" s="1">
         <v>30</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D34" s="1">
         <v>2</v>
@@ -3717,52 +4026,60 @@
       <c r="H34" t="s">
         <v>0</v>
       </c>
-      <c r="I34" t="s">
-        <v>0</v>
+      <c r="I34" t="str">
+        <f t="shared" si="0"/>
+        <v>200</v>
       </c>
       <c r="J34" t="s">
         <v>0</v>
       </c>
-      <c r="K34" t="s">
-        <v>0</v>
-      </c>
-      <c r="L34" t="s">
-        <v>0</v>
-      </c>
-      <c r="M34" t="s">
-        <v>0</v>
-      </c>
-      <c r="N34" t="s">
-        <v>0</v>
-      </c>
-      <c r="O34" t="s">
-        <v>0</v>
-      </c>
-      <c r="P34" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>0</v>
-      </c>
-      <c r="R34" t="s">
-        <v>0</v>
-      </c>
-      <c r="S34" t="s">
-        <v>0</v>
-      </c>
-      <c r="T34" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
+      <c r="K34">
+        <f>VLOOKUP($I34,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>2000</v>
+      </c>
+      <c r="L34">
+        <f>VLOOKUP($I34,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>3000</v>
+      </c>
+      <c r="M34">
+        <f>VLOOKUP($I34,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>120</v>
+      </c>
+      <c r="N34">
+        <f>VLOOKUP($I34,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="O34">
+        <f>VLOOKUP($I34,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="P34">
+        <f>VLOOKUP($I34,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <f>VLOOKUP($I34,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>180</v>
+      </c>
+      <c r="S34">
+        <v>50</v>
+      </c>
+      <c r="T34">
+        <v>30</v>
+      </c>
+      <c r="V34" s="3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
       <c r="A35" s="1">
         <v>31</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D35" s="1">
         <v>2</v>
@@ -3779,52 +4096,60 @@
       <c r="H35" t="s">
         <v>0</v>
       </c>
-      <c r="I35" t="s">
-        <v>0</v>
+      <c r="I35" t="str">
+        <f t="shared" si="0"/>
+        <v>211</v>
       </c>
       <c r="J35" t="s">
         <v>0</v>
       </c>
-      <c r="K35" t="s">
-        <v>0</v>
-      </c>
-      <c r="L35" t="s">
-        <v>0</v>
-      </c>
-      <c r="M35" t="s">
-        <v>0</v>
-      </c>
-      <c r="N35" t="s">
-        <v>0</v>
-      </c>
-      <c r="O35" t="s">
-        <v>0</v>
-      </c>
-      <c r="P35" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>0</v>
-      </c>
-      <c r="R35" t="s">
-        <v>0</v>
-      </c>
-      <c r="S35" t="s">
-        <v>0</v>
-      </c>
-      <c r="T35" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
+      <c r="K35">
+        <f>VLOOKUP($I35,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>1000</v>
+      </c>
+      <c r="L35">
+        <f>VLOOKUP($I35,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1500</v>
+      </c>
+      <c r="M35">
+        <f>VLOOKUP($I35,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>150</v>
+      </c>
+      <c r="N35">
+        <f>VLOOKUP($I35,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="O35">
+        <f>VLOOKUP($I35,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="P35">
+        <f>VLOOKUP($I35,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="Q35">
+        <f>VLOOKUP($I35,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>50</v>
+      </c>
+      <c r="T35">
+        <v>30</v>
+      </c>
+      <c r="V35" s="3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
       <c r="A36" s="1">
         <v>32</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D36" s="1">
         <v>2</v>
@@ -3841,52 +4166,60 @@
       <c r="H36" t="s">
         <v>0</v>
       </c>
-      <c r="I36" t="s">
-        <v>0</v>
+      <c r="I36" t="str">
+        <f t="shared" si="0"/>
+        <v>210</v>
       </c>
       <c r="J36" t="s">
         <v>0</v>
       </c>
-      <c r="K36" t="s">
-        <v>0</v>
-      </c>
-      <c r="L36" t="s">
-        <v>0</v>
-      </c>
-      <c r="M36" t="s">
-        <v>0</v>
-      </c>
-      <c r="N36" t="s">
-        <v>0</v>
-      </c>
-      <c r="O36" t="s">
-        <v>0</v>
-      </c>
-      <c r="P36" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>0</v>
-      </c>
-      <c r="R36" t="s">
-        <v>0</v>
-      </c>
-      <c r="S36" t="s">
-        <v>0</v>
-      </c>
-      <c r="T36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
+      <c r="K36">
+        <f>VLOOKUP($I36,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>1000</v>
+      </c>
+      <c r="L36">
+        <f>VLOOKUP($I36,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1500</v>
+      </c>
+      <c r="M36">
+        <f>VLOOKUP($I36,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>150</v>
+      </c>
+      <c r="N36">
+        <f>VLOOKUP($I36,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="O36">
+        <f>VLOOKUP($I36,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="P36">
+        <f>VLOOKUP($I36,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <f>VLOOKUP($I36,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>150</v>
+      </c>
+      <c r="S36">
+        <v>50</v>
+      </c>
+      <c r="T36">
+        <v>30</v>
+      </c>
+      <c r="V36" s="3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
       <c r="A37" s="1">
         <v>33</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="D37" s="1">
         <v>2</v>
@@ -3903,52 +4236,60 @@
       <c r="H37" t="s">
         <v>0</v>
       </c>
-      <c r="I37" t="s">
-        <v>0</v>
+      <c r="I37" t="str">
+        <f t="shared" ref="I37:I68" si="1">D37&amp;F37&amp;G37</f>
+        <v>211</v>
       </c>
       <c r="J37" t="s">
         <v>0</v>
       </c>
-      <c r="K37" t="s">
-        <v>0</v>
-      </c>
-      <c r="L37" t="s">
-        <v>0</v>
-      </c>
-      <c r="M37" t="s">
-        <v>0</v>
-      </c>
-      <c r="N37" t="s">
-        <v>0</v>
-      </c>
-      <c r="O37" t="s">
-        <v>0</v>
-      </c>
-      <c r="P37" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>0</v>
-      </c>
-      <c r="R37" t="s">
-        <v>0</v>
-      </c>
-      <c r="S37" t="s">
-        <v>0</v>
-      </c>
-      <c r="T37" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20">
+      <c r="K37">
+        <f>VLOOKUP($I37,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>1000</v>
+      </c>
+      <c r="L37">
+        <f>VLOOKUP($I37,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1500</v>
+      </c>
+      <c r="M37">
+        <f>VLOOKUP($I37,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>150</v>
+      </c>
+      <c r="N37">
+        <f>VLOOKUP($I37,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="O37">
+        <f>VLOOKUP($I37,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="P37">
+        <f>VLOOKUP($I37,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="Q37">
+        <f>VLOOKUP($I37,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>50</v>
+      </c>
+      <c r="T37">
+        <v>30</v>
+      </c>
+      <c r="V37" s="3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
       <c r="A38" s="1">
         <v>34</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D38" s="1">
         <v>1</v>
@@ -3965,52 +4306,60 @@
       <c r="H38" t="s">
         <v>0</v>
       </c>
-      <c r="I38" t="s">
-        <v>0</v>
+      <c r="I38" t="str">
+        <f t="shared" si="1"/>
+        <v>111</v>
       </c>
       <c r="J38" t="s">
         <v>0</v>
       </c>
-      <c r="K38" t="s">
-        <v>0</v>
-      </c>
-      <c r="L38" t="s">
-        <v>0</v>
-      </c>
-      <c r="M38" t="s">
-        <v>0</v>
-      </c>
-      <c r="N38" t="s">
-        <v>0</v>
-      </c>
-      <c r="O38" t="s">
-        <v>0</v>
-      </c>
-      <c r="P38" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>0</v>
-      </c>
-      <c r="R38" t="s">
-        <v>0</v>
-      </c>
-      <c r="S38" t="s">
-        <v>0</v>
-      </c>
-      <c r="T38" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20">
+      <c r="K38">
+        <f>VLOOKUP($I38,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>600</v>
+      </c>
+      <c r="L38">
+        <f>VLOOKUP($I38,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1200</v>
+      </c>
+      <c r="M38">
+        <f>VLOOKUP($I38,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="N38">
+        <f>VLOOKUP($I38,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="O38">
+        <f>VLOOKUP($I38,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="P38">
+        <f>VLOOKUP($I38,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="Q38">
+        <f>VLOOKUP($I38,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>10</v>
+      </c>
+      <c r="T38">
+        <v>10</v>
+      </c>
+      <c r="V38" s="3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
       <c r="A39" s="1">
         <v>35</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D39" s="1">
         <v>2</v>
@@ -4027,52 +4376,60 @@
       <c r="H39" t="s">
         <v>0</v>
       </c>
-      <c r="I39" t="s">
-        <v>0</v>
+      <c r="I39" t="str">
+        <f t="shared" si="1"/>
+        <v>211</v>
       </c>
       <c r="J39" t="s">
         <v>0</v>
       </c>
-      <c r="K39" t="s">
-        <v>0</v>
-      </c>
-      <c r="L39" t="s">
-        <v>0</v>
-      </c>
-      <c r="M39" t="s">
-        <v>0</v>
-      </c>
-      <c r="N39" t="s">
-        <v>0</v>
-      </c>
-      <c r="O39" t="s">
-        <v>0</v>
-      </c>
-      <c r="P39" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>0</v>
-      </c>
-      <c r="R39" t="s">
-        <v>0</v>
-      </c>
-      <c r="S39" t="s">
-        <v>0</v>
-      </c>
-      <c r="T39" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20">
+      <c r="K39">
+        <f>VLOOKUP($I39,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>1000</v>
+      </c>
+      <c r="L39">
+        <f>VLOOKUP($I39,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1500</v>
+      </c>
+      <c r="M39">
+        <f>VLOOKUP($I39,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>150</v>
+      </c>
+      <c r="N39">
+        <f>VLOOKUP($I39,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="O39">
+        <f>VLOOKUP($I39,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="P39">
+        <f>VLOOKUP($I39,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="Q39">
+        <f>VLOOKUP($I39,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>50</v>
+      </c>
+      <c r="T39">
+        <v>30</v>
+      </c>
+      <c r="V39" s="3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
       <c r="A40" s="1">
         <v>36</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="D40" s="1">
         <v>2</v>
@@ -4089,52 +4446,60 @@
       <c r="H40" t="s">
         <v>0</v>
       </c>
-      <c r="I40" t="s">
-        <v>0</v>
+      <c r="I40" t="str">
+        <f t="shared" si="1"/>
+        <v>211</v>
       </c>
       <c r="J40" t="s">
         <v>0</v>
       </c>
-      <c r="K40" t="s">
-        <v>0</v>
-      </c>
-      <c r="L40" t="s">
-        <v>0</v>
-      </c>
-      <c r="M40" t="s">
-        <v>0</v>
-      </c>
-      <c r="N40" t="s">
-        <v>0</v>
-      </c>
-      <c r="O40" t="s">
-        <v>0</v>
-      </c>
-      <c r="P40" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>0</v>
-      </c>
-      <c r="R40" t="s">
-        <v>0</v>
-      </c>
-      <c r="S40" t="s">
-        <v>0</v>
-      </c>
-      <c r="T40" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20">
+      <c r="K40">
+        <f>VLOOKUP($I40,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>1000</v>
+      </c>
+      <c r="L40">
+        <f>VLOOKUP($I40,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1500</v>
+      </c>
+      <c r="M40">
+        <f>VLOOKUP($I40,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>150</v>
+      </c>
+      <c r="N40">
+        <f>VLOOKUP($I40,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="O40">
+        <f>VLOOKUP($I40,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="P40">
+        <f>VLOOKUP($I40,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="Q40">
+        <f>VLOOKUP($I40,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>50</v>
+      </c>
+      <c r="T40">
+        <v>30</v>
+      </c>
+      <c r="V40" s="3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
       <c r="A41" s="1">
         <v>37</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D41" s="1">
         <v>2</v>
@@ -4151,52 +4516,60 @@
       <c r="H41" t="s">
         <v>0</v>
       </c>
-      <c r="I41" t="s">
-        <v>0</v>
+      <c r="I41" t="str">
+        <f t="shared" si="1"/>
+        <v>200</v>
       </c>
       <c r="J41" t="s">
         <v>0</v>
       </c>
-      <c r="K41" t="s">
-        <v>0</v>
-      </c>
-      <c r="L41" t="s">
-        <v>0</v>
-      </c>
-      <c r="M41" t="s">
-        <v>0</v>
-      </c>
-      <c r="N41" t="s">
-        <v>0</v>
-      </c>
-      <c r="O41" t="s">
-        <v>0</v>
-      </c>
-      <c r="P41" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>0</v>
-      </c>
-      <c r="R41" t="s">
-        <v>0</v>
-      </c>
-      <c r="S41" t="s">
-        <v>0</v>
-      </c>
-      <c r="T41" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20">
+      <c r="K41">
+        <f>VLOOKUP($I41,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>2000</v>
+      </c>
+      <c r="L41">
+        <f>VLOOKUP($I41,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>3000</v>
+      </c>
+      <c r="M41">
+        <f>VLOOKUP($I41,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>120</v>
+      </c>
+      <c r="N41">
+        <f>VLOOKUP($I41,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="O41">
+        <f>VLOOKUP($I41,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="P41">
+        <f>VLOOKUP($I41,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <f>VLOOKUP($I41,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>180</v>
+      </c>
+      <c r="S41">
+        <v>50</v>
+      </c>
+      <c r="T41">
+        <v>30</v>
+      </c>
+      <c r="V41" s="3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
       <c r="A42" s="1">
         <v>38</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D42" s="1">
         <v>1</v>
@@ -4213,52 +4586,60 @@
       <c r="H42" t="s">
         <v>0</v>
       </c>
-      <c r="I42" t="s">
-        <v>0</v>
+      <c r="I42" t="str">
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
       <c r="J42" t="s">
         <v>0</v>
       </c>
-      <c r="K42" t="s">
-        <v>0</v>
-      </c>
-      <c r="L42" t="s">
-        <v>0</v>
-      </c>
-      <c r="M42" t="s">
-        <v>0</v>
-      </c>
-      <c r="N42" t="s">
-        <v>0</v>
-      </c>
-      <c r="O42" t="s">
-        <v>0</v>
-      </c>
-      <c r="P42" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>0</v>
-      </c>
-      <c r="R42" t="s">
-        <v>0</v>
-      </c>
-      <c r="S42" t="s">
-        <v>0</v>
-      </c>
-      <c r="T42" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20">
+      <c r="K42">
+        <f>VLOOKUP($I42,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>1200</v>
+      </c>
+      <c r="L42">
+        <f>VLOOKUP($I42,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>2000</v>
+      </c>
+      <c r="M42">
+        <f>VLOOKUP($I42,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="N42">
+        <f>VLOOKUP($I42,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="O42">
+        <f>VLOOKUP($I42,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="P42">
+        <f>VLOOKUP($I42,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <f>VLOOKUP($I42,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="S42">
+        <v>10</v>
+      </c>
+      <c r="T42">
+        <v>10</v>
+      </c>
+      <c r="V42" s="3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
       <c r="A43" s="1">
         <v>39</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="D43" s="1">
         <v>2</v>
@@ -4275,52 +4656,60 @@
       <c r="H43" t="s">
         <v>0</v>
       </c>
-      <c r="I43" t="s">
-        <v>0</v>
+      <c r="I43" t="str">
+        <f t="shared" si="1"/>
+        <v>211</v>
       </c>
       <c r="J43" t="s">
         <v>0</v>
       </c>
-      <c r="K43" t="s">
-        <v>0</v>
-      </c>
-      <c r="L43" t="s">
-        <v>0</v>
-      </c>
-      <c r="M43" t="s">
-        <v>0</v>
-      </c>
-      <c r="N43" t="s">
-        <v>0</v>
-      </c>
-      <c r="O43" t="s">
-        <v>0</v>
-      </c>
-      <c r="P43" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>0</v>
-      </c>
-      <c r="R43" t="s">
-        <v>0</v>
-      </c>
-      <c r="S43" t="s">
-        <v>0</v>
-      </c>
-      <c r="T43" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20">
+      <c r="K43">
+        <f>VLOOKUP($I43,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>1000</v>
+      </c>
+      <c r="L43">
+        <f>VLOOKUP($I43,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1500</v>
+      </c>
+      <c r="M43">
+        <f>VLOOKUP($I43,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>150</v>
+      </c>
+      <c r="N43">
+        <f>VLOOKUP($I43,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="O43">
+        <f>VLOOKUP($I43,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="P43">
+        <f>VLOOKUP($I43,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="Q43">
+        <f>VLOOKUP($I43,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>50</v>
+      </c>
+      <c r="T43">
+        <v>30</v>
+      </c>
+      <c r="V43" s="3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
       <c r="A44" s="1">
         <v>40</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="D44" s="1">
         <v>2</v>
@@ -4337,52 +4726,60 @@
       <c r="H44" t="s">
         <v>0</v>
       </c>
-      <c r="I44" t="s">
-        <v>0</v>
+      <c r="I44" t="str">
+        <f t="shared" si="1"/>
+        <v>211</v>
       </c>
       <c r="J44" t="s">
         <v>0</v>
       </c>
-      <c r="K44" t="s">
-        <v>0</v>
-      </c>
-      <c r="L44" t="s">
-        <v>0</v>
-      </c>
-      <c r="M44" t="s">
-        <v>0</v>
-      </c>
-      <c r="N44" t="s">
-        <v>0</v>
-      </c>
-      <c r="O44" t="s">
-        <v>0</v>
-      </c>
-      <c r="P44" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>0</v>
-      </c>
-      <c r="R44" t="s">
-        <v>0</v>
-      </c>
-      <c r="S44" t="s">
-        <v>0</v>
-      </c>
-      <c r="T44" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20">
+      <c r="K44">
+        <f>VLOOKUP($I44,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>1000</v>
+      </c>
+      <c r="L44">
+        <f>VLOOKUP($I44,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1500</v>
+      </c>
+      <c r="M44">
+        <f>VLOOKUP($I44,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>150</v>
+      </c>
+      <c r="N44">
+        <f>VLOOKUP($I44,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="O44">
+        <f>VLOOKUP($I44,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="P44">
+        <f>VLOOKUP($I44,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="Q44">
+        <f>VLOOKUP($I44,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>50</v>
+      </c>
+      <c r="T44">
+        <v>30</v>
+      </c>
+      <c r="V44" s="3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
       <c r="A45" s="1">
         <v>41</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="D45" s="1">
         <v>1</v>
@@ -4399,52 +4796,60 @@
       <c r="H45" t="s">
         <v>0</v>
       </c>
-      <c r="I45" t="s">
-        <v>0</v>
+      <c r="I45" t="str">
+        <f t="shared" si="1"/>
+        <v>111</v>
       </c>
       <c r="J45" t="s">
         <v>0</v>
       </c>
-      <c r="K45" t="s">
-        <v>0</v>
-      </c>
-      <c r="L45" t="s">
-        <v>0</v>
-      </c>
-      <c r="M45" t="s">
-        <v>0</v>
-      </c>
-      <c r="N45" t="s">
-        <v>0</v>
-      </c>
-      <c r="O45" t="s">
-        <v>0</v>
-      </c>
-      <c r="P45" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>0</v>
-      </c>
-      <c r="R45" t="s">
-        <v>0</v>
-      </c>
-      <c r="S45" t="s">
-        <v>0</v>
-      </c>
-      <c r="T45" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20">
+      <c r="K45">
+        <f>VLOOKUP($I45,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>600</v>
+      </c>
+      <c r="L45">
+        <f>VLOOKUP($I45,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1200</v>
+      </c>
+      <c r="M45">
+        <f>VLOOKUP($I45,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="N45">
+        <f>VLOOKUP($I45,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="O45">
+        <f>VLOOKUP($I45,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="P45">
+        <f>VLOOKUP($I45,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="Q45">
+        <f>VLOOKUP($I45,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>10</v>
+      </c>
+      <c r="T45">
+        <v>10</v>
+      </c>
+      <c r="V45" s="3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22">
       <c r="A46" s="1">
         <v>42</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="D46" s="1">
         <v>1</v>
@@ -4461,52 +4866,60 @@
       <c r="H46" t="s">
         <v>0</v>
       </c>
-      <c r="I46" t="s">
-        <v>0</v>
+      <c r="I46" t="str">
+        <f t="shared" si="1"/>
+        <v>111</v>
       </c>
       <c r="J46" t="s">
         <v>0</v>
       </c>
-      <c r="K46" t="s">
-        <v>0</v>
-      </c>
-      <c r="L46" t="s">
-        <v>0</v>
-      </c>
-      <c r="M46" t="s">
-        <v>0</v>
-      </c>
-      <c r="N46" t="s">
-        <v>0</v>
-      </c>
-      <c r="O46" t="s">
-        <v>0</v>
-      </c>
-      <c r="P46" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>0</v>
-      </c>
-      <c r="R46" t="s">
-        <v>0</v>
-      </c>
-      <c r="S46" t="s">
-        <v>0</v>
-      </c>
-      <c r="T46" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20">
+      <c r="K46">
+        <f>VLOOKUP($I46,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>600</v>
+      </c>
+      <c r="L46">
+        <f>VLOOKUP($I46,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1200</v>
+      </c>
+      <c r="M46">
+        <f>VLOOKUP($I46,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="N46">
+        <f>VLOOKUP($I46,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="O46">
+        <f>VLOOKUP($I46,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="P46">
+        <f>VLOOKUP($I46,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="Q46">
+        <f>VLOOKUP($I46,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>10</v>
+      </c>
+      <c r="T46">
+        <v>10</v>
+      </c>
+      <c r="V46" s="3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22">
       <c r="A47" s="1">
         <v>43</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="D47" s="1">
         <v>1</v>
@@ -4523,52 +4936,60 @@
       <c r="H47" t="s">
         <v>0</v>
       </c>
-      <c r="I47" t="s">
-        <v>0</v>
+      <c r="I47" t="str">
+        <f t="shared" si="1"/>
+        <v>111</v>
       </c>
       <c r="J47" t="s">
         <v>0</v>
       </c>
-      <c r="K47" t="s">
-        <v>0</v>
-      </c>
-      <c r="L47" t="s">
-        <v>0</v>
-      </c>
-      <c r="M47" t="s">
-        <v>0</v>
-      </c>
-      <c r="N47" t="s">
-        <v>0</v>
-      </c>
-      <c r="O47" t="s">
-        <v>0</v>
-      </c>
-      <c r="P47" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>0</v>
-      </c>
-      <c r="R47" t="s">
-        <v>0</v>
-      </c>
-      <c r="S47" t="s">
-        <v>0</v>
-      </c>
-      <c r="T47" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20">
+      <c r="K47">
+        <f>VLOOKUP($I47,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>600</v>
+      </c>
+      <c r="L47">
+        <f>VLOOKUP($I47,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1200</v>
+      </c>
+      <c r="M47">
+        <f>VLOOKUP($I47,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="N47">
+        <f>VLOOKUP($I47,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="O47">
+        <f>VLOOKUP($I47,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="P47">
+        <f>VLOOKUP($I47,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="Q47">
+        <f>VLOOKUP($I47,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>10</v>
+      </c>
+      <c r="T47">
+        <v>10</v>
+      </c>
+      <c r="V47" s="3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22">
       <c r="A48" s="1">
         <v>44</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="D48" s="1">
         <v>2</v>
@@ -4585,52 +5006,60 @@
       <c r="H48" t="s">
         <v>0</v>
       </c>
-      <c r="I48" t="s">
-        <v>0</v>
+      <c r="I48" t="str">
+        <f t="shared" si="1"/>
+        <v>211</v>
       </c>
       <c r="J48" t="s">
         <v>0</v>
       </c>
-      <c r="K48" t="s">
-        <v>0</v>
-      </c>
-      <c r="L48" t="s">
-        <v>0</v>
-      </c>
-      <c r="M48" t="s">
-        <v>0</v>
-      </c>
-      <c r="N48" t="s">
-        <v>0</v>
-      </c>
-      <c r="O48" t="s">
-        <v>0</v>
-      </c>
-      <c r="P48" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>0</v>
-      </c>
-      <c r="R48" t="s">
-        <v>0</v>
-      </c>
-      <c r="S48" t="s">
-        <v>0</v>
-      </c>
-      <c r="T48" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20">
+      <c r="K48">
+        <f>VLOOKUP($I48,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>1000</v>
+      </c>
+      <c r="L48">
+        <f>VLOOKUP($I48,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1500</v>
+      </c>
+      <c r="M48">
+        <f>VLOOKUP($I48,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>150</v>
+      </c>
+      <c r="N48">
+        <f>VLOOKUP($I48,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="O48">
+        <f>VLOOKUP($I48,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="P48">
+        <f>VLOOKUP($I48,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="Q48">
+        <f>VLOOKUP($I48,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>50</v>
+      </c>
+      <c r="T48">
+        <v>30</v>
+      </c>
+      <c r="V48" s="3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22">
       <c r="A49" s="1">
         <v>45</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="D49" s="1">
         <v>3</v>
@@ -4647,52 +5076,60 @@
       <c r="H49" t="s">
         <v>0</v>
       </c>
-      <c r="I49" t="s">
-        <v>0</v>
+      <c r="I49" t="str">
+        <f t="shared" si="1"/>
+        <v>310</v>
       </c>
       <c r="J49" t="s">
         <v>0</v>
       </c>
-      <c r="K49" t="s">
-        <v>0</v>
-      </c>
-      <c r="L49" t="s">
-        <v>0</v>
-      </c>
-      <c r="M49" t="s">
-        <v>0</v>
-      </c>
-      <c r="N49" t="s">
-        <v>0</v>
-      </c>
-      <c r="O49" t="s">
-        <v>0</v>
-      </c>
-      <c r="P49" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>0</v>
-      </c>
-      <c r="R49" t="s">
-        <v>0</v>
-      </c>
-      <c r="S49" t="s">
-        <v>0</v>
-      </c>
-      <c r="T49" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20">
+      <c r="K49">
+        <f>VLOOKUP($I49,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>1000</v>
+      </c>
+      <c r="L49">
+        <f>VLOOKUP($I49,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1500</v>
+      </c>
+      <c r="M49">
+        <f>VLOOKUP($I49,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>250</v>
+      </c>
+      <c r="N49">
+        <f>VLOOKUP($I49,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="O49">
+        <f>VLOOKUP($I49,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="P49">
+        <f>VLOOKUP($I49,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <f>VLOOKUP($I49,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>240</v>
+      </c>
+      <c r="S49">
+        <v>100</v>
+      </c>
+      <c r="T49">
+        <v>80</v>
+      </c>
+      <c r="V49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22">
       <c r="A50" s="1">
         <v>46</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="D50" s="1">
         <v>2</v>
@@ -4709,52 +5146,60 @@
       <c r="H50" t="s">
         <v>0</v>
       </c>
-      <c r="I50" t="s">
-        <v>0</v>
+      <c r="I50" t="str">
+        <f t="shared" si="1"/>
+        <v>211</v>
       </c>
       <c r="J50" t="s">
         <v>0</v>
       </c>
-      <c r="K50" t="s">
-        <v>0</v>
-      </c>
-      <c r="L50" t="s">
-        <v>0</v>
-      </c>
-      <c r="M50" t="s">
-        <v>0</v>
-      </c>
-      <c r="N50" t="s">
-        <v>0</v>
-      </c>
-      <c r="O50" t="s">
-        <v>0</v>
-      </c>
-      <c r="P50" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>0</v>
-      </c>
-      <c r="R50" t="s">
-        <v>0</v>
-      </c>
-      <c r="S50" t="s">
-        <v>0</v>
-      </c>
-      <c r="T50" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20">
+      <c r="K50">
+        <f>VLOOKUP($I50,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>1000</v>
+      </c>
+      <c r="L50">
+        <f>VLOOKUP($I50,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1500</v>
+      </c>
+      <c r="M50">
+        <f>VLOOKUP($I50,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>150</v>
+      </c>
+      <c r="N50">
+        <f>VLOOKUP($I50,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="O50">
+        <f>VLOOKUP($I50,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="P50">
+        <f>VLOOKUP($I50,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="Q50">
+        <f>VLOOKUP($I50,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>50</v>
+      </c>
+      <c r="T50">
+        <v>30</v>
+      </c>
+      <c r="V50" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22">
       <c r="A51" s="1">
         <v>47</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="D51" s="1">
         <v>3</v>
@@ -4771,52 +5216,60 @@
       <c r="H51" t="s">
         <v>0</v>
       </c>
-      <c r="I51" t="s">
-        <v>0</v>
+      <c r="I51" t="str">
+        <f t="shared" si="1"/>
+        <v>311</v>
       </c>
       <c r="J51" t="s">
         <v>0</v>
       </c>
-      <c r="K51" t="s">
-        <v>0</v>
-      </c>
-      <c r="L51" t="s">
-        <v>0</v>
-      </c>
-      <c r="M51" t="s">
-        <v>0</v>
-      </c>
-      <c r="N51" t="s">
-        <v>0</v>
-      </c>
-      <c r="O51" t="s">
-        <v>0</v>
-      </c>
-      <c r="P51" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>0</v>
-      </c>
-      <c r="R51" t="s">
-        <v>0</v>
-      </c>
-      <c r="S51" t="s">
-        <v>0</v>
-      </c>
-      <c r="T51" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20">
+      <c r="K51">
+        <f>VLOOKUP($I51,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>1000</v>
+      </c>
+      <c r="L51">
+        <f>VLOOKUP($I51,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1500</v>
+      </c>
+      <c r="M51">
+        <f>VLOOKUP($I51,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>250</v>
+      </c>
+      <c r="N51">
+        <f>VLOOKUP($I51,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="O51">
+        <f>VLOOKUP($I51,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="P51">
+        <f>VLOOKUP($I51,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>200</v>
+      </c>
+      <c r="Q51">
+        <f>VLOOKUP($I51,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>100</v>
+      </c>
+      <c r="T51">
+        <v>80</v>
+      </c>
+      <c r="V51" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22">
       <c r="A52" s="1">
         <v>48</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="D52" s="1">
         <v>3</v>
@@ -4833,52 +5286,60 @@
       <c r="H52" t="s">
         <v>0</v>
       </c>
-      <c r="I52" t="s">
-        <v>0</v>
+      <c r="I52" t="str">
+        <f t="shared" si="1"/>
+        <v>311</v>
       </c>
       <c r="J52" t="s">
         <v>0</v>
       </c>
-      <c r="K52" t="s">
-        <v>0</v>
-      </c>
-      <c r="L52" t="s">
-        <v>0</v>
-      </c>
-      <c r="M52" t="s">
-        <v>0</v>
-      </c>
-      <c r="N52" t="s">
-        <v>0</v>
-      </c>
-      <c r="O52" t="s">
-        <v>0</v>
-      </c>
-      <c r="P52" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>0</v>
-      </c>
-      <c r="R52" t="s">
-        <v>0</v>
-      </c>
-      <c r="S52" t="s">
-        <v>0</v>
-      </c>
-      <c r="T52" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="K52">
+        <f>VLOOKUP($I52,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>1000</v>
+      </c>
+      <c r="L52">
+        <f>VLOOKUP($I52,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1500</v>
+      </c>
+      <c r="M52">
+        <f>VLOOKUP($I52,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>250</v>
+      </c>
+      <c r="N52">
+        <f>VLOOKUP($I52,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="O52">
+        <f>VLOOKUP($I52,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="P52">
+        <f>VLOOKUP($I52,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>200</v>
+      </c>
+      <c r="Q52">
+        <f>VLOOKUP($I52,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>100</v>
+      </c>
+      <c r="T52">
+        <v>80</v>
+      </c>
+      <c r="V52" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22">
       <c r="A53" s="1">
         <v>49</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D53" s="1">
         <v>3</v>
@@ -4889,16 +5350,60 @@
       <c r="F53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="I53" t="str">
+        <f t="shared" si="1"/>
+        <v>310</v>
+      </c>
+      <c r="K53">
+        <f>VLOOKUP($I53,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>1000</v>
+      </c>
+      <c r="L53">
+        <f>VLOOKUP($I53,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1500</v>
+      </c>
+      <c r="M53">
+        <f>VLOOKUP($I53,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>250</v>
+      </c>
+      <c r="N53">
+        <f>VLOOKUP($I53,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="O53">
+        <f>VLOOKUP($I53,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="P53">
+        <f>VLOOKUP($I53,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <f>VLOOKUP($I53,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>240</v>
+      </c>
+      <c r="S53">
+        <v>100</v>
+      </c>
+      <c r="T53">
+        <v>80</v>
+      </c>
+      <c r="V53" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22">
       <c r="A54" s="1">
         <v>50</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="D54" s="1">
         <v>3</v>
@@ -4909,16 +5414,60 @@
       <c r="F54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="I54" t="str">
+        <f t="shared" si="1"/>
+        <v>311</v>
+      </c>
+      <c r="K54">
+        <f>VLOOKUP($I54,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>1000</v>
+      </c>
+      <c r="L54">
+        <f>VLOOKUP($I54,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1500</v>
+      </c>
+      <c r="M54">
+        <f>VLOOKUP($I54,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>250</v>
+      </c>
+      <c r="N54">
+        <f>VLOOKUP($I54,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="O54">
+        <f>VLOOKUP($I54,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="P54">
+        <f>VLOOKUP($I54,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>200</v>
+      </c>
+      <c r="Q54">
+        <f>VLOOKUP($I54,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>100</v>
+      </c>
+      <c r="T54">
+        <v>80</v>
+      </c>
+      <c r="V54" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22">
       <c r="A55" s="1">
         <v>51</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="D55" s="1">
         <v>1</v>
@@ -4929,16 +5478,60 @@
       <c r="F55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="I55" t="str">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="K55">
+        <f>VLOOKUP($I55,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>600</v>
+      </c>
+      <c r="L55">
+        <f>VLOOKUP($I55,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1200</v>
+      </c>
+      <c r="M55">
+        <f>VLOOKUP($I55,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="N55">
+        <f>VLOOKUP($I55,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="O55">
+        <f>VLOOKUP($I55,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="P55">
+        <f>VLOOKUP($I55,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="Q55">
+        <f>VLOOKUP($I55,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>10</v>
+      </c>
+      <c r="T55">
+        <v>10</v>
+      </c>
+      <c r="V55" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22">
       <c r="A56" s="1">
         <v>52</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="D56" s="1">
         <v>2</v>
@@ -4949,16 +5542,60 @@
       <c r="F56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="I56" t="str">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="K56">
+        <f>VLOOKUP($I56,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>2000</v>
+      </c>
+      <c r="L56">
+        <f>VLOOKUP($I56,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>3000</v>
+      </c>
+      <c r="M56">
+        <f>VLOOKUP($I56,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>120</v>
+      </c>
+      <c r="N56">
+        <f>VLOOKUP($I56,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="O56">
+        <f>VLOOKUP($I56,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="P56">
+        <f>VLOOKUP($I56,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <f>VLOOKUP($I56,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>180</v>
+      </c>
+      <c r="S56">
+        <v>50</v>
+      </c>
+      <c r="T56">
+        <v>30</v>
+      </c>
+      <c r="V56" s="3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22">
       <c r="A57" s="1">
         <v>53</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="D57" s="1">
         <v>2</v>
@@ -4969,16 +5606,60 @@
       <c r="F57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="I57" t="str">
+        <f t="shared" si="1"/>
+        <v>211</v>
+      </c>
+      <c r="K57">
+        <f>VLOOKUP($I57,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>1000</v>
+      </c>
+      <c r="L57">
+        <f>VLOOKUP($I57,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1500</v>
+      </c>
+      <c r="M57">
+        <f>VLOOKUP($I57,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>150</v>
+      </c>
+      <c r="N57">
+        <f>VLOOKUP($I57,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="O57">
+        <f>VLOOKUP($I57,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="P57">
+        <f>VLOOKUP($I57,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="Q57">
+        <f>VLOOKUP($I57,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>50</v>
+      </c>
+      <c r="T57">
+        <v>30</v>
+      </c>
+      <c r="V57" s="3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22">
       <c r="A58" s="1">
         <v>54</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="D58" s="1">
         <v>3</v>
@@ -4989,16 +5670,60 @@
       <c r="F58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="I58" t="str">
+        <f t="shared" si="1"/>
+        <v>311</v>
+      </c>
+      <c r="K58">
+        <f>VLOOKUP($I58,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>1000</v>
+      </c>
+      <c r="L58">
+        <f>VLOOKUP($I58,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1500</v>
+      </c>
+      <c r="M58">
+        <f>VLOOKUP($I58,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>250</v>
+      </c>
+      <c r="N58">
+        <f>VLOOKUP($I58,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="O58">
+        <f>VLOOKUP($I58,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="P58">
+        <f>VLOOKUP($I58,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>200</v>
+      </c>
+      <c r="Q58">
+        <f>VLOOKUP($I58,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>100</v>
+      </c>
+      <c r="T58">
+        <v>80</v>
+      </c>
+      <c r="V58" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22">
       <c r="A59" s="1">
         <v>55</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="D59" s="1">
         <v>1</v>
@@ -5009,16 +5734,60 @@
       <c r="F59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="I59" t="str">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="K59">
+        <f>VLOOKUP($I59,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>600</v>
+      </c>
+      <c r="L59">
+        <f>VLOOKUP($I59,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1200</v>
+      </c>
+      <c r="M59">
+        <f>VLOOKUP($I59,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="N59">
+        <f>VLOOKUP($I59,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="O59">
+        <f>VLOOKUP($I59,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="P59">
+        <f>VLOOKUP($I59,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="Q59">
+        <f>VLOOKUP($I59,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>10</v>
+      </c>
+      <c r="T59">
+        <v>10</v>
+      </c>
+      <c r="V59" s="3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22">
       <c r="A60" s="1">
         <v>56</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="D60" s="1">
         <v>1</v>
@@ -5029,16 +5798,60 @@
       <c r="F60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="I60" t="str">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="K60">
+        <f>VLOOKUP($I60,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>600</v>
+      </c>
+      <c r="L60">
+        <f>VLOOKUP($I60,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1200</v>
+      </c>
+      <c r="M60">
+        <f>VLOOKUP($I60,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="N60">
+        <f>VLOOKUP($I60,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="O60">
+        <f>VLOOKUP($I60,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="P60">
+        <f>VLOOKUP($I60,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="Q60">
+        <f>VLOOKUP($I60,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <v>10</v>
+      </c>
+      <c r="T60">
+        <v>10</v>
+      </c>
+      <c r="V60" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22">
       <c r="A61" s="1">
         <v>57</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="D61" s="1">
         <v>1</v>
@@ -5049,16 +5862,60 @@
       <c r="F61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="I61" t="str">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="K61">
+        <f>VLOOKUP($I61,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>600</v>
+      </c>
+      <c r="L61">
+        <f>VLOOKUP($I61,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1200</v>
+      </c>
+      <c r="M61">
+        <f>VLOOKUP($I61,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="N61">
+        <f>VLOOKUP($I61,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="O61">
+        <f>VLOOKUP($I61,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="P61">
+        <f>VLOOKUP($I61,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="Q61">
+        <f>VLOOKUP($I61,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>10</v>
+      </c>
+      <c r="T61">
+        <v>10</v>
+      </c>
+      <c r="V61" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22">
       <c r="A62" s="1">
         <v>58</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="D62" s="1">
         <v>2</v>
@@ -5069,16 +5926,60 @@
       <c r="F62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="I62" t="str">
+        <f t="shared" si="1"/>
+        <v>211</v>
+      </c>
+      <c r="K62">
+        <f>VLOOKUP($I62,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>1000</v>
+      </c>
+      <c r="L62">
+        <f>VLOOKUP($I62,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1500</v>
+      </c>
+      <c r="M62">
+        <f>VLOOKUP($I62,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>150</v>
+      </c>
+      <c r="N62">
+        <f>VLOOKUP($I62,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="O62">
+        <f>VLOOKUP($I62,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="P62">
+        <f>VLOOKUP($I62,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="Q62">
+        <f>VLOOKUP($I62,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>50</v>
+      </c>
+      <c r="T62">
+        <v>30</v>
+      </c>
+      <c r="V62" s="3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22">
       <c r="A63" s="1">
         <v>59</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="D63" s="1">
         <v>1</v>
@@ -5089,16 +5990,60 @@
       <c r="F63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="I63" t="str">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="K63">
+        <f>VLOOKUP($I63,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>600</v>
+      </c>
+      <c r="L63">
+        <f>VLOOKUP($I63,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1200</v>
+      </c>
+      <c r="M63">
+        <f>VLOOKUP($I63,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="N63">
+        <f>VLOOKUP($I63,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="O63">
+        <f>VLOOKUP($I63,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="P63">
+        <f>VLOOKUP($I63,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="Q63">
+        <f>VLOOKUP($I63,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>10</v>
+      </c>
+      <c r="T63">
+        <v>10</v>
+      </c>
+      <c r="V63" s="3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22">
       <c r="A64" s="1">
         <v>60</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="D64" s="1">
         <v>1</v>
@@ -5109,16 +6054,60 @@
       <c r="F64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="I64" t="str">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="K64">
+        <f>VLOOKUP($I64,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>600</v>
+      </c>
+      <c r="L64">
+        <f>VLOOKUP($I64,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1200</v>
+      </c>
+      <c r="M64">
+        <f>VLOOKUP($I64,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="N64">
+        <f>VLOOKUP($I64,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="O64">
+        <f>VLOOKUP($I64,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="P64">
+        <f>VLOOKUP($I64,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="Q64">
+        <f>VLOOKUP($I64,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>10</v>
+      </c>
+      <c r="T64">
+        <v>10</v>
+      </c>
+      <c r="V64" s="3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22">
       <c r="A65" s="1">
         <v>61</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="D65" s="1">
         <v>1</v>
@@ -5129,16 +6118,60 @@
       <c r="F65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="I65" t="str">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="K65">
+        <f>VLOOKUP($I65,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>600</v>
+      </c>
+      <c r="L65">
+        <f>VLOOKUP($I65,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1200</v>
+      </c>
+      <c r="M65">
+        <f>VLOOKUP($I65,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="N65">
+        <f>VLOOKUP($I65,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="O65">
+        <f>VLOOKUP($I65,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="P65">
+        <f>VLOOKUP($I65,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="Q65">
+        <f>VLOOKUP($I65,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>10</v>
+      </c>
+      <c r="T65">
+        <v>10</v>
+      </c>
+      <c r="V65" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22">
       <c r="A66" s="1">
         <v>62</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D66" s="1">
         <v>1</v>
@@ -5149,16 +6182,60 @@
       <c r="F66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="I66" t="str">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="K66">
+        <f>VLOOKUP($I66,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>600</v>
+      </c>
+      <c r="L66">
+        <f>VLOOKUP($I66,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1200</v>
+      </c>
+      <c r="M66">
+        <f>VLOOKUP($I66,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="N66">
+        <f>VLOOKUP($I66,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="O66">
+        <f>VLOOKUP($I66,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="P66">
+        <f>VLOOKUP($I66,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="Q66">
+        <f>VLOOKUP($I66,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>10</v>
+      </c>
+      <c r="T66">
+        <v>10</v>
+      </c>
+      <c r="V66" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22">
       <c r="A67" s="1">
         <v>63</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D67" s="1">
         <v>1</v>
@@ -5169,16 +6246,60 @@
       <c r="F67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="I67" t="str">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="K67">
+        <f>VLOOKUP($I67,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>600</v>
+      </c>
+      <c r="L67">
+        <f>VLOOKUP($I67,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1200</v>
+      </c>
+      <c r="M67">
+        <f>VLOOKUP($I67,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="N67">
+        <f>VLOOKUP($I67,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="O67">
+        <f>VLOOKUP($I67,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="P67">
+        <f>VLOOKUP($I67,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="Q67">
+        <f>VLOOKUP($I67,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>10</v>
+      </c>
+      <c r="T67">
+        <v>10</v>
+      </c>
+      <c r="V67" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22">
       <c r="A68" s="1">
         <v>64</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="D68" s="1">
         <v>1</v>
@@ -5189,16 +6310,60 @@
       <c r="F68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="I68" t="str">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="K68">
+        <f>VLOOKUP($I68,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>600</v>
+      </c>
+      <c r="L68">
+        <f>VLOOKUP($I68,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1200</v>
+      </c>
+      <c r="M68">
+        <f>VLOOKUP($I68,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="N68">
+        <f>VLOOKUP($I68,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="O68">
+        <f>VLOOKUP($I68,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="P68">
+        <f>VLOOKUP($I68,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="Q68">
+        <f>VLOOKUP($I68,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>10</v>
+      </c>
+      <c r="T68">
+        <v>10</v>
+      </c>
+      <c r="V68" s="3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22">
       <c r="A69" s="1">
         <v>65</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="D69" s="1">
         <v>1</v>
@@ -5209,16 +6374,60 @@
       <c r="F69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="I69" t="str">
+        <f t="shared" ref="I69:I100" si="2">D69&amp;F69&amp;G69</f>
+        <v>111</v>
+      </c>
+      <c r="K69">
+        <f>VLOOKUP($I69,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>600</v>
+      </c>
+      <c r="L69">
+        <f>VLOOKUP($I69,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1200</v>
+      </c>
+      <c r="M69">
+        <f>VLOOKUP($I69,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="N69">
+        <f>VLOOKUP($I69,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="O69">
+        <f>VLOOKUP($I69,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="P69">
+        <f>VLOOKUP($I69,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="Q69">
+        <f>VLOOKUP($I69,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>10</v>
+      </c>
+      <c r="T69">
+        <v>10</v>
+      </c>
+      <c r="V69" s="3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22">
       <c r="A70" s="1">
         <v>66</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="D70" s="1">
         <v>1</v>
@@ -5229,16 +6438,60 @@
       <c r="F70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="I70" t="str">
+        <f t="shared" si="2"/>
+        <v>111</v>
+      </c>
+      <c r="K70">
+        <f>VLOOKUP($I70,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>600</v>
+      </c>
+      <c r="L70">
+        <f>VLOOKUP($I70,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1200</v>
+      </c>
+      <c r="M70">
+        <f>VLOOKUP($I70,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="N70">
+        <f>VLOOKUP($I70,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="O70">
+        <f>VLOOKUP($I70,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="P70">
+        <f>VLOOKUP($I70,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="Q70">
+        <f>VLOOKUP($I70,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <v>10</v>
+      </c>
+      <c r="T70">
+        <v>10</v>
+      </c>
+      <c r="V70" s="3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22">
       <c r="A71" s="1">
         <v>67</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="D71" s="1">
         <v>1</v>
@@ -5249,16 +6502,60 @@
       <c r="F71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="I71" t="str">
+        <f t="shared" si="2"/>
+        <v>111</v>
+      </c>
+      <c r="K71">
+        <f>VLOOKUP($I71,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>600</v>
+      </c>
+      <c r="L71">
+        <f>VLOOKUP($I71,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1200</v>
+      </c>
+      <c r="M71">
+        <f>VLOOKUP($I71,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="N71">
+        <f>VLOOKUP($I71,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="O71">
+        <f>VLOOKUP($I71,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="P71">
+        <f>VLOOKUP($I71,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="Q71">
+        <f>VLOOKUP($I71,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>10</v>
+      </c>
+      <c r="T71">
+        <v>10</v>
+      </c>
+      <c r="V71" s="3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22">
       <c r="A72" s="1">
         <v>68</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="D72" s="1">
         <v>3</v>
@@ -5269,16 +6566,60 @@
       <c r="F72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="I72" t="str">
+        <f t="shared" si="2"/>
+        <v>311</v>
+      </c>
+      <c r="K72">
+        <f>VLOOKUP($I72,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>1000</v>
+      </c>
+      <c r="L72">
+        <f>VLOOKUP($I72,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1500</v>
+      </c>
+      <c r="M72">
+        <f>VLOOKUP($I72,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>250</v>
+      </c>
+      <c r="N72">
+        <f>VLOOKUP($I72,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="O72">
+        <f>VLOOKUP($I72,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="P72">
+        <f>VLOOKUP($I72,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>200</v>
+      </c>
+      <c r="Q72">
+        <f>VLOOKUP($I72,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>100</v>
+      </c>
+      <c r="T72">
+        <v>80</v>
+      </c>
+      <c r="V72" s="3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22">
       <c r="A73" s="1">
         <v>69</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="D73" s="1">
         <v>2</v>
@@ -5289,16 +6630,60 @@
       <c r="F73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="I73" t="str">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="K73">
+        <f>VLOOKUP($I73,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>2000</v>
+      </c>
+      <c r="L73">
+        <f>VLOOKUP($I73,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>3000</v>
+      </c>
+      <c r="M73">
+        <f>VLOOKUP($I73,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>120</v>
+      </c>
+      <c r="N73">
+        <f>VLOOKUP($I73,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="O73">
+        <f>VLOOKUP($I73,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="P73">
+        <f>VLOOKUP($I73,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <f>VLOOKUP($I73,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>180</v>
+      </c>
+      <c r="S73">
+        <v>50</v>
+      </c>
+      <c r="T73">
+        <v>30</v>
+      </c>
+      <c r="V73" s="3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22">
       <c r="A74" s="1">
         <v>70</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D74" s="1">
         <v>1</v>
@@ -5309,16 +6694,60 @@
       <c r="F74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="I74" t="str">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="K74">
+        <f>VLOOKUP($I74,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>1200</v>
+      </c>
+      <c r="L74">
+        <f>VLOOKUP($I74,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>2000</v>
+      </c>
+      <c r="M74">
+        <f>VLOOKUP($I74,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="N74">
+        <f>VLOOKUP($I74,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="O74">
+        <f>VLOOKUP($I74,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="P74">
+        <f>VLOOKUP($I74,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <f>VLOOKUP($I74,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="S74">
+        <v>10</v>
+      </c>
+      <c r="T74">
+        <v>10</v>
+      </c>
+      <c r="V74" s="3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22">
       <c r="A75" s="1">
         <v>71</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="D75" s="1">
         <v>1</v>
@@ -5329,16 +6758,60 @@
       <c r="F75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="I75" t="str">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="K75">
+        <f>VLOOKUP($I75,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>1200</v>
+      </c>
+      <c r="L75">
+        <f>VLOOKUP($I75,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>2000</v>
+      </c>
+      <c r="M75">
+        <f>VLOOKUP($I75,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="N75">
+        <f>VLOOKUP($I75,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="O75">
+        <f>VLOOKUP($I75,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="P75">
+        <f>VLOOKUP($I75,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <f>VLOOKUP($I75,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="S75">
+        <v>10</v>
+      </c>
+      <c r="T75">
+        <v>10</v>
+      </c>
+      <c r="V75" s="3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22">
       <c r="A76" s="1">
         <v>72</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="D76" s="1">
         <v>1</v>
@@ -5349,16 +6822,60 @@
       <c r="F76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="I76" t="str">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="K76">
+        <f>VLOOKUP($I76,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>1200</v>
+      </c>
+      <c r="L76">
+        <f>VLOOKUP($I76,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>2000</v>
+      </c>
+      <c r="M76">
+        <f>VLOOKUP($I76,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="N76">
+        <f>VLOOKUP($I76,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="O76">
+        <f>VLOOKUP($I76,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="P76">
+        <f>VLOOKUP($I76,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <f>VLOOKUP($I76,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="S76">
+        <v>10</v>
+      </c>
+      <c r="T76">
+        <v>10</v>
+      </c>
+      <c r="V76" s="3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22">
       <c r="A77" s="1">
         <v>73</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="D77" s="1">
         <v>1</v>
@@ -5369,16 +6886,60 @@
       <c r="F77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="I77" t="str">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="K77">
+        <f>VLOOKUP($I77,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>1200</v>
+      </c>
+      <c r="L77">
+        <f>VLOOKUP($I77,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>2000</v>
+      </c>
+      <c r="M77">
+        <f>VLOOKUP($I77,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="N77">
+        <f>VLOOKUP($I77,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="O77">
+        <f>VLOOKUP($I77,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="P77">
+        <f>VLOOKUP($I77,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <f>VLOOKUP($I77,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="S77">
+        <v>10</v>
+      </c>
+      <c r="T77">
+        <v>10</v>
+      </c>
+      <c r="V77" s="3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22">
       <c r="A78" s="1">
         <v>74</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="D78" s="1">
         <v>1</v>
@@ -5389,16 +6950,60 @@
       <c r="F78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:6">
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="I78" t="str">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="K78">
+        <f>VLOOKUP($I78,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>1200</v>
+      </c>
+      <c r="L78">
+        <f>VLOOKUP($I78,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>2000</v>
+      </c>
+      <c r="M78">
+        <f>VLOOKUP($I78,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="N78">
+        <f>VLOOKUP($I78,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="O78">
+        <f>VLOOKUP($I78,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="P78">
+        <f>VLOOKUP($I78,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <f>VLOOKUP($I78,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="S78">
+        <v>10</v>
+      </c>
+      <c r="T78">
+        <v>10</v>
+      </c>
+      <c r="V78" s="3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22">
       <c r="A79" s="1">
         <v>75</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="D79" s="1">
         <v>1</v>
@@ -5409,16 +7014,60 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="I79" t="str">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="K79">
+        <f>VLOOKUP($I79,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>1200</v>
+      </c>
+      <c r="L79">
+        <f>VLOOKUP($I79,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>2000</v>
+      </c>
+      <c r="M79">
+        <f>VLOOKUP($I79,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="N79">
+        <f>VLOOKUP($I79,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="O79">
+        <f>VLOOKUP($I79,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="P79">
+        <f>VLOOKUP($I79,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <f>VLOOKUP($I79,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="S79">
+        <v>10</v>
+      </c>
+      <c r="T79">
+        <v>10</v>
+      </c>
+      <c r="V79" s="3">
+        <v>459.999999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22">
       <c r="A80" s="1">
         <v>76</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="D80" s="1">
         <v>1</v>
@@ -5429,16 +7078,60 @@
       <c r="F80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:6">
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="I80" t="str">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="K80">
+        <f>VLOOKUP($I80,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>1200</v>
+      </c>
+      <c r="L80">
+        <f>VLOOKUP($I80,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>2000</v>
+      </c>
+      <c r="M80">
+        <f>VLOOKUP($I80,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="N80">
+        <f>VLOOKUP($I80,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="O80">
+        <f>VLOOKUP($I80,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="P80">
+        <f>VLOOKUP($I80,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <f>VLOOKUP($I80,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="S80">
+        <v>10</v>
+      </c>
+      <c r="T80">
+        <v>10</v>
+      </c>
+      <c r="V80" s="3">
+        <v>459.999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22">
       <c r="A81" s="1">
         <v>77</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="D81" s="1">
         <v>1</v>
@@ -5449,16 +7142,60 @@
       <c r="F81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:6">
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="I81" t="str">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="K81">
+        <f>VLOOKUP($I81,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>1200</v>
+      </c>
+      <c r="L81">
+        <f>VLOOKUP($I81,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>2000</v>
+      </c>
+      <c r="M81">
+        <f>VLOOKUP($I81,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="N81">
+        <f>VLOOKUP($I81,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="O81">
+        <f>VLOOKUP($I81,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="P81">
+        <f>VLOOKUP($I81,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <f>VLOOKUP($I81,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="S81">
+        <v>10</v>
+      </c>
+      <c r="T81">
+        <v>10</v>
+      </c>
+      <c r="V81" s="3">
+        <v>459.999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22">
       <c r="A82" s="1">
         <v>78</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="D82" s="1">
         <v>1</v>
@@ -5469,16 +7206,60 @@
       <c r="F82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="I82" t="str">
+        <f t="shared" si="2"/>
+        <v>111</v>
+      </c>
+      <c r="K82">
+        <f>VLOOKUP($I82,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>600</v>
+      </c>
+      <c r="L82">
+        <f>VLOOKUP($I82,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1200</v>
+      </c>
+      <c r="M82">
+        <f>VLOOKUP($I82,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="N82">
+        <f>VLOOKUP($I82,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="O82">
+        <f>VLOOKUP($I82,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="P82">
+        <f>VLOOKUP($I82,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="Q82">
+        <f>VLOOKUP($I82,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S82">
+        <v>10</v>
+      </c>
+      <c r="T82">
+        <v>10</v>
+      </c>
+      <c r="V82" s="3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22">
       <c r="A83" s="1">
         <v>79</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="D83" s="1">
         <v>1</v>
@@ -5489,16 +7270,60 @@
       <c r="F83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:6">
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="2"/>
+        <v>111</v>
+      </c>
+      <c r="K83">
+        <f>VLOOKUP($I83,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>600</v>
+      </c>
+      <c r="L83">
+        <f>VLOOKUP($I83,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1200</v>
+      </c>
+      <c r="M83">
+        <f>VLOOKUP($I83,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="N83">
+        <f>VLOOKUP($I83,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="O83">
+        <f>VLOOKUP($I83,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="P83">
+        <f>VLOOKUP($I83,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="Q83">
+        <f>VLOOKUP($I83,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S83">
+        <v>10</v>
+      </c>
+      <c r="T83">
+        <v>10</v>
+      </c>
+      <c r="V83" s="3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22">
       <c r="A84" s="1">
         <v>80</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="D84" s="1">
         <v>1</v>
@@ -5509,16 +7334,60 @@
       <c r="F84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="2"/>
+        <v>111</v>
+      </c>
+      <c r="K84">
+        <f>VLOOKUP($I84,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>600</v>
+      </c>
+      <c r="L84">
+        <f>VLOOKUP($I84,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1200</v>
+      </c>
+      <c r="M84">
+        <f>VLOOKUP($I84,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="N84">
+        <f>VLOOKUP($I84,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="O84">
+        <f>VLOOKUP($I84,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="P84">
+        <f>VLOOKUP($I84,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="Q84">
+        <f>VLOOKUP($I84,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S84">
+        <v>10</v>
+      </c>
+      <c r="T84">
+        <v>10</v>
+      </c>
+      <c r="V84" s="3">
+        <v>459.999999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22">
       <c r="A85" s="1">
         <v>81</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="D85" s="1">
         <v>1</v>
@@ -5529,16 +7398,60 @@
       <c r="F85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:6">
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="2"/>
+        <v>111</v>
+      </c>
+      <c r="K85">
+        <f>VLOOKUP($I85,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>600</v>
+      </c>
+      <c r="L85">
+        <f>VLOOKUP($I85,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1200</v>
+      </c>
+      <c r="M85">
+        <f>VLOOKUP($I85,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="N85">
+        <f>VLOOKUP($I85,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="O85">
+        <f>VLOOKUP($I85,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="P85">
+        <f>VLOOKUP($I85,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="Q85">
+        <f>VLOOKUP($I85,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S85">
+        <v>10</v>
+      </c>
+      <c r="T85">
+        <v>10</v>
+      </c>
+      <c r="V85" s="3">
+        <v>459.999999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22">
       <c r="A86" s="1">
         <v>82</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="D86" s="1">
         <v>1</v>
@@ -5549,16 +7462,60 @@
       <c r="F86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:6">
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="2"/>
+        <v>111</v>
+      </c>
+      <c r="K86">
+        <f>VLOOKUP($I86,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>600</v>
+      </c>
+      <c r="L86">
+        <f>VLOOKUP($I86,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1200</v>
+      </c>
+      <c r="M86">
+        <f>VLOOKUP($I86,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="N86">
+        <f>VLOOKUP($I86,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="O86">
+        <f>VLOOKUP($I86,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="P86">
+        <f>VLOOKUP($I86,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="Q86">
+        <f>VLOOKUP($I86,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S86">
+        <v>10</v>
+      </c>
+      <c r="T86">
+        <v>10</v>
+      </c>
+      <c r="V86" s="3">
+        <v>459.999999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22">
       <c r="A87" s="1">
         <v>83</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="D87" s="1">
         <v>1</v>
@@ -5569,16 +7526,60 @@
       <c r="F87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:6">
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="2"/>
+        <v>111</v>
+      </c>
+      <c r="K87">
+        <f>VLOOKUP($I87,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>600</v>
+      </c>
+      <c r="L87">
+        <f>VLOOKUP($I87,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1200</v>
+      </c>
+      <c r="M87">
+        <f>VLOOKUP($I87,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="N87">
+        <f>VLOOKUP($I87,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="O87">
+        <f>VLOOKUP($I87,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="P87">
+        <f>VLOOKUP($I87,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="Q87">
+        <f>VLOOKUP($I87,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S87">
+        <v>10</v>
+      </c>
+      <c r="T87">
+        <v>10</v>
+      </c>
+      <c r="V87" s="3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22">
       <c r="A88" s="1">
         <v>84</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="D88" s="1">
         <v>2</v>
@@ -5589,16 +7590,60 @@
       <c r="F88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:6">
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="K88">
+        <f>VLOOKUP($I88,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>2000</v>
+      </c>
+      <c r="L88">
+        <f>VLOOKUP($I88,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>3000</v>
+      </c>
+      <c r="M88">
+        <f>VLOOKUP($I88,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>120</v>
+      </c>
+      <c r="N88">
+        <f>VLOOKUP($I88,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="O88">
+        <f>VLOOKUP($I88,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="P88">
+        <f>VLOOKUP($I88,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <f>VLOOKUP($I88,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>180</v>
+      </c>
+      <c r="S88">
+        <v>50</v>
+      </c>
+      <c r="T88">
+        <v>30</v>
+      </c>
+      <c r="V88" s="3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22">
       <c r="A89" s="1">
         <v>85</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="D89" s="1">
         <v>1</v>
@@ -5609,16 +7654,60 @@
       <c r="F89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:6">
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="2"/>
+        <v>111</v>
+      </c>
+      <c r="K89">
+        <f>VLOOKUP($I89,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>600</v>
+      </c>
+      <c r="L89">
+        <f>VLOOKUP($I89,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1200</v>
+      </c>
+      <c r="M89">
+        <f>VLOOKUP($I89,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="N89">
+        <f>VLOOKUP($I89,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="O89">
+        <f>VLOOKUP($I89,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="P89">
+        <f>VLOOKUP($I89,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="Q89">
+        <f>VLOOKUP($I89,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S89">
+        <v>10</v>
+      </c>
+      <c r="T89">
+        <v>10</v>
+      </c>
+      <c r="V89" s="3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22">
       <c r="A90" s="1">
         <v>86</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="D90" s="1">
         <v>1</v>
@@ -5629,16 +7718,60 @@
       <c r="F90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:6">
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="2"/>
+        <v>111</v>
+      </c>
+      <c r="K90">
+        <f>VLOOKUP($I90,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>600</v>
+      </c>
+      <c r="L90">
+        <f>VLOOKUP($I90,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1200</v>
+      </c>
+      <c r="M90">
+        <f>VLOOKUP($I90,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="N90">
+        <f>VLOOKUP($I90,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="O90">
+        <f>VLOOKUP($I90,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="P90">
+        <f>VLOOKUP($I90,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="Q90">
+        <f>VLOOKUP($I90,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S90">
+        <v>10</v>
+      </c>
+      <c r="T90">
+        <v>10</v>
+      </c>
+      <c r="V90" s="3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22">
       <c r="A91" s="1">
         <v>87</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="D91" s="1">
         <v>1</v>
@@ -5649,16 +7782,60 @@
       <c r="F91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:6">
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="2"/>
+        <v>111</v>
+      </c>
+      <c r="K91">
+        <f>VLOOKUP($I91,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>600</v>
+      </c>
+      <c r="L91">
+        <f>VLOOKUP($I91,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1200</v>
+      </c>
+      <c r="M91">
+        <f>VLOOKUP($I91,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="N91">
+        <f>VLOOKUP($I91,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="O91">
+        <f>VLOOKUP($I91,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="P91">
+        <f>VLOOKUP($I91,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="Q91">
+        <f>VLOOKUP($I91,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S91">
+        <v>10</v>
+      </c>
+      <c r="T91">
+        <v>10</v>
+      </c>
+      <c r="V91" s="3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22">
       <c r="A92" s="1">
         <v>88</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="D92" s="1">
         <v>1</v>
@@ -5669,16 +7846,60 @@
       <c r="F92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:6">
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="K92">
+        <f>VLOOKUP($I92,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>1200</v>
+      </c>
+      <c r="L92">
+        <f>VLOOKUP($I92,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>2000</v>
+      </c>
+      <c r="M92">
+        <f>VLOOKUP($I92,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="N92">
+        <f>VLOOKUP($I92,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="O92">
+        <f>VLOOKUP($I92,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="P92">
+        <f>VLOOKUP($I92,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q92">
+        <f>VLOOKUP($I92,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="S92">
+        <v>10</v>
+      </c>
+      <c r="T92">
+        <v>10</v>
+      </c>
+      <c r="V92" s="3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22">
       <c r="A93" s="1">
         <v>89</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="D93" s="1">
         <v>1</v>
@@ -5689,16 +7910,60 @@
       <c r="F93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:6">
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="K93">
+        <f>VLOOKUP($I93,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>1200</v>
+      </c>
+      <c r="L93">
+        <f>VLOOKUP($I93,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>2000</v>
+      </c>
+      <c r="M93">
+        <f>VLOOKUP($I93,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="N93">
+        <f>VLOOKUP($I93,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="O93">
+        <f>VLOOKUP($I93,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="P93">
+        <f>VLOOKUP($I93,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <f>VLOOKUP($I93,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="S93">
+        <v>10</v>
+      </c>
+      <c r="T93">
+        <v>10</v>
+      </c>
+      <c r="V93" s="3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22">
       <c r="A94" s="1">
         <v>90</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="D94" s="1">
         <v>1</v>
@@ -5709,16 +7974,60 @@
       <c r="F94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:6">
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="K94">
+        <f>VLOOKUP($I94,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>1200</v>
+      </c>
+      <c r="L94">
+        <f>VLOOKUP($I94,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>2000</v>
+      </c>
+      <c r="M94">
+        <f>VLOOKUP($I94,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="N94">
+        <f>VLOOKUP($I94,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="O94">
+        <f>VLOOKUP($I94,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="P94">
+        <f>VLOOKUP($I94,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <f>VLOOKUP($I94,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="S94">
+        <v>10</v>
+      </c>
+      <c r="T94">
+        <v>10</v>
+      </c>
+      <c r="V94" s="3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22">
       <c r="A95" s="1">
         <v>91</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="D95" s="1">
         <v>1</v>
@@ -5729,16 +8038,60 @@
       <c r="F95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:6">
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="K95">
+        <f>VLOOKUP($I95,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>1200</v>
+      </c>
+      <c r="L95">
+        <f>VLOOKUP($I95,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>2000</v>
+      </c>
+      <c r="M95">
+        <f>VLOOKUP($I95,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="N95">
+        <f>VLOOKUP($I95,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="O95">
+        <f>VLOOKUP($I95,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="P95">
+        <f>VLOOKUP($I95,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <f>VLOOKUP($I95,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="S95">
+        <v>10</v>
+      </c>
+      <c r="T95">
+        <v>10</v>
+      </c>
+      <c r="V95" s="3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22">
       <c r="A96" s="1">
         <v>92</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="D96" s="1">
         <v>1</v>
@@ -5749,16 +8102,60 @@
       <c r="F96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="2"/>
+        <v>111</v>
+      </c>
+      <c r="K96">
+        <f>VLOOKUP($I96,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>600</v>
+      </c>
+      <c r="L96">
+        <f>VLOOKUP($I96,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1200</v>
+      </c>
+      <c r="M96">
+        <f>VLOOKUP($I96,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="N96">
+        <f>VLOOKUP($I96,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="O96">
+        <f>VLOOKUP($I96,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="P96">
+        <f>VLOOKUP($I96,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="Q96">
+        <f>VLOOKUP($I96,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S96">
+        <v>10</v>
+      </c>
+      <c r="T96">
+        <v>10</v>
+      </c>
+      <c r="V96" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22">
       <c r="A97" s="1">
         <v>93</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="D97" s="1">
         <v>3</v>
@@ -5769,16 +8166,60 @@
       <c r="F97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="2"/>
+        <v>311</v>
+      </c>
+      <c r="K97">
+        <f>VLOOKUP($I97,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>1000</v>
+      </c>
+      <c r="L97">
+        <f>VLOOKUP($I97,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1500</v>
+      </c>
+      <c r="M97">
+        <f>VLOOKUP($I97,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>250</v>
+      </c>
+      <c r="N97">
+        <f>VLOOKUP($I97,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="O97">
+        <f>VLOOKUP($I97,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="P97">
+        <f>VLOOKUP($I97,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>200</v>
+      </c>
+      <c r="Q97">
+        <f>VLOOKUP($I97,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S97">
+        <v>100</v>
+      </c>
+      <c r="T97">
+        <v>80</v>
+      </c>
+      <c r="V97" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22">
       <c r="A98" s="1">
         <v>94</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="D98" s="1">
         <v>2</v>
@@ -5789,16 +8230,60 @@
       <c r="F98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:6">
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="2"/>
+        <v>211</v>
+      </c>
+      <c r="K98">
+        <f>VLOOKUP($I98,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>1000</v>
+      </c>
+      <c r="L98">
+        <f>VLOOKUP($I98,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1500</v>
+      </c>
+      <c r="M98">
+        <f>VLOOKUP($I98,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>150</v>
+      </c>
+      <c r="N98">
+        <f>VLOOKUP($I98,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="O98">
+        <f>VLOOKUP($I98,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="P98">
+        <f>VLOOKUP($I98,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="Q98">
+        <f>VLOOKUP($I98,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S98">
+        <v>50</v>
+      </c>
+      <c r="T98">
+        <v>30</v>
+      </c>
+      <c r="V98" s="3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22">
       <c r="A99" s="1">
         <v>95</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="D99" s="1">
         <v>1</v>
@@ -5809,16 +8294,60 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="K99">
+        <f>VLOOKUP($I99,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>1200</v>
+      </c>
+      <c r="L99">
+        <f>VLOOKUP($I99,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>2000</v>
+      </c>
+      <c r="M99">
+        <f>VLOOKUP($I99,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="N99">
+        <f>VLOOKUP($I99,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="O99">
+        <f>VLOOKUP($I99,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="P99">
+        <f>VLOOKUP($I99,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <f>VLOOKUP($I99,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="S99">
+        <v>10</v>
+      </c>
+      <c r="T99">
+        <v>10</v>
+      </c>
+      <c r="V99" s="3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22">
       <c r="A100" s="1">
         <v>96</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="D100" s="1">
         <v>1</v>
@@ -5829,16 +8358,60 @@
       <c r="F100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="2"/>
+        <v>111</v>
+      </c>
+      <c r="K100">
+        <f>VLOOKUP($I100,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>600</v>
+      </c>
+      <c r="L100">
+        <f>VLOOKUP($I100,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1200</v>
+      </c>
+      <c r="M100">
+        <f>VLOOKUP($I100,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="N100">
+        <f>VLOOKUP($I100,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="O100">
+        <f>VLOOKUP($I100,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="P100">
+        <f>VLOOKUP($I100,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="Q100">
+        <f>VLOOKUP($I100,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S100">
+        <v>10</v>
+      </c>
+      <c r="T100">
+        <v>10</v>
+      </c>
+      <c r="V100" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22">
       <c r="A101" s="1">
         <v>97</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="D101" s="1">
         <v>1</v>
@@ -5849,16 +8422,60 @@
       <c r="F101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:6">
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="I101" t="str">
+        <f>D101&amp;F101&amp;G101</f>
+        <v>111</v>
+      </c>
+      <c r="K101">
+        <f>VLOOKUP($I101,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>600</v>
+      </c>
+      <c r="L101">
+        <f>VLOOKUP($I101,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1200</v>
+      </c>
+      <c r="M101">
+        <f>VLOOKUP($I101,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="N101">
+        <f>VLOOKUP($I101,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="O101">
+        <f>VLOOKUP($I101,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="P101">
+        <f>VLOOKUP($I101,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="Q101">
+        <f>VLOOKUP($I101,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S101">
+        <v>10</v>
+      </c>
+      <c r="T101">
+        <v>10</v>
+      </c>
+      <c r="V101" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22">
       <c r="A102" s="1">
         <v>98</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="D102" s="1">
         <v>2</v>
@@ -5869,16 +8486,60 @@
       <c r="F102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="I102" t="str">
+        <f>D102&amp;F102&amp;G102</f>
+        <v>211</v>
+      </c>
+      <c r="K102">
+        <f>VLOOKUP($I102,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>1000</v>
+      </c>
+      <c r="L102">
+        <f>VLOOKUP($I102,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1500</v>
+      </c>
+      <c r="M102">
+        <f>VLOOKUP($I102,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>150</v>
+      </c>
+      <c r="N102">
+        <f>VLOOKUP($I102,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="O102">
+        <f>VLOOKUP($I102,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="P102">
+        <f>VLOOKUP($I102,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="Q102">
+        <f>VLOOKUP($I102,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S102">
+        <v>50</v>
+      </c>
+      <c r="T102">
+        <v>30</v>
+      </c>
+      <c r="V102" s="3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22">
       <c r="A103" s="1">
         <v>99</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="D103" s="1">
         <v>3</v>
@@ -5889,16 +8550,60 @@
       <c r="F103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="I103" t="str">
+        <f>D103&amp;F103&amp;G103</f>
+        <v>311</v>
+      </c>
+      <c r="K103">
+        <f>VLOOKUP($I103,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>1000</v>
+      </c>
+      <c r="L103">
+        <f>VLOOKUP($I103,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1500</v>
+      </c>
+      <c r="M103">
+        <f>VLOOKUP($I103,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>250</v>
+      </c>
+      <c r="N103">
+        <f>VLOOKUP($I103,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="O103">
+        <f>VLOOKUP($I103,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="P103">
+        <f>VLOOKUP($I103,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>200</v>
+      </c>
+      <c r="Q103">
+        <f>VLOOKUP($I103,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S103">
+        <v>100</v>
+      </c>
+      <c r="T103">
+        <v>80</v>
+      </c>
+      <c r="V103" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22">
       <c r="A104" s="1">
         <v>100</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="D104" s="1">
         <v>2</v>
@@ -5909,8 +8614,55 @@
       <c r="F104">
         <v>1</v>
       </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+      <c r="I104" t="str">
+        <f>D104&amp;F104&amp;G104</f>
+        <v>211</v>
+      </c>
+      <c r="K104">
+        <f>VLOOKUP($I104,属性类计算!$G:$O,K$4,FALSE)</f>
+        <v>1000</v>
+      </c>
+      <c r="L104">
+        <f>VLOOKUP($I104,属性类计算!$G:$O,L$4,FALSE)</f>
+        <v>1500</v>
+      </c>
+      <c r="M104">
+        <f>VLOOKUP($I104,属性类计算!$G:$O,M$4,FALSE)</f>
+        <v>150</v>
+      </c>
+      <c r="N104">
+        <f>VLOOKUP($I104,属性类计算!$G:$O,N$4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="O104">
+        <f>VLOOKUP($I104,属性类计算!$G:$O,O$4,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="P104">
+        <f>VLOOKUP($I104,属性类计算!$G:$O,P$4,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="Q104">
+        <f>VLOOKUP($I104,属性类计算!$G:$O,Q$4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S104">
+        <v>50</v>
+      </c>
+      <c r="T104">
+        <v>30</v>
+      </c>
+      <c r="V104" s="3">
+        <v>300</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:T104">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -5919,529 +8671,692 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:K19"/>
+  <dimension ref="A2:O19"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="4" max="5" width="13.25" customWidth="1"/>
-    <col min="6" max="6" width="7" customWidth="1"/>
-    <col min="7" max="10" width="8.875" customWidth="1"/>
+    <col min="5" max="6" width="13.25" customWidth="1"/>
+    <col min="8" max="9" width="13.25" customWidth="1"/>
+    <col min="10" max="10" width="7" customWidth="1"/>
+    <col min="11" max="14" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:11">
-      <c r="D2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F2" t="s">
-        <v>214</v>
-      </c>
-      <c r="G2" t="s">
-        <v>215</v>
-      </c>
+    <row r="2" spans="8:15">
       <c r="H2" t="s">
-        <v>216</v>
+        <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>217</v>
+        <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>218</v>
+        <v>11</v>
       </c>
       <c r="K2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="3" spans="4:11">
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="L2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="5:15">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="4:10">
-      <c r="D4">
+        <v>19</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="8:14">
+      <c r="H4">
         <v>600</v>
       </c>
-      <c r="E4">
+      <c r="I4">
         <v>1200</v>
       </c>
-      <c r="F4">
-        <v>100</v>
-      </c>
-      <c r="G4">
-        <v>30</v>
-      </c>
-      <c r="H4">
+      <c r="J4">
+        <v>100</v>
+      </c>
+      <c r="K4">
+        <v>30</v>
+      </c>
+      <c r="L4">
         <v>35</v>
       </c>
-      <c r="I4">
-        <v>100</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="4:10">
-      <c r="D5">
+      <c r="M4">
+        <v>100</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="8:14">
+      <c r="H5">
         <v>1000</v>
       </c>
-      <c r="E5">
+      <c r="I5">
         <v>1500</v>
-      </c>
-      <c r="F5">
-        <v>150</v>
-      </c>
-      <c r="G5">
-        <v>30</v>
-      </c>
-      <c r="H5">
-        <v>55</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
       </c>
       <c r="J5">
         <v>150</v>
       </c>
-    </row>
-    <row r="6" spans="4:10">
-      <c r="D6">
+      <c r="K5">
+        <v>30</v>
+      </c>
+      <c r="L5">
+        <v>55</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="8:14">
+      <c r="H6">
         <v>1000</v>
       </c>
-      <c r="E6">
+      <c r="I6">
         <v>1500</v>
       </c>
-      <c r="F6">
+      <c r="J6">
         <v>250</v>
       </c>
-      <c r="G6">
+      <c r="K6">
         <v>50</v>
       </c>
-      <c r="H6">
+      <c r="L6">
         <v>50</v>
       </c>
-      <c r="I6">
+      <c r="M6">
         <v>200</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B8" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C8" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>226</v>
+      </c>
+      <c r="H8">
         <v>600</v>
       </c>
-      <c r="E8">
+      <c r="I8">
         <v>1200</v>
       </c>
-      <c r="F8">
-        <v>100</v>
-      </c>
-      <c r="G8">
-        <v>30</v>
-      </c>
-      <c r="H8">
+      <c r="J8">
+        <v>100</v>
+      </c>
+      <c r="K8">
+        <v>30</v>
+      </c>
+      <c r="L8">
         <v>35</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B9" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C9" t="s">
+        <v>227</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>228</v>
+      </c>
+      <c r="H9">
+        <v>1200</v>
+      </c>
+      <c r="I9">
+        <v>2000</v>
+      </c>
+      <c r="J9">
+        <v>80</v>
+      </c>
+      <c r="K9">
+        <v>25</v>
+      </c>
+      <c r="L9">
+        <v>30</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
         <v>223</v>
       </c>
-      <c r="D9">
+      <c r="B10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>230</v>
+      </c>
+      <c r="H10">
+        <v>600</v>
+      </c>
+      <c r="I10">
         <v>1200</v>
       </c>
-      <c r="E9">
+      <c r="J10">
+        <v>100</v>
+      </c>
+      <c r="K10">
+        <v>30</v>
+      </c>
+      <c r="L10">
+        <v>35</v>
+      </c>
+      <c r="M10">
+        <v>100</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>223</v>
+      </c>
+      <c r="B11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C11" t="s">
+        <v>227</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>231</v>
+      </c>
+      <c r="H11">
+        <v>1200</v>
+      </c>
+      <c r="I11">
         <v>2000</v>
       </c>
-      <c r="F9">
+      <c r="J11">
         <v>80</v>
       </c>
-      <c r="G9">
+      <c r="K11">
         <v>25</v>
       </c>
-      <c r="H9">
-        <v>30</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>220</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="L11">
+        <v>30</v>
+      </c>
+      <c r="M11">
+        <v>120</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>232</v>
+      </c>
+      <c r="B12" t="s">
         <v>224</v>
       </c>
-      <c r="C10" t="s">
-        <v>222</v>
-      </c>
-      <c r="D10">
-        <v>600</v>
-      </c>
-      <c r="E10">
-        <v>1200</v>
-      </c>
-      <c r="F10">
-        <v>100</v>
-      </c>
-      <c r="G10">
-        <v>30</v>
-      </c>
-      <c r="H10">
-        <v>35</v>
-      </c>
-      <c r="I10">
-        <v>100</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
-        <v>220</v>
-      </c>
-      <c r="B11" t="s">
-        <v>224</v>
-      </c>
-      <c r="C11" t="s">
-        <v>223</v>
-      </c>
-      <c r="D11">
-        <v>1200</v>
-      </c>
-      <c r="E11">
-        <v>2000</v>
-      </c>
-      <c r="F11">
-        <v>80</v>
-      </c>
-      <c r="G11">
-        <v>25</v>
-      </c>
-      <c r="H11">
-        <v>30</v>
-      </c>
-      <c r="I11">
-        <v>120</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="s">
+      <c r="C12" t="s">
         <v>225</v>
       </c>
-      <c r="B12" t="s">
-        <v>221</v>
-      </c>
-      <c r="C12" t="s">
-        <v>222</v>
-      </c>
       <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>233</v>
+      </c>
+      <c r="H12">
         <v>1000</v>
       </c>
-      <c r="E12">
+      <c r="I12">
         <v>1500</v>
-      </c>
-      <c r="F12">
-        <v>150</v>
-      </c>
-      <c r="G12">
-        <v>30</v>
-      </c>
-      <c r="H12">
-        <v>55</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
       </c>
       <c r="J12">
         <v>150</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12">
+        <v>30</v>
+      </c>
+      <c r="L12">
+        <v>55</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
+        <v>232</v>
+      </c>
+      <c r="B13" t="s">
+        <v>224</v>
+      </c>
+      <c r="C13" t="s">
+        <v>227</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>234</v>
+      </c>
+      <c r="H13">
+        <v>2000</v>
+      </c>
+      <c r="I13">
+        <v>3000</v>
+      </c>
+      <c r="J13">
+        <v>120</v>
+      </c>
+      <c r="K13">
+        <v>25</v>
+      </c>
+      <c r="L13">
+        <v>50</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" t="s">
+        <v>232</v>
+      </c>
+      <c r="B14" t="s">
+        <v>229</v>
+      </c>
+      <c r="C14" t="s">
         <v>225</v>
       </c>
-      <c r="B13" t="s">
-        <v>221</v>
-      </c>
-      <c r="C13" t="s">
-        <v>223</v>
-      </c>
-      <c r="D13">
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>235</v>
+      </c>
+      <c r="H14">
+        <v>1000</v>
+      </c>
+      <c r="I14">
+        <v>1500</v>
+      </c>
+      <c r="J14">
+        <v>150</v>
+      </c>
+      <c r="K14">
+        <v>30</v>
+      </c>
+      <c r="L14">
+        <v>55</v>
+      </c>
+      <c r="M14">
+        <v>130</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" t="s">
+        <v>232</v>
+      </c>
+      <c r="B15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C15" t="s">
+        <v>227</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>236</v>
+      </c>
+      <c r="H15">
         <v>2000</v>
       </c>
-      <c r="E13">
+      <c r="I15">
         <v>3000</v>
       </c>
-      <c r="F13">
+      <c r="J15">
         <v>120</v>
       </c>
-      <c r="G13">
+      <c r="K15">
         <v>25</v>
       </c>
-      <c r="H13">
+      <c r="L15">
         <v>50</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="s">
+      <c r="M15">
+        <v>160</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" t="s">
+        <v>237</v>
+      </c>
+      <c r="B16" t="s">
+        <v>224</v>
+      </c>
+      <c r="C16" t="s">
         <v>225</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>238</v>
+      </c>
+      <c r="H16">
+        <v>1000</v>
+      </c>
+      <c r="I16">
+        <v>1500</v>
+      </c>
+      <c r="J16">
+        <v>250</v>
+      </c>
+      <c r="K16">
+        <v>50</v>
+      </c>
+      <c r="L16">
+        <v>50</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" t="s">
+        <v>237</v>
+      </c>
+      <c r="B17" t="s">
         <v>224</v>
       </c>
-      <c r="C14" t="s">
-        <v>222</v>
-      </c>
-      <c r="D14">
+      <c r="C17" t="s">
+        <v>227</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>239</v>
+      </c>
+      <c r="H17">
+        <v>2000</v>
+      </c>
+      <c r="I17">
+        <v>3000</v>
+      </c>
+      <c r="J17">
+        <v>200</v>
+      </c>
+      <c r="K17">
+        <v>45</v>
+      </c>
+      <c r="L17">
+        <v>45</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" t="s">
+        <v>237</v>
+      </c>
+      <c r="B18" t="s">
+        <v>229</v>
+      </c>
+      <c r="C18" t="s">
+        <v>225</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H18">
         <v>1000</v>
       </c>
-      <c r="E14">
+      <c r="I18">
         <v>1500</v>
       </c>
-      <c r="F14">
-        <v>150</v>
-      </c>
-      <c r="G14">
-        <v>30</v>
-      </c>
-      <c r="H14">
-        <v>55</v>
-      </c>
-      <c r="I14">
-        <v>130</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" t="s">
-        <v>225</v>
-      </c>
-      <c r="B15" t="s">
-        <v>224</v>
-      </c>
-      <c r="C15" t="s">
-        <v>223</v>
-      </c>
-      <c r="D15">
+      <c r="J18">
+        <v>250</v>
+      </c>
+      <c r="K18">
+        <v>50</v>
+      </c>
+      <c r="L18">
+        <v>50</v>
+      </c>
+      <c r="M18">
+        <v>200</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" t="s">
+        <v>237</v>
+      </c>
+      <c r="B19" t="s">
+        <v>229</v>
+      </c>
+      <c r="C19" t="s">
+        <v>227</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>241</v>
+      </c>
+      <c r="H19">
         <v>2000</v>
       </c>
-      <c r="E15">
+      <c r="I19">
         <v>3000</v>
       </c>
-      <c r="F15">
-        <v>120</v>
-      </c>
-      <c r="G15">
-        <v>25</v>
-      </c>
-      <c r="H15">
-        <v>50</v>
-      </c>
-      <c r="I15">
-        <v>160</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="s">
-        <v>226</v>
-      </c>
-      <c r="B16" t="s">
-        <v>221</v>
-      </c>
-      <c r="C16" t="s">
-        <v>222</v>
-      </c>
-      <c r="D16">
-        <v>1000</v>
-      </c>
-      <c r="E16">
-        <v>1500</v>
-      </c>
-      <c r="F16">
-        <v>250</v>
-      </c>
-      <c r="G16">
-        <v>50</v>
-      </c>
-      <c r="H16">
-        <v>50</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
+      <c r="J19">
+        <v>200</v>
+      </c>
+      <c r="K19">
+        <v>45</v>
+      </c>
+      <c r="L19">
+        <v>45</v>
+      </c>
+      <c r="M19">
         <v>240</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="s">
-        <v>226</v>
-      </c>
-      <c r="B17" t="s">
-        <v>221</v>
-      </c>
-      <c r="C17" t="s">
-        <v>223</v>
-      </c>
-      <c r="D17">
-        <v>2000</v>
-      </c>
-      <c r="E17">
-        <v>3000</v>
-      </c>
-      <c r="F17">
-        <v>200</v>
-      </c>
-      <c r="G17">
-        <v>45</v>
-      </c>
-      <c r="H17">
-        <v>45</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" t="s">
-        <v>226</v>
-      </c>
-      <c r="B18" t="s">
-        <v>224</v>
-      </c>
-      <c r="C18" t="s">
-        <v>222</v>
-      </c>
-      <c r="D18">
-        <v>1000</v>
-      </c>
-      <c r="E18">
-        <v>1500</v>
-      </c>
-      <c r="F18">
-        <v>250</v>
-      </c>
-      <c r="G18">
-        <v>50</v>
-      </c>
-      <c r="H18">
-        <v>50</v>
-      </c>
-      <c r="I18">
-        <v>200</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" t="s">
-        <v>226</v>
-      </c>
-      <c r="B19" t="s">
-        <v>224</v>
-      </c>
-      <c r="C19" t="s">
-        <v>223</v>
-      </c>
-      <c r="D19">
-        <v>2000</v>
-      </c>
-      <c r="E19">
-        <v>3000</v>
-      </c>
-      <c r="F19">
-        <v>200</v>
-      </c>
-      <c r="G19">
-        <v>45</v>
-      </c>
-      <c r="H19">
-        <v>45</v>
-      </c>
-      <c r="I19">
-        <v>240</v>
-      </c>
-      <c r="J19">
+      <c r="N19">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K19">
+  <autoFilter ref="A1:O19">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/AA怪物文档/moster_data.xlsx
+++ b/AA怪物文档/moster_data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="256">
   <si>
     <t/>
   </si>
@@ -88,15 +88,107 @@
     <t>bool</t>
   </si>
   <si>
+    <t>text_1</t>
+  </si>
+  <si>
+    <t>text_2</t>
+  </si>
+  <si>
+    <t>text_3</t>
+  </si>
+  <si>
+    <t>text_4</t>
+  </si>
+  <si>
+    <t>text_5</t>
+  </si>
+  <si>
+    <t>text_6</t>
+  </si>
+  <si>
+    <t>text_7</t>
+  </si>
+  <si>
+    <t>text_8</t>
+  </si>
+  <si>
     <t>key1</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>近战</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，拥有较大的近战警戒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>取消警戒范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(800/1400)</t>
+    </r>
+  </si>
+  <si>
+    <t>音效、受击特效均采用模板“野猪”</t>
+  </si>
+  <si>
+    <t>普通攻击使用“name普攻”</t>
+  </si>
+  <si>
+    <t>普通攻击攻击距离为200</t>
+  </si>
+  <si>
     <t>10101001</t>
   </si>
   <si>
     <t>波波浪浪</t>
   </si>
   <si>
+    <t>音效、受击特效均采用特效附带音效</t>
+  </si>
+  <si>
     <t>10101002</t>
   </si>
   <si>
@@ -689,6 +781,9 @@
   </si>
   <si>
     <t>黄色坦克战士</t>
+  </si>
+  <si>
+    <t>作为人类，对于物理防御力较野猪高(+20)，同时法术防御力较为薄弱(-15)</t>
   </si>
   <si>
     <t>小怪</t>
@@ -758,13 +853,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -916,6 +1017,12 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1242,16 +1349,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1260,119 +1364,122 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1380,7 +1487,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1727,10 +1838,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V104"/>
+  <dimension ref="A1:AJ104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AF16" sqref="AF16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1740,7 +1851,15 @@
     <col min="4" max="5" width="9" style="1"/>
     <col min="7" max="8" width="13.25" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
-    <col min="10" max="13" width="8.875" customWidth="1"/>
+    <col min="10" max="10" width="8.875" customWidth="1"/>
+    <col min="11" max="12" width="13.25" customWidth="1"/>
+    <col min="13" max="13" width="8.875" customWidth="1"/>
+    <col min="26" max="26" width="5.375" customWidth="1"/>
+    <col min="27" max="27" width="51.5" customWidth="1"/>
+    <col min="28" max="28" width="33.75" customWidth="1"/>
+    <col min="29" max="29" width="35.875" customWidth="1"/>
+    <col min="30" max="30" width="7.375" customWidth="1"/>
+    <col min="36" max="36" width="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -1792,7 +1911,6 @@
       <c r="Q1" t="s">
         <v>0</v>
       </c>
-      <c r="R1"/>
       <c r="S1" t="s">
         <v>0</v>
       </c>
@@ -1846,7 +1964,6 @@
       <c r="Q2" t="s">
         <v>15</v>
       </c>
-      <c r="R2"/>
       <c r="S2" t="s">
         <v>16</v>
       </c>
@@ -1857,7 +1974,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:34">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -1913,10 +2030,34 @@
       <c r="V3" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="AA3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" ht="14.25" spans="1:30">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>0</v>
@@ -1963,23 +2104,34 @@
       <c r="Q4">
         <v>8</v>
       </c>
-      <c r="R4"/>
       <c r="S4" t="s">
         <v>0</v>
       </c>
       <c r="T4" t="s">
         <v>0</v>
       </c>
+      <c r="AA4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:36">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -2040,16 +2192,46 @@
       <c r="V5" s="3">
         <v>340</v>
       </c>
+      <c r="X5" t="str">
+        <f>IF(F5=1,"近战","远程")</f>
+        <v>远程</v>
+      </c>
+      <c r="Y5" t="str">
+        <f>IF(K5&gt;800,"较大","较小")</f>
+        <v>较大</v>
+      </c>
+      <c r="Z5" t="str">
+        <f>IF(D5=1,"小怪",IF(D5=2,"精英","BOSS"))</f>
+        <v>小怪</v>
+      </c>
+      <c r="AA5" t="str">
+        <f>X5&amp;Z5&amp;"，拥有"&amp;Y5&amp;"的警戒/取消警戒范围("&amp;K5&amp;"/"&amp;L5&amp;")"</f>
+        <v>远程小怪，拥有较大的警戒/取消警戒范围(1200/2000)</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC5" t="str">
+        <f>"普通攻击使用“"&amp;C5&amp;"普攻”"</f>
+        <v>普通攻击使用“波波浪浪普攻”</v>
+      </c>
+      <c r="AD5" t="str">
+        <f>"普通攻击攻击距离为"&amp;K5</f>
+        <v>普通攻击攻击距离为1200</v>
+      </c>
+      <c r="AJ5" s="5">
+        <v>1200</v>
+      </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:36">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -2110,16 +2292,46 @@
       <c r="V6" s="3">
         <v>340</v>
       </c>
+      <c r="X6" t="str">
+        <f>IF(F6=1,"近战","远程")</f>
+        <v>远程</v>
+      </c>
+      <c r="Y6" t="str">
+        <f t="shared" ref="Y6:Y37" si="1">IF(K6&gt;800,"较大","较小")</f>
+        <v>较大</v>
+      </c>
+      <c r="Z6" t="str">
+        <f t="shared" ref="Z6:Z37" si="2">IF(D6=1,"小怪",IF(D6=2,"精英","BOSS"))</f>
+        <v>小怪</v>
+      </c>
+      <c r="AA6" t="str">
+        <f t="shared" ref="AA6:AA37" si="3">X6&amp;Z6&amp;"，拥有"&amp;Y6&amp;"的警戒/取消警戒范围("&amp;K6&amp;"/"&amp;L6&amp;")"</f>
+        <v>远程小怪，拥有较大的警戒/取消警戒范围(1200/2000)</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC6" t="str">
+        <f t="shared" ref="AC6:AC37" si="4">"普通攻击使用“"&amp;C6&amp;"普攻”"</f>
+        <v>普通攻击使用“浪里个波普攻”</v>
+      </c>
+      <c r="AD6" t="str">
+        <f t="shared" ref="AD6:AD37" si="5">"普通攻击攻击距离为"&amp;K6</f>
+        <v>普通攻击攻击距离为1200</v>
+      </c>
+      <c r="AJ6" s="5">
+        <v>1200</v>
+      </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:36">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -2180,16 +2392,46 @@
       <c r="V7" s="3">
         <v>340</v>
       </c>
+      <c r="X7" t="str">
+        <f>IF(F7=1,"近战","远程")</f>
+        <v>远程</v>
+      </c>
+      <c r="Y7" t="str">
+        <f t="shared" si="1"/>
+        <v>较大</v>
+      </c>
+      <c r="Z7" t="str">
+        <f t="shared" si="2"/>
+        <v>小怪</v>
+      </c>
+      <c r="AA7" t="str">
+        <f t="shared" si="3"/>
+        <v>远程小怪，拥有较大的警戒/取消警戒范围(1200/2000)</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC7" t="str">
+        <f t="shared" si="4"/>
+        <v>普通攻击使用“波里个浪普攻”</v>
+      </c>
+      <c r="AD7" t="str">
+        <f t="shared" si="5"/>
+        <v>普通攻击攻击距离为1200</v>
+      </c>
+      <c r="AJ7" s="5">
+        <v>1200</v>
+      </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:36">
       <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -2250,16 +2492,46 @@
       <c r="V8" s="3">
         <v>400</v>
       </c>
+      <c r="X8" t="str">
+        <f>IF(F8=1,"近战","远程")</f>
+        <v>近战</v>
+      </c>
+      <c r="Y8" t="str">
+        <f t="shared" si="1"/>
+        <v>较小</v>
+      </c>
+      <c r="Z8" t="str">
+        <f t="shared" si="2"/>
+        <v>小怪</v>
+      </c>
+      <c r="AA8" t="str">
+        <f t="shared" si="3"/>
+        <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC8" t="str">
+        <f t="shared" si="4"/>
+        <v>普通攻击使用“钛族甲虫普攻”</v>
+      </c>
+      <c r="AD8" t="str">
+        <f t="shared" si="5"/>
+        <v>普通攻击攻击距离为600</v>
+      </c>
+      <c r="AJ8" s="5">
+        <v>160</v>
+      </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:36">
       <c r="A9" s="1">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -2320,16 +2592,46 @@
       <c r="V9" s="3">
         <v>340</v>
       </c>
+      <c r="X9" t="str">
+        <f>IF(F9=1,"近战","远程")</f>
+        <v>远程</v>
+      </c>
+      <c r="Y9" t="str">
+        <f t="shared" si="1"/>
+        <v>较大</v>
+      </c>
+      <c r="Z9" t="str">
+        <f t="shared" si="2"/>
+        <v>小怪</v>
+      </c>
+      <c r="AA9" t="str">
+        <f t="shared" si="3"/>
+        <v>远程小怪，拥有较大的警戒/取消警戒范围(1200/2000)</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC9" t="str">
+        <f t="shared" si="4"/>
+        <v>普通攻击使用“钛族飞虫普攻”</v>
+      </c>
+      <c r="AD9" t="str">
+        <f t="shared" si="5"/>
+        <v>普通攻击攻击距离为1200</v>
+      </c>
+      <c r="AJ9" s="5">
+        <v>800</v>
+      </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:36">
       <c r="A10" s="1">
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -2390,16 +2692,46 @@
       <c r="V10" s="3">
         <v>340</v>
       </c>
+      <c r="X10" t="str">
+        <f>IF(F10=1,"近战","远程")</f>
+        <v>远程</v>
+      </c>
+      <c r="Y10" t="str">
+        <f t="shared" si="1"/>
+        <v>较大</v>
+      </c>
+      <c r="Z10" t="str">
+        <f t="shared" si="2"/>
+        <v>小怪</v>
+      </c>
+      <c r="AA10" t="str">
+        <f t="shared" si="3"/>
+        <v>远程小怪，拥有较大的警戒/取消警戒范围(1200/2000)</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC10" t="str">
+        <f t="shared" si="4"/>
+        <v>普通攻击使用“钛族法师普攻”</v>
+      </c>
+      <c r="AD10" t="str">
+        <f t="shared" si="5"/>
+        <v>普通攻击攻击距离为1200</v>
+      </c>
+      <c r="AJ10" s="5">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:36">
       <c r="A11" s="1">
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -2460,16 +2792,46 @@
       <c r="V11" s="3">
         <v>520</v>
       </c>
+      <c r="X11" t="str">
+        <f t="shared" ref="X11:X24" si="6">IF(F11=1,"近战","远程")</f>
+        <v>近战</v>
+      </c>
+      <c r="Y11" t="str">
+        <f t="shared" si="1"/>
+        <v>较小</v>
+      </c>
+      <c r="Z11" t="str">
+        <f t="shared" si="2"/>
+        <v>小怪</v>
+      </c>
+      <c r="AA11" t="str">
+        <f t="shared" si="3"/>
+        <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC11" t="str">
+        <f t="shared" si="4"/>
+        <v>普通攻击使用“钛族士兵普攻”</v>
+      </c>
+      <c r="AD11" t="str">
+        <f t="shared" si="5"/>
+        <v>普通攻击攻击距离为600</v>
+      </c>
+      <c r="AJ11" s="5">
+        <v>200</v>
+      </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:36">
       <c r="A12" s="1">
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
@@ -2530,16 +2892,46 @@
       <c r="V12" s="3">
         <v>340</v>
       </c>
+      <c r="X12" t="str">
+        <f t="shared" si="6"/>
+        <v>远程</v>
+      </c>
+      <c r="Y12" t="str">
+        <f t="shared" si="1"/>
+        <v>较大</v>
+      </c>
+      <c r="Z12" t="str">
+        <f t="shared" si="2"/>
+        <v>精英</v>
+      </c>
+      <c r="AA12" t="str">
+        <f t="shared" si="3"/>
+        <v>远程精英，拥有较大的警戒/取消警戒范围(2000/3000)</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC12" t="str">
+        <f t="shared" si="4"/>
+        <v>普通攻击使用“钛族大祭司普攻”</v>
+      </c>
+      <c r="AD12" t="str">
+        <f t="shared" si="5"/>
+        <v>普通攻击攻击距离为2000</v>
+      </c>
+      <c r="AJ12" s="5">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:36">
       <c r="A13" s="1">
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D13" s="1">
         <v>2</v>
@@ -2600,16 +2992,46 @@
       <c r="V13" s="3">
         <v>560</v>
       </c>
+      <c r="X13" t="str">
+        <f t="shared" si="6"/>
+        <v>近战</v>
+      </c>
+      <c r="Y13" t="str">
+        <f t="shared" si="1"/>
+        <v>较大</v>
+      </c>
+      <c r="Z13" t="str">
+        <f t="shared" si="2"/>
+        <v>精英</v>
+      </c>
+      <c r="AA13" t="str">
+        <f t="shared" si="3"/>
+        <v>近战精英，拥有较大的警戒/取消警戒范围(1000/1500)</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC13" t="str">
+        <f t="shared" si="4"/>
+        <v>普通攻击使用“钛族磁力格斗者普攻”</v>
+      </c>
+      <c r="AD13" t="str">
+        <f t="shared" si="5"/>
+        <v>普通攻击攻击距离为1000</v>
+      </c>
+      <c r="AJ13" s="5">
+        <v>250</v>
+      </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:36">
       <c r="A14" s="1">
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D14" s="1">
         <v>2</v>
@@ -2670,16 +3092,46 @@
       <c r="V14" s="3">
         <v>560</v>
       </c>
+      <c r="X14" t="str">
+        <f t="shared" si="6"/>
+        <v>近战</v>
+      </c>
+      <c r="Y14" t="str">
+        <f t="shared" si="1"/>
+        <v>较大</v>
+      </c>
+      <c r="Z14" t="str">
+        <f t="shared" si="2"/>
+        <v>精英</v>
+      </c>
+      <c r="AA14" t="str">
+        <f t="shared" si="3"/>
+        <v>近战精英，拥有较大的警戒/取消警戒范围(1000/1500)</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC14" t="str">
+        <f t="shared" si="4"/>
+        <v>普通攻击使用“钛族纳米剑士普攻”</v>
+      </c>
+      <c r="AD14" t="str">
+        <f t="shared" si="5"/>
+        <v>普通攻击攻击距离为1000</v>
+      </c>
+      <c r="AJ14" s="5">
+        <v>250</v>
+      </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:36">
       <c r="A15" s="1">
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D15" s="1">
         <v>3</v>
@@ -2740,16 +3192,46 @@
       <c r="V15" s="3">
         <v>520</v>
       </c>
+      <c r="X15" t="str">
+        <f t="shared" si="6"/>
+        <v>远程</v>
+      </c>
+      <c r="Y15" t="str">
+        <f t="shared" si="1"/>
+        <v>较大</v>
+      </c>
+      <c r="Z15" t="str">
+        <f t="shared" si="2"/>
+        <v>BOSS</v>
+      </c>
+      <c r="AA15" t="str">
+        <f t="shared" si="3"/>
+        <v>远程BOSS，拥有较大的警戒/取消警戒范围(2000/3000)</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC15" t="str">
+        <f t="shared" si="4"/>
+        <v>普通攻击使用“钛族破坏神普攻”</v>
+      </c>
+      <c r="AD15" t="str">
+        <f t="shared" si="5"/>
+        <v>普通攻击攻击距离为2000</v>
+      </c>
+      <c r="AJ15" s="5">
+        <v>1600</v>
+      </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:36">
       <c r="A16" s="1">
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -2810,16 +3292,46 @@
       <c r="V16" s="3">
         <v>380</v>
       </c>
+      <c r="X16" t="str">
+        <f t="shared" si="6"/>
+        <v>近战</v>
+      </c>
+      <c r="Y16" t="str">
+        <f t="shared" si="1"/>
+        <v>较小</v>
+      </c>
+      <c r="Z16" t="str">
+        <f t="shared" si="2"/>
+        <v>小怪</v>
+      </c>
+      <c r="AA16" t="str">
+        <f t="shared" si="3"/>
+        <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC16" t="str">
+        <f t="shared" si="4"/>
+        <v>普通攻击使用“火狼普攻”</v>
+      </c>
+      <c r="AD16" t="str">
+        <f t="shared" si="5"/>
+        <v>普通攻击攻击距离为600</v>
+      </c>
+      <c r="AJ16" s="5">
+        <v>140</v>
+      </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:36">
       <c r="A17" s="1">
         <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -2880,16 +3392,46 @@
       <c r="V17" s="3">
         <v>420</v>
       </c>
+      <c r="X17" t="str">
+        <f t="shared" si="6"/>
+        <v>近战</v>
+      </c>
+      <c r="Y17" t="str">
+        <f t="shared" si="1"/>
+        <v>较小</v>
+      </c>
+      <c r="Z17" t="str">
+        <f t="shared" si="2"/>
+        <v>小怪</v>
+      </c>
+      <c r="AA17" t="str">
+        <f t="shared" si="3"/>
+        <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC17" t="str">
+        <f t="shared" si="4"/>
+        <v>普通攻击使用“双头火狼普攻”</v>
+      </c>
+      <c r="AD17" t="str">
+        <f t="shared" si="5"/>
+        <v>普通攻击攻击距离为600</v>
+      </c>
+      <c r="AJ17" s="5">
+        <v>160</v>
+      </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:36">
       <c r="A18" s="1">
         <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D18" s="1">
         <v>2</v>
@@ -2950,16 +3492,46 @@
       <c r="V18" s="3">
         <v>520</v>
       </c>
+      <c r="X18" t="str">
+        <f t="shared" si="6"/>
+        <v>近战</v>
+      </c>
+      <c r="Y18" t="str">
+        <f t="shared" si="1"/>
+        <v>较大</v>
+      </c>
+      <c r="Z18" t="str">
+        <f t="shared" si="2"/>
+        <v>精英</v>
+      </c>
+      <c r="AA18" t="str">
+        <f t="shared" si="3"/>
+        <v>近战精英，拥有较大的警戒/取消警戒范围(1000/1500)</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC18" t="str">
+        <f t="shared" si="4"/>
+        <v>普通攻击使用“地狱三头犬普攻”</v>
+      </c>
+      <c r="AD18" t="str">
+        <f t="shared" si="5"/>
+        <v>普通攻击攻击距离为1000</v>
+      </c>
+      <c r="AJ18" s="5">
+        <v>180</v>
+      </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:36">
       <c r="A19" s="1">
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D19" s="1">
         <v>2</v>
@@ -3020,16 +3592,46 @@
       <c r="V19" s="3">
         <v>340</v>
       </c>
+      <c r="X19" t="str">
+        <f t="shared" si="6"/>
+        <v>远程</v>
+      </c>
+      <c r="Y19" t="str">
+        <f t="shared" si="1"/>
+        <v>较大</v>
+      </c>
+      <c r="Z19" t="str">
+        <f t="shared" si="2"/>
+        <v>精英</v>
+      </c>
+      <c r="AA19" t="str">
+        <f t="shared" si="3"/>
+        <v>远程精英，拥有较大的警戒/取消警戒范围(2000/3000)</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC19" t="str">
+        <f t="shared" si="4"/>
+        <v>普通攻击使用“美杜莎普攻”</v>
+      </c>
+      <c r="AD19" t="str">
+        <f t="shared" si="5"/>
+        <v>普通攻击攻击距离为2000</v>
+      </c>
+      <c r="AJ19" s="5">
+        <v>800</v>
+      </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:36">
       <c r="A20" s="1">
         <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="D20" s="1">
         <v>2</v>
@@ -3090,16 +3692,46 @@
       <c r="V20" s="3">
         <v>340</v>
       </c>
+      <c r="X20" t="str">
+        <f t="shared" si="6"/>
+        <v>近战</v>
+      </c>
+      <c r="Y20" t="str">
+        <f t="shared" si="1"/>
+        <v>较大</v>
+      </c>
+      <c r="Z20" t="str">
+        <f t="shared" si="2"/>
+        <v>精英</v>
+      </c>
+      <c r="AA20" t="str">
+        <f t="shared" si="3"/>
+        <v>近战精英，拥有较大的警戒/取消警戒范围(1000/1500)</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC20" t="str">
+        <f t="shared" si="4"/>
+        <v>普通攻击使用“王庭护卫普攻”</v>
+      </c>
+      <c r="AD20" t="str">
+        <f t="shared" si="5"/>
+        <v>普通攻击攻击距离为1000</v>
+      </c>
+      <c r="AJ20" s="5">
+        <v>220</v>
+      </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:36">
       <c r="A21" s="1">
         <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D21" s="1">
         <v>2</v>
@@ -3160,16 +3792,46 @@
       <c r="V21" s="3">
         <v>300</v>
       </c>
+      <c r="X21" t="str">
+        <f t="shared" si="6"/>
+        <v>近战</v>
+      </c>
+      <c r="Y21" t="str">
+        <f t="shared" si="1"/>
+        <v>较大</v>
+      </c>
+      <c r="Z21" t="str">
+        <f t="shared" si="2"/>
+        <v>精英</v>
+      </c>
+      <c r="AA21" t="str">
+        <f t="shared" si="3"/>
+        <v>近战精英，拥有较大的警戒/取消警戒范围(1000/1500)</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC21" t="str">
+        <f t="shared" si="4"/>
+        <v>普通攻击使用“熔岩巨魔普攻”</v>
+      </c>
+      <c r="AD21" t="str">
+        <f t="shared" si="5"/>
+        <v>普通攻击攻击距离为1000</v>
+      </c>
+      <c r="AJ21" s="5">
+        <v>140</v>
+      </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:36">
       <c r="A22" s="1">
         <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="D22" s="1">
         <v>2</v>
@@ -3230,16 +3892,46 @@
       <c r="V22" s="3">
         <v>300</v>
       </c>
+      <c r="X22" t="str">
+        <f t="shared" si="6"/>
+        <v>近战</v>
+      </c>
+      <c r="Y22" t="str">
+        <f t="shared" si="1"/>
+        <v>较大</v>
+      </c>
+      <c r="Z22" t="str">
+        <f t="shared" si="2"/>
+        <v>精英</v>
+      </c>
+      <c r="AA22" t="str">
+        <f t="shared" si="3"/>
+        <v>近战精英，拥有较大的警戒/取消警戒范围(1000/1500)</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC22" t="str">
+        <f t="shared" si="4"/>
+        <v>普通攻击使用“寒冰巨魔普攻”</v>
+      </c>
+      <c r="AD22" t="str">
+        <f t="shared" si="5"/>
+        <v>普通攻击攻击距离为1000</v>
+      </c>
+      <c r="AJ22" s="5">
+        <v>140</v>
+      </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:36">
       <c r="A23" s="1">
         <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
@@ -3300,16 +3992,46 @@
       <c r="V23" s="3">
         <v>300</v>
       </c>
+      <c r="X23" t="str">
+        <f t="shared" si="6"/>
+        <v>近战</v>
+      </c>
+      <c r="Y23" t="str">
+        <f t="shared" si="1"/>
+        <v>较小</v>
+      </c>
+      <c r="Z23" t="str">
+        <f t="shared" si="2"/>
+        <v>小怪</v>
+      </c>
+      <c r="AA23" t="str">
+        <f t="shared" si="3"/>
+        <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC23" t="str">
+        <f t="shared" si="4"/>
+        <v>普通攻击使用“独眼巨魔普攻”</v>
+      </c>
+      <c r="AD23" t="str">
+        <f t="shared" si="5"/>
+        <v>普通攻击攻击距离为600</v>
+      </c>
+      <c r="AJ23" s="5">
+        <v>140</v>
+      </c>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:36">
       <c r="A24" s="1">
         <v>20</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
@@ -3370,16 +4092,46 @@
       <c r="V24" s="3">
         <v>300</v>
       </c>
+      <c r="X24" t="str">
+        <f t="shared" si="6"/>
+        <v>近战</v>
+      </c>
+      <c r="Y24" t="str">
+        <f t="shared" si="1"/>
+        <v>较小</v>
+      </c>
+      <c r="Z24" t="str">
+        <f t="shared" si="2"/>
+        <v>小怪</v>
+      </c>
+      <c r="AA24" t="str">
+        <f t="shared" si="3"/>
+        <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC24" t="str">
+        <f t="shared" si="4"/>
+        <v>普通攻击使用“火焰巨魔普攻”</v>
+      </c>
+      <c r="AD24" t="str">
+        <f t="shared" si="5"/>
+        <v>普通攻击攻击距离为600</v>
+      </c>
+      <c r="AJ24" s="5">
+        <v>140</v>
+      </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:36">
       <c r="A25" s="1">
         <v>21</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D25" s="1">
         <v>2</v>
@@ -3440,16 +4192,46 @@
       <c r="V25" s="3">
         <v>260</v>
       </c>
+      <c r="X25" t="str">
+        <f t="shared" ref="X25:X56" si="7">IF(F25=1,"近战","远程")</f>
+        <v>近战</v>
+      </c>
+      <c r="Y25" t="str">
+        <f t="shared" si="1"/>
+        <v>较大</v>
+      </c>
+      <c r="Z25" t="str">
+        <f t="shared" si="2"/>
+        <v>精英</v>
+      </c>
+      <c r="AA25" t="str">
+        <f t="shared" si="3"/>
+        <v>近战精英，拥有较大的警戒/取消警戒范围(1000/1500)</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC25" t="str">
+        <f t="shared" si="4"/>
+        <v>普通攻击使用“炎魔普攻”</v>
+      </c>
+      <c r="AD25" t="str">
+        <f t="shared" si="5"/>
+        <v>普通攻击攻击距离为1000</v>
+      </c>
+      <c r="AJ25" s="5">
+        <v>200</v>
+      </c>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:36">
       <c r="A26" s="1">
         <v>22</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="D26" s="1">
         <v>2</v>
@@ -3510,16 +4292,46 @@
       <c r="V26" s="3">
         <v>340</v>
       </c>
+      <c r="X26" t="str">
+        <f t="shared" si="7"/>
+        <v>近战</v>
+      </c>
+      <c r="Y26" t="str">
+        <f t="shared" si="1"/>
+        <v>较大</v>
+      </c>
+      <c r="Z26" t="str">
+        <f t="shared" si="2"/>
+        <v>精英</v>
+      </c>
+      <c r="AA26" t="str">
+        <f t="shared" si="3"/>
+        <v>近战精英，拥有较大的警戒/取消警戒范围(1000/1500)</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC26" t="str">
+        <f t="shared" si="4"/>
+        <v>普通攻击使用“金刚普攻”</v>
+      </c>
+      <c r="AD26" t="str">
+        <f t="shared" si="5"/>
+        <v>普通攻击攻击距离为1000</v>
+      </c>
+      <c r="AJ26" s="5">
+        <v>120</v>
+      </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:36">
       <c r="A27" s="1">
         <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
@@ -3580,16 +4392,46 @@
       <c r="V27" s="3">
         <v>420</v>
       </c>
+      <c r="X27" t="str">
+        <f t="shared" si="7"/>
+        <v>远程</v>
+      </c>
+      <c r="Y27" t="str">
+        <f t="shared" si="1"/>
+        <v>较大</v>
+      </c>
+      <c r="Z27" t="str">
+        <f t="shared" si="2"/>
+        <v>小怪</v>
+      </c>
+      <c r="AA27" t="str">
+        <f t="shared" si="3"/>
+        <v>远程小怪，拥有较大的警戒/取消警戒范围(1200/2000)</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC27" t="str">
+        <f t="shared" si="4"/>
+        <v>普通攻击使用“鹰身人普攻”</v>
+      </c>
+      <c r="AD27" t="str">
+        <f t="shared" si="5"/>
+        <v>普通攻击攻击距离为1200</v>
+      </c>
+      <c r="AJ27" s="5">
+        <v>800</v>
+      </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:36">
       <c r="A28" s="1">
         <v>24</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
@@ -3650,16 +4492,46 @@
       <c r="V28" s="3">
         <v>520</v>
       </c>
+      <c r="X28" t="str">
+        <f t="shared" si="7"/>
+        <v>远程</v>
+      </c>
+      <c r="Y28" t="str">
+        <f t="shared" si="1"/>
+        <v>较大</v>
+      </c>
+      <c r="Z28" t="str">
+        <f t="shared" si="2"/>
+        <v>小怪</v>
+      </c>
+      <c r="AA28" t="str">
+        <f t="shared" si="3"/>
+        <v>远程小怪，拥有较大的警戒/取消警戒范围(1200/2000)</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC28" t="str">
+        <f t="shared" si="4"/>
+        <v>普通攻击使用“半人马射手普攻”</v>
+      </c>
+      <c r="AD28" t="str">
+        <f t="shared" si="5"/>
+        <v>普通攻击攻击距离为1200</v>
+      </c>
+      <c r="AJ28" s="5">
+        <v>800</v>
+      </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:36">
       <c r="A29" s="1">
         <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
@@ -3720,16 +4592,46 @@
       <c r="V29" s="3">
         <v>520</v>
       </c>
+      <c r="X29" t="str">
+        <f t="shared" si="7"/>
+        <v>近战</v>
+      </c>
+      <c r="Y29" t="str">
+        <f t="shared" si="1"/>
+        <v>较小</v>
+      </c>
+      <c r="Z29" t="str">
+        <f t="shared" si="2"/>
+        <v>小怪</v>
+      </c>
+      <c r="AA29" t="str">
+        <f t="shared" si="3"/>
+        <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC29" t="str">
+        <f t="shared" si="4"/>
+        <v>普通攻击使用“半人马骑兵普攻”</v>
+      </c>
+      <c r="AD29" t="str">
+        <f t="shared" si="5"/>
+        <v>普通攻击攻击距离为600</v>
+      </c>
+      <c r="AJ29" s="5">
+        <v>220</v>
+      </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:36">
       <c r="A30" s="1">
         <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
@@ -3790,16 +4692,46 @@
       <c r="V30" s="3">
         <v>520</v>
       </c>
+      <c r="X30" t="str">
+        <f t="shared" si="7"/>
+        <v>近战</v>
+      </c>
+      <c r="Y30" t="str">
+        <f t="shared" si="1"/>
+        <v>较小</v>
+      </c>
+      <c r="Z30" t="str">
+        <f t="shared" si="2"/>
+        <v>小怪</v>
+      </c>
+      <c r="AA30" t="str">
+        <f t="shared" si="3"/>
+        <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC30" t="str">
+        <f t="shared" si="4"/>
+        <v>普通攻击使用“半人马士兵普攻”</v>
+      </c>
+      <c r="AD30" t="str">
+        <f t="shared" si="5"/>
+        <v>普通攻击攻击距离为600</v>
+      </c>
+      <c r="AJ30" s="5">
+        <v>220</v>
+      </c>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:36">
       <c r="A31" s="1">
         <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D31" s="1">
         <v>2</v>
@@ -3860,16 +4792,46 @@
       <c r="V31" s="3">
         <v>340</v>
       </c>
+      <c r="X31" t="str">
+        <f t="shared" si="7"/>
+        <v>近战</v>
+      </c>
+      <c r="Y31" t="str">
+        <f t="shared" si="1"/>
+        <v>较大</v>
+      </c>
+      <c r="Z31" t="str">
+        <f t="shared" si="2"/>
+        <v>精英</v>
+      </c>
+      <c r="AA31" t="str">
+        <f t="shared" si="3"/>
+        <v>近战精英，拥有较大的警戒/取消警戒范围(1000/1500)</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC31" t="str">
+        <f t="shared" si="4"/>
+        <v>普通攻击使用“灰色巨魔战士普攻”</v>
+      </c>
+      <c r="AD31" t="str">
+        <f t="shared" si="5"/>
+        <v>普通攻击攻击距离为1000</v>
+      </c>
+      <c r="AJ31" s="5">
+        <v>140</v>
+      </c>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:36">
       <c r="A32" s="1">
         <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
@@ -3930,16 +4892,46 @@
       <c r="V32" s="3">
         <v>340</v>
       </c>
+      <c r="X32" t="str">
+        <f t="shared" si="7"/>
+        <v>近战</v>
+      </c>
+      <c r="Y32" t="str">
+        <f t="shared" si="1"/>
+        <v>较小</v>
+      </c>
+      <c r="Z32" t="str">
+        <f t="shared" si="2"/>
+        <v>小怪</v>
+      </c>
+      <c r="AA32" t="str">
+        <f t="shared" si="3"/>
+        <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC32" t="str">
+        <f t="shared" si="4"/>
+        <v>普通攻击使用“幽灵士兵普攻”</v>
+      </c>
+      <c r="AD32" t="str">
+        <f t="shared" si="5"/>
+        <v>普通攻击攻击距离为600</v>
+      </c>
+      <c r="AJ32" s="5">
+        <v>200</v>
+      </c>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:36">
       <c r="A33" s="1">
         <v>29</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D33" s="1">
         <v>1</v>
@@ -4000,16 +4992,46 @@
       <c r="V33" s="3">
         <v>340</v>
       </c>
+      <c r="X33" t="str">
+        <f t="shared" si="7"/>
+        <v>近战</v>
+      </c>
+      <c r="Y33" t="str">
+        <f t="shared" si="1"/>
+        <v>较小</v>
+      </c>
+      <c r="Z33" t="str">
+        <f t="shared" si="2"/>
+        <v>小怪</v>
+      </c>
+      <c r="AA33" t="str">
+        <f t="shared" si="3"/>
+        <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC33" t="str">
+        <f t="shared" si="4"/>
+        <v>普通攻击使用“幽灵战士普攻”</v>
+      </c>
+      <c r="AD33" t="str">
+        <f t="shared" si="5"/>
+        <v>普通攻击攻击距离为600</v>
+      </c>
+      <c r="AJ33" s="5">
+        <v>200</v>
+      </c>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:36">
       <c r="A34" s="1">
         <v>30</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="D34" s="1">
         <v>2</v>
@@ -4070,16 +5092,46 @@
       <c r="V34" s="3">
         <v>340</v>
       </c>
+      <c r="X34" t="str">
+        <f t="shared" si="7"/>
+        <v>远程</v>
+      </c>
+      <c r="Y34" t="str">
+        <f t="shared" si="1"/>
+        <v>较大</v>
+      </c>
+      <c r="Z34" t="str">
+        <f t="shared" si="2"/>
+        <v>精英</v>
+      </c>
+      <c r="AA34" t="str">
+        <f t="shared" si="3"/>
+        <v>远程精英，拥有较大的警戒/取消警戒范围(2000/3000)</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC34" t="str">
+        <f t="shared" si="4"/>
+        <v>普通攻击使用“幽灵法师普攻”</v>
+      </c>
+      <c r="AD34" t="str">
+        <f t="shared" si="5"/>
+        <v>普通攻击攻击距离为2000</v>
+      </c>
+      <c r="AJ34" s="5">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:36">
       <c r="A35" s="1">
         <v>31</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="D35" s="1">
         <v>2</v>
@@ -4140,16 +5192,46 @@
       <c r="V35" s="3">
         <v>240</v>
       </c>
+      <c r="X35" t="str">
+        <f t="shared" si="7"/>
+        <v>近战</v>
+      </c>
+      <c r="Y35" t="str">
+        <f t="shared" si="1"/>
+        <v>较大</v>
+      </c>
+      <c r="Z35" t="str">
+        <f t="shared" si="2"/>
+        <v>精英</v>
+      </c>
+      <c r="AA35" t="str">
+        <f t="shared" si="3"/>
+        <v>近战精英，拥有较大的警戒/取消警戒范围(1000/1500)</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC35" t="str">
+        <f t="shared" si="4"/>
+        <v>普通攻击使用“牛头怪普攻”</v>
+      </c>
+      <c r="AD35" t="str">
+        <f t="shared" si="5"/>
+        <v>普通攻击攻击距离为1000</v>
+      </c>
+      <c r="AJ35" s="5">
+        <v>200</v>
+      </c>
     </row>
-    <row r="36" spans="1:22">
+    <row r="36" spans="1:36">
       <c r="A36" s="1">
         <v>32</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="D36" s="1">
         <v>2</v>
@@ -4210,16 +5292,46 @@
       <c r="V36" s="3">
         <v>340</v>
       </c>
+      <c r="X36" t="str">
+        <f t="shared" si="7"/>
+        <v>近战</v>
+      </c>
+      <c r="Y36" t="str">
+        <f t="shared" si="1"/>
+        <v>较大</v>
+      </c>
+      <c r="Z36" t="str">
+        <f t="shared" si="2"/>
+        <v>精英</v>
+      </c>
+      <c r="AA36" t="str">
+        <f t="shared" si="3"/>
+        <v>近战精英，拥有较大的警戒/取消警戒范围(1000/1500)</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC36" t="str">
+        <f t="shared" si="4"/>
+        <v>普通攻击使用“人鱼女战士普攻”</v>
+      </c>
+      <c r="AD36" t="str">
+        <f t="shared" si="5"/>
+        <v>普通攻击攻击距离为1000</v>
+      </c>
+      <c r="AJ36" s="5">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="37" spans="1:22">
+    <row r="37" spans="1:36">
       <c r="A37" s="1">
         <v>33</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D37" s="1">
         <v>2</v>
@@ -4237,7 +5349,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="str">
-        <f t="shared" ref="I37:I68" si="1">D37&amp;F37&amp;G37</f>
+        <f t="shared" ref="I37:I68" si="8">D37&amp;F37&amp;G37</f>
         <v>211</v>
       </c>
       <c r="J37" t="s">
@@ -4280,16 +5392,46 @@
       <c r="V37" s="3">
         <v>340</v>
       </c>
+      <c r="X37" t="str">
+        <f t="shared" si="7"/>
+        <v>近战</v>
+      </c>
+      <c r="Y37" t="str">
+        <f t="shared" si="1"/>
+        <v>较大</v>
+      </c>
+      <c r="Z37" t="str">
+        <f t="shared" si="2"/>
+        <v>精英</v>
+      </c>
+      <c r="AA37" t="str">
+        <f t="shared" si="3"/>
+        <v>近战精英，拥有较大的警戒/取消警戒范围(1000/1500)</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC37" t="str">
+        <f t="shared" si="4"/>
+        <v>普通攻击使用“树人战士普攻”</v>
+      </c>
+      <c r="AD37" t="str">
+        <f t="shared" si="5"/>
+        <v>普通攻击攻击距离为1000</v>
+      </c>
+      <c r="AJ37" s="5">
+        <v>250</v>
+      </c>
     </row>
-    <row r="38" spans="1:22">
+    <row r="38" spans="1:36">
       <c r="A38" s="1">
         <v>34</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D38" s="1">
         <v>1</v>
@@ -4307,7 +5449,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>111</v>
       </c>
       <c r="J38" t="s">
@@ -4350,16 +5492,46 @@
       <c r="V38" s="3">
         <v>340</v>
       </c>
+      <c r="X38" t="str">
+        <f t="shared" si="7"/>
+        <v>近战</v>
+      </c>
+      <c r="Y38" t="str">
+        <f t="shared" ref="Y38:Y69" si="9">IF(K38&gt;800,"较大","较小")</f>
+        <v>较小</v>
+      </c>
+      <c r="Z38" t="str">
+        <f t="shared" ref="Z38:Z69" si="10">IF(D38=1,"小怪",IF(D38=2,"精英","BOSS"))</f>
+        <v>小怪</v>
+      </c>
+      <c r="AA38" t="str">
+        <f t="shared" ref="AA38:AA69" si="11">X38&amp;Z38&amp;"，拥有"&amp;Y38&amp;"的警戒/取消警戒范围("&amp;K38&amp;"/"&amp;L38&amp;")"</f>
+        <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC38" t="str">
+        <f t="shared" ref="AC38:AC69" si="12">"普通攻击使用“"&amp;C38&amp;"普攻”"</f>
+        <v>普通攻击使用“不死将军普攻”</v>
+      </c>
+      <c r="AD38" t="str">
+        <f t="shared" ref="AD38:AD69" si="13">"普通攻击攻击距离为"&amp;K38</f>
+        <v>普通攻击攻击距离为600</v>
+      </c>
+      <c r="AJ38" s="5">
+        <v>250</v>
+      </c>
     </row>
-    <row r="39" spans="1:22">
+    <row r="39" spans="1:36">
       <c r="A39" s="1">
         <v>35</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="D39" s="1">
         <v>2</v>
@@ -4377,7 +5549,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>211</v>
       </c>
       <c r="J39" t="s">
@@ -4420,16 +5592,46 @@
       <c r="V39" s="3">
         <v>340</v>
       </c>
+      <c r="X39" t="str">
+        <f t="shared" si="7"/>
+        <v>近战</v>
+      </c>
+      <c r="Y39" t="str">
+        <f t="shared" si="9"/>
+        <v>较大</v>
+      </c>
+      <c r="Z39" t="str">
+        <f t="shared" si="10"/>
+        <v>精英</v>
+      </c>
+      <c r="AA39" t="str">
+        <f t="shared" si="11"/>
+        <v>近战精英，拥有较大的警戒/取消警戒范围(1000/1500)</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC39" t="str">
+        <f t="shared" si="12"/>
+        <v>普通攻击使用“熔岩怪普攻”</v>
+      </c>
+      <c r="AD39" t="str">
+        <f t="shared" si="13"/>
+        <v>普通攻击攻击距离为1000</v>
+      </c>
+      <c r="AJ39" s="5">
+        <v>250</v>
+      </c>
     </row>
-    <row r="40" spans="1:22">
+    <row r="40" spans="1:36">
       <c r="A40" s="1">
         <v>36</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="D40" s="1">
         <v>2</v>
@@ -4447,7 +5649,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>211</v>
       </c>
       <c r="J40" t="s">
@@ -4490,16 +5692,46 @@
       <c r="V40" s="3">
         <v>340</v>
       </c>
+      <c r="X40" t="str">
+        <f t="shared" si="7"/>
+        <v>近战</v>
+      </c>
+      <c r="Y40" t="str">
+        <f t="shared" si="9"/>
+        <v>较大</v>
+      </c>
+      <c r="Z40" t="str">
+        <f t="shared" si="10"/>
+        <v>精英</v>
+      </c>
+      <c r="AA40" t="str">
+        <f t="shared" si="11"/>
+        <v>近战精英，拥有较大的警戒/取消警戒范围(1000/1500)</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC40" t="str">
+        <f t="shared" si="12"/>
+        <v>普通攻击使用“青蛙战士普攻”</v>
+      </c>
+      <c r="AD40" t="str">
+        <f t="shared" si="13"/>
+        <v>普通攻击攻击距离为1000</v>
+      </c>
+      <c r="AJ40" s="5">
+        <v>200</v>
+      </c>
     </row>
-    <row r="41" spans="1:22">
+    <row r="41" spans="1:36">
       <c r="A41" s="1">
         <v>37</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="D41" s="1">
         <v>2</v>
@@ -4517,7 +5749,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>200</v>
       </c>
       <c r="J41" t="s">
@@ -4560,16 +5792,46 @@
       <c r="V41" s="3">
         <v>340</v>
       </c>
+      <c r="X41" t="str">
+        <f t="shared" si="7"/>
+        <v>远程</v>
+      </c>
+      <c r="Y41" t="str">
+        <f t="shared" si="9"/>
+        <v>较大</v>
+      </c>
+      <c r="Z41" t="str">
+        <f t="shared" si="10"/>
+        <v>精英</v>
+      </c>
+      <c r="AA41" t="str">
+        <f t="shared" si="11"/>
+        <v>远程精英，拥有较大的警戒/取消警戒范围(2000/3000)</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC41" t="str">
+        <f t="shared" si="12"/>
+        <v>普通攻击使用“蛛魔普攻”</v>
+      </c>
+      <c r="AD41" t="str">
+        <f t="shared" si="13"/>
+        <v>普通攻击攻击距离为2000</v>
+      </c>
+      <c r="AJ41" s="5">
+        <v>800</v>
+      </c>
     </row>
-    <row r="42" spans="1:22">
+    <row r="42" spans="1:36">
       <c r="A42" s="1">
         <v>38</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="D42" s="1">
         <v>1</v>
@@ -4587,7 +5849,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="J42" t="s">
@@ -4630,16 +5892,46 @@
       <c r="V42" s="3">
         <v>340</v>
       </c>
+      <c r="X42" t="str">
+        <f t="shared" si="7"/>
+        <v>远程</v>
+      </c>
+      <c r="Y42" t="str">
+        <f t="shared" si="9"/>
+        <v>较大</v>
+      </c>
+      <c r="Z42" t="str">
+        <f t="shared" si="10"/>
+        <v>小怪</v>
+      </c>
+      <c r="AA42" t="str">
+        <f t="shared" si="11"/>
+        <v>远程小怪，拥有较大的警戒/取消警戒范围(1200/2000)</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC42" t="str">
+        <f t="shared" si="12"/>
+        <v>普通攻击使用“恶魔白色蝙蝠普攻”</v>
+      </c>
+      <c r="AD42" t="str">
+        <f t="shared" si="13"/>
+        <v>普通攻击攻击距离为1200</v>
+      </c>
+      <c r="AJ42" s="5">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="43" spans="1:22">
+    <row r="43" spans="1:36">
       <c r="A43" s="1">
         <v>39</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D43" s="1">
         <v>2</v>
@@ -4657,7 +5949,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>211</v>
       </c>
       <c r="J43" t="s">
@@ -4700,16 +5992,46 @@
       <c r="V43" s="3">
         <v>340</v>
       </c>
+      <c r="X43" t="str">
+        <f t="shared" si="7"/>
+        <v>近战</v>
+      </c>
+      <c r="Y43" t="str">
+        <f t="shared" si="9"/>
+        <v>较大</v>
+      </c>
+      <c r="Z43" t="str">
+        <f t="shared" si="10"/>
+        <v>精英</v>
+      </c>
+      <c r="AA43" t="str">
+        <f t="shared" si="11"/>
+        <v>近战精英，拥有较大的警戒/取消警戒范围(1000/1500)</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC43" t="str">
+        <f t="shared" si="12"/>
+        <v>普通攻击使用“蓝兽人战士普攻”</v>
+      </c>
+      <c r="AD43" t="str">
+        <f t="shared" si="13"/>
+        <v>普通攻击攻击距离为1000</v>
+      </c>
+      <c r="AJ43" s="5">
+        <v>250</v>
+      </c>
     </row>
-    <row r="44" spans="1:22">
+    <row r="44" spans="1:36">
       <c r="A44" s="1">
         <v>40</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="D44" s="1">
         <v>2</v>
@@ -4727,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>211</v>
       </c>
       <c r="J44" t="s">
@@ -4770,16 +6092,46 @@
       <c r="V44" s="3">
         <v>240</v>
       </c>
+      <c r="X44" t="str">
+        <f t="shared" si="7"/>
+        <v>近战</v>
+      </c>
+      <c r="Y44" t="str">
+        <f t="shared" si="9"/>
+        <v>较大</v>
+      </c>
+      <c r="Z44" t="str">
+        <f t="shared" si="10"/>
+        <v>精英</v>
+      </c>
+      <c r="AA44" t="str">
+        <f t="shared" si="11"/>
+        <v>近战精英，拥有较大的警戒/取消警戒范围(1000/1500)</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC44" t="str">
+        <f t="shared" si="12"/>
+        <v>普通攻击使用“双头魔贵妇普攻”</v>
+      </c>
+      <c r="AD44" t="str">
+        <f t="shared" si="13"/>
+        <v>普通攻击攻击距离为1000</v>
+      </c>
+      <c r="AJ44" s="5">
+        <v>250</v>
+      </c>
     </row>
-    <row r="45" spans="1:22">
+    <row r="45" spans="1:36">
       <c r="A45" s="1">
         <v>41</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="D45" s="1">
         <v>1</v>
@@ -4797,7 +6149,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>111</v>
       </c>
       <c r="J45" t="s">
@@ -4840,16 +6192,46 @@
       <c r="V45" s="3">
         <v>240</v>
       </c>
+      <c r="X45" t="str">
+        <f t="shared" si="7"/>
+        <v>近战</v>
+      </c>
+      <c r="Y45" t="str">
+        <f t="shared" si="9"/>
+        <v>较小</v>
+      </c>
+      <c r="Z45" t="str">
+        <f t="shared" si="10"/>
+        <v>小怪</v>
+      </c>
+      <c r="AA45" t="str">
+        <f t="shared" si="11"/>
+        <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC45" t="str">
+        <f t="shared" si="12"/>
+        <v>普通攻击使用“双头巨魔将军普攻”</v>
+      </c>
+      <c r="AD45" t="str">
+        <f t="shared" si="13"/>
+        <v>普通攻击攻击距离为600</v>
+      </c>
+      <c r="AJ45" s="5">
+        <v>250</v>
+      </c>
     </row>
-    <row r="46" spans="1:22">
+    <row r="46" spans="1:36">
       <c r="A46" s="1">
         <v>42</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="D46" s="1">
         <v>1</v>
@@ -4867,7 +6249,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>111</v>
       </c>
       <c r="J46" t="s">
@@ -4910,16 +6292,46 @@
       <c r="V46" s="3">
         <v>240</v>
       </c>
+      <c r="X46" t="str">
+        <f t="shared" si="7"/>
+        <v>近战</v>
+      </c>
+      <c r="Y46" t="str">
+        <f t="shared" si="9"/>
+        <v>较小</v>
+      </c>
+      <c r="Z46" t="str">
+        <f t="shared" si="10"/>
+        <v>小怪</v>
+      </c>
+      <c r="AA46" t="str">
+        <f t="shared" si="11"/>
+        <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC46" t="str">
+        <f t="shared" si="12"/>
+        <v>普通攻击使用“双头巨魔普攻”</v>
+      </c>
+      <c r="AD46" t="str">
+        <f t="shared" si="13"/>
+        <v>普通攻击攻击距离为600</v>
+      </c>
+      <c r="AJ46" s="5">
+        <v>250</v>
+      </c>
     </row>
-    <row r="47" spans="1:22">
+    <row r="47" spans="1:36">
       <c r="A47" s="1">
         <v>43</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="D47" s="1">
         <v>1</v>
@@ -4937,7 +6349,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>111</v>
       </c>
       <c r="J47" t="s">
@@ -4980,16 +6392,46 @@
       <c r="V47" s="3">
         <v>240</v>
       </c>
+      <c r="X47" t="str">
+        <f t="shared" si="7"/>
+        <v>近战</v>
+      </c>
+      <c r="Y47" t="str">
+        <f t="shared" si="9"/>
+        <v>较小</v>
+      </c>
+      <c r="Z47" t="str">
+        <f t="shared" si="10"/>
+        <v>小怪</v>
+      </c>
+      <c r="AA47" t="str">
+        <f t="shared" si="11"/>
+        <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC47" t="str">
+        <f t="shared" si="12"/>
+        <v>普通攻击使用“双头巨魔工匠普攻”</v>
+      </c>
+      <c r="AD47" t="str">
+        <f t="shared" si="13"/>
+        <v>普通攻击攻击距离为600</v>
+      </c>
+      <c r="AJ47" s="5">
+        <v>250</v>
+      </c>
     </row>
-    <row r="48" spans="1:22">
+    <row r="48" spans="1:36">
       <c r="A48" s="1">
         <v>44</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="D48" s="1">
         <v>2</v>
@@ -5007,7 +6449,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>211</v>
       </c>
       <c r="J48" t="s">
@@ -5050,16 +6492,46 @@
       <c r="V48" s="3">
         <v>340</v>
       </c>
+      <c r="X48" t="str">
+        <f t="shared" si="7"/>
+        <v>近战</v>
+      </c>
+      <c r="Y48" t="str">
+        <f t="shared" si="9"/>
+        <v>较大</v>
+      </c>
+      <c r="Z48" t="str">
+        <f t="shared" si="10"/>
+        <v>精英</v>
+      </c>
+      <c r="AA48" t="str">
+        <f t="shared" si="11"/>
+        <v>近战精英，拥有较大的警戒/取消警戒范围(1000/1500)</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC48" t="str">
+        <f t="shared" si="12"/>
+        <v>普通攻击使用“恶魔红色战士普攻”</v>
+      </c>
+      <c r="AD48" t="str">
+        <f t="shared" si="13"/>
+        <v>普通攻击攻击距离为1000</v>
+      </c>
+      <c r="AJ48" s="5">
+        <v>450</v>
+      </c>
     </row>
-    <row r="49" spans="1:22">
+    <row r="49" spans="1:36">
       <c r="A49" s="1">
         <v>45</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="D49" s="1">
         <v>3</v>
@@ -5077,7 +6549,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>310</v>
       </c>
       <c r="J49" t="s">
@@ -5120,16 +6592,46 @@
       <c r="V49" s="3">
         <v>200</v>
       </c>
+      <c r="X49" t="str">
+        <f t="shared" si="7"/>
+        <v>近战</v>
+      </c>
+      <c r="Y49" t="str">
+        <f t="shared" si="9"/>
+        <v>较大</v>
+      </c>
+      <c r="Z49" t="str">
+        <f t="shared" si="10"/>
+        <v>BOSS</v>
+      </c>
+      <c r="AA49" t="str">
+        <f t="shared" si="11"/>
+        <v>近战BOSS，拥有较大的警戒/取消警戒范围(1000/1500)</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC49" t="str">
+        <f t="shared" si="12"/>
+        <v>普通攻击使用“树怪普攻”</v>
+      </c>
+      <c r="AD49" t="str">
+        <f t="shared" si="13"/>
+        <v>普通攻击攻击距离为1000</v>
+      </c>
+      <c r="AJ49" s="5">
+        <v>350</v>
+      </c>
     </row>
-    <row r="50" spans="1:22">
+    <row r="50" spans="1:36">
       <c r="A50" s="1">
         <v>46</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="D50" s="1">
         <v>2</v>
@@ -5147,7 +6649,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>211</v>
       </c>
       <c r="J50" t="s">
@@ -5190,16 +6692,46 @@
       <c r="V50" s="3">
         <v>200</v>
       </c>
+      <c r="X50" t="str">
+        <f t="shared" si="7"/>
+        <v>近战</v>
+      </c>
+      <c r="Y50" t="str">
+        <f t="shared" si="9"/>
+        <v>较大</v>
+      </c>
+      <c r="Z50" t="str">
+        <f t="shared" si="10"/>
+        <v>精英</v>
+      </c>
+      <c r="AA50" t="str">
+        <f t="shared" si="11"/>
+        <v>近战精英，拥有较大的警戒/取消警戒范围(1000/1500)</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC50" t="str">
+        <f t="shared" si="12"/>
+        <v>普通攻击使用“寒冰恶魔普攻”</v>
+      </c>
+      <c r="AD50" t="str">
+        <f t="shared" si="13"/>
+        <v>普通攻击攻击距离为1000</v>
+      </c>
+      <c r="AJ50" s="5">
+        <v>250</v>
+      </c>
     </row>
-    <row r="51" spans="1:22">
+    <row r="51" spans="1:36">
       <c r="A51" s="1">
         <v>47</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="D51" s="1">
         <v>3</v>
@@ -5217,7 +6749,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>311</v>
       </c>
       <c r="J51" t="s">
@@ -5260,16 +6792,46 @@
       <c r="V51" s="3">
         <v>200</v>
       </c>
+      <c r="X51" t="str">
+        <f t="shared" si="7"/>
+        <v>近战</v>
+      </c>
+      <c r="Y51" t="str">
+        <f t="shared" si="9"/>
+        <v>较大</v>
+      </c>
+      <c r="Z51" t="str">
+        <f t="shared" si="10"/>
+        <v>BOSS</v>
+      </c>
+      <c r="AA51" t="str">
+        <f t="shared" si="11"/>
+        <v>近战BOSS，拥有较大的警戒/取消警戒范围(1000/1500)</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC51" t="str">
+        <f t="shared" si="12"/>
+        <v>普通攻击使用“紫色兽族牛头人普攻”</v>
+      </c>
+      <c r="AD51" t="str">
+        <f t="shared" si="13"/>
+        <v>普通攻击攻击距离为1000</v>
+      </c>
+      <c r="AJ51" s="5">
+        <v>250</v>
+      </c>
     </row>
-    <row r="52" spans="1:22">
+    <row r="52" spans="1:36">
       <c r="A52" s="1">
         <v>48</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="D52" s="1">
         <v>3</v>
@@ -5287,7 +6849,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>311</v>
       </c>
       <c r="J52" t="s">
@@ -5330,16 +6892,46 @@
       <c r="V52" s="3">
         <v>300</v>
       </c>
+      <c r="X52" t="str">
+        <f t="shared" si="7"/>
+        <v>近战</v>
+      </c>
+      <c r="Y52" t="str">
+        <f t="shared" si="9"/>
+        <v>较大</v>
+      </c>
+      <c r="Z52" t="str">
+        <f t="shared" si="10"/>
+        <v>BOSS</v>
+      </c>
+      <c r="AA52" t="str">
+        <f t="shared" si="11"/>
+        <v>近战BOSS，拥有较大的警戒/取消警戒范围(1000/1500)</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC52" t="str">
+        <f t="shared" si="12"/>
+        <v>普通攻击使用“恶魔红色地狱犬普攻”</v>
+      </c>
+      <c r="AD52" t="str">
+        <f t="shared" si="13"/>
+        <v>普通攻击攻击距离为1000</v>
+      </c>
+      <c r="AJ52" s="5">
+        <v>250</v>
+      </c>
     </row>
-    <row r="53" spans="1:22">
+    <row r="53" spans="1:36">
       <c r="A53" s="1">
         <v>49</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="D53" s="1">
         <v>3</v>
@@ -5354,7 +6946,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>310</v>
       </c>
       <c r="K53">
@@ -5394,16 +6986,46 @@
       <c r="V53" s="3">
         <v>300</v>
       </c>
+      <c r="X53" t="str">
+        <f t="shared" si="7"/>
+        <v>近战</v>
+      </c>
+      <c r="Y53" t="str">
+        <f t="shared" si="9"/>
+        <v>较大</v>
+      </c>
+      <c r="Z53" t="str">
+        <f t="shared" si="10"/>
+        <v>BOSS</v>
+      </c>
+      <c r="AA53" t="str">
+        <f t="shared" si="11"/>
+        <v>近战BOSS，拥有较大的警戒/取消警戒范围(1000/1500)</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC53" t="str">
+        <f t="shared" si="12"/>
+        <v>普通攻击使用“海妖之王普攻”</v>
+      </c>
+      <c r="AD53" t="str">
+        <f t="shared" si="13"/>
+        <v>普通攻击攻击距离为1000</v>
+      </c>
+      <c r="AJ53" s="5">
+        <v>250</v>
+      </c>
     </row>
-    <row r="54" spans="1:22">
+    <row r="54" spans="1:36">
       <c r="A54" s="1">
         <v>50</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="D54" s="1">
         <v>3</v>
@@ -5418,7 +7040,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>311</v>
       </c>
       <c r="K54">
@@ -5458,16 +7080,46 @@
       <c r="V54" s="3">
         <v>300</v>
       </c>
+      <c r="X54" t="str">
+        <f t="shared" si="7"/>
+        <v>近战</v>
+      </c>
+      <c r="Y54" t="str">
+        <f t="shared" si="9"/>
+        <v>较大</v>
+      </c>
+      <c r="Z54" t="str">
+        <f t="shared" si="10"/>
+        <v>BOSS</v>
+      </c>
+      <c r="AA54" t="str">
+        <f t="shared" si="11"/>
+        <v>近战BOSS，拥有较大的警戒/取消警戒范围(1000/1500)</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC54" t="str">
+        <f t="shared" si="12"/>
+        <v>普通攻击使用“恶灵将军普攻”</v>
+      </c>
+      <c r="AD54" t="str">
+        <f t="shared" si="13"/>
+        <v>普通攻击攻击距离为1000</v>
+      </c>
+      <c r="AJ54" s="5">
+        <v>250</v>
+      </c>
     </row>
-    <row r="55" spans="1:22">
+    <row r="55" spans="1:36">
       <c r="A55" s="1">
         <v>51</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="D55" s="1">
         <v>1</v>
@@ -5482,7 +7134,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>111</v>
       </c>
       <c r="K55">
@@ -5522,16 +7174,46 @@
       <c r="V55" s="3">
         <v>300</v>
       </c>
+      <c r="X55" t="str">
+        <f t="shared" si="7"/>
+        <v>近战</v>
+      </c>
+      <c r="Y55" t="str">
+        <f t="shared" si="9"/>
+        <v>较小</v>
+      </c>
+      <c r="Z55" t="str">
+        <f t="shared" si="10"/>
+        <v>小怪</v>
+      </c>
+      <c r="AA55" t="str">
+        <f t="shared" si="11"/>
+        <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC55" t="str">
+        <f t="shared" si="12"/>
+        <v>普通攻击使用“石巨人普攻”</v>
+      </c>
+      <c r="AD55" t="str">
+        <f t="shared" si="13"/>
+        <v>普通攻击攻击距离为600</v>
+      </c>
+      <c r="AJ55" s="5">
+        <v>150</v>
+      </c>
     </row>
-    <row r="56" spans="1:22">
+    <row r="56" spans="1:36">
       <c r="A56" s="1">
         <v>52</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="D56" s="1">
         <v>2</v>
@@ -5546,7 +7228,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>200</v>
       </c>
       <c r="K56">
@@ -5586,16 +7268,46 @@
       <c r="V56" s="3">
         <v>340</v>
       </c>
+      <c r="X56" t="str">
+        <f t="shared" si="7"/>
+        <v>远程</v>
+      </c>
+      <c r="Y56" t="str">
+        <f t="shared" si="9"/>
+        <v>较大</v>
+      </c>
+      <c r="Z56" t="str">
+        <f t="shared" si="10"/>
+        <v>精英</v>
+      </c>
+      <c r="AA56" t="str">
+        <f t="shared" si="11"/>
+        <v>远程精英，拥有较大的警戒/取消警戒范围(2000/3000)</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC56" t="str">
+        <f t="shared" si="12"/>
+        <v>普通攻击使用“蓝冰巨魔普攻”</v>
+      </c>
+      <c r="AD56" t="str">
+        <f t="shared" si="13"/>
+        <v>普通攻击攻击距离为2000</v>
+      </c>
+      <c r="AJ56" s="5">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="57" spans="1:22">
+    <row r="57" spans="1:36">
       <c r="A57" s="1">
         <v>53</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D57" s="1">
         <v>2</v>
@@ -5610,7 +7322,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>211</v>
       </c>
       <c r="K57">
@@ -5650,16 +7362,46 @@
       <c r="V57" s="3">
         <v>340</v>
       </c>
+      <c r="X57" t="str">
+        <f t="shared" ref="X57:X88" si="14">IF(F57=1,"近战","远程")</f>
+        <v>近战</v>
+      </c>
+      <c r="Y57" t="str">
+        <f t="shared" si="9"/>
+        <v>较大</v>
+      </c>
+      <c r="Z57" t="str">
+        <f t="shared" si="10"/>
+        <v>精英</v>
+      </c>
+      <c r="AA57" t="str">
+        <f t="shared" si="11"/>
+        <v>近战精英，拥有较大的警戒/取消警戒范围(1000/1500)</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC57" t="str">
+        <f t="shared" si="12"/>
+        <v>普通攻击使用“冰巨人普攻”</v>
+      </c>
+      <c r="AD57" t="str">
+        <f t="shared" si="13"/>
+        <v>普通攻击攻击距离为1000</v>
+      </c>
+      <c r="AJ57" s="5">
+        <v>250</v>
+      </c>
     </row>
-    <row r="58" spans="1:22">
+    <row r="58" spans="1:36">
       <c r="A58" s="1">
         <v>54</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="D58" s="1">
         <v>3</v>
@@ -5674,7 +7416,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>311</v>
       </c>
       <c r="K58">
@@ -5714,16 +7456,46 @@
       <c r="V58" s="3">
         <v>150</v>
       </c>
+      <c r="X58" t="str">
+        <f t="shared" si="14"/>
+        <v>近战</v>
+      </c>
+      <c r="Y58" t="str">
+        <f t="shared" si="9"/>
+        <v>较大</v>
+      </c>
+      <c r="Z58" t="str">
+        <f t="shared" si="10"/>
+        <v>BOSS</v>
+      </c>
+      <c r="AA58" t="str">
+        <f t="shared" si="11"/>
+        <v>近战BOSS，拥有较大的警戒/取消警戒范围(1000/1500)</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC58" t="str">
+        <f t="shared" si="12"/>
+        <v>普通攻击使用“熔炉巨怪普攻”</v>
+      </c>
+      <c r="AD58" t="str">
+        <f t="shared" si="13"/>
+        <v>普通攻击攻击距离为1000</v>
+      </c>
+      <c r="AJ58" s="5">
+        <v>250</v>
+      </c>
     </row>
-    <row r="59" spans="1:22">
+    <row r="59" spans="1:36">
       <c r="A59" s="1">
         <v>55</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="D59" s="1">
         <v>1</v>
@@ -5738,7 +7510,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>111</v>
       </c>
       <c r="K59">
@@ -5778,16 +7550,46 @@
       <c r="V59" s="3">
         <v>340</v>
       </c>
+      <c r="X59" t="str">
+        <f t="shared" si="14"/>
+        <v>近战</v>
+      </c>
+      <c r="Y59" t="str">
+        <f t="shared" si="9"/>
+        <v>较小</v>
+      </c>
+      <c r="Z59" t="str">
+        <f t="shared" si="10"/>
+        <v>小怪</v>
+      </c>
+      <c r="AA59" t="str">
+        <f t="shared" si="11"/>
+        <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC59" t="str">
+        <f t="shared" si="12"/>
+        <v>普通攻击使用“金甲虫普攻”</v>
+      </c>
+      <c r="AD59" t="str">
+        <f t="shared" si="13"/>
+        <v>普通攻击攻击距离为600</v>
+      </c>
+      <c r="AJ59" s="5">
+        <v>250</v>
+      </c>
     </row>
-    <row r="60" spans="1:22">
+    <row r="60" spans="1:36">
       <c r="A60" s="1">
         <v>56</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="D60" s="1">
         <v>1</v>
@@ -5802,7 +7604,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>111</v>
       </c>
       <c r="K60">
@@ -5842,16 +7644,46 @@
       <c r="V60" s="3">
         <v>250</v>
       </c>
+      <c r="X60" t="str">
+        <f t="shared" si="14"/>
+        <v>近战</v>
+      </c>
+      <c r="Y60" t="str">
+        <f t="shared" si="9"/>
+        <v>较小</v>
+      </c>
+      <c r="Z60" t="str">
+        <f t="shared" si="10"/>
+        <v>小怪</v>
+      </c>
+      <c r="AA60" t="str">
+        <f t="shared" si="11"/>
+        <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC60" t="str">
+        <f t="shared" si="12"/>
+        <v>普通攻击使用“铁甲怪普攻”</v>
+      </c>
+      <c r="AD60" t="str">
+        <f t="shared" si="13"/>
+        <v>普通攻击攻击距离为600</v>
+      </c>
+      <c r="AJ60" s="5">
+        <v>350</v>
+      </c>
     </row>
-    <row r="61" spans="1:22">
+    <row r="61" spans="1:36">
       <c r="A61" s="1">
         <v>57</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="D61" s="1">
         <v>1</v>
@@ -5866,7 +7698,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>111</v>
       </c>
       <c r="K61">
@@ -5906,16 +7738,46 @@
       <c r="V61" s="3">
         <v>250</v>
       </c>
+      <c r="X61" t="str">
+        <f t="shared" si="14"/>
+        <v>近战</v>
+      </c>
+      <c r="Y61" t="str">
+        <f t="shared" si="9"/>
+        <v>较小</v>
+      </c>
+      <c r="Z61" t="str">
+        <f t="shared" si="10"/>
+        <v>小怪</v>
+      </c>
+      <c r="AA61" t="str">
+        <f t="shared" si="11"/>
+        <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC61" t="str">
+        <f t="shared" si="12"/>
+        <v>普通攻击使用“巨锤怪普攻”</v>
+      </c>
+      <c r="AD61" t="str">
+        <f t="shared" si="13"/>
+        <v>普通攻击攻击距离为600</v>
+      </c>
+      <c r="AJ61" s="5">
+        <v>250</v>
+      </c>
     </row>
-    <row r="62" spans="1:22">
+    <row r="62" spans="1:36">
       <c r="A62" s="1">
         <v>58</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="D62" s="1">
         <v>2</v>
@@ -5930,7 +7792,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>211</v>
       </c>
       <c r="K62">
@@ -5970,16 +7832,46 @@
       <c r="V62" s="3">
         <v>340</v>
       </c>
+      <c r="X62" t="str">
+        <f t="shared" si="14"/>
+        <v>近战</v>
+      </c>
+      <c r="Y62" t="str">
+        <f t="shared" si="9"/>
+        <v>较大</v>
+      </c>
+      <c r="Z62" t="str">
+        <f t="shared" si="10"/>
+        <v>精英</v>
+      </c>
+      <c r="AA62" t="str">
+        <f t="shared" si="11"/>
+        <v>近战精英，拥有较大的警戒/取消警戒范围(1000/1500)</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC62" t="str">
+        <f t="shared" si="12"/>
+        <v>普通攻击使用“雪妖普攻”</v>
+      </c>
+      <c r="AD62" t="str">
+        <f t="shared" si="13"/>
+        <v>普通攻击攻击距离为1000</v>
+      </c>
+      <c r="AJ62" s="5">
+        <v>250</v>
+      </c>
     </row>
-    <row r="63" spans="1:22">
+    <row r="63" spans="1:36">
       <c r="A63" s="1">
         <v>59</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="D63" s="1">
         <v>1</v>
@@ -5994,7 +7886,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>111</v>
       </c>
       <c r="K63">
@@ -6034,16 +7926,46 @@
       <c r="V63" s="3">
         <v>340</v>
       </c>
+      <c r="X63" t="str">
+        <f t="shared" si="14"/>
+        <v>近战</v>
+      </c>
+      <c r="Y63" t="str">
+        <f t="shared" si="9"/>
+        <v>较小</v>
+      </c>
+      <c r="Z63" t="str">
+        <f t="shared" si="10"/>
+        <v>小怪</v>
+      </c>
+      <c r="AA63" t="str">
+        <f t="shared" si="11"/>
+        <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC63" t="str">
+        <f t="shared" si="12"/>
+        <v>普通攻击使用“树妖普攻”</v>
+      </c>
+      <c r="AD63" t="str">
+        <f t="shared" si="13"/>
+        <v>普通攻击攻击距离为600</v>
+      </c>
+      <c r="AJ63" s="5">
+        <v>250</v>
+      </c>
     </row>
-    <row r="64" spans="1:22">
+    <row r="64" spans="1:36">
       <c r="A64" s="1">
         <v>60</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="D64" s="1">
         <v>1</v>
@@ -6058,7 +7980,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>111</v>
       </c>
       <c r="K64">
@@ -6098,16 +8020,46 @@
       <c r="V64" s="3">
         <v>340</v>
       </c>
+      <c r="X64" t="str">
+        <f t="shared" si="14"/>
+        <v>近战</v>
+      </c>
+      <c r="Y64" t="str">
+        <f t="shared" si="9"/>
+        <v>较小</v>
+      </c>
+      <c r="Z64" t="str">
+        <f t="shared" si="10"/>
+        <v>小怪</v>
+      </c>
+      <c r="AA64" t="str">
+        <f t="shared" si="11"/>
+        <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC64" t="str">
+        <f t="shared" si="12"/>
+        <v>普通攻击使用“树魔普攻”</v>
+      </c>
+      <c r="AD64" t="str">
+        <f t="shared" si="13"/>
+        <v>普通攻击攻击距离为600</v>
+      </c>
+      <c r="AJ64" s="5">
+        <v>250</v>
+      </c>
     </row>
-    <row r="65" spans="1:22">
+    <row r="65" spans="1:36">
       <c r="A65" s="1">
         <v>61</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="D65" s="1">
         <v>1</v>
@@ -6122,7 +8074,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>111</v>
       </c>
       <c r="K65">
@@ -6162,16 +8114,46 @@
       <c r="V65" s="3">
         <v>200</v>
       </c>
+      <c r="X65" t="str">
+        <f t="shared" si="14"/>
+        <v>近战</v>
+      </c>
+      <c r="Y65" t="str">
+        <f t="shared" si="9"/>
+        <v>较小</v>
+      </c>
+      <c r="Z65" t="str">
+        <f t="shared" si="10"/>
+        <v>小怪</v>
+      </c>
+      <c r="AA65" t="str">
+        <f t="shared" si="11"/>
+        <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC65" t="str">
+        <f t="shared" si="12"/>
+        <v>普通攻击使用“岩石巨魔普攻”</v>
+      </c>
+      <c r="AD65" t="str">
+        <f t="shared" si="13"/>
+        <v>普通攻击攻击距离为600</v>
+      </c>
+      <c r="AJ65" s="5">
+        <v>250</v>
+      </c>
     </row>
-    <row r="66" spans="1:22">
+    <row r="66" spans="1:36">
       <c r="A66" s="1">
         <v>62</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="D66" s="1">
         <v>1</v>
@@ -6186,7 +8168,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>111</v>
       </c>
       <c r="K66">
@@ -6226,16 +8208,46 @@
       <c r="V66" s="3">
         <v>250</v>
       </c>
+      <c r="X66" t="str">
+        <f t="shared" si="14"/>
+        <v>近战</v>
+      </c>
+      <c r="Y66" t="str">
+        <f t="shared" si="9"/>
+        <v>较小</v>
+      </c>
+      <c r="Z66" t="str">
+        <f t="shared" si="10"/>
+        <v>小怪</v>
+      </c>
+      <c r="AA66" t="str">
+        <f t="shared" si="11"/>
+        <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC66" t="str">
+        <f t="shared" si="12"/>
+        <v>普通攻击使用“巨魔普攻”</v>
+      </c>
+      <c r="AD66" t="str">
+        <f t="shared" si="13"/>
+        <v>普通攻击攻击距离为600</v>
+      </c>
+      <c r="AJ66" s="5">
+        <v>450</v>
+      </c>
     </row>
-    <row r="67" spans="1:22">
+    <row r="67" spans="1:36">
       <c r="A67" s="1">
         <v>63</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="D67" s="1">
         <v>1</v>
@@ -6250,7 +8262,7 @@
         <v>1</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>111</v>
       </c>
       <c r="K67">
@@ -6290,16 +8302,46 @@
       <c r="V67" s="3">
         <v>250</v>
       </c>
+      <c r="X67" t="str">
+        <f t="shared" si="14"/>
+        <v>近战</v>
+      </c>
+      <c r="Y67" t="str">
+        <f t="shared" si="9"/>
+        <v>较小</v>
+      </c>
+      <c r="Z67" t="str">
+        <f t="shared" si="10"/>
+        <v>小怪</v>
+      </c>
+      <c r="AA67" t="str">
+        <f t="shared" si="11"/>
+        <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
+      </c>
+      <c r="AB67" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC67" t="str">
+        <f t="shared" si="12"/>
+        <v>普通攻击使用“巨魔战士普攻”</v>
+      </c>
+      <c r="AD67" t="str">
+        <f t="shared" si="13"/>
+        <v>普通攻击攻击距离为600</v>
+      </c>
+      <c r="AJ67" s="5">
+        <v>450</v>
+      </c>
     </row>
-    <row r="68" spans="1:22">
+    <row r="68" spans="1:36">
       <c r="A68" s="1">
         <v>64</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D68" s="1">
         <v>1</v>
@@ -6314,7 +8356,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>111</v>
       </c>
       <c r="K68">
@@ -6354,16 +8396,46 @@
       <c r="V68" s="3">
         <v>340</v>
       </c>
+      <c r="X68" t="str">
+        <f t="shared" si="14"/>
+        <v>近战</v>
+      </c>
+      <c r="Y68" t="str">
+        <f t="shared" si="9"/>
+        <v>较小</v>
+      </c>
+      <c r="Z68" t="str">
+        <f t="shared" si="10"/>
+        <v>小怪</v>
+      </c>
+      <c r="AA68" t="str">
+        <f t="shared" si="11"/>
+        <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
+      </c>
+      <c r="AB68" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC68" t="str">
+        <f t="shared" si="12"/>
+        <v>普通攻击使用“蜥蜴人普攻”</v>
+      </c>
+      <c r="AD68" t="str">
+        <f t="shared" si="13"/>
+        <v>普通攻击攻击距离为600</v>
+      </c>
+      <c r="AJ68" s="5">
+        <v>150</v>
+      </c>
     </row>
-    <row r="69" spans="1:22">
+    <row r="69" spans="1:36">
       <c r="A69" s="1">
         <v>65</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="D69" s="1">
         <v>1</v>
@@ -6378,7 +8450,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="str">
-        <f t="shared" ref="I69:I100" si="2">D69&amp;F69&amp;G69</f>
+        <f t="shared" ref="I69:I104" si="15">D69&amp;F69&amp;G69</f>
         <v>111</v>
       </c>
       <c r="K69">
@@ -6418,16 +8490,46 @@
       <c r="V69" s="3">
         <v>340</v>
       </c>
+      <c r="X69" t="str">
+        <f t="shared" si="14"/>
+        <v>近战</v>
+      </c>
+      <c r="Y69" t="str">
+        <f t="shared" si="9"/>
+        <v>较小</v>
+      </c>
+      <c r="Z69" t="str">
+        <f t="shared" si="10"/>
+        <v>小怪</v>
+      </c>
+      <c r="AA69" t="str">
+        <f t="shared" si="11"/>
+        <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC69" t="str">
+        <f t="shared" si="12"/>
+        <v>普通攻击使用“蜥蜴人士兵普攻”</v>
+      </c>
+      <c r="AD69" t="str">
+        <f t="shared" si="13"/>
+        <v>普通攻击攻击距离为600</v>
+      </c>
+      <c r="AJ69" s="5">
+        <v>150</v>
+      </c>
     </row>
-    <row r="70" spans="1:22">
+    <row r="70" spans="1:36">
       <c r="A70" s="1">
         <v>66</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="D70" s="1">
         <v>1</v>
@@ -6442,7 +8544,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>111</v>
       </c>
       <c r="K70">
@@ -6482,16 +8584,46 @@
       <c r="V70" s="3">
         <v>340</v>
       </c>
+      <c r="X70" t="str">
+        <f t="shared" si="14"/>
+        <v>近战</v>
+      </c>
+      <c r="Y70" t="str">
+        <f t="shared" ref="Y70:Y101" si="16">IF(K70&gt;800,"较大","较小")</f>
+        <v>较小</v>
+      </c>
+      <c r="Z70" t="str">
+        <f t="shared" ref="Z70:Z101" si="17">IF(D70=1,"小怪",IF(D70=2,"精英","BOSS"))</f>
+        <v>小怪</v>
+      </c>
+      <c r="AA70" t="str">
+        <f t="shared" ref="AA70:AA101" si="18">X70&amp;Z70&amp;"，拥有"&amp;Y70&amp;"的警戒/取消警戒范围("&amp;K70&amp;"/"&amp;L70&amp;")"</f>
+        <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
+      </c>
+      <c r="AB70" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC70" t="str">
+        <f t="shared" ref="AC70:AC101" si="19">"普通攻击使用“"&amp;C70&amp;"普攻”"</f>
+        <v>普通攻击使用“蜥蜴人战士普攻”</v>
+      </c>
+      <c r="AD70" t="str">
+        <f t="shared" ref="AD70:AD101" si="20">"普通攻击攻击距离为"&amp;K70</f>
+        <v>普通攻击攻击距离为600</v>
+      </c>
+      <c r="AJ70" s="5">
+        <v>150</v>
+      </c>
     </row>
-    <row r="71" spans="1:22">
+    <row r="71" spans="1:36">
       <c r="A71" s="1">
         <v>67</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="D71" s="1">
         <v>1</v>
@@ -6506,7 +8638,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>111</v>
       </c>
       <c r="K71">
@@ -6546,16 +8678,46 @@
       <c r="V71" s="3">
         <v>340</v>
       </c>
+      <c r="X71" t="str">
+        <f t="shared" si="14"/>
+        <v>近战</v>
+      </c>
+      <c r="Y71" t="str">
+        <f t="shared" si="16"/>
+        <v>较小</v>
+      </c>
+      <c r="Z71" t="str">
+        <f t="shared" si="17"/>
+        <v>小怪</v>
+      </c>
+      <c r="AA71" t="str">
+        <f t="shared" si="18"/>
+        <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
+      </c>
+      <c r="AB71" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC71" t="str">
+        <f t="shared" si="19"/>
+        <v>普通攻击使用“烈焰蜥蜴人普攻”</v>
+      </c>
+      <c r="AD71" t="str">
+        <f t="shared" si="20"/>
+        <v>普通攻击攻击距离为600</v>
+      </c>
+      <c r="AJ71" s="5">
+        <v>150</v>
+      </c>
     </row>
-    <row r="72" spans="1:22">
+    <row r="72" spans="1:36">
       <c r="A72" s="1">
         <v>68</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="D72" s="1">
         <v>3</v>
@@ -6570,7 +8732,7 @@
         <v>1</v>
       </c>
       <c r="I72" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>311</v>
       </c>
       <c r="K72">
@@ -6610,16 +8772,46 @@
       <c r="V72" s="3">
         <v>340</v>
       </c>
+      <c r="X72" t="str">
+        <f t="shared" si="14"/>
+        <v>近战</v>
+      </c>
+      <c r="Y72" t="str">
+        <f t="shared" si="16"/>
+        <v>较大</v>
+      </c>
+      <c r="Z72" t="str">
+        <f t="shared" si="17"/>
+        <v>BOSS</v>
+      </c>
+      <c r="AA72" t="str">
+        <f t="shared" si="18"/>
+        <v>近战BOSS，拥有较大的警戒/取消警戒范围(1000/1500)</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC72" t="str">
+        <f t="shared" si="19"/>
+        <v>普通攻击使用“恶魔普攻”</v>
+      </c>
+      <c r="AD72" t="str">
+        <f t="shared" si="20"/>
+        <v>普通攻击攻击距离为1000</v>
+      </c>
+      <c r="AJ72" s="5">
+        <v>250</v>
+      </c>
     </row>
-    <row r="73" spans="1:22">
+    <row r="73" spans="1:36">
       <c r="A73" s="1">
         <v>69</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="D73" s="1">
         <v>2</v>
@@ -6634,7 +8826,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>200</v>
       </c>
       <c r="K73">
@@ -6674,16 +8866,46 @@
       <c r="V73" s="3">
         <v>340</v>
       </c>
+      <c r="X73" t="str">
+        <f t="shared" si="14"/>
+        <v>远程</v>
+      </c>
+      <c r="Y73" t="str">
+        <f t="shared" si="16"/>
+        <v>较大</v>
+      </c>
+      <c r="Z73" t="str">
+        <f t="shared" si="17"/>
+        <v>精英</v>
+      </c>
+      <c r="AA73" t="str">
+        <f t="shared" si="18"/>
+        <v>远程精英，拥有较大的警戒/取消警戒范围(2000/3000)</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC73" t="str">
+        <f t="shared" si="19"/>
+        <v>普通攻击使用“寒冰邪灵普攻”</v>
+      </c>
+      <c r="AD73" t="str">
+        <f t="shared" si="20"/>
+        <v>普通攻击攻击距离为2000</v>
+      </c>
+      <c r="AJ73" s="5">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="74" spans="1:22">
+    <row r="74" spans="1:36">
       <c r="A74" s="1">
         <v>70</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="D74" s="1">
         <v>1</v>
@@ -6698,7 +8920,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="K74">
@@ -6738,16 +8960,46 @@
       <c r="V74" s="3">
         <v>340</v>
       </c>
+      <c r="X74" t="str">
+        <f t="shared" si="14"/>
+        <v>远程</v>
+      </c>
+      <c r="Y74" t="str">
+        <f t="shared" si="16"/>
+        <v>较大</v>
+      </c>
+      <c r="Z74" t="str">
+        <f t="shared" si="17"/>
+        <v>小怪</v>
+      </c>
+      <c r="AA74" t="str">
+        <f t="shared" si="18"/>
+        <v>远程小怪，拥有较大的警戒/取消警戒范围(1200/2000)</v>
+      </c>
+      <c r="AB74" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC74" t="str">
+        <f t="shared" si="19"/>
+        <v>普通攻击使用“邪灵普攻”</v>
+      </c>
+      <c r="AD74" t="str">
+        <f t="shared" si="20"/>
+        <v>普通攻击攻击距离为1200</v>
+      </c>
+      <c r="AJ74" s="5">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="75" spans="1:22">
+    <row r="75" spans="1:36">
       <c r="A75" s="1">
         <v>71</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="D75" s="1">
         <v>1</v>
@@ -6762,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="K75">
@@ -6802,16 +9054,46 @@
       <c r="V75" s="3">
         <v>340</v>
       </c>
+      <c r="X75" t="str">
+        <f t="shared" si="14"/>
+        <v>远程</v>
+      </c>
+      <c r="Y75" t="str">
+        <f t="shared" si="16"/>
+        <v>较大</v>
+      </c>
+      <c r="Z75" t="str">
+        <f t="shared" si="17"/>
+        <v>小怪</v>
+      </c>
+      <c r="AA75" t="str">
+        <f t="shared" si="18"/>
+        <v>远程小怪，拥有较大的警戒/取消警戒范围(1200/2000)</v>
+      </c>
+      <c r="AB75" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC75" t="str">
+        <f t="shared" si="19"/>
+        <v>普通攻击使用“自然元素怪普攻”</v>
+      </c>
+      <c r="AD75" t="str">
+        <f t="shared" si="20"/>
+        <v>普通攻击攻击距离为1200</v>
+      </c>
+      <c r="AJ75" s="5">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="76" spans="1:22">
+    <row r="76" spans="1:36">
       <c r="A76" s="1">
         <v>72</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="D76" s="1">
         <v>1</v>
@@ -6826,7 +9108,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="K76">
@@ -6866,16 +9148,46 @@
       <c r="V76" s="3">
         <v>340</v>
       </c>
+      <c r="X76" t="str">
+        <f t="shared" si="14"/>
+        <v>远程</v>
+      </c>
+      <c r="Y76" t="str">
+        <f t="shared" si="16"/>
+        <v>较大</v>
+      </c>
+      <c r="Z76" t="str">
+        <f t="shared" si="17"/>
+        <v>小怪</v>
+      </c>
+      <c r="AA76" t="str">
+        <f t="shared" si="18"/>
+        <v>远程小怪，拥有较大的警戒/取消警戒范围(1200/2000)</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC76" t="str">
+        <f t="shared" si="19"/>
+        <v>普通攻击使用“深渊元素怪普攻”</v>
+      </c>
+      <c r="AD76" t="str">
+        <f t="shared" si="20"/>
+        <v>普通攻击攻击距离为1200</v>
+      </c>
+      <c r="AJ76" s="5">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="77" spans="1:22">
+    <row r="77" spans="1:36">
       <c r="A77" s="1">
         <v>73</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="D77" s="1">
         <v>1</v>
@@ -6890,7 +9202,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="K77">
@@ -6930,16 +9242,46 @@
       <c r="V77" s="3">
         <v>340</v>
       </c>
+      <c r="X77" t="str">
+        <f t="shared" si="14"/>
+        <v>远程</v>
+      </c>
+      <c r="Y77" t="str">
+        <f t="shared" si="16"/>
+        <v>较大</v>
+      </c>
+      <c r="Z77" t="str">
+        <f t="shared" si="17"/>
+        <v>小怪</v>
+      </c>
+      <c r="AA77" t="str">
+        <f t="shared" si="18"/>
+        <v>远程小怪，拥有较大的警戒/取消警戒范围(1200/2000)</v>
+      </c>
+      <c r="AB77" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC77" t="str">
+        <f t="shared" si="19"/>
+        <v>普通攻击使用“剧毒恶魔普攻”</v>
+      </c>
+      <c r="AD77" t="str">
+        <f t="shared" si="20"/>
+        <v>普通攻击攻击距离为1200</v>
+      </c>
+      <c r="AJ77" s="5">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="78" spans="1:22">
+    <row r="78" spans="1:36">
       <c r="A78" s="1">
         <v>74</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="D78" s="1">
         <v>1</v>
@@ -6954,7 +9296,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="K78">
@@ -6994,16 +9336,46 @@
       <c r="V78" s="3">
         <v>340</v>
       </c>
+      <c r="X78" t="str">
+        <f t="shared" si="14"/>
+        <v>远程</v>
+      </c>
+      <c r="Y78" t="str">
+        <f t="shared" si="16"/>
+        <v>较大</v>
+      </c>
+      <c r="Z78" t="str">
+        <f t="shared" si="17"/>
+        <v>小怪</v>
+      </c>
+      <c r="AA78" t="str">
+        <f t="shared" si="18"/>
+        <v>远程小怪，拥有较大的警戒/取消警戒范围(1200/2000)</v>
+      </c>
+      <c r="AB78" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC78" t="str">
+        <f t="shared" si="19"/>
+        <v>普通攻击使用“岩浆恶魔普攻”</v>
+      </c>
+      <c r="AD78" t="str">
+        <f t="shared" si="20"/>
+        <v>普通攻击攻击距离为1200</v>
+      </c>
+      <c r="AJ78" s="5">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="79" spans="1:22">
+    <row r="79" spans="1:36">
       <c r="A79" s="1">
         <v>75</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="D79" s="1">
         <v>1</v>
@@ -7018,7 +9390,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="K79">
@@ -7058,16 +9430,46 @@
       <c r="V79" s="3">
         <v>459.999999999999</v>
       </c>
+      <c r="X79" t="str">
+        <f t="shared" si="14"/>
+        <v>远程</v>
+      </c>
+      <c r="Y79" t="str">
+        <f t="shared" si="16"/>
+        <v>较大</v>
+      </c>
+      <c r="Z79" t="str">
+        <f t="shared" si="17"/>
+        <v>小怪</v>
+      </c>
+      <c r="AA79" t="str">
+        <f t="shared" si="18"/>
+        <v>远程小怪，拥有较大的警戒/取消警戒范围(1200/2000)</v>
+      </c>
+      <c r="AB79" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC79" t="str">
+        <f t="shared" si="19"/>
+        <v>普通攻击使用“剧毒蝎尾兽普攻”</v>
+      </c>
+      <c r="AD79" t="str">
+        <f t="shared" si="20"/>
+        <v>普通攻击攻击距离为1200</v>
+      </c>
+      <c r="AJ79" s="5">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="80" spans="1:22">
+    <row r="80" spans="1:36">
       <c r="A80" s="1">
         <v>76</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="D80" s="1">
         <v>1</v>
@@ -7082,7 +9484,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="K80">
@@ -7122,16 +9524,46 @@
       <c r="V80" s="3">
         <v>459.999999999999</v>
       </c>
+      <c r="X80" t="str">
+        <f t="shared" si="14"/>
+        <v>远程</v>
+      </c>
+      <c r="Y80" t="str">
+        <f t="shared" si="16"/>
+        <v>较大</v>
+      </c>
+      <c r="Z80" t="str">
+        <f t="shared" si="17"/>
+        <v>小怪</v>
+      </c>
+      <c r="AA80" t="str">
+        <f t="shared" si="18"/>
+        <v>远程小怪，拥有较大的警戒/取消警戒范围(1200/2000)</v>
+      </c>
+      <c r="AB80" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC80" t="str">
+        <f t="shared" si="19"/>
+        <v>普通攻击使用“烈焰蝎尾兽普攻”</v>
+      </c>
+      <c r="AD80" t="str">
+        <f t="shared" si="20"/>
+        <v>普通攻击攻击距离为1200</v>
+      </c>
+      <c r="AJ80" s="5">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="81" spans="1:22">
+    <row r="81" spans="1:36">
       <c r="A81" s="1">
         <v>77</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="D81" s="1">
         <v>1</v>
@@ -7146,7 +9578,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="K81">
@@ -7186,16 +9618,46 @@
       <c r="V81" s="3">
         <v>459.999999999999</v>
       </c>
+      <c r="X81" t="str">
+        <f t="shared" si="14"/>
+        <v>远程</v>
+      </c>
+      <c r="Y81" t="str">
+        <f t="shared" si="16"/>
+        <v>较大</v>
+      </c>
+      <c r="Z81" t="str">
+        <f t="shared" si="17"/>
+        <v>小怪</v>
+      </c>
+      <c r="AA81" t="str">
+        <f t="shared" si="18"/>
+        <v>远程小怪，拥有较大的警戒/取消警戒范围(1200/2000)</v>
+      </c>
+      <c r="AB81" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC81" t="str">
+        <f t="shared" si="19"/>
+        <v>普通攻击使用“感电蝎尾兽普攻”</v>
+      </c>
+      <c r="AD81" t="str">
+        <f t="shared" si="20"/>
+        <v>普通攻击攻击距离为1200</v>
+      </c>
+      <c r="AJ81" s="5">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="82" spans="1:22">
+    <row r="82" spans="1:36">
       <c r="A82" s="1">
         <v>78</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="D82" s="1">
         <v>1</v>
@@ -7210,7 +9672,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>111</v>
       </c>
       <c r="K82">
@@ -7250,16 +9712,46 @@
       <c r="V82" s="3">
         <v>340</v>
       </c>
+      <c r="X82" t="str">
+        <f t="shared" si="14"/>
+        <v>近战</v>
+      </c>
+      <c r="Y82" t="str">
+        <f t="shared" si="16"/>
+        <v>较小</v>
+      </c>
+      <c r="Z82" t="str">
+        <f t="shared" si="17"/>
+        <v>小怪</v>
+      </c>
+      <c r="AA82" t="str">
+        <f t="shared" si="18"/>
+        <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
+      </c>
+      <c r="AB82" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC82" t="str">
+        <f t="shared" si="19"/>
+        <v>普通攻击使用“蓝双头犬普攻”</v>
+      </c>
+      <c r="AD82" t="str">
+        <f t="shared" si="20"/>
+        <v>普通攻击攻击距离为600</v>
+      </c>
+      <c r="AJ82" s="5">
+        <v>120</v>
+      </c>
     </row>
-    <row r="83" spans="1:22">
+    <row r="83" spans="1:36">
       <c r="A83" s="1">
         <v>79</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="D83" s="1">
         <v>1</v>
@@ -7274,7 +9766,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>111</v>
       </c>
       <c r="K83">
@@ -7314,16 +9806,46 @@
       <c r="V83" s="3">
         <v>340</v>
       </c>
+      <c r="X83" t="str">
+        <f t="shared" si="14"/>
+        <v>近战</v>
+      </c>
+      <c r="Y83" t="str">
+        <f t="shared" si="16"/>
+        <v>较小</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="17"/>
+        <v>小怪</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="18"/>
+        <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
+      </c>
+      <c r="AB83" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="19"/>
+        <v>普通攻击使用“红双头犬普攻”</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="20"/>
+        <v>普通攻击攻击距离为600</v>
+      </c>
+      <c r="AJ83" s="5">
+        <v>120</v>
+      </c>
     </row>
-    <row r="84" spans="1:22">
+    <row r="84" spans="1:36">
       <c r="A84" s="1">
         <v>80</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="D84" s="1">
         <v>1</v>
@@ -7338,7 +9860,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>111</v>
       </c>
       <c r="K84">
@@ -7378,16 +9900,46 @@
       <c r="V84" s="3">
         <v>459.999999999999</v>
       </c>
+      <c r="X84" t="str">
+        <f t="shared" si="14"/>
+        <v>近战</v>
+      </c>
+      <c r="Y84" t="str">
+        <f t="shared" si="16"/>
+        <v>较小</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="17"/>
+        <v>小怪</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="18"/>
+        <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
+      </c>
+      <c r="AB84" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="19"/>
+        <v>普通攻击使用“亡灵恶狼普攻”</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="20"/>
+        <v>普通攻击攻击距离为600</v>
+      </c>
+      <c r="AJ84" s="5">
+        <v>150</v>
+      </c>
     </row>
-    <row r="85" spans="1:22">
+    <row r="85" spans="1:36">
       <c r="A85" s="1">
         <v>81</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="D85" s="1">
         <v>1</v>
@@ -7402,7 +9954,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>111</v>
       </c>
       <c r="K85">
@@ -7442,16 +9994,46 @@
       <c r="V85" s="3">
         <v>459.999999999999</v>
       </c>
+      <c r="X85" t="str">
+        <f t="shared" si="14"/>
+        <v>近战</v>
+      </c>
+      <c r="Y85" t="str">
+        <f t="shared" si="16"/>
+        <v>较小</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="17"/>
+        <v>小怪</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="18"/>
+        <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
+      </c>
+      <c r="AB85" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="19"/>
+        <v>普通攻击使用“毒液恶狼普攻”</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="20"/>
+        <v>普通攻击攻击距离为600</v>
+      </c>
+      <c r="AJ85" s="5">
+        <v>150</v>
+      </c>
     </row>
-    <row r="86" spans="1:22">
+    <row r="86" spans="1:36">
       <c r="A86" s="1">
         <v>82</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="D86" s="1">
         <v>1</v>
@@ -7466,7 +10048,7 @@
         <v>1</v>
       </c>
       <c r="I86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>111</v>
       </c>
       <c r="K86">
@@ -7506,16 +10088,46 @@
       <c r="V86" s="3">
         <v>459.999999999999</v>
       </c>
+      <c r="X86" t="str">
+        <f t="shared" si="14"/>
+        <v>近战</v>
+      </c>
+      <c r="Y86" t="str">
+        <f t="shared" si="16"/>
+        <v>较小</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="17"/>
+        <v>小怪</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="18"/>
+        <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
+      </c>
+      <c r="AB86" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="19"/>
+        <v>普通攻击使用“烈焰恶狼普攻”</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="20"/>
+        <v>普通攻击攻击距离为600</v>
+      </c>
+      <c r="AJ86" s="5">
+        <v>150</v>
+      </c>
     </row>
-    <row r="87" spans="1:22">
+    <row r="87" spans="1:36">
       <c r="A87" s="1">
         <v>83</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="D87" s="1">
         <v>1</v>
@@ -7530,7 +10142,7 @@
         <v>1</v>
       </c>
       <c r="I87" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>111</v>
       </c>
       <c r="K87">
@@ -7570,16 +10182,46 @@
       <c r="V87" s="3">
         <v>340</v>
       </c>
+      <c r="X87" t="str">
+        <f t="shared" si="14"/>
+        <v>近战</v>
+      </c>
+      <c r="Y87" t="str">
+        <f t="shared" si="16"/>
+        <v>较小</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="17"/>
+        <v>小怪</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="18"/>
+        <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
+      </c>
+      <c r="AB87" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="19"/>
+        <v>普通攻击使用“毒蝎普攻”</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="20"/>
+        <v>普通攻击攻击距离为600</v>
+      </c>
+      <c r="AJ87" s="5">
+        <v>150</v>
+      </c>
     </row>
-    <row r="88" spans="1:22">
+    <row r="88" spans="1:36">
       <c r="A88" s="1">
         <v>84</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="D88" s="1">
         <v>2</v>
@@ -7594,7 +10236,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>200</v>
       </c>
       <c r="K88">
@@ -7634,16 +10276,46 @@
       <c r="V88" s="3">
         <v>340</v>
       </c>
+      <c r="X88" t="str">
+        <f t="shared" si="14"/>
+        <v>远程</v>
+      </c>
+      <c r="Y88" t="str">
+        <f t="shared" si="16"/>
+        <v>较大</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="17"/>
+        <v>精英</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="18"/>
+        <v>远程精英，拥有较大的警戒/取消警戒范围(2000/3000)</v>
+      </c>
+      <c r="AB88" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="19"/>
+        <v>普通攻击使用“火元素普攻”</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="20"/>
+        <v>普通攻击攻击距离为2000</v>
+      </c>
+      <c r="AJ88" s="5">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="89" spans="1:22">
+    <row r="89" spans="1:36">
       <c r="A89" s="1">
         <v>85</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="D89" s="1">
         <v>1</v>
@@ -7658,7 +10330,7 @@
         <v>1</v>
       </c>
       <c r="I89" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>111</v>
       </c>
       <c r="K89">
@@ -7698,16 +10370,46 @@
       <c r="V89" s="3">
         <v>340</v>
       </c>
+      <c r="X89" t="str">
+        <f t="shared" ref="X89:X104" si="21">IF(F89=1,"近战","远程")</f>
+        <v>近战</v>
+      </c>
+      <c r="Y89" t="str">
+        <f t="shared" si="16"/>
+        <v>较小</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="17"/>
+        <v>小怪</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="18"/>
+        <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
+      </c>
+      <c r="AB89" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="19"/>
+        <v>普通攻击使用“岩浆巨人普攻”</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="20"/>
+        <v>普通攻击攻击距离为600</v>
+      </c>
+      <c r="AJ89" s="5">
+        <v>150</v>
+      </c>
     </row>
-    <row r="90" spans="1:22">
+    <row r="90" spans="1:36">
       <c r="A90" s="1">
         <v>86</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="D90" s="1">
         <v>1</v>
@@ -7722,7 +10424,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>111</v>
       </c>
       <c r="K90">
@@ -7762,16 +10464,46 @@
       <c r="V90" s="3">
         <v>350</v>
       </c>
+      <c r="X90" t="str">
+        <f t="shared" si="21"/>
+        <v>近战</v>
+      </c>
+      <c r="Y90" t="str">
+        <f t="shared" si="16"/>
+        <v>较小</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="17"/>
+        <v>小怪</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="18"/>
+        <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
+      </c>
+      <c r="AB90" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="19"/>
+        <v>普通攻击使用“魔蝎普攻”</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="20"/>
+        <v>普通攻击攻击距离为600</v>
+      </c>
+      <c r="AJ90" s="5">
+        <v>120</v>
+      </c>
     </row>
-    <row r="91" spans="1:22">
+    <row r="91" spans="1:36">
       <c r="A91" s="1">
         <v>87</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="D91" s="1">
         <v>1</v>
@@ -7786,7 +10518,7 @@
         <v>1</v>
       </c>
       <c r="I91" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>111</v>
       </c>
       <c r="K91">
@@ -7826,16 +10558,46 @@
       <c r="V91" s="3">
         <v>340</v>
       </c>
+      <c r="X91" t="str">
+        <f t="shared" si="21"/>
+        <v>近战</v>
+      </c>
+      <c r="Y91" t="str">
+        <f t="shared" si="16"/>
+        <v>较小</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="17"/>
+        <v>小怪</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="18"/>
+        <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
+      </c>
+      <c r="AB91" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="19"/>
+        <v>普通攻击使用“海妖首位普攻”</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="20"/>
+        <v>普通攻击攻击距离为600</v>
+      </c>
+      <c r="AJ91" s="5">
+        <v>160</v>
+      </c>
     </row>
-    <row r="92" spans="1:22">
+    <row r="92" spans="1:36">
       <c r="A92" s="1">
         <v>88</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="D92" s="1">
         <v>1</v>
@@ -7850,7 +10612,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="K92">
@@ -7890,16 +10652,46 @@
       <c r="V92" s="3">
         <v>340</v>
       </c>
+      <c r="X92" t="str">
+        <f t="shared" si="21"/>
+        <v>远程</v>
+      </c>
+      <c r="Y92" t="str">
+        <f t="shared" si="16"/>
+        <v>较大</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="17"/>
+        <v>小怪</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="18"/>
+        <v>远程小怪，拥有较大的警戒/取消警戒范围(1200/2000)</v>
+      </c>
+      <c r="AB92" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="19"/>
+        <v>普通攻击使用“海妖水法师普攻”</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="20"/>
+        <v>普通攻击攻击距离为1200</v>
+      </c>
+      <c r="AJ92" s="5">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="93" spans="1:22">
+    <row r="93" spans="1:36">
       <c r="A93" s="1">
         <v>89</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="D93" s="1">
         <v>1</v>
@@ -7914,7 +10706,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="K93">
@@ -7954,16 +10746,46 @@
       <c r="V93" s="3">
         <v>340</v>
       </c>
+      <c r="X93" t="str">
+        <f t="shared" si="21"/>
+        <v>远程</v>
+      </c>
+      <c r="Y93" t="str">
+        <f t="shared" si="16"/>
+        <v>较大</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="17"/>
+        <v>小怪</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="18"/>
+        <v>远程小怪，拥有较大的警戒/取消警戒范围(1200/2000)</v>
+      </c>
+      <c r="AB93" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="19"/>
+        <v>普通攻击使用“海妖雷法师普攻”</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="20"/>
+        <v>普通攻击攻击距离为1200</v>
+      </c>
+      <c r="AJ93" s="5">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="94" spans="1:22">
+    <row r="94" spans="1:36">
       <c r="A94" s="1">
         <v>90</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="D94" s="1">
         <v>1</v>
@@ -7978,7 +10800,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="K94">
@@ -8018,16 +10840,46 @@
       <c r="V94" s="3">
         <v>340</v>
       </c>
+      <c r="X94" t="str">
+        <f t="shared" si="21"/>
+        <v>远程</v>
+      </c>
+      <c r="Y94" t="str">
+        <f t="shared" si="16"/>
+        <v>较大</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="17"/>
+        <v>小怪</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="18"/>
+        <v>远程小怪，拥有较大的警戒/取消警戒范围(1200/2000)</v>
+      </c>
+      <c r="AB94" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="19"/>
+        <v>普通攻击使用“海妖火法师普攻”</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="20"/>
+        <v>普通攻击攻击距离为1200</v>
+      </c>
+      <c r="AJ94" s="5">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="95" spans="1:22">
+    <row r="95" spans="1:36">
       <c r="A95" s="1">
         <v>91</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="D95" s="1">
         <v>1</v>
@@ -8042,7 +10894,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="K95">
@@ -8082,16 +10934,46 @@
       <c r="V95" s="3">
         <v>340</v>
       </c>
+      <c r="X95" t="str">
+        <f t="shared" si="21"/>
+        <v>远程</v>
+      </c>
+      <c r="Y95" t="str">
+        <f t="shared" si="16"/>
+        <v>较大</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="17"/>
+        <v>小怪</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="18"/>
+        <v>远程小怪，拥有较大的警戒/取消警戒范围(1200/2000)</v>
+      </c>
+      <c r="AB95" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="19"/>
+        <v>普通攻击使用“海妖射手普攻”</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="20"/>
+        <v>普通攻击攻击距离为1200</v>
+      </c>
+      <c r="AJ95" s="5">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="96" spans="1:22">
+    <row r="96" spans="1:36">
       <c r="A96" s="1">
         <v>92</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="D96" s="1">
         <v>1</v>
@@ -8106,7 +10988,7 @@
         <v>1</v>
       </c>
       <c r="I96" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>111</v>
       </c>
       <c r="K96">
@@ -8146,16 +11028,46 @@
       <c r="V96" s="3">
         <v>300</v>
       </c>
+      <c r="X96" t="str">
+        <f t="shared" si="21"/>
+        <v>近战</v>
+      </c>
+      <c r="Y96" t="str">
+        <f t="shared" si="16"/>
+        <v>较小</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="17"/>
+        <v>小怪</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="18"/>
+        <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
+      </c>
+      <c r="AB96" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="19"/>
+        <v>普通攻击使用“牛头战士普攻”</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="20"/>
+        <v>普通攻击攻击距离为600</v>
+      </c>
+      <c r="AJ96" s="5">
+        <v>250</v>
+      </c>
     </row>
-    <row r="97" spans="1:22">
+    <row r="97" spans="1:36">
       <c r="A97" s="1">
         <v>93</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="D97" s="1">
         <v>3</v>
@@ -8170,7 +11082,7 @@
         <v>1</v>
       </c>
       <c r="I97" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>311</v>
       </c>
       <c r="K97">
@@ -8210,16 +11122,46 @@
       <c r="V97" s="3">
         <v>300</v>
       </c>
+      <c r="X97" t="str">
+        <f t="shared" si="21"/>
+        <v>近战</v>
+      </c>
+      <c r="Y97" t="str">
+        <f t="shared" si="16"/>
+        <v>较大</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="17"/>
+        <v>BOSS</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="18"/>
+        <v>近战BOSS，拥有较大的警戒/取消警戒范围(1000/1500)</v>
+      </c>
+      <c r="AB97" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="19"/>
+        <v>普通攻击使用“绿色恶魔龙普攻”</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="20"/>
+        <v>普通攻击攻击距离为1000</v>
+      </c>
+      <c r="AJ97" s="5">
+        <v>250</v>
+      </c>
     </row>
-    <row r="98" spans="1:22">
+    <row r="98" spans="1:36">
       <c r="A98" s="1">
         <v>94</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="D98" s="1">
         <v>2</v>
@@ -8234,7 +11176,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>211</v>
       </c>
       <c r="K98">
@@ -8274,16 +11216,46 @@
       <c r="V98" s="3">
         <v>340</v>
       </c>
+      <c r="X98" t="str">
+        <f t="shared" si="21"/>
+        <v>近战</v>
+      </c>
+      <c r="Y98" t="str">
+        <f t="shared" si="16"/>
+        <v>较大</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="17"/>
+        <v>精英</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="18"/>
+        <v>近战精英，拥有较大的警戒/取消警戒范围(1000/1500)</v>
+      </c>
+      <c r="AB98" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="19"/>
+        <v>普通攻击使用“狼人普攻”</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="20"/>
+        <v>普通攻击攻击距离为1000</v>
+      </c>
+      <c r="AJ98" s="5">
+        <v>250</v>
+      </c>
     </row>
-    <row r="99" spans="1:22">
+    <row r="99" spans="1:36">
       <c r="A99" s="1">
         <v>95</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="D99" s="1">
         <v>1</v>
@@ -8298,7 +11270,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="K99">
@@ -8338,16 +11310,46 @@
       <c r="V99" s="3">
         <v>340</v>
       </c>
+      <c r="X99" t="str">
+        <f t="shared" si="21"/>
+        <v>远程</v>
+      </c>
+      <c r="Y99" t="str">
+        <f t="shared" si="16"/>
+        <v>较大</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="17"/>
+        <v>小怪</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="18"/>
+        <v>远程小怪，拥有较大的警戒/取消警戒范围(1200/2000)</v>
+      </c>
+      <c r="AB99" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="19"/>
+        <v>普通攻击使用“蛇魔法师普攻”</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="20"/>
+        <v>普通攻击攻击距离为1200</v>
+      </c>
+      <c r="AJ99" s="5">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="100" spans="1:22">
+    <row r="100" spans="1:36">
       <c r="A100" s="1">
         <v>96</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="D100" s="1">
         <v>1</v>
@@ -8362,7 +11364,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>111</v>
       </c>
       <c r="K100">
@@ -8402,16 +11404,46 @@
       <c r="V100" s="3">
         <v>200</v>
       </c>
+      <c r="X100" t="str">
+        <f t="shared" si="21"/>
+        <v>近战</v>
+      </c>
+      <c r="Y100" t="str">
+        <f t="shared" si="16"/>
+        <v>较小</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="17"/>
+        <v>小怪</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="18"/>
+        <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
+      </c>
+      <c r="AB100" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="19"/>
+        <v>普通攻击使用“石二普攻”</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="20"/>
+        <v>普通攻击攻击距离为600</v>
+      </c>
+      <c r="AJ100" s="5">
+        <v>160</v>
+      </c>
     </row>
-    <row r="101" spans="1:22">
+    <row r="101" spans="1:36">
       <c r="A101" s="1">
         <v>97</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="D101" s="1">
         <v>1</v>
@@ -8426,7 +11458,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="str">
-        <f>D101&amp;F101&amp;G101</f>
+        <f t="shared" si="15"/>
         <v>111</v>
       </c>
       <c r="K101">
@@ -8466,16 +11498,46 @@
       <c r="V101" s="3">
         <v>200</v>
       </c>
+      <c r="X101" t="str">
+        <f t="shared" si="21"/>
+        <v>近战</v>
+      </c>
+      <c r="Y101" t="str">
+        <f t="shared" si="16"/>
+        <v>较小</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="17"/>
+        <v>小怪</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="18"/>
+        <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
+      </c>
+      <c r="AB101" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="19"/>
+        <v>普通攻击使用“石大普攻”</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="20"/>
+        <v>普通攻击攻击距离为600</v>
+      </c>
+      <c r="AJ101" s="5">
+        <v>160</v>
+      </c>
     </row>
-    <row r="102" spans="1:22">
+    <row r="102" spans="1:36">
       <c r="A102" s="1">
         <v>98</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="D102" s="1">
         <v>2</v>
@@ -8490,7 +11552,7 @@
         <v>1</v>
       </c>
       <c r="I102" t="str">
-        <f>D102&amp;F102&amp;G102</f>
+        <f t="shared" si="15"/>
         <v>211</v>
       </c>
       <c r="K102">
@@ -8530,16 +11592,46 @@
       <c r="V102" s="3">
         <v>340</v>
       </c>
+      <c r="X102" t="str">
+        <f t="shared" si="21"/>
+        <v>近战</v>
+      </c>
+      <c r="Y102" t="str">
+        <f>IF(K102&gt;800,"较大","较小")</f>
+        <v>较大</v>
+      </c>
+      <c r="Z102" t="str">
+        <f>IF(D102=1,"小怪",IF(D102=2,"精英","BOSS"))</f>
+        <v>精英</v>
+      </c>
+      <c r="AA102" t="str">
+        <f>X102&amp;Z102&amp;"，拥有"&amp;Y102&amp;"的警戒/取消警戒范围("&amp;K102&amp;"/"&amp;L102&amp;")"</f>
+        <v>近战精英，拥有较大的警戒/取消警戒范围(1000/1500)</v>
+      </c>
+      <c r="AB102" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC102" t="str">
+        <f>"普通攻击使用“"&amp;C102&amp;"普攻”"</f>
+        <v>普通攻击使用“霜巨人普攻”</v>
+      </c>
+      <c r="AD102" t="str">
+        <f>"普通攻击攻击距离为"&amp;K102</f>
+        <v>普通攻击攻击距离为1000</v>
+      </c>
+      <c r="AJ102" s="5">
+        <v>160</v>
+      </c>
     </row>
-    <row r="103" spans="1:22">
+    <row r="103" spans="1:36">
       <c r="A103" s="1">
         <v>99</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="D103" s="1">
         <v>3</v>
@@ -8554,7 +11646,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="str">
-        <f>D103&amp;F103&amp;G103</f>
+        <f t="shared" si="15"/>
         <v>311</v>
       </c>
       <c r="K103">
@@ -8594,16 +11686,46 @@
       <c r="V103" s="3">
         <v>0</v>
       </c>
+      <c r="X103" t="str">
+        <f t="shared" si="21"/>
+        <v>近战</v>
+      </c>
+      <c r="Y103" t="str">
+        <f>IF(K103&gt;800,"较大","较小")</f>
+        <v>较大</v>
+      </c>
+      <c r="Z103" t="str">
+        <f>IF(D103=1,"小怪",IF(D103=2,"精英","BOSS"))</f>
+        <v>BOSS</v>
+      </c>
+      <c r="AA103" t="str">
+        <f>X103&amp;Z103&amp;"，拥有"&amp;Y103&amp;"的警戒/取消警戒范围("&amp;K103&amp;"/"&amp;L103&amp;")"</f>
+        <v>近战BOSS，拥有较大的警戒/取消警戒范围(1000/1500)</v>
+      </c>
+      <c r="AB103" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC103" t="str">
+        <f>"普通攻击使用“"&amp;C103&amp;"普攻”"</f>
+        <v>普通攻击使用“白色神秘刺客普攻”</v>
+      </c>
+      <c r="AD103" t="str">
+        <f>"普通攻击攻击距离为"&amp;K103</f>
+        <v>普通攻击攻击距离为1000</v>
+      </c>
+      <c r="AJ103" s="5">
+        <v>1200</v>
+      </c>
     </row>
-    <row r="104" spans="1:22">
+    <row r="104" spans="1:36">
       <c r="A104" s="1">
         <v>100</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="D104" s="1">
         <v>2</v>
@@ -8618,7 +11740,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="str">
-        <f>D104&amp;F104&amp;G104</f>
+        <f t="shared" si="15"/>
         <v>211</v>
       </c>
       <c r="K104">
@@ -8657,6 +11779,36 @@
       </c>
       <c r="V104" s="3">
         <v>300</v>
+      </c>
+      <c r="X104" t="str">
+        <f t="shared" si="21"/>
+        <v>近战</v>
+      </c>
+      <c r="Y104" t="str">
+        <f>IF(K104&gt;800,"较大","较小")</f>
+        <v>较大</v>
+      </c>
+      <c r="Z104" t="str">
+        <f>IF(D104=1,"小怪",IF(D104=2,"精英","BOSS"))</f>
+        <v>精英</v>
+      </c>
+      <c r="AA104" t="str">
+        <f>X104&amp;Z104&amp;"，拥有"&amp;Y104&amp;"的警戒/取消警戒范围("&amp;K104&amp;"/"&amp;L104&amp;")"</f>
+        <v>近战精英，拥有较大的警戒/取消警戒范围(1000/1500)</v>
+      </c>
+      <c r="AB104" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC104" t="str">
+        <f>"普通攻击使用“"&amp;C104&amp;"普攻”"</f>
+        <v>普通攻击使用“黄色坦克战士普攻”</v>
+      </c>
+      <c r="AD104" t="str">
+        <f>"普通攻击攻击距离为"&amp;K104</f>
+        <v>普通攻击攻击距离为1000</v>
+      </c>
+      <c r="AJ104" s="5">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -8671,10 +11823,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:O19"/>
+  <dimension ref="A2:Q19"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8762,7 +11914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="8:14">
+    <row r="5" spans="8:17">
       <c r="H5">
         <v>1000</v>
       </c>
@@ -8783,6 +11935,9 @@
       </c>
       <c r="N5">
         <v>150</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="8:14">
@@ -8810,13 +11965,13 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="B8" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="C8" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -8828,7 +11983,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="H8">
         <v>600</v>
@@ -8854,13 +12009,13 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="B9" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="C9" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -8872,7 +12027,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="H9">
         <v>1200</v>
@@ -8898,13 +12053,13 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="B10" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="C10" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -8916,7 +12071,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="H10">
         <v>600</v>
@@ -8942,13 +12097,13 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="B11" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="C11" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -8960,7 +12115,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="H11">
         <v>1200</v>
@@ -8986,13 +12141,13 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="B12" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="C12" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -9004,7 +12159,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="H12">
         <v>1000</v>
@@ -9030,13 +12185,13 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="B13" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="C13" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -9048,7 +12203,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="H13">
         <v>2000</v>
@@ -9074,13 +12229,13 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="B14" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="C14" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -9092,7 +12247,7 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="H14">
         <v>1000</v>
@@ -9118,13 +12273,13 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="B15" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="C15" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -9136,7 +12291,7 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="H15">
         <v>2000</v>
@@ -9162,13 +12317,13 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="B16" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="C16" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -9180,7 +12335,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="H16">
         <v>1000</v>
@@ -9206,13 +12361,13 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="B17" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="C17" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -9224,7 +12379,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="H17">
         <v>2000</v>
@@ -9250,13 +12405,13 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="B18" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="C18" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="D18">
         <v>3</v>
@@ -9268,7 +12423,7 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="H18">
         <v>1000</v>
@@ -9294,13 +12449,13 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="B19" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="C19" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -9312,7 +12467,7 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="H19">
         <v>2000</v>

--- a/AA怪物文档/moster_data.xlsx
+++ b/AA怪物文档/moster_data.xlsx
@@ -1975,8 +1975,8 @@
   <sheetPr/>
   <dimension ref="A1:BL104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AE13" sqref="AE13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2381,10 +2381,10 @@
         <v>6</v>
       </c>
       <c r="P4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Q4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="S4" t="s">
         <v>31</v>
@@ -2463,11 +2463,11 @@
       </c>
       <c r="P5">
         <f>VLOOKUP($I5,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <f>VLOOKUP($I5,属性类计算!$G:$R,Q$4,FALSE)</f>
-        <v>-5</v>
+        <v>130</v>
       </c>
       <c r="S5">
         <v>10</v>
@@ -2579,11 +2579,11 @@
       </c>
       <c r="P6">
         <f>VLOOKUP($I6,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <f>VLOOKUP($I6,属性类计算!$G:$R,Q$4,FALSE)</f>
-        <v>-5</v>
+        <v>130</v>
       </c>
       <c r="S6">
         <v>10</v>
@@ -2695,11 +2695,11 @@
       </c>
       <c r="P7">
         <f>VLOOKUP($I7,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <f>VLOOKUP($I7,属性类计算!$G:$R,Q$4,FALSE)</f>
-        <v>-5</v>
+        <v>130</v>
       </c>
       <c r="S7">
         <v>10</v>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="P8">
         <f>VLOOKUP($I8,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q8">
         <f>VLOOKUP($I8,属性类计算!$G:$R,Q$4,FALSE)</f>
@@ -2927,11 +2927,11 @@
       </c>
       <c r="P9">
         <f>VLOOKUP($I9,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <f>VLOOKUP($I9,属性类计算!$G:$R,Q$4,FALSE)</f>
-        <v>-5</v>
+        <v>130</v>
       </c>
       <c r="S9">
         <v>10</v>
@@ -3043,11 +3043,11 @@
       </c>
       <c r="P10">
         <f>VLOOKUP($I10,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <f>VLOOKUP($I10,属性类计算!$G:$R,Q$4,FALSE)</f>
-        <v>-5</v>
+        <v>130</v>
       </c>
       <c r="S10">
         <v>10</v>
@@ -3159,7 +3159,7 @@
       </c>
       <c r="P11">
         <f>VLOOKUP($I11,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q11">
         <f>VLOOKUP($I11,属性类计算!$G:$R,Q$4,FALSE)</f>
@@ -3275,11 +3275,11 @@
       </c>
       <c r="P12">
         <f>VLOOKUP($I12,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <f>VLOOKUP($I12,属性类计算!$G:$R,Q$4,FALSE)</f>
-        <v>-5</v>
+        <v>180</v>
       </c>
       <c r="S12">
         <v>50</v>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="P13">
         <f>VLOOKUP($I13,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="Q13">
         <f>VLOOKUP($I13,属性类计算!$G:$R,Q$4,FALSE)</f>
@@ -3507,7 +3507,7 @@
       </c>
       <c r="P14">
         <f>VLOOKUP($I14,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="Q14">
         <f>VLOOKUP($I14,属性类计算!$G:$R,Q$4,FALSE)</f>
@@ -3623,11 +3623,11 @@
       </c>
       <c r="P15">
         <f>VLOOKUP($I15,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <f>VLOOKUP($I15,属性类计算!$G:$R,Q$4,FALSE)</f>
-        <v>-5</v>
+        <v>300</v>
       </c>
       <c r="S15">
         <v>100</v>
@@ -3739,7 +3739,7 @@
       </c>
       <c r="P16">
         <f>VLOOKUP($I16,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q16">
         <f>VLOOKUP($I16,属性类计算!$G:$R,Q$4,FALSE)</f>
@@ -3855,7 +3855,7 @@
       </c>
       <c r="P17">
         <f>VLOOKUP($I17,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q17">
         <f>VLOOKUP($I17,属性类计算!$G:$R,Q$4,FALSE)</f>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="P18">
         <f>VLOOKUP($I18,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="Q18">
         <f>VLOOKUP($I18,属性类计算!$G:$R,Q$4,FALSE)</f>
@@ -4087,11 +4087,11 @@
       </c>
       <c r="P19">
         <f>VLOOKUP($I19,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>-5</v>
+        <v>160</v>
       </c>
       <c r="Q19">
         <f>VLOOKUP($I19,属性类计算!$G:$R,Q$4,FALSE)</f>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="S19">
         <v>50</v>
@@ -4203,7 +4203,7 @@
       </c>
       <c r="P20">
         <f>VLOOKUP($I20,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="Q20">
         <f>VLOOKUP($I20,属性类计算!$G:$R,Q$4,FALSE)</f>
@@ -4319,7 +4319,7 @@
       </c>
       <c r="P21">
         <f>VLOOKUP($I21,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="Q21">
         <f>VLOOKUP($I21,属性类计算!$G:$R,Q$4,FALSE)</f>
@@ -4435,7 +4435,7 @@
       </c>
       <c r="P22">
         <f>VLOOKUP($I22,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="Q22">
         <f>VLOOKUP($I22,属性类计算!$G:$R,Q$4,FALSE)</f>
@@ -4551,7 +4551,7 @@
       </c>
       <c r="P23">
         <f>VLOOKUP($I23,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q23">
         <f>VLOOKUP($I23,属性类计算!$G:$R,Q$4,FALSE)</f>
@@ -4667,7 +4667,7 @@
       </c>
       <c r="P24">
         <f>VLOOKUP($I24,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q24">
         <f>VLOOKUP($I24,属性类计算!$G:$R,Q$4,FALSE)</f>
@@ -4787,7 +4787,7 @@
       </c>
       <c r="Q25">
         <f>VLOOKUP($I25,属性类计算!$G:$R,Q$4,FALSE)</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="S25">
         <v>50</v>
@@ -4899,7 +4899,7 @@
       </c>
       <c r="P26">
         <f>VLOOKUP($I26,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="Q26">
         <f>VLOOKUP($I26,属性类计算!$G:$R,Q$4,FALSE)</f>
@@ -5015,11 +5015,11 @@
       </c>
       <c r="P27">
         <f>VLOOKUP($I27,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>-5</v>
+        <v>120</v>
       </c>
       <c r="Q27">
         <f>VLOOKUP($I27,属性类计算!$G:$R,Q$4,FALSE)</f>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="S27">
         <v>10</v>
@@ -5131,11 +5131,11 @@
       </c>
       <c r="P28">
         <f>VLOOKUP($I28,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>-5</v>
+        <v>120</v>
       </c>
       <c r="Q28">
         <f>VLOOKUP($I28,属性类计算!$G:$R,Q$4,FALSE)</f>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="S28">
         <v>10</v>
@@ -5247,7 +5247,7 @@
       </c>
       <c r="P29">
         <f>VLOOKUP($I29,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q29">
         <f>VLOOKUP($I29,属性类计算!$G:$R,Q$4,FALSE)</f>
@@ -5363,7 +5363,7 @@
       </c>
       <c r="P30">
         <f>VLOOKUP($I30,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q30">
         <f>VLOOKUP($I30,属性类计算!$G:$R,Q$4,FALSE)</f>
@@ -5479,7 +5479,7 @@
       </c>
       <c r="P31">
         <f>VLOOKUP($I31,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="Q31">
         <f>VLOOKUP($I31,属性类计算!$G:$R,Q$4,FALSE)</f>
@@ -5595,7 +5595,7 @@
       </c>
       <c r="P32">
         <f>VLOOKUP($I32,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q32">
         <f>VLOOKUP($I32,属性类计算!$G:$R,Q$4,FALSE)</f>
@@ -5711,7 +5711,7 @@
       </c>
       <c r="P33">
         <f>VLOOKUP($I33,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q33">
         <f>VLOOKUP($I33,属性类计算!$G:$R,Q$4,FALSE)</f>
@@ -5827,11 +5827,11 @@
       </c>
       <c r="P34">
         <f>VLOOKUP($I34,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="Q34">
         <f>VLOOKUP($I34,属性类计算!$G:$R,Q$4,FALSE)</f>
-        <v>-5</v>
+        <v>180</v>
       </c>
       <c r="S34">
         <v>50</v>
@@ -5943,7 +5943,7 @@
       </c>
       <c r="P35">
         <f>VLOOKUP($I35,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="Q35">
         <f>VLOOKUP($I35,属性类计算!$G:$R,Q$4,FALSE)</f>
@@ -6063,7 +6063,7 @@
       </c>
       <c r="Q36">
         <f>VLOOKUP($I36,属性类计算!$G:$R,Q$4,FALSE)</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="S36">
         <v>50</v>
@@ -6175,7 +6175,7 @@
       </c>
       <c r="P37">
         <f>VLOOKUP($I37,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="Q37">
         <f>VLOOKUP($I37,属性类计算!$G:$R,Q$4,FALSE)</f>
@@ -6291,7 +6291,7 @@
       </c>
       <c r="P38">
         <f>VLOOKUP($I38,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q38">
         <f>VLOOKUP($I38,属性类计算!$G:$R,Q$4,FALSE)</f>
@@ -6407,7 +6407,7 @@
       </c>
       <c r="P39">
         <f>VLOOKUP($I39,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="Q39">
         <f>VLOOKUP($I39,属性类计算!$G:$R,Q$4,FALSE)</f>
@@ -6523,7 +6523,7 @@
       </c>
       <c r="P40">
         <f>VLOOKUP($I40,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="Q40">
         <f>VLOOKUP($I40,属性类计算!$G:$R,Q$4,FALSE)</f>
@@ -6639,11 +6639,11 @@
       </c>
       <c r="P41">
         <f>VLOOKUP($I41,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="Q41">
         <f>VLOOKUP($I41,属性类计算!$G:$R,Q$4,FALSE)</f>
-        <v>-5</v>
+        <v>180</v>
       </c>
       <c r="S41">
         <v>50</v>
@@ -6755,11 +6755,11 @@
       </c>
       <c r="P42">
         <f>VLOOKUP($I42,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="Q42">
         <f>VLOOKUP($I42,属性类计算!$G:$R,Q$4,FALSE)</f>
-        <v>-5</v>
+        <v>130</v>
       </c>
       <c r="S42">
         <v>10</v>
@@ -6871,7 +6871,7 @@
       </c>
       <c r="P43">
         <f>VLOOKUP($I43,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="Q43">
         <f>VLOOKUP($I43,属性类计算!$G:$R,Q$4,FALSE)</f>
@@ -6987,7 +6987,7 @@
       </c>
       <c r="P44">
         <f>VLOOKUP($I44,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="Q44">
         <f>VLOOKUP($I44,属性类计算!$G:$R,Q$4,FALSE)</f>
@@ -7103,7 +7103,7 @@
       </c>
       <c r="P45">
         <f>VLOOKUP($I45,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45">
         <f>VLOOKUP($I45,属性类计算!$G:$R,Q$4,FALSE)</f>
@@ -7219,7 +7219,7 @@
       </c>
       <c r="P46">
         <f>VLOOKUP($I46,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q46">
         <f>VLOOKUP($I46,属性类计算!$G:$R,Q$4,FALSE)</f>
@@ -7335,7 +7335,7 @@
       </c>
       <c r="P47">
         <f>VLOOKUP($I47,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q47">
         <f>VLOOKUP($I47,属性类计算!$G:$R,Q$4,FALSE)</f>
@@ -7451,7 +7451,7 @@
       </c>
       <c r="P48">
         <f>VLOOKUP($I48,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="Q48">
         <f>VLOOKUP($I48,属性类计算!$G:$R,Q$4,FALSE)</f>
@@ -7571,7 +7571,7 @@
       </c>
       <c r="Q49">
         <f>VLOOKUP($I49,属性类计算!$G:$R,Q$4,FALSE)</f>
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="S49">
         <v>100</v>
@@ -7683,7 +7683,7 @@
       </c>
       <c r="P50">
         <f>VLOOKUP($I50,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="Q50">
         <f>VLOOKUP($I50,属性类计算!$G:$R,Q$4,FALSE)</f>
@@ -7799,7 +7799,7 @@
       </c>
       <c r="P51">
         <f>VLOOKUP($I51,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q51">
         <f>VLOOKUP($I51,属性类计算!$G:$R,Q$4,FALSE)</f>
@@ -7915,7 +7915,7 @@
       </c>
       <c r="P52">
         <f>VLOOKUP($I52,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q52">
         <f>VLOOKUP($I52,属性类计算!$G:$R,Q$4,FALSE)</f>
@@ -8029,7 +8029,7 @@
       </c>
       <c r="Q53">
         <f>VLOOKUP($I53,属性类计算!$G:$R,Q$4,FALSE)</f>
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="S53">
         <v>100</v>
@@ -8135,7 +8135,7 @@
       </c>
       <c r="P54">
         <f>VLOOKUP($I54,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q54">
         <f>VLOOKUP($I54,属性类计算!$G:$R,Q$4,FALSE)</f>
@@ -8245,7 +8245,7 @@
       </c>
       <c r="P55">
         <f>VLOOKUP($I55,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q55">
         <f>VLOOKUP($I55,属性类计算!$G:$R,Q$4,FALSE)</f>
@@ -8355,11 +8355,11 @@
       </c>
       <c r="P56">
         <f>VLOOKUP($I56,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="Q56">
         <f>VLOOKUP($I56,属性类计算!$G:$R,Q$4,FALSE)</f>
-        <v>-5</v>
+        <v>180</v>
       </c>
       <c r="S56">
         <v>50</v>
@@ -8465,7 +8465,7 @@
       </c>
       <c r="P57">
         <f>VLOOKUP($I57,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="Q57">
         <f>VLOOKUP($I57,属性类计算!$G:$R,Q$4,FALSE)</f>
@@ -8575,7 +8575,7 @@
       </c>
       <c r="P58">
         <f>VLOOKUP($I58,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q58">
         <f>VLOOKUP($I58,属性类计算!$G:$R,Q$4,FALSE)</f>
@@ -8685,7 +8685,7 @@
       </c>
       <c r="P59">
         <f>VLOOKUP($I59,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q59">
         <f>VLOOKUP($I59,属性类计算!$G:$R,Q$4,FALSE)</f>
@@ -8795,7 +8795,7 @@
       </c>
       <c r="P60">
         <f>VLOOKUP($I60,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q60">
         <f>VLOOKUP($I60,属性类计算!$G:$R,Q$4,FALSE)</f>
@@ -8905,7 +8905,7 @@
       </c>
       <c r="P61">
         <f>VLOOKUP($I61,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q61">
         <f>VLOOKUP($I61,属性类计算!$G:$R,Q$4,FALSE)</f>
@@ -9015,7 +9015,7 @@
       </c>
       <c r="P62">
         <f>VLOOKUP($I62,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="Q62">
         <f>VLOOKUP($I62,属性类计算!$G:$R,Q$4,FALSE)</f>
@@ -9125,7 +9125,7 @@
       </c>
       <c r="P63">
         <f>VLOOKUP($I63,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q63">
         <f>VLOOKUP($I63,属性类计算!$G:$R,Q$4,FALSE)</f>
@@ -9235,7 +9235,7 @@
       </c>
       <c r="P64">
         <f>VLOOKUP($I64,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q64">
         <f>VLOOKUP($I64,属性类计算!$G:$R,Q$4,FALSE)</f>
@@ -9345,7 +9345,7 @@
       </c>
       <c r="P65">
         <f>VLOOKUP($I65,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q65">
         <f>VLOOKUP($I65,属性类计算!$G:$R,Q$4,FALSE)</f>
@@ -9455,7 +9455,7 @@
       </c>
       <c r="P66">
         <f>VLOOKUP($I66,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q66">
         <f>VLOOKUP($I66,属性类计算!$G:$R,Q$4,FALSE)</f>
@@ -9565,7 +9565,7 @@
       </c>
       <c r="P67">
         <f>VLOOKUP($I67,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q67">
         <f>VLOOKUP($I67,属性类计算!$G:$R,Q$4,FALSE)</f>
@@ -9675,7 +9675,7 @@
       </c>
       <c r="P68">
         <f>VLOOKUP($I68,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q68">
         <f>VLOOKUP($I68,属性类计算!$G:$R,Q$4,FALSE)</f>
@@ -9785,7 +9785,7 @@
       </c>
       <c r="P69">
         <f>VLOOKUP($I69,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q69">
         <f>VLOOKUP($I69,属性类计算!$G:$R,Q$4,FALSE)</f>
@@ -9835,7 +9835,7 @@
         <v>作为物理近战单位，对于物理\法术防御力较野猪一致</v>
       </c>
       <c r="AF69" t="str">
-        <f t="shared" ref="AF69:AF100" si="19">"移动速度为"&amp;V70</f>
+        <f t="shared" ref="AF69:AF104" si="19">"移动速度为"&amp;V70</f>
         <v>移动速度为340</v>
       </c>
       <c r="AG69" t="str">
@@ -9895,7 +9895,7 @@
       </c>
       <c r="P70">
         <f>VLOOKUP($I70,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q70">
         <f>VLOOKUP($I70,属性类计算!$G:$R,Q$4,FALSE)</f>
@@ -9937,7 +9937,7 @@
         <v>普通攻击使用“蜥蜴人战士普攻”</v>
       </c>
       <c r="AD70" t="str">
-        <f t="shared" ref="AD70:AD101" si="24">"普通攻击攻击距离为"&amp;U70</f>
+        <f t="shared" ref="AD70:AD104" si="24">"普通攻击攻击距离为"&amp;U70</f>
         <v>普通攻击攻击距离为150</v>
       </c>
       <c r="AE70" t="str">
@@ -10005,7 +10005,7 @@
       </c>
       <c r="P71">
         <f>VLOOKUP($I71,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q71">
         <f>VLOOKUP($I71,属性类计算!$G:$R,Q$4,FALSE)</f>
@@ -10115,7 +10115,7 @@
       </c>
       <c r="P72">
         <f>VLOOKUP($I72,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q72">
         <f>VLOOKUP($I72,属性类计算!$G:$R,Q$4,FALSE)</f>
@@ -10225,11 +10225,11 @@
       </c>
       <c r="P73">
         <f>VLOOKUP($I73,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="Q73">
         <f>VLOOKUP($I73,属性类计算!$G:$R,Q$4,FALSE)</f>
-        <v>-5</v>
+        <v>180</v>
       </c>
       <c r="S73">
         <v>50</v>
@@ -10335,11 +10335,11 @@
       </c>
       <c r="P74">
         <f>VLOOKUP($I74,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="Q74">
         <f>VLOOKUP($I74,属性类计算!$G:$R,Q$4,FALSE)</f>
-        <v>-5</v>
+        <v>130</v>
       </c>
       <c r="S74">
         <v>10</v>
@@ -10445,11 +10445,11 @@
       </c>
       <c r="P75">
         <f>VLOOKUP($I75,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="Q75">
         <f>VLOOKUP($I75,属性类计算!$G:$R,Q$4,FALSE)</f>
-        <v>-5</v>
+        <v>130</v>
       </c>
       <c r="S75">
         <v>10</v>
@@ -10555,11 +10555,11 @@
       </c>
       <c r="P76">
         <f>VLOOKUP($I76,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="Q76">
         <f>VLOOKUP($I76,属性类计算!$G:$R,Q$4,FALSE)</f>
-        <v>-5</v>
+        <v>130</v>
       </c>
       <c r="S76">
         <v>10</v>
@@ -10665,11 +10665,11 @@
       </c>
       <c r="P77">
         <f>VLOOKUP($I77,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="Q77">
         <f>VLOOKUP($I77,属性类计算!$G:$R,Q$4,FALSE)</f>
-        <v>-5</v>
+        <v>130</v>
       </c>
       <c r="S77">
         <v>10</v>
@@ -10775,11 +10775,11 @@
       </c>
       <c r="P78">
         <f>VLOOKUP($I78,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="Q78">
         <f>VLOOKUP($I78,属性类计算!$G:$R,Q$4,FALSE)</f>
-        <v>-5</v>
+        <v>130</v>
       </c>
       <c r="S78">
         <v>10</v>
@@ -10825,7 +10825,7 @@
         <v>作为法术远程单位，对于物理防御力较野猪弱(-5)，同时法术防御力较为薄弱(-5)</v>
       </c>
       <c r="AF78" t="str">
-        <f>"移动速度为"&amp;V79</f>
+        <f t="shared" si="19"/>
         <v>移动速度为460</v>
       </c>
       <c r="AG78" t="str">
@@ -10885,11 +10885,11 @@
       </c>
       <c r="P79">
         <f>VLOOKUP($I79,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="Q79">
         <f>VLOOKUP($I79,属性类计算!$G:$R,Q$4,FALSE)</f>
-        <v>-5</v>
+        <v>130</v>
       </c>
       <c r="S79">
         <v>10</v>
@@ -10995,11 +10995,11 @@
       </c>
       <c r="P80">
         <f>VLOOKUP($I80,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="Q80">
         <f>VLOOKUP($I80,属性类计算!$G:$R,Q$4,FALSE)</f>
-        <v>-5</v>
+        <v>130</v>
       </c>
       <c r="S80">
         <v>10</v>
@@ -11105,11 +11105,11 @@
       </c>
       <c r="P81">
         <f>VLOOKUP($I81,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="Q81">
         <f>VLOOKUP($I81,属性类计算!$G:$R,Q$4,FALSE)</f>
-        <v>-5</v>
+        <v>130</v>
       </c>
       <c r="S81">
         <v>10</v>
@@ -11215,7 +11215,7 @@
       </c>
       <c r="P82">
         <f>VLOOKUP($I82,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q82">
         <f>VLOOKUP($I82,属性类计算!$G:$R,Q$4,FALSE)</f>
@@ -11325,7 +11325,7 @@
       </c>
       <c r="P83">
         <f>VLOOKUP($I83,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q83">
         <f>VLOOKUP($I83,属性类计算!$G:$R,Q$4,FALSE)</f>
@@ -11435,7 +11435,7 @@
       </c>
       <c r="P84">
         <f>VLOOKUP($I84,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q84">
         <f>VLOOKUP($I84,属性类计算!$G:$R,Q$4,FALSE)</f>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="P85">
         <f>VLOOKUP($I85,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q85">
         <f>VLOOKUP($I85,属性类计算!$G:$R,Q$4,FALSE)</f>
@@ -11655,7 +11655,7 @@
       </c>
       <c r="P86">
         <f>VLOOKUP($I86,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q86">
         <f>VLOOKUP($I86,属性类计算!$G:$R,Q$4,FALSE)</f>
@@ -11765,7 +11765,7 @@
       </c>
       <c r="P87">
         <f>VLOOKUP($I87,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q87">
         <f>VLOOKUP($I87,属性类计算!$G:$R,Q$4,FALSE)</f>
@@ -11875,11 +11875,11 @@
       </c>
       <c r="P88">
         <f>VLOOKUP($I88,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="Q88">
         <f>VLOOKUP($I88,属性类计算!$G:$R,Q$4,FALSE)</f>
-        <v>-5</v>
+        <v>180</v>
       </c>
       <c r="S88">
         <v>50</v>
@@ -11985,7 +11985,7 @@
       </c>
       <c r="P89">
         <f>VLOOKUP($I89,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q89">
         <f>VLOOKUP($I89,属性类计算!$G:$R,Q$4,FALSE)</f>
@@ -12095,7 +12095,7 @@
       </c>
       <c r="P90">
         <f>VLOOKUP($I90,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q90">
         <f>VLOOKUP($I90,属性类计算!$G:$R,Q$4,FALSE)</f>
@@ -12205,7 +12205,7 @@
       </c>
       <c r="P91">
         <f>VLOOKUP($I91,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q91">
         <f>VLOOKUP($I91,属性类计算!$G:$R,Q$4,FALSE)</f>
@@ -12315,11 +12315,11 @@
       </c>
       <c r="P92">
         <f>VLOOKUP($I92,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="Q92">
         <f>VLOOKUP($I92,属性类计算!$G:$R,Q$4,FALSE)</f>
-        <v>-5</v>
+        <v>130</v>
       </c>
       <c r="S92">
         <v>10</v>
@@ -12425,11 +12425,11 @@
       </c>
       <c r="P93">
         <f>VLOOKUP($I93,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="Q93">
         <f>VLOOKUP($I93,属性类计算!$G:$R,Q$4,FALSE)</f>
-        <v>-5</v>
+        <v>130</v>
       </c>
       <c r="S93">
         <v>10</v>
@@ -12535,11 +12535,11 @@
       </c>
       <c r="P94">
         <f>VLOOKUP($I94,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="Q94">
         <f>VLOOKUP($I94,属性类计算!$G:$R,Q$4,FALSE)</f>
-        <v>-5</v>
+        <v>130</v>
       </c>
       <c r="S94">
         <v>10</v>
@@ -12645,11 +12645,11 @@
       </c>
       <c r="P95">
         <f>VLOOKUP($I95,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="Q95">
         <f>VLOOKUP($I95,属性类计算!$G:$R,Q$4,FALSE)</f>
-        <v>-5</v>
+        <v>130</v>
       </c>
       <c r="S95">
         <v>10</v>
@@ -12755,7 +12755,7 @@
       </c>
       <c r="P96">
         <f>VLOOKUP($I96,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q96">
         <f>VLOOKUP($I96,属性类计算!$G:$R,Q$4,FALSE)</f>
@@ -12865,7 +12865,7 @@
       </c>
       <c r="P97">
         <f>VLOOKUP($I97,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q97">
         <f>VLOOKUP($I97,属性类计算!$G:$R,Q$4,FALSE)</f>
@@ -12975,7 +12975,7 @@
       </c>
       <c r="P98">
         <f>VLOOKUP($I98,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="Q98">
         <f>VLOOKUP($I98,属性类计算!$G:$R,Q$4,FALSE)</f>
@@ -13085,11 +13085,11 @@
       </c>
       <c r="P99">
         <f>VLOOKUP($I99,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="Q99">
         <f>VLOOKUP($I99,属性类计算!$G:$R,Q$4,FALSE)</f>
-        <v>-5</v>
+        <v>130</v>
       </c>
       <c r="S99">
         <v>10</v>
@@ -13195,7 +13195,7 @@
       </c>
       <c r="P100">
         <f>VLOOKUP($I100,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100">
         <f>VLOOKUP($I100,属性类计算!$G:$R,Q$4,FALSE)</f>
@@ -13305,7 +13305,7 @@
       </c>
       <c r="P101">
         <f>VLOOKUP($I101,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q101">
         <f>VLOOKUP($I101,属性类计算!$G:$R,Q$4,FALSE)</f>
@@ -13355,7 +13355,7 @@
         <v>作为物理近战单位，对于物理\法术防御力较野猪一致</v>
       </c>
       <c r="AF101" t="str">
-        <f>"移动速度为"&amp;V102</f>
+        <f t="shared" si="19"/>
         <v>移动速度为340</v>
       </c>
       <c r="AG101" t="str">
@@ -13415,7 +13415,7 @@
       </c>
       <c r="P102">
         <f>VLOOKUP($I102,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="Q102">
         <f>VLOOKUP($I102,属性类计算!$G:$R,Q$4,FALSE)</f>
@@ -13457,7 +13457,7 @@
         <v>普通攻击使用“霜巨人普攻”</v>
       </c>
       <c r="AD102" t="str">
-        <f>"普通攻击攻击距离为"&amp;U102</f>
+        <f t="shared" si="24"/>
         <v>普通攻击攻击距离为160</v>
       </c>
       <c r="AE102" t="str">
@@ -13465,7 +13465,7 @@
         <v>作为物理近战单位，对于物理防御力与炎魔一致</v>
       </c>
       <c r="AF102" t="str">
-        <f>"移动速度为"&amp;V103</f>
+        <f t="shared" si="19"/>
         <v>移动速度为0</v>
       </c>
       <c r="AG102" t="str">
@@ -13525,7 +13525,7 @@
       </c>
       <c r="P103">
         <f>VLOOKUP($I103,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q103">
         <f>VLOOKUP($I103,属性类计算!$G:$R,Q$4,FALSE)</f>
@@ -13567,7 +13567,7 @@
         <v>普通攻击使用“白色神秘刺客普攻”</v>
       </c>
       <c r="AD103" t="str">
-        <f>"普通攻击攻击距离为"&amp;U103</f>
+        <f t="shared" si="24"/>
         <v>普通攻击攻击距离为1200</v>
       </c>
       <c r="AE103" t="str">
@@ -13575,7 +13575,7 @@
         <v>作为物理近战单位，对于物理防御力与巨人一致</v>
       </c>
       <c r="AF103" t="str">
-        <f>"移动速度为"&amp;V104</f>
+        <f t="shared" si="19"/>
         <v>移动速度为300</v>
       </c>
       <c r="AG103" t="str">
@@ -13635,7 +13635,7 @@
       </c>
       <c r="P104">
         <f>VLOOKUP($I104,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="Q104">
         <f>VLOOKUP($I104,属性类计算!$G:$R,Q$4,FALSE)</f>
@@ -13677,7 +13677,7 @@
         <v>普通攻击使用“黄色坦克战士普攻”</v>
       </c>
       <c r="AD104" t="str">
-        <f>"普通攻击攻击距离为"&amp;U104</f>
+        <f t="shared" si="24"/>
         <v>普通攻击攻击距离为250</v>
       </c>
       <c r="AE104" t="str">
@@ -13685,7 +13685,7 @@
         <v>作为物理近战单位，对于物理防御力与炎魔一致</v>
       </c>
       <c r="AF104" t="str">
-        <f>"移动速度为"&amp;V105</f>
+        <f t="shared" si="19"/>
         <v>移动速度为</v>
       </c>
       <c r="AG104" t="str">
@@ -13711,8 +13711,8 @@
   <sheetPr/>
   <dimension ref="A2:AA19"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X$1:X$1048576"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/AA怪物文档/moster_data.xlsx
+++ b/AA怪物文档/moster_data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="288">
   <si>
     <t>key</t>
   </si>
@@ -189,9 +189,6 @@
     <t>波波浪浪</t>
   </si>
   <si>
-    <t>340</t>
-  </si>
-  <si>
     <t>音效、受击特效均采用特效附带音效</t>
   </si>
   <si>
@@ -213,9 +210,6 @@
     <t>钛族甲虫</t>
   </si>
   <si>
-    <t>400</t>
-  </si>
-  <si>
     <t>10101005</t>
   </si>
   <si>
@@ -234,9 +228,6 @@
     <t>钛族士兵</t>
   </si>
   <si>
-    <t>520</t>
-  </si>
-  <si>
     <t>10101008</t>
   </si>
   <si>
@@ -249,9 +240,6 @@
     <t>钛族磁力格斗者</t>
   </si>
   <si>
-    <t>560</t>
-  </si>
-  <si>
     <t>10101010</t>
   </si>
   <si>
@@ -270,18 +258,12 @@
     <t>火狼</t>
   </si>
   <si>
-    <t>380</t>
-  </si>
-  <si>
     <t>10101013</t>
   </si>
   <si>
     <t>双头火狼</t>
   </si>
   <si>
-    <t>420</t>
-  </si>
-  <si>
     <t>10101014</t>
   </si>
   <si>
@@ -306,649 +288,628 @@
     <t>熔岩巨魔</t>
   </si>
   <si>
+    <t>10101018</t>
+  </si>
+  <si>
+    <t>寒冰巨魔</t>
+  </si>
+  <si>
+    <t>10101019</t>
+  </si>
+  <si>
+    <t>独眼巨魔</t>
+  </si>
+  <si>
+    <t>10101020</t>
+  </si>
+  <si>
+    <t>火焰巨魔</t>
+  </si>
+  <si>
+    <t>10101021</t>
+  </si>
+  <si>
+    <t>炎魔</t>
+  </si>
+  <si>
+    <t>10101022</t>
+  </si>
+  <si>
+    <t>金刚</t>
+  </si>
+  <si>
+    <t>10101023</t>
+  </si>
+  <si>
+    <t>鹰身人</t>
+  </si>
+  <si>
+    <t>10101024</t>
+  </si>
+  <si>
+    <t>半人马射手</t>
+  </si>
+  <si>
+    <t>10101025</t>
+  </si>
+  <si>
+    <t>半人马骑兵</t>
+  </si>
+  <si>
+    <t>10101026</t>
+  </si>
+  <si>
+    <t>半人马士兵</t>
+  </si>
+  <si>
+    <t>10101027</t>
+  </si>
+  <si>
+    <t>灰色巨魔战士</t>
+  </si>
+  <si>
+    <t>10101028</t>
+  </si>
+  <si>
+    <t>幽灵士兵</t>
+  </si>
+  <si>
+    <t>10101029</t>
+  </si>
+  <si>
+    <t>幽灵战士</t>
+  </si>
+  <si>
+    <t>10101030</t>
+  </si>
+  <si>
+    <t>幽灵法师</t>
+  </si>
+  <si>
+    <t>10101031</t>
+  </si>
+  <si>
+    <t>牛头怪</t>
+  </si>
+  <si>
+    <t>10101032</t>
+  </si>
+  <si>
+    <t>人鱼女战士</t>
+  </si>
+  <si>
+    <t>10101033</t>
+  </si>
+  <si>
+    <t>树人战士</t>
+  </si>
+  <si>
+    <t>10101034</t>
+  </si>
+  <si>
+    <t>不死将军</t>
+  </si>
+  <si>
+    <t>10101035</t>
+  </si>
+  <si>
+    <t>熔岩怪</t>
+  </si>
+  <si>
+    <t>10101036</t>
+  </si>
+  <si>
+    <t>青蛙战士</t>
+  </si>
+  <si>
+    <t>10101037</t>
+  </si>
+  <si>
+    <t>蛛魔</t>
+  </si>
+  <si>
+    <t>10101038</t>
+  </si>
+  <si>
+    <t>恶魔白色蝙蝠</t>
+  </si>
+  <si>
+    <t>10101039</t>
+  </si>
+  <si>
+    <t>蓝兽人战士</t>
+  </si>
+  <si>
+    <t>10101040</t>
+  </si>
+  <si>
+    <t>双头魔贵妇</t>
+  </si>
+  <si>
+    <t>10101041</t>
+  </si>
+  <si>
+    <t>双头巨魔将军</t>
+  </si>
+  <si>
+    <t>10101042</t>
+  </si>
+  <si>
+    <t>双头巨魔</t>
+  </si>
+  <si>
+    <t>10101043</t>
+  </si>
+  <si>
+    <t>双头巨魔工匠</t>
+  </si>
+  <si>
+    <t>10101044</t>
+  </si>
+  <si>
+    <t>恶魔红色战士</t>
+  </si>
+  <si>
+    <t>10101045</t>
+  </si>
+  <si>
+    <t>树怪</t>
+  </si>
+  <si>
+    <t>10101046</t>
+  </si>
+  <si>
+    <t>寒冰恶魔</t>
+  </si>
+  <si>
+    <t>10101047</t>
+  </si>
+  <si>
+    <t>紫色兽族牛头人</t>
+  </si>
+  <si>
+    <t>10101048</t>
+  </si>
+  <si>
+    <t>恶魔红色地狱犬</t>
+  </si>
+  <si>
+    <t>10101049</t>
+  </si>
+  <si>
+    <t>海妖之王</t>
+  </si>
+  <si>
+    <t>10101050</t>
+  </si>
+  <si>
+    <t>恶灵将军</t>
+  </si>
+  <si>
+    <t>10101051</t>
+  </si>
+  <si>
+    <t>石巨人</t>
+  </si>
+  <si>
+    <t>10101052</t>
+  </si>
+  <si>
+    <t>蓝冰巨魔</t>
+  </si>
+  <si>
+    <t>10101053</t>
+  </si>
+  <si>
+    <t>冰巨人</t>
+  </si>
+  <si>
+    <t>10101054</t>
+  </si>
+  <si>
+    <t>熔炉巨怪</t>
+  </si>
+  <si>
+    <t>10101055</t>
+  </si>
+  <si>
+    <t>金甲虫</t>
+  </si>
+  <si>
+    <t>10101056</t>
+  </si>
+  <si>
+    <t>铁甲怪</t>
+  </si>
+  <si>
+    <t>10101057</t>
+  </si>
+  <si>
+    <t>巨锤怪</t>
+  </si>
+  <si>
+    <t>10101058</t>
+  </si>
+  <si>
+    <t>雪妖</t>
+  </si>
+  <si>
+    <t>10101059</t>
+  </si>
+  <si>
+    <t>树妖</t>
+  </si>
+  <si>
+    <t>10101060</t>
+  </si>
+  <si>
+    <t>树魔</t>
+  </si>
+  <si>
+    <t>10101061</t>
+  </si>
+  <si>
+    <t>岩石巨魔</t>
+  </si>
+  <si>
+    <t>10101062</t>
+  </si>
+  <si>
+    <t>巨魔</t>
+  </si>
+  <si>
+    <t>10101063</t>
+  </si>
+  <si>
+    <t>巨魔战士</t>
+  </si>
+  <si>
+    <t>10101064</t>
+  </si>
+  <si>
+    <t>蜥蜴人</t>
+  </si>
+  <si>
+    <t>10101065</t>
+  </si>
+  <si>
+    <t>蜥蜴人士兵</t>
+  </si>
+  <si>
+    <t>10101066</t>
+  </si>
+  <si>
+    <t>蜥蜴人战士</t>
+  </si>
+  <si>
+    <t>10101067</t>
+  </si>
+  <si>
+    <t>烈焰蜥蜴人</t>
+  </si>
+  <si>
+    <t>10101068</t>
+  </si>
+  <si>
+    <t>恶魔</t>
+  </si>
+  <si>
+    <t>10101069</t>
+  </si>
+  <si>
+    <t>寒冰邪灵</t>
+  </si>
+  <si>
+    <t>10101070</t>
+  </si>
+  <si>
+    <t>邪灵</t>
+  </si>
+  <si>
+    <t>10101071</t>
+  </si>
+  <si>
+    <t>自然元素怪</t>
+  </si>
+  <si>
+    <t>10101072</t>
+  </si>
+  <si>
+    <t>深渊元素怪</t>
+  </si>
+  <si>
+    <t>10101073</t>
+  </si>
+  <si>
+    <t>剧毒恶魔</t>
+  </si>
+  <si>
+    <t>10101074</t>
+  </si>
+  <si>
+    <t>岩浆恶魔</t>
+  </si>
+  <si>
+    <t>10101075</t>
+  </si>
+  <si>
+    <t>剧毒蝎尾兽</t>
+  </si>
+  <si>
+    <t>10101076</t>
+  </si>
+  <si>
+    <t>烈焰蝎尾兽</t>
+  </si>
+  <si>
+    <t>10101077</t>
+  </si>
+  <si>
+    <t>感电蝎尾兽</t>
+  </si>
+  <si>
+    <t>10101078</t>
+  </si>
+  <si>
+    <t>蓝双头犬</t>
+  </si>
+  <si>
+    <t>10101079</t>
+  </si>
+  <si>
+    <t>红双头犬</t>
+  </si>
+  <si>
+    <t>10101080</t>
+  </si>
+  <si>
+    <t>亡灵恶狼</t>
+  </si>
+  <si>
+    <t>10101081</t>
+  </si>
+  <si>
+    <t>毒液恶狼</t>
+  </si>
+  <si>
+    <t>10101082</t>
+  </si>
+  <si>
+    <t>烈焰恶狼</t>
+  </si>
+  <si>
+    <t>10101083</t>
+  </si>
+  <si>
+    <t>毒蝎</t>
+  </si>
+  <si>
+    <t>10101084</t>
+  </si>
+  <si>
+    <t>火元素</t>
+  </si>
+  <si>
+    <t>10101085</t>
+  </si>
+  <si>
+    <t>岩浆巨人</t>
+  </si>
+  <si>
+    <t>10101086</t>
+  </si>
+  <si>
+    <t>魔蝎</t>
+  </si>
+  <si>
+    <t>10101087</t>
+  </si>
+  <si>
+    <t>海妖首位</t>
+  </si>
+  <si>
+    <t>10101088</t>
+  </si>
+  <si>
+    <t>海妖水法师</t>
+  </si>
+  <si>
+    <t>10101089</t>
+  </si>
+  <si>
+    <t>海妖雷法师</t>
+  </si>
+  <si>
+    <t>10101090</t>
+  </si>
+  <si>
+    <t>海妖火法师</t>
+  </si>
+  <si>
+    <t>10101091</t>
+  </si>
+  <si>
+    <t>海妖射手</t>
+  </si>
+  <si>
+    <t>10101092</t>
+  </si>
+  <si>
+    <t>牛头战士</t>
+  </si>
+  <si>
+    <t>10101093</t>
+  </si>
+  <si>
+    <t>绿色恶魔龙</t>
+  </si>
+  <si>
+    <t>10101094</t>
+  </si>
+  <si>
+    <t>狼人</t>
+  </si>
+  <si>
+    <t>10101095</t>
+  </si>
+  <si>
+    <t>蛇魔法师</t>
+  </si>
+  <si>
+    <t>10101096</t>
+  </si>
+  <si>
+    <t>石二</t>
+  </si>
+  <si>
+    <t>10101097</t>
+  </si>
+  <si>
+    <t>石大</t>
+  </si>
+  <si>
+    <t>10101098</t>
+  </si>
+  <si>
+    <t>霜巨人</t>
+  </si>
+  <si>
+    <t>10101099</t>
+  </si>
+  <si>
+    <t>慌天古魔</t>
+  </si>
+  <si>
+    <t>10101100</t>
+  </si>
+  <si>
+    <t>黄色坦克战士</t>
+  </si>
+  <si>
+    <t>作为人类，对于物理防御力较野猪高(+20)，同时法术防御力较为薄弱(-15)</t>
+  </si>
+  <si>
+    <t>生命值低于野猪(+50)</t>
+  </si>
+  <si>
+    <t>小怪</t>
+  </si>
+  <si>
+    <t>法术</t>
+  </si>
+  <si>
+    <t>近战</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>作为法术近战单位，对于物理\法术防御力较野猪一致</t>
+  </si>
+  <si>
+    <t>生命值与野猪一致。</t>
+  </si>
+  <si>
+    <t>法术伤害单位，攻击高于野猪（+20）</t>
+  </si>
+  <si>
+    <t>远程</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>作为法术远程单位，对于物理防御力较野猪弱(-5)，同时法术防御力较为薄弱(-5)</t>
+  </si>
+  <si>
+    <t>生命值低于野猪(-20)</t>
+  </si>
+  <si>
+    <t>法术伤害单位，攻击高于野猪（+30）</t>
+  </si>
+  <si>
+    <t>物理</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>作为物理近战单位，对于物理\法术防御力较野猪一致</t>
+  </si>
+  <si>
+    <t>物理伤害单位，攻击与野猪一致。</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>作为物理远程单位，对于物理防御力较野猪弱(-5)，同时法术防御力较为薄弱(-5)</t>
+  </si>
+  <si>
+    <t>物理伤害单位，攻击高于野猪（+20）</t>
+  </si>
+  <si>
+    <t>精英</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>作为法术近战单位，对于物理防御力与炎魔一致</t>
+  </si>
+  <si>
+    <t>生命值与炎魔一致。</t>
+  </si>
+  <si>
+    <t>法术伤害单位，攻击与炎魔一致。</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>作为法术远程单位，对于物理防御力较炎魔弱(-5)，同时法术防御力较为薄弱(-5)</t>
+  </si>
+  <si>
+    <t>生命值低于炎魔(-30)</t>
+  </si>
+  <si>
+    <t>法术伤害单位，攻击高于炎魔（+30）</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>作为物理近战单位，对于物理防御力与炎魔一致</t>
+  </si>
+  <si>
+    <t>物理伤害单位，攻击低于炎魔（-210）</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>作为物理远程单位，对于物理防御力较炎魔弱(-5)，同时法术防御力较为薄弱(-5)</t>
+  </si>
+  <si>
+    <t>物理伤害单位，攻击高于炎魔（+10）</t>
+  </si>
+  <si>
+    <t>BOSS</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>作为法术近战单位，对于物理防御力与巨人一致</t>
+  </si>
+  <si>
+    <t>生命值与巨人一致。</t>
+  </si>
+  <si>
+    <t>法术伤害单位，攻击高于巨人（+40）</t>
+  </si>
+  <si>
     <t>300</t>
-  </si>
-  <si>
-    <t>10101018</t>
-  </si>
-  <si>
-    <t>寒冰巨魔</t>
-  </si>
-  <si>
-    <t>10101019</t>
-  </si>
-  <si>
-    <t>独眼巨魔</t>
-  </si>
-  <si>
-    <t>10101020</t>
-  </si>
-  <si>
-    <t>火焰巨魔</t>
-  </si>
-  <si>
-    <t>10101021</t>
-  </si>
-  <si>
-    <t>炎魔</t>
-  </si>
-  <si>
-    <t>260</t>
-  </si>
-  <si>
-    <t>10101022</t>
-  </si>
-  <si>
-    <t>金刚</t>
-  </si>
-  <si>
-    <t>10101023</t>
-  </si>
-  <si>
-    <t>鹰身人</t>
-  </si>
-  <si>
-    <t>10101024</t>
-  </si>
-  <si>
-    <t>半人马射手</t>
-  </si>
-  <si>
-    <t>10101025</t>
-  </si>
-  <si>
-    <t>半人马骑兵</t>
-  </si>
-  <si>
-    <t>10101026</t>
-  </si>
-  <si>
-    <t>半人马士兵</t>
-  </si>
-  <si>
-    <t>10101027</t>
-  </si>
-  <si>
-    <t>灰色巨魔战士</t>
-  </si>
-  <si>
-    <t>10101028</t>
-  </si>
-  <si>
-    <t>幽灵士兵</t>
-  </si>
-  <si>
-    <t>10101029</t>
-  </si>
-  <si>
-    <t>幽灵战士</t>
-  </si>
-  <si>
-    <t>10101030</t>
-  </si>
-  <si>
-    <t>幽灵法师</t>
-  </si>
-  <si>
-    <t>10101031</t>
-  </si>
-  <si>
-    <t>牛头怪</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>10101032</t>
-  </si>
-  <si>
-    <t>人鱼女战士</t>
-  </si>
-  <si>
-    <t>10101033</t>
-  </si>
-  <si>
-    <t>树人战士</t>
-  </si>
-  <si>
-    <t>10101034</t>
-  </si>
-  <si>
-    <t>不死将军</t>
-  </si>
-  <si>
-    <t>10101035</t>
-  </si>
-  <si>
-    <t>熔岩怪</t>
-  </si>
-  <si>
-    <t>10101036</t>
-  </si>
-  <si>
-    <t>青蛙战士</t>
-  </si>
-  <si>
-    <t>10101037</t>
-  </si>
-  <si>
-    <t>蛛魔</t>
-  </si>
-  <si>
-    <t>10101038</t>
-  </si>
-  <si>
-    <t>恶魔白色蝙蝠</t>
-  </si>
-  <si>
-    <t>10101039</t>
-  </si>
-  <si>
-    <t>蓝兽人战士</t>
-  </si>
-  <si>
-    <t>10101040</t>
-  </si>
-  <si>
-    <t>双头魔贵妇</t>
-  </si>
-  <si>
-    <t>10101041</t>
-  </si>
-  <si>
-    <t>双头巨魔将军</t>
-  </si>
-  <si>
-    <t>10101042</t>
-  </si>
-  <si>
-    <t>双头巨魔</t>
-  </si>
-  <si>
-    <t>10101043</t>
-  </si>
-  <si>
-    <t>双头巨魔工匠</t>
-  </si>
-  <si>
-    <t>10101044</t>
-  </si>
-  <si>
-    <t>恶魔红色战士</t>
-  </si>
-  <si>
-    <t>10101045</t>
-  </si>
-  <si>
-    <t>树怪</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>10101046</t>
-  </si>
-  <si>
-    <t>寒冰恶魔</t>
-  </si>
-  <si>
-    <t>10101047</t>
-  </si>
-  <si>
-    <t>紫色兽族牛头人</t>
-  </si>
-  <si>
-    <t>10101048</t>
-  </si>
-  <si>
-    <t>恶魔红色地狱犬</t>
-  </si>
-  <si>
-    <t>10101049</t>
-  </si>
-  <si>
-    <t>海妖之王</t>
-  </si>
-  <si>
-    <t>10101050</t>
-  </si>
-  <si>
-    <t>恶灵将军</t>
-  </si>
-  <si>
-    <t>10101051</t>
-  </si>
-  <si>
-    <t>石巨人</t>
-  </si>
-  <si>
-    <t>10101052</t>
-  </si>
-  <si>
-    <t>蓝冰巨魔</t>
-  </si>
-  <si>
-    <t>10101053</t>
-  </si>
-  <si>
-    <t>冰巨人</t>
-  </si>
-  <si>
-    <t>10101054</t>
-  </si>
-  <si>
-    <t>熔炉巨怪</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>10101055</t>
-  </si>
-  <si>
-    <t>金甲虫</t>
-  </si>
-  <si>
-    <t>10101056</t>
-  </si>
-  <si>
-    <t>铁甲怪</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>10101057</t>
-  </si>
-  <si>
-    <t>巨锤怪</t>
-  </si>
-  <si>
-    <t>10101058</t>
-  </si>
-  <si>
-    <t>雪妖</t>
-  </si>
-  <si>
-    <t>10101059</t>
-  </si>
-  <si>
-    <t>树妖</t>
-  </si>
-  <si>
-    <t>10101060</t>
-  </si>
-  <si>
-    <t>树魔</t>
-  </si>
-  <si>
-    <t>10101061</t>
-  </si>
-  <si>
-    <t>岩石巨魔</t>
-  </si>
-  <si>
-    <t>10101062</t>
-  </si>
-  <si>
-    <t>巨魔</t>
-  </si>
-  <si>
-    <t>10101063</t>
-  </si>
-  <si>
-    <t>巨魔战士</t>
-  </si>
-  <si>
-    <t>10101064</t>
-  </si>
-  <si>
-    <t>蜥蜴人</t>
-  </si>
-  <si>
-    <t>10101065</t>
-  </si>
-  <si>
-    <t>蜥蜴人士兵</t>
-  </si>
-  <si>
-    <t>10101066</t>
-  </si>
-  <si>
-    <t>蜥蜴人战士</t>
-  </si>
-  <si>
-    <t>10101067</t>
-  </si>
-  <si>
-    <t>烈焰蜥蜴人</t>
-  </si>
-  <si>
-    <t>10101068</t>
-  </si>
-  <si>
-    <t>恶魔</t>
-  </si>
-  <si>
-    <t>10101069</t>
-  </si>
-  <si>
-    <t>寒冰邪灵</t>
-  </si>
-  <si>
-    <t>10101070</t>
-  </si>
-  <si>
-    <t>邪灵</t>
-  </si>
-  <si>
-    <t>10101071</t>
-  </si>
-  <si>
-    <t>自然元素怪</t>
-  </si>
-  <si>
-    <t>10101072</t>
-  </si>
-  <si>
-    <t>深渊元素怪</t>
-  </si>
-  <si>
-    <t>10101073</t>
-  </si>
-  <si>
-    <t>剧毒恶魔</t>
-  </si>
-  <si>
-    <t>10101074</t>
-  </si>
-  <si>
-    <t>岩浆恶魔</t>
-  </si>
-  <si>
-    <t>10101075</t>
-  </si>
-  <si>
-    <t>剧毒蝎尾兽</t>
-  </si>
-  <si>
-    <t>460</t>
-  </si>
-  <si>
-    <t>10101076</t>
-  </si>
-  <si>
-    <t>烈焰蝎尾兽</t>
-  </si>
-  <si>
-    <t>10101077</t>
-  </si>
-  <si>
-    <t>感电蝎尾兽</t>
-  </si>
-  <si>
-    <t>10101078</t>
-  </si>
-  <si>
-    <t>蓝双头犬</t>
-  </si>
-  <si>
-    <t>10101079</t>
-  </si>
-  <si>
-    <t>红双头犬</t>
-  </si>
-  <si>
-    <t>10101080</t>
-  </si>
-  <si>
-    <t>亡灵恶狼</t>
-  </si>
-  <si>
-    <t>10101081</t>
-  </si>
-  <si>
-    <t>毒液恶狼</t>
-  </si>
-  <si>
-    <t>10101082</t>
-  </si>
-  <si>
-    <t>烈焰恶狼</t>
-  </si>
-  <si>
-    <t>10101083</t>
-  </si>
-  <si>
-    <t>毒蝎</t>
-  </si>
-  <si>
-    <t>10101084</t>
-  </si>
-  <si>
-    <t>火元素</t>
-  </si>
-  <si>
-    <t>10101085</t>
-  </si>
-  <si>
-    <t>岩浆巨人</t>
-  </si>
-  <si>
-    <t>10101086</t>
-  </si>
-  <si>
-    <t>魔蝎</t>
-  </si>
-  <si>
-    <t>350</t>
-  </si>
-  <si>
-    <t>10101087</t>
-  </si>
-  <si>
-    <t>海妖首位</t>
-  </si>
-  <si>
-    <t>10101088</t>
-  </si>
-  <si>
-    <t>海妖水法师</t>
-  </si>
-  <si>
-    <t>10101089</t>
-  </si>
-  <si>
-    <t>海妖雷法师</t>
-  </si>
-  <si>
-    <t>10101090</t>
-  </si>
-  <si>
-    <t>海妖火法师</t>
-  </si>
-  <si>
-    <t>10101091</t>
-  </si>
-  <si>
-    <t>海妖射手</t>
-  </si>
-  <si>
-    <t>10101092</t>
-  </si>
-  <si>
-    <t>牛头战士</t>
-  </si>
-  <si>
-    <t>10101093</t>
-  </si>
-  <si>
-    <t>绿色恶魔龙</t>
-  </si>
-  <si>
-    <t>10101094</t>
-  </si>
-  <si>
-    <t>狼人</t>
-  </si>
-  <si>
-    <t>10101095</t>
-  </si>
-  <si>
-    <t>蛇魔法师</t>
-  </si>
-  <si>
-    <t>10101096</t>
-  </si>
-  <si>
-    <t>石二</t>
-  </si>
-  <si>
-    <t>10101097</t>
-  </si>
-  <si>
-    <t>石大</t>
-  </si>
-  <si>
-    <t>10101098</t>
-  </si>
-  <si>
-    <t>霜巨人</t>
-  </si>
-  <si>
-    <t>10101099</t>
-  </si>
-  <si>
-    <t>白色神秘刺客</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>10101100</t>
-  </si>
-  <si>
-    <t>黄色坦克战士</t>
-  </si>
-  <si>
-    <t>作为人类，对于物理防御力较野猪高(+20)，同时法术防御力较为薄弱(-15)</t>
-  </si>
-  <si>
-    <t>生命值低于野猪(+50)</t>
-  </si>
-  <si>
-    <t>小怪</t>
-  </si>
-  <si>
-    <t>法术</t>
-  </si>
-  <si>
-    <t>近战</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>作为法术近战单位，对于物理\法术防御力较野猪一致</t>
-  </si>
-  <si>
-    <t>生命值与野猪一致。</t>
-  </si>
-  <si>
-    <t>法术伤害单位，攻击高于野猪（+20）</t>
-  </si>
-  <si>
-    <t>远程</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>作为法术远程单位，对于物理防御力较野猪弱(-5)，同时法术防御力较为薄弱(-5)</t>
-  </si>
-  <si>
-    <t>生命值低于野猪(-20)</t>
-  </si>
-  <si>
-    <t>法术伤害单位，攻击高于野猪（+30）</t>
-  </si>
-  <si>
-    <t>物理</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>作为物理近战单位，对于物理\法术防御力较野猪一致</t>
-  </si>
-  <si>
-    <t>物理伤害单位，攻击与野猪一致。</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>作为物理远程单位，对于物理防御力较野猪弱(-5)，同时法术防御力较为薄弱(-5)</t>
-  </si>
-  <si>
-    <t>物理伤害单位，攻击高于野猪（+20）</t>
-  </si>
-  <si>
-    <t>精英</t>
-  </si>
-  <si>
-    <t>210</t>
-  </si>
-  <si>
-    <t>作为法术近战单位，对于物理防御力与炎魔一致</t>
-  </si>
-  <si>
-    <t>生命值与炎魔一致。</t>
-  </si>
-  <si>
-    <t>法术伤害单位，攻击与炎魔一致。</t>
-  </si>
-  <si>
-    <t>作为法术远程单位，对于物理防御力较炎魔弱(-5)，同时法术防御力较为薄弱(-5)</t>
-  </si>
-  <si>
-    <t>生命值低于炎魔(-30)</t>
-  </si>
-  <si>
-    <t>法术伤害单位，攻击高于炎魔（+30）</t>
-  </si>
-  <si>
-    <t>211</t>
-  </si>
-  <si>
-    <t>作为物理近战单位，对于物理防御力与炎魔一致</t>
-  </si>
-  <si>
-    <t>物理伤害单位，攻击低于炎魔（-210）</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>作为物理远程单位，对于物理防御力较炎魔弱(-5)，同时法术防御力较为薄弱(-5)</t>
-  </si>
-  <si>
-    <t>物理伤害单位，攻击高于炎魔（+10）</t>
-  </si>
-  <si>
-    <t>BOSS</t>
-  </si>
-  <si>
-    <t>310</t>
-  </si>
-  <si>
-    <t>作为法术近战单位，对于物理防御力与巨人一致</t>
-  </si>
-  <si>
-    <t>生命值与巨人一致。</t>
-  </si>
-  <si>
-    <t>法术伤害单位，攻击高于巨人（+40）</t>
   </si>
   <si>
     <t>作为法术远程单位，对于物理防御力较巨人弱(-5)，同时法术防御力较为薄弱(-5)</t>
@@ -1626,7 +1587,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1975,8 +1935,8 @@
   <sheetPr/>
   <dimension ref="A1:BL104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AI12" sqref="AI12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1989,6 +1949,7 @@
     <col min="10" max="10" width="8.875" customWidth="1"/>
     <col min="11" max="12" width="13.25" customWidth="1"/>
     <col min="13" max="13" width="8.875" customWidth="1"/>
+    <col min="21" max="21" width="8.875" customWidth="1"/>
     <col min="26" max="26" width="5.375" customWidth="1"/>
     <col min="27" max="27" width="51.5" customWidth="1"/>
     <col min="28" max="28" width="33.75" customWidth="1"/>
@@ -2405,8 +2366,8 @@
         <v>35</v>
       </c>
       <c r="AF4" t="str">
-        <f>"移动速度为"&amp;V5</f>
-        <v>移动速度为340</v>
+        <f>"移动速度为"&amp;V4</f>
+        <v>移动速度为</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -2478,8 +2439,8 @@
       <c r="U5">
         <v>1200</v>
       </c>
-      <c r="V5" s="6" t="s">
-        <v>38</v>
+      <c r="V5" s="4">
+        <v>340</v>
       </c>
       <c r="X5" t="str">
         <f t="shared" ref="X5:X10" si="1">IF(F5=1,"近战","远程")</f>
@@ -2498,7 +2459,7 @@
         <v>远程小怪，拥有较大的警戒/取消警戒范围(1200/2000)</v>
       </c>
       <c r="AB5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC5" t="str">
         <f>"普通攻击使用“"&amp;C5&amp;"普攻”"</f>
@@ -2513,7 +2474,7 @@
         <v>作为法术远程单位，对于物理防御力较野猪弱(-5)，同时法术防御力较为薄弱(-5)</v>
       </c>
       <c r="AF5" t="str">
-        <f t="shared" ref="AF5:AF36" si="2">"移动速度为"&amp;V6</f>
+        <f t="shared" ref="AF5:AF36" si="2">"移动速度为"&amp;V5</f>
         <v>移动速度为340</v>
       </c>
       <c r="AG5" t="str">
@@ -2530,10 +2491,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -2594,8 +2555,8 @@
       <c r="U6">
         <v>1200</v>
       </c>
-      <c r="V6" s="6" t="s">
-        <v>38</v>
+      <c r="V6" s="4">
+        <v>340</v>
       </c>
       <c r="X6" t="str">
         <f t="shared" si="1"/>
@@ -2614,7 +2575,7 @@
         <v>远程小怪，拥有较大的警戒/取消警戒范围(1200/2000)</v>
       </c>
       <c r="AB6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC6" t="str">
         <f t="shared" ref="AC6:AC37" si="6">"普通攻击使用“"&amp;C6&amp;"普攻”"</f>
@@ -2646,10 +2607,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -2710,8 +2671,8 @@
       <c r="U7">
         <v>1200</v>
       </c>
-      <c r="V7" s="6" t="s">
-        <v>38</v>
+      <c r="V7" s="4">
+        <v>340</v>
       </c>
       <c r="X7" t="str">
         <f t="shared" si="1"/>
@@ -2730,7 +2691,7 @@
         <v>远程小怪，拥有较大的警戒/取消警戒范围(1200/2000)</v>
       </c>
       <c r="AB7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC7" t="str">
         <f t="shared" si="6"/>
@@ -2746,7 +2707,7 @@
       </c>
       <c r="AF7" t="str">
         <f t="shared" si="2"/>
-        <v>移动速度为400</v>
+        <v>移动速度为340</v>
       </c>
       <c r="AG7" t="str">
         <f>VLOOKUP($I7,属性类计算!$G:$Z,15,FALSE)</f>
@@ -2762,10 +2723,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -2826,8 +2787,8 @@
       <c r="U8">
         <v>160</v>
       </c>
-      <c r="V8" s="6" t="s">
-        <v>46</v>
+      <c r="V8" s="4">
+        <v>400</v>
       </c>
       <c r="X8" t="str">
         <f t="shared" si="1"/>
@@ -2846,7 +2807,7 @@
         <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
       </c>
       <c r="AB8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC8" t="str">
         <f t="shared" si="6"/>
@@ -2862,7 +2823,7 @@
       </c>
       <c r="AF8" t="str">
         <f t="shared" si="2"/>
-        <v>移动速度为340</v>
+        <v>移动速度为400</v>
       </c>
       <c r="AG8" t="str">
         <f>VLOOKUP($I8,属性类计算!$G:$Z,15,FALSE)</f>
@@ -2878,10 +2839,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -2942,8 +2903,8 @@
       <c r="U9">
         <v>800</v>
       </c>
-      <c r="V9" s="6" t="s">
-        <v>38</v>
+      <c r="V9" s="4">
+        <v>340</v>
       </c>
       <c r="X9" t="str">
         <f t="shared" si="1"/>
@@ -2962,7 +2923,7 @@
         <v>远程小怪，拥有较大的警戒/取消警戒范围(1200/2000)</v>
       </c>
       <c r="AB9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC9" t="str">
         <f t="shared" si="6"/>
@@ -2994,10 +2955,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -3058,8 +3019,8 @@
       <c r="U10">
         <v>1000</v>
       </c>
-      <c r="V10" s="6" t="s">
-        <v>38</v>
+      <c r="V10" s="4">
+        <v>340</v>
       </c>
       <c r="X10" t="str">
         <f t="shared" si="1"/>
@@ -3078,7 +3039,7 @@
         <v>远程小怪，拥有较大的警戒/取消警戒范围(1200/2000)</v>
       </c>
       <c r="AB10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC10" t="str">
         <f t="shared" si="6"/>
@@ -3094,7 +3055,7 @@
       </c>
       <c r="AF10" t="str">
         <f t="shared" si="2"/>
-        <v>移动速度为520</v>
+        <v>移动速度为340</v>
       </c>
       <c r="AG10" t="str">
         <f>VLOOKUP($I10,属性类计算!$G:$Z,15,FALSE)</f>
@@ -3110,10 +3071,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -3174,8 +3135,8 @@
       <c r="U11">
         <v>200</v>
       </c>
-      <c r="V11" s="6" t="s">
-        <v>53</v>
+      <c r="V11" s="4">
+        <v>520</v>
       </c>
       <c r="X11" t="str">
         <f t="shared" ref="X11:X24" si="8">IF(F11=1,"近战","远程")</f>
@@ -3194,7 +3155,7 @@
         <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
       </c>
       <c r="AB11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC11" t="str">
         <f t="shared" si="6"/>
@@ -3210,7 +3171,7 @@
       </c>
       <c r="AF11" t="str">
         <f t="shared" si="2"/>
-        <v>移动速度为340</v>
+        <v>移动速度为520</v>
       </c>
       <c r="AG11" t="str">
         <f>VLOOKUP($I11,属性类计算!$G:$Z,15,FALSE)</f>
@@ -3226,10 +3187,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
@@ -3290,8 +3251,8 @@
       <c r="U12">
         <v>1000</v>
       </c>
-      <c r="V12" s="6" t="s">
-        <v>38</v>
+      <c r="V12" s="4">
+        <v>340</v>
       </c>
       <c r="X12" t="str">
         <f t="shared" si="8"/>
@@ -3310,7 +3271,7 @@
         <v>远程精英，拥有较大的警戒/取消警戒范围(2000/3000)</v>
       </c>
       <c r="AB12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC12" t="str">
         <f t="shared" si="6"/>
@@ -3326,7 +3287,7 @@
       </c>
       <c r="AF12" t="str">
         <f t="shared" si="2"/>
-        <v>移动速度为560</v>
+        <v>移动速度为340</v>
       </c>
       <c r="AG12" t="str">
         <f>VLOOKUP($I12,属性类计算!$G:$Z,15,FALSE)</f>
@@ -3342,10 +3303,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D13" s="1">
         <v>2</v>
@@ -3406,8 +3367,8 @@
       <c r="U13">
         <v>250</v>
       </c>
-      <c r="V13" s="6" t="s">
-        <v>58</v>
+      <c r="V13" s="4">
+        <v>560</v>
       </c>
       <c r="X13" t="str">
         <f t="shared" si="8"/>
@@ -3426,7 +3387,7 @@
         <v>近战精英，拥有较大的警戒/取消警戒范围(1000/1500)</v>
       </c>
       <c r="AB13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC13" t="str">
         <f t="shared" si="6"/>
@@ -3458,10 +3419,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D14" s="1">
         <v>2</v>
@@ -3522,8 +3483,8 @@
       <c r="U14">
         <v>250</v>
       </c>
-      <c r="V14" s="6" t="s">
-        <v>58</v>
+      <c r="V14" s="4">
+        <v>560</v>
       </c>
       <c r="X14" t="str">
         <f t="shared" si="8"/>
@@ -3542,7 +3503,7 @@
         <v>近战精英，拥有较大的警戒/取消警戒范围(1000/1500)</v>
       </c>
       <c r="AB14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC14" t="str">
         <f t="shared" si="6"/>
@@ -3558,7 +3519,7 @@
       </c>
       <c r="AF14" t="str">
         <f t="shared" si="2"/>
-        <v>移动速度为520</v>
+        <v>移动速度为560</v>
       </c>
       <c r="AG14" t="str">
         <f>VLOOKUP($I14,属性类计算!$G:$Z,15,FALSE)</f>
@@ -3574,10 +3535,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D15" s="1">
         <v>3</v>
@@ -3638,8 +3599,8 @@
       <c r="U15">
         <v>1600</v>
       </c>
-      <c r="V15" s="6" t="s">
-        <v>53</v>
+      <c r="V15" s="4">
+        <v>520</v>
       </c>
       <c r="X15" t="str">
         <f t="shared" si="8"/>
@@ -3658,7 +3619,7 @@
         <v>远程BOSS，拥有较大的警戒/取消警戒范围(2000/3000)</v>
       </c>
       <c r="AB15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC15" t="str">
         <f t="shared" si="6"/>
@@ -3674,7 +3635,7 @@
       </c>
       <c r="AF15" t="str">
         <f t="shared" si="2"/>
-        <v>移动速度为380</v>
+        <v>移动速度为520</v>
       </c>
       <c r="AG15" t="str">
         <f>VLOOKUP($I15,属性类计算!$G:$Z,15,FALSE)</f>
@@ -3690,10 +3651,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -3754,8 +3715,8 @@
       <c r="U16">
         <v>140</v>
       </c>
-      <c r="V16" s="6" t="s">
-        <v>65</v>
+      <c r="V16" s="4">
+        <v>380</v>
       </c>
       <c r="X16" t="str">
         <f t="shared" si="8"/>
@@ -3774,7 +3735,7 @@
         <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
       </c>
       <c r="AB16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC16" t="str">
         <f t="shared" si="6"/>
@@ -3790,7 +3751,7 @@
       </c>
       <c r="AF16" t="str">
         <f t="shared" si="2"/>
-        <v>移动速度为420</v>
+        <v>移动速度为380</v>
       </c>
       <c r="AG16" t="str">
         <f>VLOOKUP($I16,属性类计算!$G:$Z,15,FALSE)</f>
@@ -3806,10 +3767,10 @@
         <v>13</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -3870,8 +3831,8 @@
       <c r="U17">
         <v>160</v>
       </c>
-      <c r="V17" s="6" t="s">
-        <v>68</v>
+      <c r="V17" s="4">
+        <v>420</v>
       </c>
       <c r="X17" t="str">
         <f t="shared" si="8"/>
@@ -3890,7 +3851,7 @@
         <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
       </c>
       <c r="AB17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC17" t="str">
         <f t="shared" si="6"/>
@@ -3906,7 +3867,7 @@
       </c>
       <c r="AF17" t="str">
         <f t="shared" si="2"/>
-        <v>移动速度为520</v>
+        <v>移动速度为420</v>
       </c>
       <c r="AG17" t="str">
         <f>VLOOKUP($I17,属性类计算!$G:$Z,15,FALSE)</f>
@@ -3922,10 +3883,10 @@
         <v>14</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D18" s="1">
         <v>2</v>
@@ -3984,10 +3945,10 @@
         <v>30</v>
       </c>
       <c r="U18">
-        <v>180</v>
-      </c>
-      <c r="V18" s="6" t="s">
-        <v>53</v>
+        <v>1200</v>
+      </c>
+      <c r="V18" s="4">
+        <v>520</v>
       </c>
       <c r="X18" t="str">
         <f t="shared" si="8"/>
@@ -4006,7 +3967,7 @@
         <v>近战精英，拥有较大的警戒/取消警戒范围(1000/1500)</v>
       </c>
       <c r="AB18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC18" t="str">
         <f t="shared" si="6"/>
@@ -4014,7 +3975,7 @@
       </c>
       <c r="AD18" t="str">
         <f t="shared" si="7"/>
-        <v>普通攻击攻击距离为180</v>
+        <v>普通攻击攻击距离为1200</v>
       </c>
       <c r="AE18" t="str">
         <f>VLOOKUP($I18,属性类计算!$G:$Z,13,FALSE)</f>
@@ -4022,7 +3983,7 @@
       </c>
       <c r="AF18" t="str">
         <f t="shared" si="2"/>
-        <v>移动速度为340</v>
+        <v>移动速度为520</v>
       </c>
       <c r="AG18" t="str">
         <f>VLOOKUP($I18,属性类计算!$G:$Z,15,FALSE)</f>
@@ -4038,10 +3999,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D19" s="1">
         <v>2</v>
@@ -4102,8 +4063,8 @@
       <c r="U19">
         <v>800</v>
       </c>
-      <c r="V19" s="6" t="s">
-        <v>38</v>
+      <c r="V19" s="4">
+        <v>340</v>
       </c>
       <c r="X19" t="str">
         <f t="shared" si="8"/>
@@ -4122,7 +4083,7 @@
         <v>远程精英，拥有较大的警戒/取消警戒范围(2000/3000)</v>
       </c>
       <c r="AB19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC19" t="str">
         <f t="shared" si="6"/>
@@ -4154,10 +4115,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D20" s="1">
         <v>2</v>
@@ -4218,8 +4179,8 @@
       <c r="U20">
         <v>220</v>
       </c>
-      <c r="V20" s="6" t="s">
-        <v>38</v>
+      <c r="V20" s="4">
+        <v>340</v>
       </c>
       <c r="X20" t="str">
         <f t="shared" si="8"/>
@@ -4238,7 +4199,7 @@
         <v>近战精英，拥有较大的警戒/取消警戒范围(1000/1500)</v>
       </c>
       <c r="AB20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC20" t="str">
         <f t="shared" si="6"/>
@@ -4254,7 +4215,7 @@
       </c>
       <c r="AF20" t="str">
         <f t="shared" si="2"/>
-        <v>移动速度为300</v>
+        <v>移动速度为340</v>
       </c>
       <c r="AG20" t="str">
         <f>VLOOKUP($I20,属性类计算!$G:$Z,15,FALSE)</f>
@@ -4270,10 +4231,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D21" s="1">
         <v>2</v>
@@ -4334,8 +4295,8 @@
       <c r="U21">
         <v>140</v>
       </c>
-      <c r="V21" s="6" t="s">
-        <v>77</v>
+      <c r="V21" s="4">
+        <v>300</v>
       </c>
       <c r="X21" t="str">
         <f t="shared" si="8"/>
@@ -4354,7 +4315,7 @@
         <v>近战精英，拥有较大的警戒/取消警戒范围(1000/1500)</v>
       </c>
       <c r="AB21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC21" t="str">
         <f t="shared" si="6"/>
@@ -4386,10 +4347,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D22" s="1">
         <v>2</v>
@@ -4450,8 +4411,8 @@
       <c r="U22">
         <v>140</v>
       </c>
-      <c r="V22" s="6" t="s">
-        <v>77</v>
+      <c r="V22" s="4">
+        <v>300</v>
       </c>
       <c r="X22" t="str">
         <f t="shared" si="8"/>
@@ -4470,7 +4431,7 @@
         <v>近战精英，拥有较大的警戒/取消警戒范围(1000/1500)</v>
       </c>
       <c r="AB22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC22" t="str">
         <f t="shared" si="6"/>
@@ -4502,10 +4463,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
@@ -4566,8 +4527,8 @@
       <c r="U23">
         <v>140</v>
       </c>
-      <c r="V23" s="6" t="s">
-        <v>77</v>
+      <c r="V23" s="4">
+        <v>300</v>
       </c>
       <c r="X23" t="str">
         <f t="shared" si="8"/>
@@ -4586,7 +4547,7 @@
         <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
       </c>
       <c r="AB23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC23" t="str">
         <f t="shared" si="6"/>
@@ -4618,10 +4579,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
@@ -4682,8 +4643,8 @@
       <c r="U24">
         <v>140</v>
       </c>
-      <c r="V24" s="6" t="s">
-        <v>77</v>
+      <c r="V24" s="4">
+        <v>300</v>
       </c>
       <c r="X24" t="str">
         <f t="shared" si="8"/>
@@ -4702,7 +4663,7 @@
         <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
       </c>
       <c r="AB24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC24" t="str">
         <f t="shared" si="6"/>
@@ -4718,7 +4679,7 @@
       </c>
       <c r="AF24" t="str">
         <f t="shared" si="2"/>
-        <v>移动速度为260</v>
+        <v>移动速度为300</v>
       </c>
       <c r="AG24" t="str">
         <f>VLOOKUP($I24,属性类计算!$G:$Z,15,FALSE)</f>
@@ -4734,10 +4695,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D25" s="1">
         <v>2</v>
@@ -4798,8 +4759,8 @@
       <c r="U25">
         <v>200</v>
       </c>
-      <c r="V25" s="6" t="s">
-        <v>86</v>
+      <c r="V25" s="4">
+        <v>260</v>
       </c>
       <c r="X25" t="str">
         <f t="shared" ref="X25:X56" si="9">IF(F25=1,"近战","远程")</f>
@@ -4818,7 +4779,7 @@
         <v>近战精英，拥有较大的警戒/取消警戒范围(1000/1500)</v>
       </c>
       <c r="AB25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC25" t="str">
         <f t="shared" si="6"/>
@@ -4834,7 +4795,7 @@
       </c>
       <c r="AF25" t="str">
         <f t="shared" si="2"/>
-        <v>移动速度为340</v>
+        <v>移动速度为260</v>
       </c>
       <c r="AG25" t="str">
         <f>VLOOKUP($I25,属性类计算!$G:$Z,15,FALSE)</f>
@@ -4850,10 +4811,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D26" s="1">
         <v>2</v>
@@ -4914,8 +4875,8 @@
       <c r="U26">
         <v>120</v>
       </c>
-      <c r="V26" s="6" t="s">
-        <v>38</v>
+      <c r="V26" s="4">
+        <v>340</v>
       </c>
       <c r="X26" t="str">
         <f t="shared" si="9"/>
@@ -4934,7 +4895,7 @@
         <v>近战精英，拥有较大的警戒/取消警戒范围(1000/1500)</v>
       </c>
       <c r="AB26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC26" t="str">
         <f t="shared" si="6"/>
@@ -4950,7 +4911,7 @@
       </c>
       <c r="AF26" t="str">
         <f t="shared" si="2"/>
-        <v>移动速度为420</v>
+        <v>移动速度为340</v>
       </c>
       <c r="AG26" t="str">
         <f>VLOOKUP($I26,属性类计算!$G:$Z,15,FALSE)</f>
@@ -4966,10 +4927,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
@@ -5030,8 +4991,8 @@
       <c r="U27">
         <v>800</v>
       </c>
-      <c r="V27" s="6" t="s">
-        <v>68</v>
+      <c r="V27" s="4">
+        <v>420</v>
       </c>
       <c r="X27" t="str">
         <f t="shared" si="9"/>
@@ -5050,7 +5011,7 @@
         <v>远程小怪，拥有较大的警戒/取消警戒范围(1200/2000)</v>
       </c>
       <c r="AB27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC27" t="str">
         <f t="shared" si="6"/>
@@ -5066,7 +5027,7 @@
       </c>
       <c r="AF27" t="str">
         <f t="shared" si="2"/>
-        <v>移动速度为520</v>
+        <v>移动速度为420</v>
       </c>
       <c r="AG27" t="str">
         <f>VLOOKUP($I27,属性类计算!$G:$Z,15,FALSE)</f>
@@ -5082,10 +5043,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
@@ -5146,8 +5107,8 @@
       <c r="U28">
         <v>800</v>
       </c>
-      <c r="V28" s="6" t="s">
-        <v>53</v>
+      <c r="V28" s="4">
+        <v>520</v>
       </c>
       <c r="X28" t="str">
         <f t="shared" si="9"/>
@@ -5166,7 +5127,7 @@
         <v>远程小怪，拥有较大的警戒/取消警戒范围(1200/2000)</v>
       </c>
       <c r="AB28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC28" t="str">
         <f t="shared" si="6"/>
@@ -5198,10 +5159,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
@@ -5262,8 +5223,8 @@
       <c r="U29">
         <v>220</v>
       </c>
-      <c r="V29" s="6" t="s">
-        <v>53</v>
+      <c r="V29" s="4">
+        <v>520</v>
       </c>
       <c r="X29" t="str">
         <f t="shared" si="9"/>
@@ -5282,7 +5243,7 @@
         <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
       </c>
       <c r="AB29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC29" t="str">
         <f t="shared" si="6"/>
@@ -5314,10 +5275,10 @@
         <v>26</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
@@ -5378,8 +5339,8 @@
       <c r="U30">
         <v>220</v>
       </c>
-      <c r="V30" s="6" t="s">
-        <v>53</v>
+      <c r="V30" s="4">
+        <v>520</v>
       </c>
       <c r="X30" t="str">
         <f t="shared" si="9"/>
@@ -5398,7 +5359,7 @@
         <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
       </c>
       <c r="AB30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC30" t="str">
         <f t="shared" si="6"/>
@@ -5414,7 +5375,7 @@
       </c>
       <c r="AF30" t="str">
         <f t="shared" si="2"/>
-        <v>移动速度为340</v>
+        <v>移动速度为520</v>
       </c>
       <c r="AG30" t="str">
         <f>VLOOKUP($I30,属性类计算!$G:$Z,15,FALSE)</f>
@@ -5430,10 +5391,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D31" s="1">
         <v>2</v>
@@ -5494,8 +5455,8 @@
       <c r="U31">
         <v>140</v>
       </c>
-      <c r="V31" s="6" t="s">
-        <v>38</v>
+      <c r="V31" s="4">
+        <v>340</v>
       </c>
       <c r="X31" t="str">
         <f t="shared" si="9"/>
@@ -5514,7 +5475,7 @@
         <v>近战精英，拥有较大的警戒/取消警戒范围(1000/1500)</v>
       </c>
       <c r="AB31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC31" t="str">
         <f t="shared" si="6"/>
@@ -5546,10 +5507,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
@@ -5610,8 +5571,8 @@
       <c r="U32">
         <v>200</v>
       </c>
-      <c r="V32" s="6" t="s">
-        <v>38</v>
+      <c r="V32" s="4">
+        <v>340</v>
       </c>
       <c r="X32" t="str">
         <f t="shared" si="9"/>
@@ -5630,7 +5591,7 @@
         <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
       </c>
       <c r="AB32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC32" t="str">
         <f t="shared" si="6"/>
@@ -5662,10 +5623,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D33" s="1">
         <v>1</v>
@@ -5726,8 +5687,8 @@
       <c r="U33">
         <v>200</v>
       </c>
-      <c r="V33" s="6" t="s">
-        <v>38</v>
+      <c r="V33" s="4">
+        <v>340</v>
       </c>
       <c r="X33" t="str">
         <f t="shared" si="9"/>
@@ -5746,7 +5707,7 @@
         <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
       </c>
       <c r="AB33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC33" t="str">
         <f t="shared" si="6"/>
@@ -5778,10 +5739,10 @@
         <v>30</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D34" s="1">
         <v>2</v>
@@ -5842,8 +5803,8 @@
       <c r="U34">
         <v>1000</v>
       </c>
-      <c r="V34" s="6" t="s">
-        <v>38</v>
+      <c r="V34" s="4">
+        <v>340</v>
       </c>
       <c r="X34" t="str">
         <f t="shared" si="9"/>
@@ -5862,7 +5823,7 @@
         <v>远程精英，拥有较大的警戒/取消警戒范围(2000/3000)</v>
       </c>
       <c r="AB34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC34" t="str">
         <f t="shared" si="6"/>
@@ -5878,7 +5839,7 @@
       </c>
       <c r="AF34" t="str">
         <f t="shared" si="2"/>
-        <v>移动速度为240</v>
+        <v>移动速度为340</v>
       </c>
       <c r="AG34" t="str">
         <f>VLOOKUP($I34,属性类计算!$G:$Z,15,FALSE)</f>
@@ -5894,10 +5855,10 @@
         <v>31</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D35" s="1">
         <v>2</v>
@@ -5958,8 +5919,8 @@
       <c r="U35">
         <v>200</v>
       </c>
-      <c r="V35" s="6" t="s">
-        <v>107</v>
+      <c r="V35" s="4">
+        <v>240</v>
       </c>
       <c r="X35" t="str">
         <f t="shared" si="9"/>
@@ -5978,7 +5939,7 @@
         <v>近战精英，拥有较大的警戒/取消警戒范围(1000/1500)</v>
       </c>
       <c r="AB35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC35" t="str">
         <f t="shared" si="6"/>
@@ -5994,7 +5955,7 @@
       </c>
       <c r="AF35" t="str">
         <f t="shared" si="2"/>
-        <v>移动速度为340</v>
+        <v>移动速度为240</v>
       </c>
       <c r="AG35" t="str">
         <f>VLOOKUP($I35,属性类计算!$G:$Z,15,FALSE)</f>
@@ -6010,10 +5971,10 @@
         <v>32</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D36" s="1">
         <v>2</v>
@@ -6074,8 +6035,8 @@
       <c r="U36">
         <v>1000</v>
       </c>
-      <c r="V36" s="6" t="s">
-        <v>38</v>
+      <c r="V36" s="4">
+        <v>340</v>
       </c>
       <c r="X36" t="str">
         <f t="shared" si="9"/>
@@ -6094,7 +6055,7 @@
         <v>近战精英，拥有较大的警戒/取消警戒范围(1000/1500)</v>
       </c>
       <c r="AB36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC36" t="str">
         <f t="shared" si="6"/>
@@ -6126,10 +6087,10 @@
         <v>33</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D37" s="1">
         <v>2</v>
@@ -6190,8 +6151,8 @@
       <c r="U37">
         <v>250</v>
       </c>
-      <c r="V37" s="6" t="s">
-        <v>38</v>
+      <c r="V37" s="4">
+        <v>340</v>
       </c>
       <c r="X37" t="str">
         <f t="shared" si="9"/>
@@ -6210,7 +6171,7 @@
         <v>近战精英，拥有较大的警戒/取消警戒范围(1000/1500)</v>
       </c>
       <c r="AB37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC37" t="str">
         <f t="shared" si="6"/>
@@ -6225,7 +6186,7 @@
         <v>作为物理近战单位，对于物理防御力与炎魔一致</v>
       </c>
       <c r="AF37" t="str">
-        <f t="shared" ref="AF37:AF68" si="11">"移动速度为"&amp;V38</f>
+        <f t="shared" ref="AF37:AF68" si="11">"移动速度为"&amp;V37</f>
         <v>移动速度为340</v>
       </c>
       <c r="AG37" t="str">
@@ -6242,10 +6203,10 @@
         <v>34</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D38" s="1">
         <v>1</v>
@@ -6306,8 +6267,8 @@
       <c r="U38">
         <v>250</v>
       </c>
-      <c r="V38" s="6" t="s">
-        <v>38</v>
+      <c r="V38" s="4">
+        <v>340</v>
       </c>
       <c r="X38" t="str">
         <f t="shared" si="9"/>
@@ -6326,7 +6287,7 @@
         <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
       </c>
       <c r="AB38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC38" t="str">
         <f t="shared" ref="AC38:AC69" si="15">"普通攻击使用“"&amp;C38&amp;"普攻”"</f>
@@ -6358,10 +6319,10 @@
         <v>35</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D39" s="1">
         <v>2</v>
@@ -6422,8 +6383,8 @@
       <c r="U39">
         <v>250</v>
       </c>
-      <c r="V39" s="6" t="s">
-        <v>38</v>
+      <c r="V39" s="4">
+        <v>340</v>
       </c>
       <c r="X39" t="str">
         <f t="shared" si="9"/>
@@ -6442,7 +6403,7 @@
         <v>近战精英，拥有较大的警戒/取消警戒范围(1000/1500)</v>
       </c>
       <c r="AB39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC39" t="str">
         <f t="shared" si="15"/>
@@ -6474,10 +6435,10 @@
         <v>36</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D40" s="1">
         <v>2</v>
@@ -6538,8 +6499,8 @@
       <c r="U40">
         <v>200</v>
       </c>
-      <c r="V40" s="6" t="s">
-        <v>38</v>
+      <c r="V40" s="4">
+        <v>340</v>
       </c>
       <c r="X40" t="str">
         <f t="shared" si="9"/>
@@ -6558,7 +6519,7 @@
         <v>近战精英，拥有较大的警戒/取消警戒范围(1000/1500)</v>
       </c>
       <c r="AB40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC40" t="str">
         <f t="shared" si="15"/>
@@ -6590,10 +6551,10 @@
         <v>37</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D41" s="1">
         <v>2</v>
@@ -6654,8 +6615,8 @@
       <c r="U41">
         <v>800</v>
       </c>
-      <c r="V41" s="6" t="s">
-        <v>38</v>
+      <c r="V41" s="4">
+        <v>340</v>
       </c>
       <c r="X41" t="str">
         <f t="shared" si="9"/>
@@ -6674,7 +6635,7 @@
         <v>远程精英，拥有较大的警戒/取消警戒范围(2000/3000)</v>
       </c>
       <c r="AB41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC41" t="str">
         <f t="shared" si="15"/>
@@ -6706,10 +6667,10 @@
         <v>38</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D42" s="1">
         <v>1</v>
@@ -6770,8 +6731,8 @@
       <c r="U42">
         <v>1000</v>
       </c>
-      <c r="V42" s="6" t="s">
-        <v>38</v>
+      <c r="V42" s="4">
+        <v>340</v>
       </c>
       <c r="X42" t="str">
         <f t="shared" si="9"/>
@@ -6790,7 +6751,7 @@
         <v>远程小怪，拥有较大的警戒/取消警戒范围(1200/2000)</v>
       </c>
       <c r="AB42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC42" t="str">
         <f t="shared" si="15"/>
@@ -6822,10 +6783,10 @@
         <v>39</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D43" s="1">
         <v>2</v>
@@ -6886,8 +6847,8 @@
       <c r="U43">
         <v>250</v>
       </c>
-      <c r="V43" s="6" t="s">
-        <v>38</v>
+      <c r="V43" s="4">
+        <v>340</v>
       </c>
       <c r="X43" t="str">
         <f t="shared" si="9"/>
@@ -6906,7 +6867,7 @@
         <v>近战精英，拥有较大的警戒/取消警戒范围(1000/1500)</v>
       </c>
       <c r="AB43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC43" t="str">
         <f t="shared" si="15"/>
@@ -6922,7 +6883,7 @@
       </c>
       <c r="AF43" t="str">
         <f t="shared" si="11"/>
-        <v>移动速度为240</v>
+        <v>移动速度为340</v>
       </c>
       <c r="AG43" t="str">
         <f>VLOOKUP($I43,属性类计算!$G:$Z,15,FALSE)</f>
@@ -6938,10 +6899,10 @@
         <v>40</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D44" s="1">
         <v>2</v>
@@ -7002,8 +6963,8 @@
       <c r="U44">
         <v>250</v>
       </c>
-      <c r="V44" s="6" t="s">
-        <v>107</v>
+      <c r="V44" s="4">
+        <v>240</v>
       </c>
       <c r="X44" t="str">
         <f t="shared" si="9"/>
@@ -7022,7 +6983,7 @@
         <v>近战精英，拥有较大的警戒/取消警戒范围(1000/1500)</v>
       </c>
       <c r="AB44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC44" t="str">
         <f t="shared" si="15"/>
@@ -7054,10 +7015,10 @@
         <v>41</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D45" s="1">
         <v>1</v>
@@ -7118,8 +7079,8 @@
       <c r="U45">
         <v>250</v>
       </c>
-      <c r="V45" s="6" t="s">
-        <v>107</v>
+      <c r="V45" s="4">
+        <v>240</v>
       </c>
       <c r="X45" t="str">
         <f t="shared" si="9"/>
@@ -7138,7 +7099,7 @@
         <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
       </c>
       <c r="AB45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC45" t="str">
         <f t="shared" si="15"/>
@@ -7170,10 +7131,10 @@
         <v>42</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D46" s="1">
         <v>1</v>
@@ -7234,8 +7195,8 @@
       <c r="U46">
         <v>250</v>
       </c>
-      <c r="V46" s="6" t="s">
-        <v>107</v>
+      <c r="V46" s="4">
+        <v>240</v>
       </c>
       <c r="X46" t="str">
         <f t="shared" si="9"/>
@@ -7254,7 +7215,7 @@
         <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
       </c>
       <c r="AB46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC46" t="str">
         <f t="shared" si="15"/>
@@ -7286,10 +7247,10 @@
         <v>43</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D47" s="1">
         <v>1</v>
@@ -7350,8 +7311,8 @@
       <c r="U47">
         <v>250</v>
       </c>
-      <c r="V47" s="6" t="s">
-        <v>107</v>
+      <c r="V47" s="4">
+        <v>240</v>
       </c>
       <c r="X47" t="str">
         <f t="shared" si="9"/>
@@ -7370,7 +7331,7 @@
         <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
       </c>
       <c r="AB47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC47" t="str">
         <f t="shared" si="15"/>
@@ -7386,7 +7347,7 @@
       </c>
       <c r="AF47" t="str">
         <f t="shared" si="11"/>
-        <v>移动速度为340</v>
+        <v>移动速度为240</v>
       </c>
       <c r="AG47" t="str">
         <f>VLOOKUP($I47,属性类计算!$G:$Z,15,FALSE)</f>
@@ -7402,10 +7363,10 @@
         <v>44</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="D48" s="1">
         <v>2</v>
@@ -7466,8 +7427,8 @@
       <c r="U48">
         <v>450</v>
       </c>
-      <c r="V48" s="6" t="s">
-        <v>38</v>
+      <c r="V48" s="4">
+        <v>340</v>
       </c>
       <c r="X48" t="str">
         <f t="shared" si="9"/>
@@ -7486,7 +7447,7 @@
         <v>近战精英，拥有较大的警戒/取消警戒范围(1000/1500)</v>
       </c>
       <c r="AB48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC48" t="str">
         <f t="shared" si="15"/>
@@ -7502,7 +7463,7 @@
       </c>
       <c r="AF48" t="str">
         <f t="shared" si="11"/>
-        <v>移动速度为200</v>
+        <v>移动速度为340</v>
       </c>
       <c r="AG48" t="str">
         <f>VLOOKUP($I48,属性类计算!$G:$Z,15,FALSE)</f>
@@ -7518,10 +7479,10 @@
         <v>45</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D49" s="1">
         <v>3</v>
@@ -7582,8 +7543,8 @@
       <c r="U49">
         <v>350</v>
       </c>
-      <c r="V49" s="6" t="s">
-        <v>136</v>
+      <c r="V49" s="4">
+        <v>520</v>
       </c>
       <c r="X49" t="str">
         <f t="shared" si="9"/>
@@ -7602,7 +7563,7 @@
         <v>近战BOSS，拥有较大的警戒/取消警戒范围(1000/1500)</v>
       </c>
       <c r="AB49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC49" t="str">
         <f t="shared" si="15"/>
@@ -7618,7 +7579,7 @@
       </c>
       <c r="AF49" t="str">
         <f t="shared" si="11"/>
-        <v>移动速度为200</v>
+        <v>移动速度为520</v>
       </c>
       <c r="AG49" t="str">
         <f>VLOOKUP($I49,属性类计算!$G:$Z,15,FALSE)</f>
@@ -7634,10 +7595,10 @@
         <v>46</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D50" s="1">
         <v>2</v>
@@ -7698,8 +7659,8 @@
       <c r="U50">
         <v>250</v>
       </c>
-      <c r="V50" s="6" t="s">
-        <v>136</v>
+      <c r="V50" s="4">
+        <v>200</v>
       </c>
       <c r="X50" t="str">
         <f t="shared" si="9"/>
@@ -7718,7 +7679,7 @@
         <v>近战精英，拥有较大的警戒/取消警戒范围(1000/1500)</v>
       </c>
       <c r="AB50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC50" t="str">
         <f t="shared" si="15"/>
@@ -7750,10 +7711,10 @@
         <v>47</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D51" s="1">
         <v>3</v>
@@ -7814,8 +7775,8 @@
       <c r="U51">
         <v>250</v>
       </c>
-      <c r="V51" s="6" t="s">
-        <v>136</v>
+      <c r="V51" s="4">
+        <v>520</v>
       </c>
       <c r="X51" t="str">
         <f t="shared" si="9"/>
@@ -7834,7 +7795,7 @@
         <v>近战BOSS，拥有较大的警戒/取消警戒范围(1000/1500)</v>
       </c>
       <c r="AB51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC51" t="str">
         <f t="shared" si="15"/>
@@ -7850,7 +7811,7 @@
       </c>
       <c r="AF51" t="str">
         <f t="shared" si="11"/>
-        <v>移动速度为300</v>
+        <v>移动速度为520</v>
       </c>
       <c r="AG51" t="str">
         <f>VLOOKUP($I51,属性类计算!$G:$Z,15,FALSE)</f>
@@ -7866,10 +7827,10 @@
         <v>48</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D52" s="1">
         <v>3</v>
@@ -7878,7 +7839,7 @@
         <v>1</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -7888,34 +7849,34 @@
       </c>
       <c r="I52" t="str">
         <f t="shared" si="10"/>
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="J52" t="s">
         <v>31</v>
       </c>
       <c r="K52">
         <f>VLOOKUP($I52,属性类计算!$G:$R,K$4,FALSE)</f>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L52">
         <f>VLOOKUP($I52,属性类计算!$G:$R,L$4,FALSE)</f>
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="M52">
         <f>VLOOKUP($I52,属性类计算!$G:$R,M$4,FALSE)</f>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N52">
         <f>VLOOKUP($I52,属性类计算!$G:$R,N$4,FALSE)</f>
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="O52">
         <f>VLOOKUP($I52,属性类计算!$G:$R,O$4,FALSE)</f>
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="P52">
         <f>VLOOKUP($I52,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="Q52">
         <f>VLOOKUP($I52,属性类计算!$G:$R,Q$4,FALSE)</f>
@@ -7928,14 +7889,14 @@
         <v>80</v>
       </c>
       <c r="U52">
-        <v>250</v>
-      </c>
-      <c r="V52" s="6" t="s">
-        <v>77</v>
+        <v>1200</v>
+      </c>
+      <c r="V52" s="4">
+        <v>800</v>
       </c>
       <c r="X52" t="str">
         <f t="shared" si="9"/>
-        <v>近战</v>
+        <v>远程</v>
       </c>
       <c r="Y52" t="str">
         <f t="shared" si="12"/>
@@ -7947,10 +7908,10 @@
       </c>
       <c r="AA52" t="str">
         <f t="shared" si="14"/>
-        <v>近战BOSS，拥有较大的警戒/取消警戒范围(1000/1500)</v>
+        <v>远程BOSS，拥有较大的警戒/取消警戒范围(2000/3000)</v>
       </c>
       <c r="AB52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC52" t="str">
         <f t="shared" si="15"/>
@@ -7958,23 +7919,23 @@
       </c>
       <c r="AD52" t="str">
         <f t="shared" si="16"/>
-        <v>普通攻击攻击距离为250</v>
+        <v>普通攻击攻击距离为1200</v>
       </c>
       <c r="AE52" t="str">
         <f>VLOOKUP($I52,属性类计算!$G:$Z,13,FALSE)</f>
-        <v>作为物理近战单位，对于物理防御力与巨人一致</v>
+        <v>作为物理远程单位，对于物理防御力较巨人弱(-5)，同时法术防御力较为薄弱(-5)</v>
       </c>
       <c r="AF52" t="str">
         <f t="shared" si="11"/>
-        <v>移动速度为300</v>
+        <v>移动速度为800</v>
       </c>
       <c r="AG52" t="str">
         <f>VLOOKUP($I52,属性类计算!$G:$Z,15,FALSE)</f>
-        <v>生命值与巨人一致。</v>
+        <v>生命值低于巨人(-50)</v>
       </c>
       <c r="AH52" t="str">
         <f>VLOOKUP($I52,属性类计算!$G:$Z,18,FALSE)</f>
-        <v>物理伤害单位，攻击与巨人一致。</v>
+        <v>物理伤害单位，攻击高于巨人（+40）</v>
       </c>
     </row>
     <row r="53" spans="1:34">
@@ -7982,10 +7943,10 @@
         <v>49</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D53" s="1">
         <v>3</v>
@@ -8040,8 +8001,8 @@
       <c r="U53">
         <v>250</v>
       </c>
-      <c r="V53" s="6" t="s">
-        <v>77</v>
+      <c r="V53" s="4">
+        <v>300</v>
       </c>
       <c r="X53" t="str">
         <f t="shared" si="9"/>
@@ -8060,7 +8021,7 @@
         <v>近战BOSS，拥有较大的警戒/取消警戒范围(1000/1500)</v>
       </c>
       <c r="AB53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC53" t="str">
         <f t="shared" si="15"/>
@@ -8092,10 +8053,10 @@
         <v>50</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="D54" s="1">
         <v>3</v>
@@ -8150,8 +8111,8 @@
       <c r="U54">
         <v>250</v>
       </c>
-      <c r="V54" s="6" t="s">
-        <v>77</v>
+      <c r="V54" s="4">
+        <v>300</v>
       </c>
       <c r="X54" t="str">
         <f t="shared" si="9"/>
@@ -8170,7 +8131,7 @@
         <v>近战BOSS，拥有较大的警戒/取消警戒范围(1000/1500)</v>
       </c>
       <c r="AB54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC54" t="str">
         <f t="shared" si="15"/>
@@ -8202,10 +8163,10 @@
         <v>51</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="D55" s="1">
         <v>1</v>
@@ -8260,8 +8221,8 @@
       <c r="U55">
         <v>150</v>
       </c>
-      <c r="V55" s="6" t="s">
-        <v>77</v>
+      <c r="V55" s="4">
+        <v>300</v>
       </c>
       <c r="X55" t="str">
         <f t="shared" si="9"/>
@@ -8280,7 +8241,7 @@
         <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
       </c>
       <c r="AB55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC55" t="str">
         <f t="shared" si="15"/>
@@ -8296,7 +8257,7 @@
       </c>
       <c r="AF55" t="str">
         <f t="shared" si="11"/>
-        <v>移动速度为340</v>
+        <v>移动速度为300</v>
       </c>
       <c r="AG55" t="str">
         <f>VLOOKUP($I55,属性类计算!$G:$Z,15,FALSE)</f>
@@ -8312,10 +8273,10 @@
         <v>52</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D56" s="1">
         <v>2</v>
@@ -8370,8 +8331,8 @@
       <c r="U56">
         <v>1000</v>
       </c>
-      <c r="V56" s="6" t="s">
-        <v>38</v>
+      <c r="V56" s="4">
+        <v>340</v>
       </c>
       <c r="X56" t="str">
         <f t="shared" si="9"/>
@@ -8390,7 +8351,7 @@
         <v>远程精英，拥有较大的警戒/取消警戒范围(2000/3000)</v>
       </c>
       <c r="AB56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC56" t="str">
         <f t="shared" si="15"/>
@@ -8422,10 +8383,10 @@
         <v>53</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D57" s="1">
         <v>2</v>
@@ -8480,8 +8441,8 @@
       <c r="U57">
         <v>250</v>
       </c>
-      <c r="V57" s="6" t="s">
-        <v>38</v>
+      <c r="V57" s="4">
+        <v>340</v>
       </c>
       <c r="X57" t="str">
         <f t="shared" ref="X57:X88" si="17">IF(F57=1,"近战","远程")</f>
@@ -8500,7 +8461,7 @@
         <v>近战精英，拥有较大的警戒/取消警戒范围(1000/1500)</v>
       </c>
       <c r="AB57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC57" t="str">
         <f t="shared" si="15"/>
@@ -8516,7 +8477,7 @@
       </c>
       <c r="AF57" t="str">
         <f t="shared" si="11"/>
-        <v>移动速度为150</v>
+        <v>移动速度为340</v>
       </c>
       <c r="AG57" t="str">
         <f>VLOOKUP($I57,属性类计算!$G:$Z,15,FALSE)</f>
@@ -8532,10 +8493,10 @@
         <v>54</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D58" s="1">
         <v>3</v>
@@ -8588,10 +8549,10 @@
         <v>80</v>
       </c>
       <c r="U58">
-        <v>250</v>
-      </c>
-      <c r="V58" s="6" t="s">
-        <v>155</v>
+        <v>1200</v>
+      </c>
+      <c r="V58" s="4">
+        <v>300</v>
       </c>
       <c r="X58" t="str">
         <f t="shared" si="17"/>
@@ -8610,7 +8571,7 @@
         <v>近战BOSS，拥有较大的警戒/取消警戒范围(1000/1500)</v>
       </c>
       <c r="AB58" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC58" t="str">
         <f t="shared" si="15"/>
@@ -8618,7 +8579,7 @@
       </c>
       <c r="AD58" t="str">
         <f t="shared" si="16"/>
-        <v>普通攻击攻击距离为250</v>
+        <v>普通攻击攻击距离为1200</v>
       </c>
       <c r="AE58" t="str">
         <f>VLOOKUP($I58,属性类计算!$G:$Z,13,FALSE)</f>
@@ -8626,7 +8587,7 @@
       </c>
       <c r="AF58" t="str">
         <f t="shared" si="11"/>
-        <v>移动速度为340</v>
+        <v>移动速度为300</v>
       </c>
       <c r="AG58" t="str">
         <f>VLOOKUP($I58,属性类计算!$G:$Z,15,FALSE)</f>
@@ -8642,10 +8603,10 @@
         <v>55</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D59" s="1">
         <v>1</v>
@@ -8698,10 +8659,10 @@
         <v>10</v>
       </c>
       <c r="U59">
-        <v>250</v>
-      </c>
-      <c r="V59" s="6" t="s">
-        <v>38</v>
+        <v>180</v>
+      </c>
+      <c r="V59" s="4">
+        <v>320</v>
       </c>
       <c r="X59" t="str">
         <f t="shared" si="17"/>
@@ -8720,7 +8681,7 @@
         <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
       </c>
       <c r="AB59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC59" t="str">
         <f t="shared" si="15"/>
@@ -8728,7 +8689,7 @@
       </c>
       <c r="AD59" t="str">
         <f t="shared" si="16"/>
-        <v>普通攻击攻击距离为250</v>
+        <v>普通攻击攻击距离为180</v>
       </c>
       <c r="AE59" t="str">
         <f>VLOOKUP($I59,属性类计算!$G:$Z,13,FALSE)</f>
@@ -8736,7 +8697,7 @@
       </c>
       <c r="AF59" t="str">
         <f t="shared" si="11"/>
-        <v>移动速度为250</v>
+        <v>移动速度为320</v>
       </c>
       <c r="AG59" t="str">
         <f>VLOOKUP($I59,属性类计算!$G:$Z,15,FALSE)</f>
@@ -8752,10 +8713,10 @@
         <v>56</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D60" s="1">
         <v>1</v>
@@ -8808,10 +8769,10 @@
         <v>10</v>
       </c>
       <c r="U60">
-        <v>350</v>
-      </c>
-      <c r="V60" s="6" t="s">
-        <v>160</v>
+        <v>260</v>
+      </c>
+      <c r="V60" s="4">
+        <v>320</v>
       </c>
       <c r="X60" t="str">
         <f t="shared" si="17"/>
@@ -8830,7 +8791,7 @@
         <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
       </c>
       <c r="AB60" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC60" t="str">
         <f t="shared" si="15"/>
@@ -8838,7 +8799,7 @@
       </c>
       <c r="AD60" t="str">
         <f t="shared" si="16"/>
-        <v>普通攻击攻击距离为350</v>
+        <v>普通攻击攻击距离为260</v>
       </c>
       <c r="AE60" t="str">
         <f>VLOOKUP($I60,属性类计算!$G:$Z,13,FALSE)</f>
@@ -8846,7 +8807,7 @@
       </c>
       <c r="AF60" t="str">
         <f t="shared" si="11"/>
-        <v>移动速度为250</v>
+        <v>移动速度为320</v>
       </c>
       <c r="AG60" t="str">
         <f>VLOOKUP($I60,属性类计算!$G:$Z,15,FALSE)</f>
@@ -8862,10 +8823,10 @@
         <v>57</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="D61" s="1">
         <v>1</v>
@@ -8918,10 +8879,10 @@
         <v>10</v>
       </c>
       <c r="U61">
-        <v>250</v>
-      </c>
-      <c r="V61" s="6" t="s">
-        <v>160</v>
+        <v>220</v>
+      </c>
+      <c r="V61" s="4">
+        <v>320</v>
       </c>
       <c r="X61" t="str">
         <f t="shared" si="17"/>
@@ -8940,7 +8901,7 @@
         <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
       </c>
       <c r="AB61" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC61" t="str">
         <f t="shared" si="15"/>
@@ -8948,7 +8909,7 @@
       </c>
       <c r="AD61" t="str">
         <f t="shared" si="16"/>
-        <v>普通攻击攻击距离为250</v>
+        <v>普通攻击攻击距离为220</v>
       </c>
       <c r="AE61" t="str">
         <f>VLOOKUP($I61,属性类计算!$G:$Z,13,FALSE)</f>
@@ -8956,7 +8917,7 @@
       </c>
       <c r="AF61" t="str">
         <f t="shared" si="11"/>
-        <v>移动速度为340</v>
+        <v>移动速度为320</v>
       </c>
       <c r="AG61" t="str">
         <f>VLOOKUP($I61,属性类计算!$G:$Z,15,FALSE)</f>
@@ -8972,10 +8933,10 @@
         <v>58</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D62" s="1">
         <v>2</v>
@@ -9030,8 +8991,8 @@
       <c r="U62">
         <v>250</v>
       </c>
-      <c r="V62" s="6" t="s">
-        <v>38</v>
+      <c r="V62" s="4">
+        <v>340</v>
       </c>
       <c r="X62" t="str">
         <f t="shared" si="17"/>
@@ -9050,7 +9011,7 @@
         <v>近战精英，拥有较大的警戒/取消警戒范围(1000/1500)</v>
       </c>
       <c r="AB62" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC62" t="str">
         <f t="shared" si="15"/>
@@ -9082,10 +9043,10 @@
         <v>59</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D63" s="1">
         <v>1</v>
@@ -9140,8 +9101,8 @@
       <c r="U63">
         <v>250</v>
       </c>
-      <c r="V63" s="6" t="s">
-        <v>38</v>
+      <c r="V63" s="4">
+        <v>340</v>
       </c>
       <c r="X63" t="str">
         <f t="shared" si="17"/>
@@ -9160,7 +9121,7 @@
         <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
       </c>
       <c r="AB63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC63" t="str">
         <f t="shared" si="15"/>
@@ -9192,10 +9153,10 @@
         <v>60</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="D64" s="1">
         <v>1</v>
@@ -9250,8 +9211,8 @@
       <c r="U64">
         <v>250</v>
       </c>
-      <c r="V64" s="6" t="s">
-        <v>38</v>
+      <c r="V64" s="4">
+        <v>340</v>
       </c>
       <c r="X64" t="str">
         <f t="shared" si="17"/>
@@ -9270,7 +9231,7 @@
         <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
       </c>
       <c r="AB64" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC64" t="str">
         <f t="shared" si="15"/>
@@ -9286,7 +9247,7 @@
       </c>
       <c r="AF64" t="str">
         <f t="shared" si="11"/>
-        <v>移动速度为200</v>
+        <v>移动速度为340</v>
       </c>
       <c r="AG64" t="str">
         <f>VLOOKUP($I64,属性类计算!$G:$Z,15,FALSE)</f>
@@ -9302,10 +9263,10 @@
         <v>61</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="D65" s="1">
         <v>1</v>
@@ -9360,8 +9321,8 @@
       <c r="U65">
         <v>250</v>
       </c>
-      <c r="V65" s="6" t="s">
-        <v>136</v>
+      <c r="V65" s="4">
+        <v>200</v>
       </c>
       <c r="X65" t="str">
         <f t="shared" si="17"/>
@@ -9380,7 +9341,7 @@
         <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
       </c>
       <c r="AB65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC65" t="str">
         <f t="shared" si="15"/>
@@ -9396,7 +9357,7 @@
       </c>
       <c r="AF65" t="str">
         <f t="shared" si="11"/>
-        <v>移动速度为250</v>
+        <v>移动速度为200</v>
       </c>
       <c r="AG65" t="str">
         <f>VLOOKUP($I65,属性类计算!$G:$Z,15,FALSE)</f>
@@ -9412,10 +9373,10 @@
         <v>62</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D66" s="1">
         <v>1</v>
@@ -9468,10 +9429,10 @@
         <v>10</v>
       </c>
       <c r="U66">
-        <v>450</v>
-      </c>
-      <c r="V66" s="6" t="s">
-        <v>160</v>
+        <v>229.999999999999</v>
+      </c>
+      <c r="V66" s="4">
+        <v>520</v>
       </c>
       <c r="X66" t="str">
         <f t="shared" si="17"/>
@@ -9490,7 +9451,7 @@
         <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
       </c>
       <c r="AB66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC66" t="str">
         <f t="shared" si="15"/>
@@ -9498,7 +9459,7 @@
       </c>
       <c r="AD66" t="str">
         <f t="shared" si="16"/>
-        <v>普通攻击攻击距离为450</v>
+        <v>普通攻击攻击距离为229.999999999999</v>
       </c>
       <c r="AE66" t="str">
         <f>VLOOKUP($I66,属性类计算!$G:$Z,13,FALSE)</f>
@@ -9506,7 +9467,7 @@
       </c>
       <c r="AF66" t="str">
         <f t="shared" si="11"/>
-        <v>移动速度为250</v>
+        <v>移动速度为520</v>
       </c>
       <c r="AG66" t="str">
         <f>VLOOKUP($I66,属性类计算!$G:$Z,15,FALSE)</f>
@@ -9522,10 +9483,10 @@
         <v>63</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="D67" s="1">
         <v>1</v>
@@ -9578,10 +9539,10 @@
         <v>10</v>
       </c>
       <c r="U67">
-        <v>450</v>
-      </c>
-      <c r="V67" s="6" t="s">
-        <v>160</v>
+        <v>229.999999999999</v>
+      </c>
+      <c r="V67" s="4">
+        <v>680</v>
       </c>
       <c r="X67" t="str">
         <f t="shared" si="17"/>
@@ -9600,7 +9561,7 @@
         <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
       </c>
       <c r="AB67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC67" t="str">
         <f t="shared" si="15"/>
@@ -9608,7 +9569,7 @@
       </c>
       <c r="AD67" t="str">
         <f t="shared" si="16"/>
-        <v>普通攻击攻击距离为450</v>
+        <v>普通攻击攻击距离为229.999999999999</v>
       </c>
       <c r="AE67" t="str">
         <f>VLOOKUP($I67,属性类计算!$G:$Z,13,FALSE)</f>
@@ -9616,7 +9577,7 @@
       </c>
       <c r="AF67" t="str">
         <f t="shared" si="11"/>
-        <v>移动速度为340</v>
+        <v>移动速度为680</v>
       </c>
       <c r="AG67" t="str">
         <f>VLOOKUP($I67,属性类计算!$G:$Z,15,FALSE)</f>
@@ -9632,10 +9593,10 @@
         <v>64</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="D68" s="1">
         <v>1</v>
@@ -9690,8 +9651,8 @@
       <c r="U68">
         <v>150</v>
       </c>
-      <c r="V68" s="6" t="s">
-        <v>38</v>
+      <c r="V68" s="4">
+        <v>340</v>
       </c>
       <c r="X68" t="str">
         <f t="shared" si="17"/>
@@ -9710,7 +9671,7 @@
         <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
       </c>
       <c r="AB68" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC68" t="str">
         <f t="shared" si="15"/>
@@ -9742,10 +9703,10 @@
         <v>65</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D69" s="1">
         <v>1</v>
@@ -9800,8 +9761,8 @@
       <c r="U69">
         <v>150</v>
       </c>
-      <c r="V69" s="6" t="s">
-        <v>38</v>
+      <c r="V69" s="4">
+        <v>340</v>
       </c>
       <c r="X69" t="str">
         <f t="shared" si="17"/>
@@ -9820,7 +9781,7 @@
         <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
       </c>
       <c r="AB69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC69" t="str">
         <f t="shared" si="15"/>
@@ -9835,7 +9796,7 @@
         <v>作为物理近战单位，对于物理\法术防御力较野猪一致</v>
       </c>
       <c r="AF69" t="str">
-        <f t="shared" ref="AF69:AF104" si="19">"移动速度为"&amp;V70</f>
+        <f t="shared" ref="AF69:AF100" si="19">"移动速度为"&amp;V69</f>
         <v>移动速度为340</v>
       </c>
       <c r="AG69" t="str">
@@ -9852,10 +9813,10 @@
         <v>66</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="D70" s="1">
         <v>1</v>
@@ -9910,8 +9871,8 @@
       <c r="U70">
         <v>150</v>
       </c>
-      <c r="V70" s="6" t="s">
-        <v>38</v>
+      <c r="V70" s="4">
+        <v>340</v>
       </c>
       <c r="X70" t="str">
         <f t="shared" si="17"/>
@@ -9930,7 +9891,7 @@
         <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
       </c>
       <c r="AB70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC70" t="str">
         <f t="shared" ref="AC70:AC104" si="23">"普通攻击使用“"&amp;C70&amp;"普攻”"</f>
@@ -9962,10 +9923,10 @@
         <v>67</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="D71" s="1">
         <v>1</v>
@@ -10020,8 +9981,8 @@
       <c r="U71">
         <v>150</v>
       </c>
-      <c r="V71" s="6" t="s">
-        <v>38</v>
+      <c r="V71" s="4">
+        <v>340</v>
       </c>
       <c r="X71" t="str">
         <f t="shared" si="17"/>
@@ -10040,7 +10001,7 @@
         <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
       </c>
       <c r="AB71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC71" t="str">
         <f t="shared" si="23"/>
@@ -10072,10 +10033,10 @@
         <v>68</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="D72" s="1">
         <v>3</v>
@@ -10084,42 +10045,42 @@
         <v>1</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="str">
         <f t="shared" si="18"/>
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="K72">
         <f>VLOOKUP($I72,属性类计算!$G:$R,K$4,FALSE)</f>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L72">
         <f>VLOOKUP($I72,属性类计算!$G:$R,L$4,FALSE)</f>
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="M72">
         <f>VLOOKUP($I72,属性类计算!$G:$R,M$4,FALSE)</f>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N72">
         <f>VLOOKUP($I72,属性类计算!$G:$R,N$4,FALSE)</f>
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="O72">
         <f>VLOOKUP($I72,属性类计算!$G:$R,O$4,FALSE)</f>
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="P72">
         <f>VLOOKUP($I72,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q72">
         <f>VLOOKUP($I72,属性类计算!$G:$R,Q$4,FALSE)</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="S72">
         <v>100</v>
@@ -10128,14 +10089,14 @@
         <v>80</v>
       </c>
       <c r="U72">
-        <v>250</v>
-      </c>
-      <c r="V72" s="6" t="s">
-        <v>38</v>
+        <v>1200</v>
+      </c>
+      <c r="V72" s="4">
+        <v>340</v>
       </c>
       <c r="X72" t="str">
         <f t="shared" si="17"/>
-        <v>近战</v>
+        <v>远程</v>
       </c>
       <c r="Y72" t="str">
         <f t="shared" si="20"/>
@@ -10147,10 +10108,10 @@
       </c>
       <c r="AA72" t="str">
         <f t="shared" si="22"/>
-        <v>近战BOSS，拥有较大的警戒/取消警戒范围(1000/1500)</v>
+        <v>远程BOSS，拥有较大的警戒/取消警戒范围(2000/3000)</v>
       </c>
       <c r="AB72" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC72" t="str">
         <f t="shared" si="23"/>
@@ -10158,11 +10119,11 @@
       </c>
       <c r="AD72" t="str">
         <f t="shared" si="24"/>
-        <v>普通攻击攻击距离为250</v>
+        <v>普通攻击攻击距离为1200</v>
       </c>
       <c r="AE72" t="str">
         <f>VLOOKUP($I72,属性类计算!$G:$Z,13,FALSE)</f>
-        <v>作为物理近战单位，对于物理防御力与巨人一致</v>
+        <v>作为法术远程单位，对于物理防御力较巨人弱(-5)，同时法术防御力较为薄弱(-5)</v>
       </c>
       <c r="AF72" t="str">
         <f t="shared" si="19"/>
@@ -10170,11 +10131,11 @@
       </c>
       <c r="AG72" t="str">
         <f>VLOOKUP($I72,属性类计算!$G:$Z,15,FALSE)</f>
-        <v>生命值与巨人一致。</v>
+        <v>生命值低于巨人(-50)</v>
       </c>
       <c r="AH72" t="str">
         <f>VLOOKUP($I72,属性类计算!$G:$Z,18,FALSE)</f>
-        <v>物理伤害单位，攻击与巨人一致。</v>
+        <v>法术伤害单位，攻击高于巨人（+100）</v>
       </c>
     </row>
     <row r="73" spans="1:34">
@@ -10182,10 +10143,10 @@
         <v>69</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="D73" s="1">
         <v>2</v>
@@ -10240,8 +10201,8 @@
       <c r="U73">
         <v>1000</v>
       </c>
-      <c r="V73" s="6" t="s">
-        <v>38</v>
+      <c r="V73" s="4">
+        <v>340</v>
       </c>
       <c r="X73" t="str">
         <f t="shared" si="17"/>
@@ -10260,7 +10221,7 @@
         <v>远程精英，拥有较大的警戒/取消警戒范围(2000/3000)</v>
       </c>
       <c r="AB73" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC73" t="str">
         <f t="shared" si="23"/>
@@ -10292,10 +10253,10 @@
         <v>70</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="D74" s="1">
         <v>1</v>
@@ -10350,8 +10311,8 @@
       <c r="U74">
         <v>1000</v>
       </c>
-      <c r="V74" s="6" t="s">
-        <v>38</v>
+      <c r="V74" s="4">
+        <v>340</v>
       </c>
       <c r="X74" t="str">
         <f t="shared" si="17"/>
@@ -10370,7 +10331,7 @@
         <v>远程小怪，拥有较大的警戒/取消警戒范围(1200/2000)</v>
       </c>
       <c r="AB74" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC74" t="str">
         <f t="shared" si="23"/>
@@ -10402,10 +10363,10 @@
         <v>71</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="D75" s="1">
         <v>1</v>
@@ -10460,8 +10421,8 @@
       <c r="U75">
         <v>1000</v>
       </c>
-      <c r="V75" s="6" t="s">
-        <v>38</v>
+      <c r="V75" s="4">
+        <v>340</v>
       </c>
       <c r="X75" t="str">
         <f t="shared" si="17"/>
@@ -10480,7 +10441,7 @@
         <v>远程小怪，拥有较大的警戒/取消警戒范围(1200/2000)</v>
       </c>
       <c r="AB75" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC75" t="str">
         <f t="shared" si="23"/>
@@ -10512,10 +10473,10 @@
         <v>72</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="D76" s="1">
         <v>1</v>
@@ -10570,8 +10531,8 @@
       <c r="U76">
         <v>1000</v>
       </c>
-      <c r="V76" s="6" t="s">
-        <v>38</v>
+      <c r="V76" s="4">
+        <v>340</v>
       </c>
       <c r="X76" t="str">
         <f t="shared" si="17"/>
@@ -10590,7 +10551,7 @@
         <v>远程小怪，拥有较大的警戒/取消警戒范围(1200/2000)</v>
       </c>
       <c r="AB76" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC76" t="str">
         <f t="shared" si="23"/>
@@ -10622,10 +10583,10 @@
         <v>73</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="D77" s="1">
         <v>1</v>
@@ -10680,8 +10641,8 @@
       <c r="U77">
         <v>1000</v>
       </c>
-      <c r="V77" s="6" t="s">
-        <v>38</v>
+      <c r="V77" s="4">
+        <v>340</v>
       </c>
       <c r="X77" t="str">
         <f t="shared" si="17"/>
@@ -10700,7 +10661,7 @@
         <v>远程小怪，拥有较大的警戒/取消警戒范围(1200/2000)</v>
       </c>
       <c r="AB77" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC77" t="str">
         <f t="shared" si="23"/>
@@ -10732,10 +10693,10 @@
         <v>74</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D78" s="1">
         <v>1</v>
@@ -10790,8 +10751,8 @@
       <c r="U78">
         <v>1000</v>
       </c>
-      <c r="V78" s="6" t="s">
-        <v>38</v>
+      <c r="V78" s="4">
+        <v>340</v>
       </c>
       <c r="X78" t="str">
         <f t="shared" si="17"/>
@@ -10810,7 +10771,7 @@
         <v>远程小怪，拥有较大的警戒/取消警戒范围(1200/2000)</v>
       </c>
       <c r="AB78" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC78" t="str">
         <f t="shared" si="23"/>
@@ -10826,7 +10787,7 @@
       </c>
       <c r="AF78" t="str">
         <f t="shared" si="19"/>
-        <v>移动速度为460</v>
+        <v>移动速度为340</v>
       </c>
       <c r="AG78" t="str">
         <f>VLOOKUP($I78,属性类计算!$G:$Z,15,FALSE)</f>
@@ -10842,10 +10803,10 @@
         <v>75</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="D79" s="1">
         <v>1</v>
@@ -10900,8 +10861,8 @@
       <c r="U79">
         <v>1000</v>
       </c>
-      <c r="V79" s="6" t="s">
-        <v>199</v>
+      <c r="V79" s="4">
+        <v>459.999999999999</v>
       </c>
       <c r="X79" t="str">
         <f t="shared" si="17"/>
@@ -10920,7 +10881,7 @@
         <v>远程小怪，拥有较大的警戒/取消警戒范围(1200/2000)</v>
       </c>
       <c r="AB79" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC79" t="str">
         <f t="shared" si="23"/>
@@ -10936,7 +10897,7 @@
       </c>
       <c r="AF79" t="str">
         <f t="shared" si="19"/>
-        <v>移动速度为460</v>
+        <v>移动速度为459.999999999999</v>
       </c>
       <c r="AG79" t="str">
         <f>VLOOKUP($I79,属性类计算!$G:$Z,15,FALSE)</f>
@@ -10952,10 +10913,10 @@
         <v>76</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="D80" s="1">
         <v>1</v>
@@ -11010,8 +10971,8 @@
       <c r="U80">
         <v>1000</v>
       </c>
-      <c r="V80" s="6" t="s">
-        <v>199</v>
+      <c r="V80" s="4">
+        <v>459.999999999999</v>
       </c>
       <c r="X80" t="str">
         <f t="shared" si="17"/>
@@ -11030,7 +10991,7 @@
         <v>远程小怪，拥有较大的警戒/取消警戒范围(1200/2000)</v>
       </c>
       <c r="AB80" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC80" t="str">
         <f t="shared" si="23"/>
@@ -11046,7 +11007,7 @@
       </c>
       <c r="AF80" t="str">
         <f t="shared" si="19"/>
-        <v>移动速度为460</v>
+        <v>移动速度为459.999999999999</v>
       </c>
       <c r="AG80" t="str">
         <f>VLOOKUP($I80,属性类计算!$G:$Z,15,FALSE)</f>
@@ -11062,10 +11023,10 @@
         <v>77</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="D81" s="1">
         <v>1</v>
@@ -11120,8 +11081,8 @@
       <c r="U81">
         <v>1000</v>
       </c>
-      <c r="V81" s="6" t="s">
-        <v>199</v>
+      <c r="V81" s="4">
+        <v>459.999999999999</v>
       </c>
       <c r="X81" t="str">
         <f t="shared" si="17"/>
@@ -11140,7 +11101,7 @@
         <v>远程小怪，拥有较大的警戒/取消警戒范围(1200/2000)</v>
       </c>
       <c r="AB81" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC81" t="str">
         <f t="shared" si="23"/>
@@ -11156,7 +11117,7 @@
       </c>
       <c r="AF81" t="str">
         <f t="shared" si="19"/>
-        <v>移动速度为340</v>
+        <v>移动速度为459.999999999999</v>
       </c>
       <c r="AG81" t="str">
         <f>VLOOKUP($I81,属性类计算!$G:$Z,15,FALSE)</f>
@@ -11172,10 +11133,10 @@
         <v>78</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="D82" s="1">
         <v>1</v>
@@ -11230,8 +11191,8 @@
       <c r="U82">
         <v>120</v>
       </c>
-      <c r="V82" s="6" t="s">
-        <v>38</v>
+      <c r="V82" s="4">
+        <v>459.999999999999</v>
       </c>
       <c r="X82" t="str">
         <f t="shared" si="17"/>
@@ -11250,7 +11211,7 @@
         <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
       </c>
       <c r="AB82" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC82" t="str">
         <f t="shared" si="23"/>
@@ -11266,7 +11227,7 @@
       </c>
       <c r="AF82" t="str">
         <f t="shared" si="19"/>
-        <v>移动速度为340</v>
+        <v>移动速度为459.999999999999</v>
       </c>
       <c r="AG82" t="str">
         <f>VLOOKUP($I82,属性类计算!$G:$Z,15,FALSE)</f>
@@ -11282,10 +11243,10 @@
         <v>79</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="D83" s="1">
         <v>1</v>
@@ -11340,8 +11301,8 @@
       <c r="U83">
         <v>120</v>
       </c>
-      <c r="V83" s="6" t="s">
-        <v>38</v>
+      <c r="V83" s="4">
+        <v>459.999999999999</v>
       </c>
       <c r="X83" t="str">
         <f t="shared" si="17"/>
@@ -11360,7 +11321,7 @@
         <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
       </c>
       <c r="AB83" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC83" t="str">
         <f t="shared" si="23"/>
@@ -11376,7 +11337,7 @@
       </c>
       <c r="AF83" t="str">
         <f t="shared" si="19"/>
-        <v>移动速度为460</v>
+        <v>移动速度为459.999999999999</v>
       </c>
       <c r="AG83" t="str">
         <f>VLOOKUP($I83,属性类计算!$G:$Z,15,FALSE)</f>
@@ -11392,10 +11353,10 @@
         <v>80</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="D84" s="1">
         <v>1</v>
@@ -11448,10 +11409,10 @@
         <v>10</v>
       </c>
       <c r="U84">
-        <v>150</v>
-      </c>
-      <c r="V84" s="6" t="s">
-        <v>199</v>
+        <v>120</v>
+      </c>
+      <c r="V84" s="4">
+        <v>459.999999999999</v>
       </c>
       <c r="X84" t="str">
         <f t="shared" si="17"/>
@@ -11470,7 +11431,7 @@
         <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
       </c>
       <c r="AB84" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC84" t="str">
         <f t="shared" si="23"/>
@@ -11478,7 +11439,7 @@
       </c>
       <c r="AD84" t="str">
         <f t="shared" si="24"/>
-        <v>普通攻击攻击距离为150</v>
+        <v>普通攻击攻击距离为120</v>
       </c>
       <c r="AE84" t="str">
         <f>VLOOKUP($I84,属性类计算!$G:$Z,13,FALSE)</f>
@@ -11486,7 +11447,7 @@
       </c>
       <c r="AF84" t="str">
         <f t="shared" si="19"/>
-        <v>移动速度为460</v>
+        <v>移动速度为459.999999999999</v>
       </c>
       <c r="AG84" t="str">
         <f>VLOOKUP($I84,属性类计算!$G:$Z,15,FALSE)</f>
@@ -11502,10 +11463,10 @@
         <v>81</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="D85" s="1">
         <v>1</v>
@@ -11558,10 +11519,10 @@
         <v>10</v>
       </c>
       <c r="U85">
-        <v>150</v>
-      </c>
-      <c r="V85" s="6" t="s">
-        <v>199</v>
+        <v>120</v>
+      </c>
+      <c r="V85" s="4">
+        <v>459.999999999999</v>
       </c>
       <c r="X85" t="str">
         <f t="shared" si="17"/>
@@ -11580,7 +11541,7 @@
         <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
       </c>
       <c r="AB85" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC85" t="str">
         <f t="shared" si="23"/>
@@ -11588,7 +11549,7 @@
       </c>
       <c r="AD85" t="str">
         <f t="shared" si="24"/>
-        <v>普通攻击攻击距离为150</v>
+        <v>普通攻击攻击距离为120</v>
       </c>
       <c r="AE85" t="str">
         <f>VLOOKUP($I85,属性类计算!$G:$Z,13,FALSE)</f>
@@ -11596,7 +11557,7 @@
       </c>
       <c r="AF85" t="str">
         <f t="shared" si="19"/>
-        <v>移动速度为460</v>
+        <v>移动速度为459.999999999999</v>
       </c>
       <c r="AG85" t="str">
         <f>VLOOKUP($I85,属性类计算!$G:$Z,15,FALSE)</f>
@@ -11612,10 +11573,10 @@
         <v>82</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="D86" s="1">
         <v>1</v>
@@ -11668,10 +11629,10 @@
         <v>10</v>
       </c>
       <c r="U86">
-        <v>150</v>
-      </c>
-      <c r="V86" s="6" t="s">
-        <v>199</v>
+        <v>120</v>
+      </c>
+      <c r="V86" s="4">
+        <v>459.999999999999</v>
       </c>
       <c r="X86" t="str">
         <f t="shared" si="17"/>
@@ -11690,7 +11651,7 @@
         <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
       </c>
       <c r="AB86" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC86" t="str">
         <f t="shared" si="23"/>
@@ -11698,7 +11659,7 @@
       </c>
       <c r="AD86" t="str">
         <f t="shared" si="24"/>
-        <v>普通攻击攻击距离为150</v>
+        <v>普通攻击攻击距离为120</v>
       </c>
       <c r="AE86" t="str">
         <f>VLOOKUP($I86,属性类计算!$G:$Z,13,FALSE)</f>
@@ -11706,7 +11667,7 @@
       </c>
       <c r="AF86" t="str">
         <f t="shared" si="19"/>
-        <v>移动速度为340</v>
+        <v>移动速度为459.999999999999</v>
       </c>
       <c r="AG86" t="str">
         <f>VLOOKUP($I86,属性类计算!$G:$Z,15,FALSE)</f>
@@ -11722,10 +11683,10 @@
         <v>83</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="D87" s="1">
         <v>1</v>
@@ -11780,8 +11741,8 @@
       <c r="U87">
         <v>150</v>
       </c>
-      <c r="V87" s="6" t="s">
-        <v>38</v>
+      <c r="V87" s="4">
+        <v>340</v>
       </c>
       <c r="X87" t="str">
         <f t="shared" si="17"/>
@@ -11800,7 +11761,7 @@
         <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
       </c>
       <c r="AB87" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC87" t="str">
         <f t="shared" si="23"/>
@@ -11832,10 +11793,10 @@
         <v>84</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="D88" s="1">
         <v>2</v>
@@ -11890,8 +11851,8 @@
       <c r="U88">
         <v>1000</v>
       </c>
-      <c r="V88" s="6" t="s">
-        <v>38</v>
+      <c r="V88" s="4">
+        <v>340</v>
       </c>
       <c r="X88" t="str">
         <f t="shared" si="17"/>
@@ -11910,7 +11871,7 @@
         <v>远程精英，拥有较大的警戒/取消警戒范围(2000/3000)</v>
       </c>
       <c r="AB88" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC88" t="str">
         <f t="shared" si="23"/>
@@ -11942,10 +11903,10 @@
         <v>85</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="D89" s="1">
         <v>1</v>
@@ -12000,8 +11961,8 @@
       <c r="U89">
         <v>150</v>
       </c>
-      <c r="V89" s="6" t="s">
-        <v>38</v>
+      <c r="V89" s="4">
+        <v>340</v>
       </c>
       <c r="X89" t="str">
         <f t="shared" ref="X89:X104" si="25">IF(F89=1,"近战","远程")</f>
@@ -12020,7 +11981,7 @@
         <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
       </c>
       <c r="AB89" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC89" t="str">
         <f t="shared" si="23"/>
@@ -12036,7 +11997,7 @@
       </c>
       <c r="AF89" t="str">
         <f t="shared" si="19"/>
-        <v>移动速度为350</v>
+        <v>移动速度为340</v>
       </c>
       <c r="AG89" t="str">
         <f>VLOOKUP($I89,属性类计算!$G:$Z,15,FALSE)</f>
@@ -12052,10 +12013,10 @@
         <v>86</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="D90" s="1">
         <v>1</v>
@@ -12110,8 +12071,8 @@
       <c r="U90">
         <v>120</v>
       </c>
-      <c r="V90" s="6" t="s">
-        <v>222</v>
+      <c r="V90" s="4">
+        <v>350</v>
       </c>
       <c r="X90" t="str">
         <f t="shared" si="25"/>
@@ -12130,7 +12091,7 @@
         <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
       </c>
       <c r="AB90" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC90" t="str">
         <f t="shared" si="23"/>
@@ -12146,7 +12107,7 @@
       </c>
       <c r="AF90" t="str">
         <f t="shared" si="19"/>
-        <v>移动速度为340</v>
+        <v>移动速度为350</v>
       </c>
       <c r="AG90" t="str">
         <f>VLOOKUP($I90,属性类计算!$G:$Z,15,FALSE)</f>
@@ -12162,10 +12123,10 @@
         <v>87</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="D91" s="1">
         <v>1</v>
@@ -12220,8 +12181,8 @@
       <c r="U91">
         <v>160</v>
       </c>
-      <c r="V91" s="6" t="s">
-        <v>38</v>
+      <c r="V91" s="4">
+        <v>340</v>
       </c>
       <c r="X91" t="str">
         <f t="shared" si="25"/>
@@ -12240,7 +12201,7 @@
         <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
       </c>
       <c r="AB91" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC91" t="str">
         <f t="shared" si="23"/>
@@ -12272,10 +12233,10 @@
         <v>88</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="D92" s="1">
         <v>1</v>
@@ -12330,8 +12291,8 @@
       <c r="U92">
         <v>1000</v>
       </c>
-      <c r="V92" s="6" t="s">
-        <v>38</v>
+      <c r="V92" s="4">
+        <v>340</v>
       </c>
       <c r="X92" t="str">
         <f t="shared" si="25"/>
@@ -12350,7 +12311,7 @@
         <v>远程小怪，拥有较大的警戒/取消警戒范围(1200/2000)</v>
       </c>
       <c r="AB92" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC92" t="str">
         <f t="shared" si="23"/>
@@ -12382,10 +12343,10 @@
         <v>89</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="D93" s="1">
         <v>1</v>
@@ -12440,8 +12401,8 @@
       <c r="U93">
         <v>1000</v>
       </c>
-      <c r="V93" s="6" t="s">
-        <v>38</v>
+      <c r="V93" s="4">
+        <v>340</v>
       </c>
       <c r="X93" t="str">
         <f t="shared" si="25"/>
@@ -12460,7 +12421,7 @@
         <v>远程小怪，拥有较大的警戒/取消警戒范围(1200/2000)</v>
       </c>
       <c r="AB93" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC93" t="str">
         <f t="shared" si="23"/>
@@ -12492,10 +12453,10 @@
         <v>90</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="D94" s="1">
         <v>1</v>
@@ -12550,8 +12511,8 @@
       <c r="U94">
         <v>1000</v>
       </c>
-      <c r="V94" s="6" t="s">
-        <v>38</v>
+      <c r="V94" s="4">
+        <v>340</v>
       </c>
       <c r="X94" t="str">
         <f t="shared" si="25"/>
@@ -12570,7 +12531,7 @@
         <v>远程小怪，拥有较大的警戒/取消警戒范围(1200/2000)</v>
       </c>
       <c r="AB94" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC94" t="str">
         <f t="shared" si="23"/>
@@ -12602,10 +12563,10 @@
         <v>91</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="D95" s="1">
         <v>1</v>
@@ -12660,8 +12621,8 @@
       <c r="U95">
         <v>1000</v>
       </c>
-      <c r="V95" s="6" t="s">
-        <v>38</v>
+      <c r="V95" s="4">
+        <v>340</v>
       </c>
       <c r="X95" t="str">
         <f t="shared" si="25"/>
@@ -12680,7 +12641,7 @@
         <v>远程小怪，拥有较大的警戒/取消警戒范围(1200/2000)</v>
       </c>
       <c r="AB95" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC95" t="str">
         <f t="shared" si="23"/>
@@ -12696,7 +12657,7 @@
       </c>
       <c r="AF95" t="str">
         <f t="shared" si="19"/>
-        <v>移动速度为300</v>
+        <v>移动速度为340</v>
       </c>
       <c r="AG95" t="str">
         <f>VLOOKUP($I95,属性类计算!$G:$Z,15,FALSE)</f>
@@ -12712,10 +12673,10 @@
         <v>92</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D96" s="1">
         <v>1</v>
@@ -12770,8 +12731,8 @@
       <c r="U96">
         <v>250</v>
       </c>
-      <c r="V96" s="6" t="s">
-        <v>77</v>
+      <c r="V96" s="4">
+        <v>300</v>
       </c>
       <c r="X96" t="str">
         <f t="shared" si="25"/>
@@ -12790,7 +12751,7 @@
         <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
       </c>
       <c r="AB96" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC96" t="str">
         <f t="shared" si="23"/>
@@ -12822,10 +12783,10 @@
         <v>93</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="D97" s="1">
         <v>3</v>
@@ -12834,42 +12795,42 @@
         <v>1</v>
       </c>
       <c r="F97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="str">
         <f t="shared" si="18"/>
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="K97">
         <f>VLOOKUP($I97,属性类计算!$G:$R,K$4,FALSE)</f>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L97">
         <f>VLOOKUP($I97,属性类计算!$G:$R,L$4,FALSE)</f>
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="M97">
         <f>VLOOKUP($I97,属性类计算!$G:$R,M$4,FALSE)</f>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N97">
         <f>VLOOKUP($I97,属性类计算!$G:$R,N$4,FALSE)</f>
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="O97">
         <f>VLOOKUP($I97,属性类计算!$G:$R,O$4,FALSE)</f>
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="P97">
         <f>VLOOKUP($I97,属性类计算!$G:$R,P$4,FALSE)</f>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q97">
         <f>VLOOKUP($I97,属性类计算!$G:$R,Q$4,FALSE)</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="S97">
         <v>100</v>
@@ -12878,14 +12839,14 @@
         <v>80</v>
       </c>
       <c r="U97">
-        <v>250</v>
-      </c>
-      <c r="V97" s="6" t="s">
-        <v>77</v>
+        <v>1200</v>
+      </c>
+      <c r="V97" s="4">
+        <v>300</v>
       </c>
       <c r="X97" t="str">
         <f t="shared" si="25"/>
-        <v>近战</v>
+        <v>远程</v>
       </c>
       <c r="Y97" t="str">
         <f t="shared" si="20"/>
@@ -12897,10 +12858,10 @@
       </c>
       <c r="AA97" t="str">
         <f t="shared" si="22"/>
-        <v>近战BOSS，拥有较大的警戒/取消警戒范围(1000/1500)</v>
+        <v>远程BOSS，拥有较大的警戒/取消警戒范围(2000/3000)</v>
       </c>
       <c r="AB97" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC97" t="str">
         <f t="shared" si="23"/>
@@ -12908,23 +12869,23 @@
       </c>
       <c r="AD97" t="str">
         <f t="shared" si="24"/>
-        <v>普通攻击攻击距离为250</v>
+        <v>普通攻击攻击距离为1200</v>
       </c>
       <c r="AE97" t="str">
         <f>VLOOKUP($I97,属性类计算!$G:$Z,13,FALSE)</f>
-        <v>作为物理近战单位，对于物理防御力与巨人一致</v>
+        <v>作为法术远程单位，对于物理防御力较巨人弱(-5)，同时法术防御力较为薄弱(-5)</v>
       </c>
       <c r="AF97" t="str">
         <f t="shared" si="19"/>
-        <v>移动速度为340</v>
+        <v>移动速度为300</v>
       </c>
       <c r="AG97" t="str">
         <f>VLOOKUP($I97,属性类计算!$G:$Z,15,FALSE)</f>
-        <v>生命值与巨人一致。</v>
+        <v>生命值低于巨人(-50)</v>
       </c>
       <c r="AH97" t="str">
         <f>VLOOKUP($I97,属性类计算!$G:$Z,18,FALSE)</f>
-        <v>物理伤害单位，攻击与巨人一致。</v>
+        <v>法术伤害单位，攻击高于巨人（+100）</v>
       </c>
     </row>
     <row r="98" spans="1:34">
@@ -12932,10 +12893,10 @@
         <v>94</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="D98" s="1">
         <v>2</v>
@@ -12990,8 +12951,8 @@
       <c r="U98">
         <v>250</v>
       </c>
-      <c r="V98" s="6" t="s">
-        <v>38</v>
+      <c r="V98" s="4">
+        <v>340</v>
       </c>
       <c r="X98" t="str">
         <f t="shared" si="25"/>
@@ -13010,7 +12971,7 @@
         <v>近战精英，拥有较大的警戒/取消警戒范围(1000/1500)</v>
       </c>
       <c r="AB98" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC98" t="str">
         <f t="shared" si="23"/>
@@ -13042,10 +13003,10 @@
         <v>95</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="D99" s="1">
         <v>1</v>
@@ -13100,8 +13061,8 @@
       <c r="U99">
         <v>1000</v>
       </c>
-      <c r="V99" s="6" t="s">
-        <v>38</v>
+      <c r="V99" s="4">
+        <v>340</v>
       </c>
       <c r="X99" t="str">
         <f t="shared" si="25"/>
@@ -13120,7 +13081,7 @@
         <v>远程小怪，拥有较大的警戒/取消警戒范围(1200/2000)</v>
       </c>
       <c r="AB99" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC99" t="str">
         <f t="shared" si="23"/>
@@ -13136,7 +13097,7 @@
       </c>
       <c r="AF99" t="str">
         <f t="shared" si="19"/>
-        <v>移动速度为200</v>
+        <v>移动速度为340</v>
       </c>
       <c r="AG99" t="str">
         <f>VLOOKUP($I99,属性类计算!$G:$Z,15,FALSE)</f>
@@ -13152,10 +13113,10 @@
         <v>96</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="D100" s="1">
         <v>1</v>
@@ -13210,8 +13171,8 @@
       <c r="U100">
         <v>160</v>
       </c>
-      <c r="V100" s="6" t="s">
-        <v>136</v>
+      <c r="V100" s="4">
+        <v>200</v>
       </c>
       <c r="X100" t="str">
         <f t="shared" si="25"/>
@@ -13230,7 +13191,7 @@
         <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
       </c>
       <c r="AB100" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC100" t="str">
         <f t="shared" si="23"/>
@@ -13262,10 +13223,10 @@
         <v>97</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="D101" s="1">
         <v>1</v>
@@ -13320,8 +13281,8 @@
       <c r="U101">
         <v>160</v>
       </c>
-      <c r="V101" s="6" t="s">
-        <v>136</v>
+      <c r="V101" s="4">
+        <v>200</v>
       </c>
       <c r="X101" t="str">
         <f t="shared" si="25"/>
@@ -13340,7 +13301,7 @@
         <v>近战小怪，拥有较小的警戒/取消警戒范围(600/1200)</v>
       </c>
       <c r="AB101" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC101" t="str">
         <f t="shared" si="23"/>
@@ -13355,8 +13316,8 @@
         <v>作为物理近战单位，对于物理\法术防御力较野猪一致</v>
       </c>
       <c r="AF101" t="str">
-        <f t="shared" si="19"/>
-        <v>移动速度为340</v>
+        <f>"移动速度为"&amp;V101</f>
+        <v>移动速度为200</v>
       </c>
       <c r="AG101" t="str">
         <f>VLOOKUP($I101,属性类计算!$G:$Z,15,FALSE)</f>
@@ -13372,10 +13333,10 @@
         <v>98</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="D102" s="1">
         <v>2</v>
@@ -13430,8 +13391,8 @@
       <c r="U102">
         <v>160</v>
       </c>
-      <c r="V102" s="6" t="s">
-        <v>38</v>
+      <c r="V102" s="4">
+        <v>340</v>
       </c>
       <c r="X102" t="str">
         <f t="shared" si="25"/>
@@ -13450,7 +13411,7 @@
         <v>近战精英，拥有较大的警戒/取消警戒范围(1000/1500)</v>
       </c>
       <c r="AB102" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC102" t="str">
         <f t="shared" si="23"/>
@@ -13465,8 +13426,8 @@
         <v>作为物理近战单位，对于物理防御力与炎魔一致</v>
       </c>
       <c r="AF102" t="str">
-        <f t="shared" si="19"/>
-        <v>移动速度为0</v>
+        <f>"移动速度为"&amp;V102</f>
+        <v>移动速度为340</v>
       </c>
       <c r="AG102" t="str">
         <f>VLOOKUP($I102,属性类计算!$G:$Z,15,FALSE)</f>
@@ -13482,10 +13443,10 @@
         <v>99</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="D103" s="1">
         <v>3</v>
@@ -13540,8 +13501,8 @@
       <c r="U103">
         <v>1200</v>
       </c>
-      <c r="V103" s="6" t="s">
-        <v>249</v>
+      <c r="V103" s="4">
+        <v>0</v>
       </c>
       <c r="X103" t="str">
         <f t="shared" si="25"/>
@@ -13560,11 +13521,11 @@
         <v>近战BOSS，拥有较大的警戒/取消警戒范围(1000/1500)</v>
       </c>
       <c r="AB103" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC103" t="str">
         <f t="shared" si="23"/>
-        <v>普通攻击使用“白色神秘刺客普攻”</v>
+        <v>普通攻击使用“慌天古魔普攻”</v>
       </c>
       <c r="AD103" t="str">
         <f t="shared" si="24"/>
@@ -13575,8 +13536,8 @@
         <v>作为物理近战单位，对于物理防御力与巨人一致</v>
       </c>
       <c r="AF103" t="str">
-        <f t="shared" si="19"/>
-        <v>移动速度为300</v>
+        <f>"移动速度为"&amp;V103</f>
+        <v>移动速度为0</v>
       </c>
       <c r="AG103" t="str">
         <f>VLOOKUP($I103,属性类计算!$G:$Z,15,FALSE)</f>
@@ -13592,10 +13553,10 @@
         <v>100</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="D104" s="1">
         <v>2</v>
@@ -13650,8 +13611,8 @@
       <c r="U104">
         <v>250</v>
       </c>
-      <c r="V104" s="6" t="s">
-        <v>77</v>
+      <c r="V104" s="4">
+        <v>300</v>
       </c>
       <c r="X104" t="str">
         <f t="shared" si="25"/>
@@ -13670,7 +13631,7 @@
         <v>近战精英，拥有较大的警戒/取消警戒范围(1000/1500)</v>
       </c>
       <c r="AB104" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC104" t="str">
         <f t="shared" si="23"/>
@@ -13685,8 +13646,8 @@
         <v>作为物理近战单位，对于物理防御力与炎魔一致</v>
       </c>
       <c r="AF104" t="str">
-        <f t="shared" si="19"/>
-        <v>移动速度为</v>
+        <f>"移动速度为"&amp;V104</f>
+        <v>移动速度为300</v>
       </c>
       <c r="AG104" t="str">
         <f>VLOOKUP($I104,属性类计算!$G:$Z,15,FALSE)</f>
@@ -13828,10 +13789,10 @@
         <v>150</v>
       </c>
       <c r="S5" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="U5" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="8:17">
@@ -13859,13 +13820,13 @@
     </row>
     <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="B8" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="C8" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -13877,7 +13838,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="H8">
         <v>600</v>
@@ -13913,24 +13874,24 @@
         <v>120</v>
       </c>
       <c r="S8" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="U8" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="X8" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="B9" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="C9" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -13942,7 +13903,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="H9">
         <v>1200</v>
@@ -13978,24 +13939,24 @@
         <v>130</v>
       </c>
       <c r="S9" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="U9" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="X9" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="B10" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="C10" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -14007,7 +13968,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="H10">
         <v>600</v>
@@ -14043,24 +14004,24 @@
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="U10" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="X10" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="B11" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="C11" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -14072,7 +14033,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="H11">
         <v>1200</v>
@@ -14108,24 +14069,24 @@
         <v>0</v>
       </c>
       <c r="S11" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="U11" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="X11" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:27">
       <c r="A12" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="B12" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="C12" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -14137,7 +14098,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="H12">
         <v>1000</v>
@@ -14173,16 +14134,16 @@
         <v>150</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="T12" s="2"/>
       <c r="U12" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
       <c r="X12" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
@@ -14190,13 +14151,13 @@
     </row>
     <row r="13" spans="1:27">
       <c r="A13" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="B13" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="C13" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -14208,7 +14169,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>136</v>
+        <v>263</v>
       </c>
       <c r="H13">
         <v>2000</v>
@@ -14244,16 +14205,16 @@
         <v>180</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="T13" s="2"/>
       <c r="U13" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
       <c r="X13" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
@@ -14261,13 +14222,13 @@
     </row>
     <row r="14" spans="1:27">
       <c r="A14" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="B14" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="C14" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -14279,7 +14240,7 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="H14">
         <v>1000</v>
@@ -14315,16 +14276,16 @@
         <v>0</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="T14" s="2"/>
       <c r="U14" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
       <c r="X14" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
@@ -14332,13 +14293,13 @@
     </row>
     <row r="15" spans="1:27">
       <c r="A15" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="B15" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="C15" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -14350,7 +14311,7 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="H15">
         <v>2000</v>
@@ -14386,16 +14347,16 @@
         <v>0</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="T15" s="2"/>
       <c r="U15" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
       <c r="X15" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
@@ -14403,13 +14364,13 @@
     </row>
     <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="B16" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="C16" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -14421,7 +14382,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="H16">
         <v>1000</v>
@@ -14457,24 +14418,24 @@
         <v>240</v>
       </c>
       <c r="S16" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="U16" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="X16" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="B17" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="C17" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -14486,7 +14447,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>77</v>
+        <v>278</v>
       </c>
       <c r="H17">
         <v>2000</v>
@@ -14522,24 +14483,24 @@
         <v>300</v>
       </c>
       <c r="S17" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="U17" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="X17" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="B18" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="C18" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="D18">
         <v>3</v>
@@ -14551,7 +14512,7 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="H18">
         <v>1000</v>
@@ -14587,24 +14548,24 @@
         <v>0</v>
       </c>
       <c r="S18" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="U18" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="X18" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="B19" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="C19" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -14616,7 +14577,7 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="H19">
         <v>2000</v>
@@ -14652,13 +14613,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="U19" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="X19" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>

--- a/AA怪物文档/moster_data.xlsx
+++ b/AA怪物文档/moster_data.xlsx
@@ -1927,8 +1927,8 @@
   <sheetPr/>
   <dimension ref="A1:KK104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AG15" sqref="AG15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3198,15 +3198,15 @@
       </c>
       <c r="AP5" t="str">
         <f>VLOOKUP($I5,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值80，与野猪-20</v>
+        <v>生命值80，比起野猪-20</v>
       </c>
       <c r="AQ5" t="str">
         <f>VLOOKUP($I5,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御25，与野猪-5</v>
+        <v>物理防御25，比起野猪-5</v>
       </c>
       <c r="AR5" t="str">
         <f>VLOOKUP($I5,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御30，与野猪-5</v>
+        <v>法术防御30，比起野猪-5</v>
       </c>
       <c r="AS5" t="str">
         <f>"移动速度为"&amp;V5&amp;",比起"&amp;AD5&amp;IF(AC5=0,"一致",IF(AC5&gt;0,"+","")&amp;AC5)</f>
@@ -3214,7 +3214,7 @@
       </c>
       <c r="AT5" t="str">
         <f>VLOOKUP($I5,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>法术伤害130，与野猪-30</v>
+        <v>法术伤害130，比起野猪-30</v>
       </c>
     </row>
     <row r="6" spans="1:46">
@@ -3350,15 +3350,15 @@
       </c>
       <c r="AP6" t="str">
         <f>VLOOKUP($I6,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值80，与野猪-20</v>
+        <v>生命值80，比起野猪-20</v>
       </c>
       <c r="AQ6" t="str">
         <f>VLOOKUP($I6,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御25，与野猪-5</v>
+        <v>物理防御25，比起野猪-5</v>
       </c>
       <c r="AR6" t="str">
         <f>VLOOKUP($I6,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御30，与野猪-5</v>
+        <v>法术防御30，比起野猪-5</v>
       </c>
       <c r="AS6" t="str">
         <f t="shared" ref="AS6:AS37" si="12">"移动速度为"&amp;V6&amp;",比起"&amp;AD6&amp;IF(AC6=0,"一致",IF(AC6&gt;0,"+","")&amp;AC6)</f>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="AT6" t="str">
         <f>VLOOKUP($I6,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>法术伤害130，与野猪-30</v>
+        <v>法术伤害130，比起野猪-30</v>
       </c>
     </row>
     <row r="7" spans="1:46">
@@ -3502,15 +3502,15 @@
       </c>
       <c r="AP7" t="str">
         <f>VLOOKUP($I7,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值80，与野猪-20</v>
+        <v>生命值80，比起野猪-20</v>
       </c>
       <c r="AQ7" t="str">
         <f>VLOOKUP($I7,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御25，与野猪-5</v>
+        <v>物理防御25，比起野猪-5</v>
       </c>
       <c r="AR7" t="str">
         <f>VLOOKUP($I7,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御30，与野猪-5</v>
+        <v>法术防御30，比起野猪-5</v>
       </c>
       <c r="AS7" t="str">
         <f t="shared" si="12"/>
@@ -3518,7 +3518,7 @@
       </c>
       <c r="AT7" t="str">
         <f>VLOOKUP($I7,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>法术伤害130，与野猪-30</v>
+        <v>法术伤害130，比起野猪-30</v>
       </c>
     </row>
     <row r="8" spans="1:46">
@@ -3654,15 +3654,15 @@
       </c>
       <c r="AP8" t="str">
         <f>VLOOKUP($I8,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值100，与野猪一致</v>
+        <v>生命值100，比起野猪一致</v>
       </c>
       <c r="AQ8" t="str">
         <f>VLOOKUP($I8,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御30，与野猪一致</v>
+        <v>物理防御30，比起野猪一致</v>
       </c>
       <c r="AR8" t="str">
         <f>VLOOKUP($I8,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御35，与野猪一致</v>
+        <v>法术防御35，比起野猪一致</v>
       </c>
       <c r="AS8" t="str">
         <f t="shared" si="12"/>
@@ -3670,7 +3670,7 @@
       </c>
       <c r="AT8" t="str">
         <f>VLOOKUP($I8,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害100，与野猪一致</v>
+        <v>物理伤害100，比起野猪一致</v>
       </c>
     </row>
     <row r="9" spans="1:46">
@@ -3806,15 +3806,15 @@
       </c>
       <c r="AP9" t="str">
         <f>VLOOKUP($I9,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值80，与野猪-20</v>
+        <v>生命值80，比起野猪-20</v>
       </c>
       <c r="AQ9" t="str">
         <f>VLOOKUP($I9,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御25，与野猪-5</v>
+        <v>物理防御25，比起野猪-5</v>
       </c>
       <c r="AR9" t="str">
         <f>VLOOKUP($I9,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御30，与野猪-5</v>
+        <v>法术防御30，比起野猪-5</v>
       </c>
       <c r="AS9" t="str">
         <f t="shared" si="12"/>
@@ -3822,7 +3822,7 @@
       </c>
       <c r="AT9" t="str">
         <f>VLOOKUP($I9,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>法术伤害130，与野猪-30</v>
+        <v>法术伤害130，比起野猪-30</v>
       </c>
     </row>
     <row r="10" spans="1:46">
@@ -3958,15 +3958,15 @@
       </c>
       <c r="AP10" t="str">
         <f>VLOOKUP($I10,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值80，与野猪-20</v>
+        <v>生命值80，比起野猪-20</v>
       </c>
       <c r="AQ10" t="str">
         <f>VLOOKUP($I10,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御25，与野猪-5</v>
+        <v>物理防御25，比起野猪-5</v>
       </c>
       <c r="AR10" t="str">
         <f>VLOOKUP($I10,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御30，与野猪-5</v>
+        <v>法术防御30，比起野猪-5</v>
       </c>
       <c r="AS10" t="str">
         <f t="shared" si="12"/>
@@ -3974,7 +3974,7 @@
       </c>
       <c r="AT10" t="str">
         <f>VLOOKUP($I10,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>法术伤害130，与野猪-30</v>
+        <v>法术伤害130，比起野猪-30</v>
       </c>
     </row>
     <row r="11" spans="1:46">
@@ -4110,15 +4110,15 @@
       </c>
       <c r="AP11" t="str">
         <f>VLOOKUP($I11,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值100，与野猪一致</v>
+        <v>生命值100，比起野猪一致</v>
       </c>
       <c r="AQ11" t="str">
         <f>VLOOKUP($I11,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御30，与野猪一致</v>
+        <v>物理防御30，比起野猪一致</v>
       </c>
       <c r="AR11" t="str">
         <f>VLOOKUP($I11,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御35，与野猪一致</v>
+        <v>法术防御35，比起野猪一致</v>
       </c>
       <c r="AS11" t="str">
         <f t="shared" si="12"/>
@@ -4126,7 +4126,7 @@
       </c>
       <c r="AT11" t="str">
         <f>VLOOKUP($I11,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害100，与野猪一致</v>
+        <v>物理伤害100，比起野猪一致</v>
       </c>
     </row>
     <row r="12" spans="1:46">
@@ -4262,15 +4262,15 @@
       </c>
       <c r="AP12" t="str">
         <f>VLOOKUP($I12,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值120，与炎魔-30</v>
+        <v>生命值120，比起炎魔-30</v>
       </c>
       <c r="AQ12" t="str">
         <f>VLOOKUP($I12,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御25，与炎魔-5</v>
+        <v>物理防御25，比起炎魔-5</v>
       </c>
       <c r="AR12" t="str">
         <f>VLOOKUP($I12,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御50，与炎魔-5</v>
+        <v>法术防御50，比起炎魔-5</v>
       </c>
       <c r="AS12" t="str">
         <f t="shared" si="12"/>
@@ -4278,7 +4278,7 @@
       </c>
       <c r="AT12" t="str">
         <f>VLOOKUP($I12,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>法术伤害180，与炎魔-30</v>
+        <v>法术伤害180，比起炎魔-30</v>
       </c>
     </row>
     <row r="13" spans="1:46">
@@ -4414,15 +4414,15 @@
       </c>
       <c r="AP13" t="str">
         <f>VLOOKUP($I13,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值150，与炎魔一致</v>
+        <v>生命值150，比起炎魔一致</v>
       </c>
       <c r="AQ13" t="str">
         <f>VLOOKUP($I13,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御30，与炎魔一致</v>
+        <v>物理防御30，比起炎魔一致</v>
       </c>
       <c r="AR13" t="str">
         <f>VLOOKUP($I13,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御55，与炎魔一致</v>
+        <v>法术防御55，比起炎魔一致</v>
       </c>
       <c r="AS13" t="str">
         <f t="shared" si="12"/>
@@ -4430,7 +4430,7 @@
       </c>
       <c r="AT13" t="str">
         <f>VLOOKUP($I13,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害130，与炎魔+20</v>
+        <v>物理伤害130，比起炎魔+20</v>
       </c>
     </row>
     <row r="14" spans="1:46">
@@ -4566,15 +4566,15 @@
       </c>
       <c r="AP14" t="str">
         <f>VLOOKUP($I14,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值150，与炎魔一致</v>
+        <v>生命值150，比起炎魔一致</v>
       </c>
       <c r="AQ14" t="str">
         <f>VLOOKUP($I14,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御30，与炎魔一致</v>
+        <v>物理防御30，比起炎魔一致</v>
       </c>
       <c r="AR14" t="str">
         <f>VLOOKUP($I14,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御55，与炎魔一致</v>
+        <v>法术防御55，比起炎魔一致</v>
       </c>
       <c r="AS14" t="str">
         <f t="shared" si="12"/>
@@ -4582,7 +4582,7 @@
       </c>
       <c r="AT14" t="str">
         <f>VLOOKUP($I14,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害130，与炎魔+20</v>
+        <v>物理伤害130，比起炎魔+20</v>
       </c>
     </row>
     <row r="15" spans="1:46">
@@ -4718,15 +4718,15 @@
       </c>
       <c r="AP15" t="str">
         <f>VLOOKUP($I15,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值200，与巨人-50</v>
+        <v>生命值200，比起巨人-50</v>
       </c>
       <c r="AQ15" t="str">
         <f>VLOOKUP($I15,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御45，与巨人-5</v>
+        <v>物理防御45，比起巨人-5</v>
       </c>
       <c r="AR15" t="str">
         <f>VLOOKUP($I15,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御45，与巨人-5</v>
+        <v>法术防御45，比起巨人-5</v>
       </c>
       <c r="AS15" t="str">
         <f t="shared" si="12"/>
@@ -4734,7 +4734,7 @@
       </c>
       <c r="AT15" t="str">
         <f>VLOOKUP($I15,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>法术伤害300，与巨人-100</v>
+        <v>法术伤害300，比起巨人-100</v>
       </c>
     </row>
     <row r="16" spans="1:46">
@@ -4870,15 +4870,15 @@
       </c>
       <c r="AP16" t="str">
         <f>VLOOKUP($I16,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值100，与野猪一致</v>
+        <v>生命值100，比起野猪一致</v>
       </c>
       <c r="AQ16" t="str">
         <f>VLOOKUP($I16,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御30，与野猪一致</v>
+        <v>物理防御30，比起野猪一致</v>
       </c>
       <c r="AR16" t="str">
         <f>VLOOKUP($I16,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御35，与野猪一致</v>
+        <v>法术防御35，比起野猪一致</v>
       </c>
       <c r="AS16" t="str">
         <f t="shared" si="12"/>
@@ -4886,7 +4886,7 @@
       </c>
       <c r="AT16" t="str">
         <f>VLOOKUP($I16,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害100，与野猪一致</v>
+        <v>物理伤害100，比起野猪一致</v>
       </c>
     </row>
     <row r="17" spans="1:46">
@@ -5022,15 +5022,15 @@
       </c>
       <c r="AP17" t="str">
         <f>VLOOKUP($I17,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值100，与野猪一致</v>
+        <v>生命值100，比起野猪一致</v>
       </c>
       <c r="AQ17" t="str">
         <f>VLOOKUP($I17,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御30，与野猪一致</v>
+        <v>物理防御30，比起野猪一致</v>
       </c>
       <c r="AR17" t="str">
         <f>VLOOKUP($I17,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御35，与野猪一致</v>
+        <v>法术防御35，比起野猪一致</v>
       </c>
       <c r="AS17" t="str">
         <f t="shared" si="12"/>
@@ -5038,7 +5038,7 @@
       </c>
       <c r="AT17" t="str">
         <f>VLOOKUP($I17,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害100，与野猪一致</v>
+        <v>物理伤害100，比起野猪一致</v>
       </c>
     </row>
     <row r="18" spans="1:46">
@@ -5174,15 +5174,15 @@
       </c>
       <c r="AP18" t="str">
         <f>VLOOKUP($I18,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值150，与炎魔一致</v>
+        <v>生命值150，比起炎魔一致</v>
       </c>
       <c r="AQ18" t="str">
         <f>VLOOKUP($I18,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御30，与炎魔一致</v>
+        <v>物理防御30，比起炎魔一致</v>
       </c>
       <c r="AR18" t="str">
         <f>VLOOKUP($I18,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御55，与炎魔一致</v>
+        <v>法术防御55，比起炎魔一致</v>
       </c>
       <c r="AS18" t="str">
         <f t="shared" si="12"/>
@@ -5190,7 +5190,7 @@
       </c>
       <c r="AT18" t="str">
         <f>VLOOKUP($I18,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害130，与炎魔+20</v>
+        <v>物理伤害130，比起炎魔+20</v>
       </c>
     </row>
     <row r="19" spans="1:46">
@@ -5326,15 +5326,15 @@
       </c>
       <c r="AP19" t="str">
         <f>VLOOKUP($I19,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值120，与炎魔-30</v>
+        <v>生命值120，比起炎魔-30</v>
       </c>
       <c r="AQ19" t="str">
         <f>VLOOKUP($I19,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御25，与炎魔-5</v>
+        <v>物理防御25，比起炎魔-5</v>
       </c>
       <c r="AR19" t="str">
         <f>VLOOKUP($I19,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御50，与炎魔-5</v>
+        <v>法术防御50，比起炎魔-5</v>
       </c>
       <c r="AS19" t="str">
         <f t="shared" si="12"/>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AT19" t="str">
         <f>VLOOKUP($I19,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害160，与炎魔-10</v>
+        <v>物理伤害160，比起炎魔-10</v>
       </c>
     </row>
     <row r="20" spans="1:46">
@@ -5478,15 +5478,15 @@
       </c>
       <c r="AP20" t="str">
         <f>VLOOKUP($I20,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值150，与炎魔一致</v>
+        <v>生命值150，比起炎魔一致</v>
       </c>
       <c r="AQ20" t="str">
         <f>VLOOKUP($I20,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御30，与炎魔一致</v>
+        <v>物理防御30，比起炎魔一致</v>
       </c>
       <c r="AR20" t="str">
         <f>VLOOKUP($I20,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御55，与炎魔一致</v>
+        <v>法术防御55，比起炎魔一致</v>
       </c>
       <c r="AS20" t="str">
         <f t="shared" si="12"/>
@@ -5494,7 +5494,7 @@
       </c>
       <c r="AT20" t="str">
         <f>VLOOKUP($I20,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害130，与炎魔+20</v>
+        <v>物理伤害130，比起炎魔+20</v>
       </c>
     </row>
     <row r="21" spans="1:46">
@@ -5630,15 +5630,15 @@
       </c>
       <c r="AP21" t="str">
         <f>VLOOKUP($I21,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值150，与炎魔一致</v>
+        <v>生命值150，比起炎魔一致</v>
       </c>
       <c r="AQ21" t="str">
         <f>VLOOKUP($I21,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御30，与炎魔一致</v>
+        <v>物理防御30，比起炎魔一致</v>
       </c>
       <c r="AR21" t="str">
         <f>VLOOKUP($I21,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御55，与炎魔一致</v>
+        <v>法术防御55，比起炎魔一致</v>
       </c>
       <c r="AS21" t="str">
         <f t="shared" si="12"/>
@@ -5646,7 +5646,7 @@
       </c>
       <c r="AT21" t="str">
         <f>VLOOKUP($I21,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害130，与炎魔+20</v>
+        <v>物理伤害130，比起炎魔+20</v>
       </c>
     </row>
     <row r="22" spans="1:46">
@@ -5782,15 +5782,15 @@
       </c>
       <c r="AP22" t="str">
         <f>VLOOKUP($I22,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值150，与炎魔一致</v>
+        <v>生命值150，比起炎魔一致</v>
       </c>
       <c r="AQ22" t="str">
         <f>VLOOKUP($I22,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御30，与炎魔一致</v>
+        <v>物理防御30，比起炎魔一致</v>
       </c>
       <c r="AR22" t="str">
         <f>VLOOKUP($I22,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御55，与炎魔一致</v>
+        <v>法术防御55，比起炎魔一致</v>
       </c>
       <c r="AS22" t="str">
         <f t="shared" si="12"/>
@@ -5798,7 +5798,7 @@
       </c>
       <c r="AT22" t="str">
         <f>VLOOKUP($I22,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害130，与炎魔+20</v>
+        <v>物理伤害130，比起炎魔+20</v>
       </c>
     </row>
     <row r="23" spans="1:46">
@@ -5934,15 +5934,15 @@
       </c>
       <c r="AP23" t="str">
         <f>VLOOKUP($I23,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值100，与野猪一致</v>
+        <v>生命值100，比起野猪一致</v>
       </c>
       <c r="AQ23" t="str">
         <f>VLOOKUP($I23,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御30，与野猪一致</v>
+        <v>物理防御30，比起野猪一致</v>
       </c>
       <c r="AR23" t="str">
         <f>VLOOKUP($I23,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御35，与野猪一致</v>
+        <v>法术防御35，比起野猪一致</v>
       </c>
       <c r="AS23" t="str">
         <f t="shared" si="12"/>
@@ -5950,7 +5950,7 @@
       </c>
       <c r="AT23" t="str">
         <f>VLOOKUP($I23,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害100，与野猪一致</v>
+        <v>物理伤害100，比起野猪一致</v>
       </c>
     </row>
     <row r="24" spans="1:46">
@@ -6086,15 +6086,15 @@
       </c>
       <c r="AP24" t="str">
         <f>VLOOKUP($I24,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值100，与野猪一致</v>
+        <v>生命值100，比起野猪一致</v>
       </c>
       <c r="AQ24" t="str">
         <f>VLOOKUP($I24,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御30，与野猪一致</v>
+        <v>物理防御30，比起野猪一致</v>
       </c>
       <c r="AR24" t="str">
         <f>VLOOKUP($I24,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御35，与野猪一致</v>
+        <v>法术防御35，比起野猪一致</v>
       </c>
       <c r="AS24" t="str">
         <f t="shared" si="12"/>
@@ -6102,7 +6102,7 @@
       </c>
       <c r="AT24" t="str">
         <f>VLOOKUP($I24,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害100，与野猪一致</v>
+        <v>物理伤害100，比起野猪一致</v>
       </c>
     </row>
     <row r="25" spans="1:46">
@@ -6238,15 +6238,15 @@
       </c>
       <c r="AP25" t="str">
         <f>VLOOKUP($I25,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值150，与炎魔一致</v>
+        <v>生命值150，比起炎魔一致</v>
       </c>
       <c r="AQ25" t="str">
         <f>VLOOKUP($I25,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御30，与炎魔一致</v>
+        <v>物理防御30，比起炎魔一致</v>
       </c>
       <c r="AR25" t="str">
         <f>VLOOKUP($I25,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御55，与炎魔一致</v>
+        <v>法术防御55，比起炎魔一致</v>
       </c>
       <c r="AS25" t="str">
         <f t="shared" si="12"/>
@@ -6254,7 +6254,7 @@
       </c>
       <c r="AT25" t="str">
         <f>VLOOKUP($I25,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>法术伤害150，与炎魔一致</v>
+        <v>法术伤害150，比起炎魔一致</v>
       </c>
     </row>
     <row r="26" spans="1:46">
@@ -6390,15 +6390,15 @@
       </c>
       <c r="AP26" t="str">
         <f>VLOOKUP($I26,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值150，与炎魔一致</v>
+        <v>生命值150，比起炎魔一致</v>
       </c>
       <c r="AQ26" t="str">
         <f>VLOOKUP($I26,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御30，与炎魔一致</v>
+        <v>物理防御30，比起炎魔一致</v>
       </c>
       <c r="AR26" t="str">
         <f>VLOOKUP($I26,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御55，与炎魔一致</v>
+        <v>法术防御55，比起炎魔一致</v>
       </c>
       <c r="AS26" t="str">
         <f t="shared" si="12"/>
@@ -6406,7 +6406,7 @@
       </c>
       <c r="AT26" t="str">
         <f>VLOOKUP($I26,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害130，与炎魔+20</v>
+        <v>物理伤害130，比起炎魔+20</v>
       </c>
     </row>
     <row r="27" spans="1:46">
@@ -6542,15 +6542,15 @@
       </c>
       <c r="AP27" t="str">
         <f>VLOOKUP($I27,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值80，与野猪-20</v>
+        <v>生命值80，比起野猪-20</v>
       </c>
       <c r="AQ27" t="str">
         <f>VLOOKUP($I27,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御25，与野猪-5</v>
+        <v>物理防御25，比起野猪-5</v>
       </c>
       <c r="AR27" t="str">
         <f>VLOOKUP($I27,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御30，与野猪-5</v>
+        <v>法术防御30，比起野猪-5</v>
       </c>
       <c r="AS27" t="str">
         <f t="shared" si="12"/>
@@ -6558,7 +6558,7 @@
       </c>
       <c r="AT27" t="str">
         <f>VLOOKUP($I27,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害120，与野猪-20</v>
+        <v>物理伤害120，比起野猪-20</v>
       </c>
     </row>
     <row r="28" spans="1:46">
@@ -6694,15 +6694,15 @@
       </c>
       <c r="AP28" t="str">
         <f>VLOOKUP($I28,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值80，与野猪-20</v>
+        <v>生命值80，比起野猪-20</v>
       </c>
       <c r="AQ28" t="str">
         <f>VLOOKUP($I28,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御25，与野猪-5</v>
+        <v>物理防御25，比起野猪-5</v>
       </c>
       <c r="AR28" t="str">
         <f>VLOOKUP($I28,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御30，与野猪-5</v>
+        <v>法术防御30，比起野猪-5</v>
       </c>
       <c r="AS28" t="str">
         <f t="shared" si="12"/>
@@ -6710,7 +6710,7 @@
       </c>
       <c r="AT28" t="str">
         <f>VLOOKUP($I28,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害120，与野猪-20</v>
+        <v>物理伤害120，比起野猪-20</v>
       </c>
     </row>
     <row r="29" spans="1:46">
@@ -6846,15 +6846,15 @@
       </c>
       <c r="AP29" t="str">
         <f>VLOOKUP($I29,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值100，与野猪一致</v>
+        <v>生命值100，比起野猪一致</v>
       </c>
       <c r="AQ29" t="str">
         <f>VLOOKUP($I29,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御30，与野猪一致</v>
+        <v>物理防御30，比起野猪一致</v>
       </c>
       <c r="AR29" t="str">
         <f>VLOOKUP($I29,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御35，与野猪一致</v>
+        <v>法术防御35，比起野猪一致</v>
       </c>
       <c r="AS29" t="str">
         <f t="shared" si="12"/>
@@ -6862,7 +6862,7 @@
       </c>
       <c r="AT29" t="str">
         <f>VLOOKUP($I29,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害100，与野猪一致</v>
+        <v>物理伤害100，比起野猪一致</v>
       </c>
     </row>
     <row r="30" spans="1:46">
@@ -6998,15 +6998,15 @@
       </c>
       <c r="AP30" t="str">
         <f>VLOOKUP($I30,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值100，与野猪一致</v>
+        <v>生命值100，比起野猪一致</v>
       </c>
       <c r="AQ30" t="str">
         <f>VLOOKUP($I30,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御30，与野猪一致</v>
+        <v>物理防御30，比起野猪一致</v>
       </c>
       <c r="AR30" t="str">
         <f>VLOOKUP($I30,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御35，与野猪一致</v>
+        <v>法术防御35，比起野猪一致</v>
       </c>
       <c r="AS30" t="str">
         <f t="shared" si="12"/>
@@ -7014,7 +7014,7 @@
       </c>
       <c r="AT30" t="str">
         <f>VLOOKUP($I30,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害100，与野猪一致</v>
+        <v>物理伤害100，比起野猪一致</v>
       </c>
     </row>
     <row r="31" spans="1:46">
@@ -7150,15 +7150,15 @@
       </c>
       <c r="AP31" t="str">
         <f>VLOOKUP($I31,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值150，与炎魔一致</v>
+        <v>生命值150，比起炎魔一致</v>
       </c>
       <c r="AQ31" t="str">
         <f>VLOOKUP($I31,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御30，与炎魔一致</v>
+        <v>物理防御30，比起炎魔一致</v>
       </c>
       <c r="AR31" t="str">
         <f>VLOOKUP($I31,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御55，与炎魔一致</v>
+        <v>法术防御55，比起炎魔一致</v>
       </c>
       <c r="AS31" t="str">
         <f t="shared" si="12"/>
@@ -7166,7 +7166,7 @@
       </c>
       <c r="AT31" t="str">
         <f>VLOOKUP($I31,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害130，与炎魔+20</v>
+        <v>物理伤害130，比起炎魔+20</v>
       </c>
     </row>
     <row r="32" spans="1:46">
@@ -7302,15 +7302,15 @@
       </c>
       <c r="AP32" t="str">
         <f>VLOOKUP($I32,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值100，与野猪一致</v>
+        <v>生命值100，比起野猪一致</v>
       </c>
       <c r="AQ32" t="str">
         <f>VLOOKUP($I32,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御30，与野猪一致</v>
+        <v>物理防御30，比起野猪一致</v>
       </c>
       <c r="AR32" t="str">
         <f>VLOOKUP($I32,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御35，与野猪一致</v>
+        <v>法术防御35，比起野猪一致</v>
       </c>
       <c r="AS32" t="str">
         <f t="shared" si="12"/>
@@ -7318,7 +7318,7 @@
       </c>
       <c r="AT32" t="str">
         <f>VLOOKUP($I32,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害100，与野猪一致</v>
+        <v>物理伤害100，比起野猪一致</v>
       </c>
     </row>
     <row r="33" spans="1:46">
@@ -7454,15 +7454,15 @@
       </c>
       <c r="AP33" t="str">
         <f>VLOOKUP($I33,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值100，与野猪一致</v>
+        <v>生命值100，比起野猪一致</v>
       </c>
       <c r="AQ33" t="str">
         <f>VLOOKUP($I33,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御30，与野猪一致</v>
+        <v>物理防御30，比起野猪一致</v>
       </c>
       <c r="AR33" t="str">
         <f>VLOOKUP($I33,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御35，与野猪一致</v>
+        <v>法术防御35，比起野猪一致</v>
       </c>
       <c r="AS33" t="str">
         <f t="shared" si="12"/>
@@ -7470,7 +7470,7 @@
       </c>
       <c r="AT33" t="str">
         <f>VLOOKUP($I33,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害100，与野猪一致</v>
+        <v>物理伤害100，比起野猪一致</v>
       </c>
     </row>
     <row r="34" spans="1:46">
@@ -7606,15 +7606,15 @@
       </c>
       <c r="AP34" t="str">
         <f>VLOOKUP($I34,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值120，与炎魔-30</v>
+        <v>生命值120，比起炎魔-30</v>
       </c>
       <c r="AQ34" t="str">
         <f>VLOOKUP($I34,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御25，与炎魔-5</v>
+        <v>物理防御25，比起炎魔-5</v>
       </c>
       <c r="AR34" t="str">
         <f>VLOOKUP($I34,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御50，与炎魔-5</v>
+        <v>法术防御50，比起炎魔-5</v>
       </c>
       <c r="AS34" t="str">
         <f t="shared" si="12"/>
@@ -7622,7 +7622,7 @@
       </c>
       <c r="AT34" t="str">
         <f>VLOOKUP($I34,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>法术伤害180，与炎魔-30</v>
+        <v>法术伤害180，比起炎魔-30</v>
       </c>
     </row>
     <row r="35" spans="1:46">
@@ -7758,15 +7758,15 @@
       </c>
       <c r="AP35" t="str">
         <f>VLOOKUP($I35,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值150，与炎魔一致</v>
+        <v>生命值150，比起炎魔一致</v>
       </c>
       <c r="AQ35" t="str">
         <f>VLOOKUP($I35,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御30，与炎魔一致</v>
+        <v>物理防御30，比起炎魔一致</v>
       </c>
       <c r="AR35" t="str">
         <f>VLOOKUP($I35,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御55，与炎魔一致</v>
+        <v>法术防御55，比起炎魔一致</v>
       </c>
       <c r="AS35" t="str">
         <f t="shared" si="12"/>
@@ -7774,7 +7774,7 @@
       </c>
       <c r="AT35" t="str">
         <f>VLOOKUP($I35,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害130，与炎魔+20</v>
+        <v>物理伤害130，比起炎魔+20</v>
       </c>
     </row>
     <row r="36" spans="1:46">
@@ -7910,15 +7910,15 @@
       </c>
       <c r="AP36" t="str">
         <f>VLOOKUP($I36,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值150，与炎魔一致</v>
+        <v>生命值150，比起炎魔一致</v>
       </c>
       <c r="AQ36" t="str">
         <f>VLOOKUP($I36,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御30，与炎魔一致</v>
+        <v>物理防御30，比起炎魔一致</v>
       </c>
       <c r="AR36" t="str">
         <f>VLOOKUP($I36,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御55，与炎魔一致</v>
+        <v>法术防御55，比起炎魔一致</v>
       </c>
       <c r="AS36" t="str">
         <f t="shared" si="12"/>
@@ -7926,7 +7926,7 @@
       </c>
       <c r="AT36" t="str">
         <f>VLOOKUP($I36,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>法术伤害150，与炎魔一致</v>
+        <v>法术伤害150，比起炎魔一致</v>
       </c>
     </row>
     <row r="37" spans="1:46">
@@ -8062,15 +8062,15 @@
       </c>
       <c r="AP37" t="str">
         <f>VLOOKUP($I37,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值150，与炎魔一致</v>
+        <v>生命值150，比起炎魔一致</v>
       </c>
       <c r="AQ37" t="str">
         <f>VLOOKUP($I37,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御30，与炎魔一致</v>
+        <v>物理防御30，比起炎魔一致</v>
       </c>
       <c r="AR37" t="str">
         <f>VLOOKUP($I37,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御55，与炎魔一致</v>
+        <v>法术防御55，比起炎魔一致</v>
       </c>
       <c r="AS37" t="str">
         <f t="shared" si="12"/>
@@ -8078,7 +8078,7 @@
       </c>
       <c r="AT37" t="str">
         <f>VLOOKUP($I37,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害130，与炎魔+20</v>
+        <v>物理伤害130，比起炎魔+20</v>
       </c>
     </row>
     <row r="38" spans="1:46">
@@ -8214,15 +8214,15 @@
       </c>
       <c r="AP38" t="str">
         <f>VLOOKUP($I38,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值100，与野猪一致</v>
+        <v>生命值100，比起野猪一致</v>
       </c>
       <c r="AQ38" t="str">
         <f>VLOOKUP($I38,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御30，与野猪一致</v>
+        <v>物理防御30，比起野猪一致</v>
       </c>
       <c r="AR38" t="str">
         <f>VLOOKUP($I38,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御35，与野猪一致</v>
+        <v>法术防御35，比起野猪一致</v>
       </c>
       <c r="AS38" t="str">
         <f t="shared" ref="AS38:AS69" si="28">"移动速度为"&amp;V38&amp;",比起"&amp;AD38&amp;IF(AC38=0,"一致",IF(AC38&gt;0,"+","")&amp;AC38)</f>
@@ -8230,7 +8230,7 @@
       </c>
       <c r="AT38" t="str">
         <f>VLOOKUP($I38,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害100，与野猪一致</v>
+        <v>物理伤害100，比起野猪一致</v>
       </c>
     </row>
     <row r="39" spans="1:46">
@@ -8366,15 +8366,15 @@
       </c>
       <c r="AP39" t="str">
         <f>VLOOKUP($I39,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值150，与炎魔一致</v>
+        <v>生命值150，比起炎魔一致</v>
       </c>
       <c r="AQ39" t="str">
         <f>VLOOKUP($I39,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御30，与炎魔一致</v>
+        <v>物理防御30，比起炎魔一致</v>
       </c>
       <c r="AR39" t="str">
         <f>VLOOKUP($I39,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御55，与炎魔一致</v>
+        <v>法术防御55，比起炎魔一致</v>
       </c>
       <c r="AS39" t="str">
         <f t="shared" si="28"/>
@@ -8382,7 +8382,7 @@
       </c>
       <c r="AT39" t="str">
         <f>VLOOKUP($I39,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害130，与炎魔+20</v>
+        <v>物理伤害130，比起炎魔+20</v>
       </c>
     </row>
     <row r="40" spans="1:46">
@@ -8518,15 +8518,15 @@
       </c>
       <c r="AP40" t="str">
         <f>VLOOKUP($I40,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值150，与炎魔一致</v>
+        <v>生命值150，比起炎魔一致</v>
       </c>
       <c r="AQ40" t="str">
         <f>VLOOKUP($I40,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御30，与炎魔一致</v>
+        <v>物理防御30，比起炎魔一致</v>
       </c>
       <c r="AR40" t="str">
         <f>VLOOKUP($I40,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御55，与炎魔一致</v>
+        <v>法术防御55，比起炎魔一致</v>
       </c>
       <c r="AS40" t="str">
         <f t="shared" si="28"/>
@@ -8534,7 +8534,7 @@
       </c>
       <c r="AT40" t="str">
         <f>VLOOKUP($I40,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害130，与炎魔+20</v>
+        <v>物理伤害130，比起炎魔+20</v>
       </c>
     </row>
     <row r="41" spans="1:46">
@@ -8670,15 +8670,15 @@
       </c>
       <c r="AP41" t="str">
         <f>VLOOKUP($I41,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值120，与炎魔-30</v>
+        <v>生命值120，比起炎魔-30</v>
       </c>
       <c r="AQ41" t="str">
         <f>VLOOKUP($I41,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御25，与炎魔-5</v>
+        <v>物理防御25，比起炎魔-5</v>
       </c>
       <c r="AR41" t="str">
         <f>VLOOKUP($I41,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御50，与炎魔-5</v>
+        <v>法术防御50，比起炎魔-5</v>
       </c>
       <c r="AS41" t="str">
         <f t="shared" si="28"/>
@@ -8686,7 +8686,7 @@
       </c>
       <c r="AT41" t="str">
         <f>VLOOKUP($I41,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>法术伤害180，与炎魔-30</v>
+        <v>法术伤害180，比起炎魔-30</v>
       </c>
     </row>
     <row r="42" spans="1:46">
@@ -8822,15 +8822,15 @@
       </c>
       <c r="AP42" t="str">
         <f>VLOOKUP($I42,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值80，与野猪-20</v>
+        <v>生命值80，比起野猪-20</v>
       </c>
       <c r="AQ42" t="str">
         <f>VLOOKUP($I42,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御25，与野猪-5</v>
+        <v>物理防御25，比起野猪-5</v>
       </c>
       <c r="AR42" t="str">
         <f>VLOOKUP($I42,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御30，与野猪-5</v>
+        <v>法术防御30，比起野猪-5</v>
       </c>
       <c r="AS42" t="str">
         <f t="shared" si="28"/>
@@ -8838,7 +8838,7 @@
       </c>
       <c r="AT42" t="str">
         <f>VLOOKUP($I42,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>法术伤害130，与野猪-30</v>
+        <v>法术伤害130，比起野猪-30</v>
       </c>
     </row>
     <row r="43" spans="1:46">
@@ -8974,15 +8974,15 @@
       </c>
       <c r="AP43" t="str">
         <f>VLOOKUP($I43,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值150，与炎魔一致</v>
+        <v>生命值150，比起炎魔一致</v>
       </c>
       <c r="AQ43" t="str">
         <f>VLOOKUP($I43,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御30，与炎魔一致</v>
+        <v>物理防御30，比起炎魔一致</v>
       </c>
       <c r="AR43" t="str">
         <f>VLOOKUP($I43,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御55，与炎魔一致</v>
+        <v>法术防御55，比起炎魔一致</v>
       </c>
       <c r="AS43" t="str">
         <f t="shared" si="28"/>
@@ -8990,7 +8990,7 @@
       </c>
       <c r="AT43" t="str">
         <f>VLOOKUP($I43,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害130，与炎魔+20</v>
+        <v>物理伤害130，比起炎魔+20</v>
       </c>
     </row>
     <row r="44" spans="1:46">
@@ -9126,15 +9126,15 @@
       </c>
       <c r="AP44" t="str">
         <f>VLOOKUP($I44,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值150，与炎魔一致</v>
+        <v>生命值150，比起炎魔一致</v>
       </c>
       <c r="AQ44" t="str">
         <f>VLOOKUP($I44,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御30，与炎魔一致</v>
+        <v>物理防御30，比起炎魔一致</v>
       </c>
       <c r="AR44" t="str">
         <f>VLOOKUP($I44,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御55，与炎魔一致</v>
+        <v>法术防御55，比起炎魔一致</v>
       </c>
       <c r="AS44" t="str">
         <f t="shared" si="28"/>
@@ -9142,7 +9142,7 @@
       </c>
       <c r="AT44" t="str">
         <f>VLOOKUP($I44,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害130，与炎魔+20</v>
+        <v>物理伤害130，比起炎魔+20</v>
       </c>
     </row>
     <row r="45" spans="1:46">
@@ -9278,15 +9278,15 @@
       </c>
       <c r="AP45" t="str">
         <f>VLOOKUP($I45,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值100，与野猪一致</v>
+        <v>生命值100，比起野猪一致</v>
       </c>
       <c r="AQ45" t="str">
         <f>VLOOKUP($I45,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御30，与野猪一致</v>
+        <v>物理防御30，比起野猪一致</v>
       </c>
       <c r="AR45" t="str">
         <f>VLOOKUP($I45,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御35，与野猪一致</v>
+        <v>法术防御35，比起野猪一致</v>
       </c>
       <c r="AS45" t="str">
         <f t="shared" si="28"/>
@@ -9294,7 +9294,7 @@
       </c>
       <c r="AT45" t="str">
         <f>VLOOKUP($I45,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害100，与野猪一致</v>
+        <v>物理伤害100，比起野猪一致</v>
       </c>
     </row>
     <row r="46" spans="1:46">
@@ -9430,15 +9430,15 @@
       </c>
       <c r="AP46" t="str">
         <f>VLOOKUP($I46,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值100，与野猪一致</v>
+        <v>生命值100，比起野猪一致</v>
       </c>
       <c r="AQ46" t="str">
         <f>VLOOKUP($I46,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御30，与野猪一致</v>
+        <v>物理防御30，比起野猪一致</v>
       </c>
       <c r="AR46" t="str">
         <f>VLOOKUP($I46,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御35，与野猪一致</v>
+        <v>法术防御35，比起野猪一致</v>
       </c>
       <c r="AS46" t="str">
         <f t="shared" si="28"/>
@@ -9446,7 +9446,7 @@
       </c>
       <c r="AT46" t="str">
         <f>VLOOKUP($I46,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害100，与野猪一致</v>
+        <v>物理伤害100，比起野猪一致</v>
       </c>
     </row>
     <row r="47" spans="1:46">
@@ -9582,15 +9582,15 @@
       </c>
       <c r="AP47" t="str">
         <f>VLOOKUP($I47,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值100，与野猪一致</v>
+        <v>生命值100，比起野猪一致</v>
       </c>
       <c r="AQ47" t="str">
         <f>VLOOKUP($I47,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御30，与野猪一致</v>
+        <v>物理防御30，比起野猪一致</v>
       </c>
       <c r="AR47" t="str">
         <f>VLOOKUP($I47,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御35，与野猪一致</v>
+        <v>法术防御35，比起野猪一致</v>
       </c>
       <c r="AS47" t="str">
         <f t="shared" si="28"/>
@@ -9598,7 +9598,7 @@
       </c>
       <c r="AT47" t="str">
         <f>VLOOKUP($I47,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害100，与野猪一致</v>
+        <v>物理伤害100，比起野猪一致</v>
       </c>
     </row>
     <row r="48" spans="1:46">
@@ -9734,15 +9734,15 @@
       </c>
       <c r="AP48" t="str">
         <f>VLOOKUP($I48,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值150，与炎魔一致</v>
+        <v>生命值150，比起炎魔一致</v>
       </c>
       <c r="AQ48" t="str">
         <f>VLOOKUP($I48,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御30，与炎魔一致</v>
+        <v>物理防御30，比起炎魔一致</v>
       </c>
       <c r="AR48" t="str">
         <f>VLOOKUP($I48,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御55，与炎魔一致</v>
+        <v>法术防御55，比起炎魔一致</v>
       </c>
       <c r="AS48" t="str">
         <f t="shared" si="28"/>
@@ -9750,7 +9750,7 @@
       </c>
       <c r="AT48" t="str">
         <f>VLOOKUP($I48,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害130，与炎魔+20</v>
+        <v>物理伤害130，比起炎魔+20</v>
       </c>
     </row>
     <row r="49" spans="1:46">
@@ -9886,15 +9886,15 @@
       </c>
       <c r="AP49" t="str">
         <f>VLOOKUP($I49,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值250，与巨人一致</v>
+        <v>生命值250，比起巨人一致</v>
       </c>
       <c r="AQ49" t="str">
         <f>VLOOKUP($I49,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御50，与巨人一致</v>
+        <v>物理防御50，比起巨人一致</v>
       </c>
       <c r="AR49" t="str">
         <f>VLOOKUP($I49,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御50，与巨人一致</v>
+        <v>法术防御50，比起巨人一致</v>
       </c>
       <c r="AS49" t="str">
         <f t="shared" si="28"/>
@@ -9902,7 +9902,7 @@
       </c>
       <c r="AT49" t="str">
         <f>VLOOKUP($I49,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>法术伤害240，与巨人-40</v>
+        <v>法术伤害240，比起巨人-40</v>
       </c>
     </row>
     <row r="50" spans="1:46">
@@ -10038,15 +10038,15 @@
       </c>
       <c r="AP50" t="str">
         <f>VLOOKUP($I50,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值150，与炎魔一致</v>
+        <v>生命值150，比起炎魔一致</v>
       </c>
       <c r="AQ50" t="str">
         <f>VLOOKUP($I50,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御30，与炎魔一致</v>
+        <v>物理防御30，比起炎魔一致</v>
       </c>
       <c r="AR50" t="str">
         <f>VLOOKUP($I50,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御55，与炎魔一致</v>
+        <v>法术防御55，比起炎魔一致</v>
       </c>
       <c r="AS50" t="str">
         <f t="shared" si="28"/>
@@ -10054,7 +10054,7 @@
       </c>
       <c r="AT50" t="str">
         <f>VLOOKUP($I50,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害130，与炎魔+20</v>
+        <v>物理伤害130，比起炎魔+20</v>
       </c>
     </row>
     <row r="51" spans="1:46">
@@ -10190,15 +10190,15 @@
       </c>
       <c r="AP51" t="str">
         <f>VLOOKUP($I51,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值250，与巨人一致</v>
+        <v>生命值250，比起巨人一致</v>
       </c>
       <c r="AQ51" t="str">
         <f>VLOOKUP($I51,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御50，与巨人一致</v>
+        <v>物理防御50，比起巨人一致</v>
       </c>
       <c r="AR51" t="str">
         <f>VLOOKUP($I51,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御50，与巨人一致</v>
+        <v>法术防御50，比起巨人一致</v>
       </c>
       <c r="AS51" t="str">
         <f t="shared" si="28"/>
@@ -10206,7 +10206,7 @@
       </c>
       <c r="AT51" t="str">
         <f>VLOOKUP($I51,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害200，与巨人一致</v>
+        <v>物理伤害200，比起巨人一致</v>
       </c>
     </row>
     <row r="52" spans="1:46">
@@ -10342,15 +10342,15 @@
       </c>
       <c r="AP52" t="str">
         <f>VLOOKUP($I52,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值200，与巨人-50</v>
+        <v>生命值200，比起巨人-50</v>
       </c>
       <c r="AQ52" t="str">
         <f>VLOOKUP($I52,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御45，与巨人-5</v>
+        <v>物理防御45，比起巨人-5</v>
       </c>
       <c r="AR52" t="str">
         <f>VLOOKUP($I52,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御45，与巨人-5</v>
+        <v>法术防御45，比起巨人-5</v>
       </c>
       <c r="AS52" t="str">
         <f t="shared" si="28"/>
@@ -10358,7 +10358,7 @@
       </c>
       <c r="AT52" t="str">
         <f>VLOOKUP($I52,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害240，与巨人-40</v>
+        <v>物理伤害240，比起巨人-40</v>
       </c>
     </row>
     <row r="53" spans="1:46">
@@ -10488,15 +10488,15 @@
       </c>
       <c r="AP53" t="str">
         <f>VLOOKUP($I53,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值250，与巨人一致</v>
+        <v>生命值250，比起巨人一致</v>
       </c>
       <c r="AQ53" t="str">
         <f>VLOOKUP($I53,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御50，与巨人一致</v>
+        <v>物理防御50，比起巨人一致</v>
       </c>
       <c r="AR53" t="str">
         <f>VLOOKUP($I53,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御50，与巨人一致</v>
+        <v>法术防御50，比起巨人一致</v>
       </c>
       <c r="AS53" t="str">
         <f t="shared" si="28"/>
@@ -10504,7 +10504,7 @@
       </c>
       <c r="AT53" t="str">
         <f>VLOOKUP($I53,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>法术伤害240，与巨人-40</v>
+        <v>法术伤害240，比起巨人-40</v>
       </c>
     </row>
     <row r="54" spans="1:46">
@@ -10634,15 +10634,15 @@
       </c>
       <c r="AP54" t="str">
         <f>VLOOKUP($I54,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值250，与巨人一致</v>
+        <v>生命值250，比起巨人一致</v>
       </c>
       <c r="AQ54" t="str">
         <f>VLOOKUP($I54,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御50，与巨人一致</v>
+        <v>物理防御50，比起巨人一致</v>
       </c>
       <c r="AR54" t="str">
         <f>VLOOKUP($I54,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御50，与巨人一致</v>
+        <v>法术防御50，比起巨人一致</v>
       </c>
       <c r="AS54" t="str">
         <f t="shared" si="28"/>
@@ -10650,7 +10650,7 @@
       </c>
       <c r="AT54" t="str">
         <f>VLOOKUP($I54,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害200，与巨人一致</v>
+        <v>物理伤害200，比起巨人一致</v>
       </c>
     </row>
     <row r="55" spans="1:46">
@@ -10780,15 +10780,15 @@
       </c>
       <c r="AP55" t="str">
         <f>VLOOKUP($I55,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值100，与野猪一致</v>
+        <v>生命值100，比起野猪一致</v>
       </c>
       <c r="AQ55" t="str">
         <f>VLOOKUP($I55,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御30，与野猪一致</v>
+        <v>物理防御30，比起野猪一致</v>
       </c>
       <c r="AR55" t="str">
         <f>VLOOKUP($I55,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御35，与野猪一致</v>
+        <v>法术防御35，比起野猪一致</v>
       </c>
       <c r="AS55" t="str">
         <f t="shared" si="28"/>
@@ -10796,7 +10796,7 @@
       </c>
       <c r="AT55" t="str">
         <f>VLOOKUP($I55,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害100，与野猪一致</v>
+        <v>物理伤害100，比起野猪一致</v>
       </c>
     </row>
     <row r="56" spans="1:46">
@@ -10926,15 +10926,15 @@
       </c>
       <c r="AP56" t="str">
         <f>VLOOKUP($I56,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值120，与炎魔-30</v>
+        <v>生命值120，比起炎魔-30</v>
       </c>
       <c r="AQ56" t="str">
         <f>VLOOKUP($I56,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御25，与炎魔-5</v>
+        <v>物理防御25，比起炎魔-5</v>
       </c>
       <c r="AR56" t="str">
         <f>VLOOKUP($I56,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御50，与炎魔-5</v>
+        <v>法术防御50，比起炎魔-5</v>
       </c>
       <c r="AS56" t="str">
         <f t="shared" si="28"/>
@@ -10942,7 +10942,7 @@
       </c>
       <c r="AT56" t="str">
         <f>VLOOKUP($I56,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>法术伤害180，与炎魔-30</v>
+        <v>法术伤害180，比起炎魔-30</v>
       </c>
     </row>
     <row r="57" spans="1:46">
@@ -11072,15 +11072,15 @@
       </c>
       <c r="AP57" t="str">
         <f>VLOOKUP($I57,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值150，与炎魔一致</v>
+        <v>生命值150，比起炎魔一致</v>
       </c>
       <c r="AQ57" t="str">
         <f>VLOOKUP($I57,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御30，与炎魔一致</v>
+        <v>物理防御30，比起炎魔一致</v>
       </c>
       <c r="AR57" t="str">
         <f>VLOOKUP($I57,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御55，与炎魔一致</v>
+        <v>法术防御55，比起炎魔一致</v>
       </c>
       <c r="AS57" t="str">
         <f t="shared" si="28"/>
@@ -11088,7 +11088,7 @@
       </c>
       <c r="AT57" t="str">
         <f>VLOOKUP($I57,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害130，与炎魔+20</v>
+        <v>物理伤害130，比起炎魔+20</v>
       </c>
     </row>
     <row r="58" spans="1:46">
@@ -11218,15 +11218,15 @@
       </c>
       <c r="AP58" t="str">
         <f>VLOOKUP($I58,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值250，与巨人一致</v>
+        <v>生命值250，比起巨人一致</v>
       </c>
       <c r="AQ58" t="str">
         <f>VLOOKUP($I58,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御50，与巨人一致</v>
+        <v>物理防御50，比起巨人一致</v>
       </c>
       <c r="AR58" t="str">
         <f>VLOOKUP($I58,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御50，与巨人一致</v>
+        <v>法术防御50，比起巨人一致</v>
       </c>
       <c r="AS58" t="str">
         <f t="shared" si="28"/>
@@ -11234,7 +11234,7 @@
       </c>
       <c r="AT58" t="str">
         <f>VLOOKUP($I58,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害200，与巨人一致</v>
+        <v>物理伤害200，比起巨人一致</v>
       </c>
     </row>
     <row r="59" spans="1:46">
@@ -11364,15 +11364,15 @@
       </c>
       <c r="AP59" t="str">
         <f>VLOOKUP($I59,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值100，与野猪一致</v>
+        <v>生命值100，比起野猪一致</v>
       </c>
       <c r="AQ59" t="str">
         <f>VLOOKUP($I59,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御30，与野猪一致</v>
+        <v>物理防御30，比起野猪一致</v>
       </c>
       <c r="AR59" t="str">
         <f>VLOOKUP($I59,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御35，与野猪一致</v>
+        <v>法术防御35，比起野猪一致</v>
       </c>
       <c r="AS59" t="str">
         <f t="shared" si="28"/>
@@ -11380,7 +11380,7 @@
       </c>
       <c r="AT59" t="str">
         <f>VLOOKUP($I59,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害100，与野猪一致</v>
+        <v>物理伤害100，比起野猪一致</v>
       </c>
     </row>
     <row r="60" spans="1:46">
@@ -11510,15 +11510,15 @@
       </c>
       <c r="AP60" t="str">
         <f>VLOOKUP($I60,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值100，与野猪一致</v>
+        <v>生命值100，比起野猪一致</v>
       </c>
       <c r="AQ60" t="str">
         <f>VLOOKUP($I60,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御30，与野猪一致</v>
+        <v>物理防御30，比起野猪一致</v>
       </c>
       <c r="AR60" t="str">
         <f>VLOOKUP($I60,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御35，与野猪一致</v>
+        <v>法术防御35，比起野猪一致</v>
       </c>
       <c r="AS60" t="str">
         <f t="shared" si="28"/>
@@ -11526,7 +11526,7 @@
       </c>
       <c r="AT60" t="str">
         <f>VLOOKUP($I60,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害100，与野猪一致</v>
+        <v>物理伤害100，比起野猪一致</v>
       </c>
     </row>
     <row r="61" spans="1:46">
@@ -11656,15 +11656,15 @@
       </c>
       <c r="AP61" t="str">
         <f>VLOOKUP($I61,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值100，与野猪一致</v>
+        <v>生命值100，比起野猪一致</v>
       </c>
       <c r="AQ61" t="str">
         <f>VLOOKUP($I61,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御30，与野猪一致</v>
+        <v>物理防御30，比起野猪一致</v>
       </c>
       <c r="AR61" t="str">
         <f>VLOOKUP($I61,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御35，与野猪一致</v>
+        <v>法术防御35，比起野猪一致</v>
       </c>
       <c r="AS61" t="str">
         <f t="shared" si="28"/>
@@ -11672,7 +11672,7 @@
       </c>
       <c r="AT61" t="str">
         <f>VLOOKUP($I61,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害100，与野猪一致</v>
+        <v>物理伤害100，比起野猪一致</v>
       </c>
     </row>
     <row r="62" spans="1:46">
@@ -11802,15 +11802,15 @@
       </c>
       <c r="AP62" t="str">
         <f>VLOOKUP($I62,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值150，与炎魔一致</v>
+        <v>生命值150，比起炎魔一致</v>
       </c>
       <c r="AQ62" t="str">
         <f>VLOOKUP($I62,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御30，与炎魔一致</v>
+        <v>物理防御30，比起炎魔一致</v>
       </c>
       <c r="AR62" t="str">
         <f>VLOOKUP($I62,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御55，与炎魔一致</v>
+        <v>法术防御55，比起炎魔一致</v>
       </c>
       <c r="AS62" t="str">
         <f t="shared" si="28"/>
@@ -11818,7 +11818,7 @@
       </c>
       <c r="AT62" t="str">
         <f>VLOOKUP($I62,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害130，与炎魔+20</v>
+        <v>物理伤害130，比起炎魔+20</v>
       </c>
     </row>
     <row r="63" spans="1:46">
@@ -11948,15 +11948,15 @@
       </c>
       <c r="AP63" t="str">
         <f>VLOOKUP($I63,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值100，与野猪一致</v>
+        <v>生命值100，比起野猪一致</v>
       </c>
       <c r="AQ63" t="str">
         <f>VLOOKUP($I63,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御30，与野猪一致</v>
+        <v>物理防御30，比起野猪一致</v>
       </c>
       <c r="AR63" t="str">
         <f>VLOOKUP($I63,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御35，与野猪一致</v>
+        <v>法术防御35，比起野猪一致</v>
       </c>
       <c r="AS63" t="str">
         <f t="shared" si="28"/>
@@ -11964,7 +11964,7 @@
       </c>
       <c r="AT63" t="str">
         <f>VLOOKUP($I63,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害100，与野猪一致</v>
+        <v>物理伤害100，比起野猪一致</v>
       </c>
     </row>
     <row r="64" spans="1:46">
@@ -12094,15 +12094,15 @@
       </c>
       <c r="AP64" t="str">
         <f>VLOOKUP($I64,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值100，与野猪一致</v>
+        <v>生命值100，比起野猪一致</v>
       </c>
       <c r="AQ64" t="str">
         <f>VLOOKUP($I64,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御30，与野猪一致</v>
+        <v>物理防御30，比起野猪一致</v>
       </c>
       <c r="AR64" t="str">
         <f>VLOOKUP($I64,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御35，与野猪一致</v>
+        <v>法术防御35，比起野猪一致</v>
       </c>
       <c r="AS64" t="str">
         <f t="shared" si="28"/>
@@ -12110,7 +12110,7 @@
       </c>
       <c r="AT64" t="str">
         <f>VLOOKUP($I64,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害100，与野猪一致</v>
+        <v>物理伤害100，比起野猪一致</v>
       </c>
     </row>
     <row r="65" spans="1:46">
@@ -12240,15 +12240,15 @@
       </c>
       <c r="AP65" t="str">
         <f>VLOOKUP($I65,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值100，与野猪一致</v>
+        <v>生命值100，比起野猪一致</v>
       </c>
       <c r="AQ65" t="str">
         <f>VLOOKUP($I65,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御30，与野猪一致</v>
+        <v>物理防御30，比起野猪一致</v>
       </c>
       <c r="AR65" t="str">
         <f>VLOOKUP($I65,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御35，与野猪一致</v>
+        <v>法术防御35，比起野猪一致</v>
       </c>
       <c r="AS65" t="str">
         <f t="shared" si="28"/>
@@ -12256,7 +12256,7 @@
       </c>
       <c r="AT65" t="str">
         <f>VLOOKUP($I65,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害100，与野猪一致</v>
+        <v>物理伤害100，比起野猪一致</v>
       </c>
     </row>
     <row r="66" spans="1:46">
@@ -12386,15 +12386,15 @@
       </c>
       <c r="AP66" t="str">
         <f>VLOOKUP($I66,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值100，与野猪一致</v>
+        <v>生命值100，比起野猪一致</v>
       </c>
       <c r="AQ66" t="str">
         <f>VLOOKUP($I66,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御30，与野猪一致</v>
+        <v>物理防御30，比起野猪一致</v>
       </c>
       <c r="AR66" t="str">
         <f>VLOOKUP($I66,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御35，与野猪一致</v>
+        <v>法术防御35，比起野猪一致</v>
       </c>
       <c r="AS66" t="str">
         <f t="shared" si="28"/>
@@ -12402,7 +12402,7 @@
       </c>
       <c r="AT66" t="str">
         <f>VLOOKUP($I66,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害100，与野猪一致</v>
+        <v>物理伤害100，比起野猪一致</v>
       </c>
     </row>
     <row r="67" spans="1:46">
@@ -12532,15 +12532,15 @@
       </c>
       <c r="AP67" t="str">
         <f>VLOOKUP($I67,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值100，与野猪一致</v>
+        <v>生命值100，比起野猪一致</v>
       </c>
       <c r="AQ67" t="str">
         <f>VLOOKUP($I67,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御30，与野猪一致</v>
+        <v>物理防御30，比起野猪一致</v>
       </c>
       <c r="AR67" t="str">
         <f>VLOOKUP($I67,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御35，与野猪一致</v>
+        <v>法术防御35，比起野猪一致</v>
       </c>
       <c r="AS67" t="str">
         <f t="shared" si="28"/>
@@ -12548,7 +12548,7 @@
       </c>
       <c r="AT67" t="str">
         <f>VLOOKUP($I67,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害100，与野猪一致</v>
+        <v>物理伤害100，比起野猪一致</v>
       </c>
     </row>
     <row r="68" spans="1:46">
@@ -12678,15 +12678,15 @@
       </c>
       <c r="AP68" t="str">
         <f>VLOOKUP($I68,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值100，与野猪一致</v>
+        <v>生命值100，比起野猪一致</v>
       </c>
       <c r="AQ68" t="str">
         <f>VLOOKUP($I68,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御30，与野猪一致</v>
+        <v>物理防御30，比起野猪一致</v>
       </c>
       <c r="AR68" t="str">
         <f>VLOOKUP($I68,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御35，与野猪一致</v>
+        <v>法术防御35，比起野猪一致</v>
       </c>
       <c r="AS68" t="str">
         <f t="shared" si="28"/>
@@ -12694,7 +12694,7 @@
       </c>
       <c r="AT68" t="str">
         <f>VLOOKUP($I68,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害100，与野猪一致</v>
+        <v>物理伤害100，比起野猪一致</v>
       </c>
     </row>
     <row r="69" spans="1:46">
@@ -12824,15 +12824,15 @@
       </c>
       <c r="AP69" t="str">
         <f>VLOOKUP($I69,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值100，与野猪一致</v>
+        <v>生命值100，比起野猪一致</v>
       </c>
       <c r="AQ69" t="str">
         <f>VLOOKUP($I69,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御30，与野猪一致</v>
+        <v>物理防御30，比起野猪一致</v>
       </c>
       <c r="AR69" t="str">
         <f>VLOOKUP($I69,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御35，与野猪一致</v>
+        <v>法术防御35，比起野猪一致</v>
       </c>
       <c r="AS69" t="str">
         <f t="shared" si="28"/>
@@ -12840,7 +12840,7 @@
       </c>
       <c r="AT69" t="str">
         <f>VLOOKUP($I69,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害100，与野猪一致</v>
+        <v>物理伤害100，比起野猪一致</v>
       </c>
     </row>
     <row r="70" spans="1:46">
@@ -12970,15 +12970,15 @@
       </c>
       <c r="AP70" t="str">
         <f>VLOOKUP($I70,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值100，与野猪一致</v>
+        <v>生命值100，比起野猪一致</v>
       </c>
       <c r="AQ70" t="str">
         <f>VLOOKUP($I70,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御30，与野猪一致</v>
+        <v>物理防御30，比起野猪一致</v>
       </c>
       <c r="AR70" t="str">
         <f>VLOOKUP($I70,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御35，与野猪一致</v>
+        <v>法术防御35，比起野猪一致</v>
       </c>
       <c r="AS70" t="str">
         <f t="shared" ref="AS70:AS104" si="43">"移动速度为"&amp;V70&amp;",比起"&amp;AD70&amp;IF(AC70=0,"一致",IF(AC70&gt;0,"+","")&amp;AC70)</f>
@@ -12986,7 +12986,7 @@
       </c>
       <c r="AT70" t="str">
         <f>VLOOKUP($I70,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害100，与野猪一致</v>
+        <v>物理伤害100，比起野猪一致</v>
       </c>
     </row>
     <row r="71" spans="1:46">
@@ -13116,15 +13116,15 @@
       </c>
       <c r="AP71" t="str">
         <f>VLOOKUP($I71,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值100，与野猪一致</v>
+        <v>生命值100，比起野猪一致</v>
       </c>
       <c r="AQ71" t="str">
         <f>VLOOKUP($I71,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御30，与野猪一致</v>
+        <v>物理防御30，比起野猪一致</v>
       </c>
       <c r="AR71" t="str">
         <f>VLOOKUP($I71,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御35，与野猪一致</v>
+        <v>法术防御35，比起野猪一致</v>
       </c>
       <c r="AS71" t="str">
         <f t="shared" si="43"/>
@@ -13132,7 +13132,7 @@
       </c>
       <c r="AT71" t="str">
         <f>VLOOKUP($I71,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害100，与野猪一致</v>
+        <v>物理伤害100，比起野猪一致</v>
       </c>
     </row>
     <row r="72" spans="1:46">
@@ -13262,15 +13262,15 @@
       </c>
       <c r="AP72" t="str">
         <f>VLOOKUP($I72,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值200，与巨人-50</v>
+        <v>生命值200，比起巨人-50</v>
       </c>
       <c r="AQ72" t="str">
         <f>VLOOKUP($I72,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御45，与巨人-5</v>
+        <v>物理防御45，比起巨人-5</v>
       </c>
       <c r="AR72" t="str">
         <f>VLOOKUP($I72,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御45，与巨人-5</v>
+        <v>法术防御45，比起巨人-5</v>
       </c>
       <c r="AS72" t="str">
         <f t="shared" si="43"/>
@@ -13278,7 +13278,7 @@
       </c>
       <c r="AT72" t="str">
         <f>VLOOKUP($I72,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>法术伤害300，与巨人-100</v>
+        <v>法术伤害300，比起巨人-100</v>
       </c>
     </row>
     <row r="73" spans="1:46">
@@ -13408,15 +13408,15 @@
       </c>
       <c r="AP73" t="str">
         <f>VLOOKUP($I73,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值120，与炎魔-30</v>
+        <v>生命值120，比起炎魔-30</v>
       </c>
       <c r="AQ73" t="str">
         <f>VLOOKUP($I73,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御25，与炎魔-5</v>
+        <v>物理防御25，比起炎魔-5</v>
       </c>
       <c r="AR73" t="str">
         <f>VLOOKUP($I73,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御50，与炎魔-5</v>
+        <v>法术防御50，比起炎魔-5</v>
       </c>
       <c r="AS73" t="str">
         <f t="shared" si="43"/>
@@ -13424,7 +13424,7 @@
       </c>
       <c r="AT73" t="str">
         <f>VLOOKUP($I73,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>法术伤害180，与炎魔-30</v>
+        <v>法术伤害180，比起炎魔-30</v>
       </c>
     </row>
     <row r="74" spans="1:46">
@@ -13554,15 +13554,15 @@
       </c>
       <c r="AP74" t="str">
         <f>VLOOKUP($I74,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值80，与野猪-20</v>
+        <v>生命值80，比起野猪-20</v>
       </c>
       <c r="AQ74" t="str">
         <f>VLOOKUP($I74,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御25，与野猪-5</v>
+        <v>物理防御25，比起野猪-5</v>
       </c>
       <c r="AR74" t="str">
         <f>VLOOKUP($I74,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御30，与野猪-5</v>
+        <v>法术防御30，比起野猪-5</v>
       </c>
       <c r="AS74" t="str">
         <f t="shared" si="43"/>
@@ -13570,7 +13570,7 @@
       </c>
       <c r="AT74" t="str">
         <f>VLOOKUP($I74,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>法术伤害130，与野猪-30</v>
+        <v>法术伤害130，比起野猪-30</v>
       </c>
     </row>
     <row r="75" spans="1:46">
@@ -13700,15 +13700,15 @@
       </c>
       <c r="AP75" t="str">
         <f>VLOOKUP($I75,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值80，与野猪-20</v>
+        <v>生命值80，比起野猪-20</v>
       </c>
       <c r="AQ75" t="str">
         <f>VLOOKUP($I75,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御25，与野猪-5</v>
+        <v>物理防御25，比起野猪-5</v>
       </c>
       <c r="AR75" t="str">
         <f>VLOOKUP($I75,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御30，与野猪-5</v>
+        <v>法术防御30，比起野猪-5</v>
       </c>
       <c r="AS75" t="str">
         <f t="shared" si="43"/>
@@ -13716,7 +13716,7 @@
       </c>
       <c r="AT75" t="str">
         <f>VLOOKUP($I75,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>法术伤害130，与野猪-30</v>
+        <v>法术伤害130，比起野猪-30</v>
       </c>
     </row>
     <row r="76" spans="1:46">
@@ -13846,15 +13846,15 @@
       </c>
       <c r="AP76" t="str">
         <f>VLOOKUP($I76,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值80，与野猪-20</v>
+        <v>生命值80，比起野猪-20</v>
       </c>
       <c r="AQ76" t="str">
         <f>VLOOKUP($I76,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御25，与野猪-5</v>
+        <v>物理防御25，比起野猪-5</v>
       </c>
       <c r="AR76" t="str">
         <f>VLOOKUP($I76,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御30，与野猪-5</v>
+        <v>法术防御30，比起野猪-5</v>
       </c>
       <c r="AS76" t="str">
         <f t="shared" si="43"/>
@@ -13862,7 +13862,7 @@
       </c>
       <c r="AT76" t="str">
         <f>VLOOKUP($I76,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>法术伤害130，与野猪-30</v>
+        <v>法术伤害130，比起野猪-30</v>
       </c>
     </row>
     <row r="77" spans="1:46">
@@ -13992,15 +13992,15 @@
       </c>
       <c r="AP77" t="str">
         <f>VLOOKUP($I77,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值80，与野猪-20</v>
+        <v>生命值80，比起野猪-20</v>
       </c>
       <c r="AQ77" t="str">
         <f>VLOOKUP($I77,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御25，与野猪-5</v>
+        <v>物理防御25，比起野猪-5</v>
       </c>
       <c r="AR77" t="str">
         <f>VLOOKUP($I77,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御30，与野猪-5</v>
+        <v>法术防御30，比起野猪-5</v>
       </c>
       <c r="AS77" t="str">
         <f t="shared" si="43"/>
@@ -14008,7 +14008,7 @@
       </c>
       <c r="AT77" t="str">
         <f>VLOOKUP($I77,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>法术伤害130，与野猪-30</v>
+        <v>法术伤害130，比起野猪-30</v>
       </c>
     </row>
     <row r="78" spans="1:46">
@@ -14138,15 +14138,15 @@
       </c>
       <c r="AP78" t="str">
         <f>VLOOKUP($I78,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值80，与野猪-20</v>
+        <v>生命值80，比起野猪-20</v>
       </c>
       <c r="AQ78" t="str">
         <f>VLOOKUP($I78,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御25，与野猪-5</v>
+        <v>物理防御25，比起野猪-5</v>
       </c>
       <c r="AR78" t="str">
         <f>VLOOKUP($I78,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御30，与野猪-5</v>
+        <v>法术防御30，比起野猪-5</v>
       </c>
       <c r="AS78" t="str">
         <f t="shared" si="43"/>
@@ -14154,7 +14154,7 @@
       </c>
       <c r="AT78" t="str">
         <f>VLOOKUP($I78,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>法术伤害130，与野猪-30</v>
+        <v>法术伤害130，比起野猪-30</v>
       </c>
     </row>
     <row r="79" spans="1:46">
@@ -14284,15 +14284,15 @@
       </c>
       <c r="AP79" t="str">
         <f>VLOOKUP($I79,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值80，与野猪-20</v>
+        <v>生命值80，比起野猪-20</v>
       </c>
       <c r="AQ79" t="str">
         <f>VLOOKUP($I79,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御25，与野猪-5</v>
+        <v>物理防御25，比起野猪-5</v>
       </c>
       <c r="AR79" t="str">
         <f>VLOOKUP($I79,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御30，与野猪-5</v>
+        <v>法术防御30，比起野猪-5</v>
       </c>
       <c r="AS79" t="str">
         <f t="shared" si="43"/>
@@ -14300,7 +14300,7 @@
       </c>
       <c r="AT79" t="str">
         <f>VLOOKUP($I79,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>法术伤害130，与野猪-30</v>
+        <v>法术伤害130，比起野猪-30</v>
       </c>
     </row>
     <row r="80" spans="1:46">
@@ -14430,15 +14430,15 @@
       </c>
       <c r="AP80" t="str">
         <f>VLOOKUP($I80,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值80，与野猪-20</v>
+        <v>生命值80，比起野猪-20</v>
       </c>
       <c r="AQ80" t="str">
         <f>VLOOKUP($I80,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御25，与野猪-5</v>
+        <v>物理防御25，比起野猪-5</v>
       </c>
       <c r="AR80" t="str">
         <f>VLOOKUP($I80,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御30，与野猪-5</v>
+        <v>法术防御30，比起野猪-5</v>
       </c>
       <c r="AS80" t="str">
         <f t="shared" si="43"/>
@@ -14446,7 +14446,7 @@
       </c>
       <c r="AT80" t="str">
         <f>VLOOKUP($I80,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>法术伤害130，与野猪-30</v>
+        <v>法术伤害130，比起野猪-30</v>
       </c>
     </row>
     <row r="81" spans="1:46">
@@ -14576,15 +14576,15 @@
       </c>
       <c r="AP81" t="str">
         <f>VLOOKUP($I81,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值80，与野猪-20</v>
+        <v>生命值80，比起野猪-20</v>
       </c>
       <c r="AQ81" t="str">
         <f>VLOOKUP($I81,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御25，与野猪-5</v>
+        <v>物理防御25，比起野猪-5</v>
       </c>
       <c r="AR81" t="str">
         <f>VLOOKUP($I81,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御30，与野猪-5</v>
+        <v>法术防御30，比起野猪-5</v>
       </c>
       <c r="AS81" t="str">
         <f t="shared" si="43"/>
@@ -14592,7 +14592,7 @@
       </c>
       <c r="AT81" t="str">
         <f>VLOOKUP($I81,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>法术伤害130，与野猪-30</v>
+        <v>法术伤害130，比起野猪-30</v>
       </c>
     </row>
     <row r="82" spans="1:46">
@@ -14722,15 +14722,15 @@
       </c>
       <c r="AP82" t="str">
         <f>VLOOKUP($I82,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值100，与野猪一致</v>
+        <v>生命值100，比起野猪一致</v>
       </c>
       <c r="AQ82" t="str">
         <f>VLOOKUP($I82,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御30，与野猪一致</v>
+        <v>物理防御30，比起野猪一致</v>
       </c>
       <c r="AR82" t="str">
         <f>VLOOKUP($I82,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御35，与野猪一致</v>
+        <v>法术防御35，比起野猪一致</v>
       </c>
       <c r="AS82" t="str">
         <f t="shared" si="43"/>
@@ -14738,7 +14738,7 @@
       </c>
       <c r="AT82" t="str">
         <f>VLOOKUP($I82,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害100，与野猪一致</v>
+        <v>物理伤害100，比起野猪一致</v>
       </c>
     </row>
     <row r="83" spans="1:46">
@@ -14868,15 +14868,15 @@
       </c>
       <c r="AP83" t="str">
         <f>VLOOKUP($I83,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值100，与野猪一致</v>
+        <v>生命值100，比起野猪一致</v>
       </c>
       <c r="AQ83" t="str">
         <f>VLOOKUP($I83,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御30，与野猪一致</v>
+        <v>物理防御30，比起野猪一致</v>
       </c>
       <c r="AR83" t="str">
         <f>VLOOKUP($I83,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御35，与野猪一致</v>
+        <v>法术防御35，比起野猪一致</v>
       </c>
       <c r="AS83" t="str">
         <f t="shared" si="43"/>
@@ -14884,7 +14884,7 @@
       </c>
       <c r="AT83" t="str">
         <f>VLOOKUP($I83,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害100，与野猪一致</v>
+        <v>物理伤害100，比起野猪一致</v>
       </c>
     </row>
     <row r="84" spans="1:46">
@@ -15014,15 +15014,15 @@
       </c>
       <c r="AP84" t="str">
         <f>VLOOKUP($I84,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值100，与野猪一致</v>
+        <v>生命值100，比起野猪一致</v>
       </c>
       <c r="AQ84" t="str">
         <f>VLOOKUP($I84,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御30，与野猪一致</v>
+        <v>物理防御30，比起野猪一致</v>
       </c>
       <c r="AR84" t="str">
         <f>VLOOKUP($I84,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御35，与野猪一致</v>
+        <v>法术防御35，比起野猪一致</v>
       </c>
       <c r="AS84" t="str">
         <f t="shared" si="43"/>
@@ -15030,7 +15030,7 @@
       </c>
       <c r="AT84" t="str">
         <f>VLOOKUP($I84,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害100，与野猪一致</v>
+        <v>物理伤害100，比起野猪一致</v>
       </c>
     </row>
     <row r="85" spans="1:46">
@@ -15160,15 +15160,15 @@
       </c>
       <c r="AP85" t="str">
         <f>VLOOKUP($I85,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值100，与野猪一致</v>
+        <v>生命值100，比起野猪一致</v>
       </c>
       <c r="AQ85" t="str">
         <f>VLOOKUP($I85,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御30，与野猪一致</v>
+        <v>物理防御30，比起野猪一致</v>
       </c>
       <c r="AR85" t="str">
         <f>VLOOKUP($I85,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御35，与野猪一致</v>
+        <v>法术防御35，比起野猪一致</v>
       </c>
       <c r="AS85" t="str">
         <f t="shared" si="43"/>
@@ -15176,7 +15176,7 @@
       </c>
       <c r="AT85" t="str">
         <f>VLOOKUP($I85,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害100，与野猪一致</v>
+        <v>物理伤害100，比起野猪一致</v>
       </c>
     </row>
     <row r="86" spans="1:46">
@@ -15306,15 +15306,15 @@
       </c>
       <c r="AP86" t="str">
         <f>VLOOKUP($I86,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值100，与野猪一致</v>
+        <v>生命值100，比起野猪一致</v>
       </c>
       <c r="AQ86" t="str">
         <f>VLOOKUP($I86,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御30，与野猪一致</v>
+        <v>物理防御30，比起野猪一致</v>
       </c>
       <c r="AR86" t="str">
         <f>VLOOKUP($I86,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御35，与野猪一致</v>
+        <v>法术防御35，比起野猪一致</v>
       </c>
       <c r="AS86" t="str">
         <f t="shared" si="43"/>
@@ -15322,7 +15322,7 @@
       </c>
       <c r="AT86" t="str">
         <f>VLOOKUP($I86,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害100，与野猪一致</v>
+        <v>物理伤害100，比起野猪一致</v>
       </c>
     </row>
     <row r="87" spans="1:46">
@@ -15452,15 +15452,15 @@
       </c>
       <c r="AP87" t="str">
         <f>VLOOKUP($I87,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值100，与野猪一致</v>
+        <v>生命值100，比起野猪一致</v>
       </c>
       <c r="AQ87" t="str">
         <f>VLOOKUP($I87,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御30，与野猪一致</v>
+        <v>物理防御30，比起野猪一致</v>
       </c>
       <c r="AR87" t="str">
         <f>VLOOKUP($I87,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御35，与野猪一致</v>
+        <v>法术防御35，比起野猪一致</v>
       </c>
       <c r="AS87" t="str">
         <f t="shared" si="43"/>
@@ -15468,7 +15468,7 @@
       </c>
       <c r="AT87" t="str">
         <f>VLOOKUP($I87,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害100，与野猪一致</v>
+        <v>物理伤害100，比起野猪一致</v>
       </c>
     </row>
     <row r="88" spans="1:46">
@@ -15598,15 +15598,15 @@
       </c>
       <c r="AP88" t="str">
         <f>VLOOKUP($I88,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值120，与炎魔-30</v>
+        <v>生命值120，比起炎魔-30</v>
       </c>
       <c r="AQ88" t="str">
         <f>VLOOKUP($I88,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御25，与炎魔-5</v>
+        <v>物理防御25，比起炎魔-5</v>
       </c>
       <c r="AR88" t="str">
         <f>VLOOKUP($I88,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御50，与炎魔-5</v>
+        <v>法术防御50，比起炎魔-5</v>
       </c>
       <c r="AS88" t="str">
         <f t="shared" si="43"/>
@@ -15614,7 +15614,7 @@
       </c>
       <c r="AT88" t="str">
         <f>VLOOKUP($I88,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>法术伤害180，与炎魔-30</v>
+        <v>法术伤害180，比起炎魔-30</v>
       </c>
     </row>
     <row r="89" spans="1:46">
@@ -15744,15 +15744,15 @@
       </c>
       <c r="AP89" t="str">
         <f>VLOOKUP($I89,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值100，与野猪一致</v>
+        <v>生命值100，比起野猪一致</v>
       </c>
       <c r="AQ89" t="str">
         <f>VLOOKUP($I89,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御30，与野猪一致</v>
+        <v>物理防御30，比起野猪一致</v>
       </c>
       <c r="AR89" t="str">
         <f>VLOOKUP($I89,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御35，与野猪一致</v>
+        <v>法术防御35，比起野猪一致</v>
       </c>
       <c r="AS89" t="str">
         <f t="shared" si="43"/>
@@ -15760,7 +15760,7 @@
       </c>
       <c r="AT89" t="str">
         <f>VLOOKUP($I89,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害100，与野猪一致</v>
+        <v>物理伤害100，比起野猪一致</v>
       </c>
     </row>
     <row r="90" spans="1:46">
@@ -15890,15 +15890,15 @@
       </c>
       <c r="AP90" t="str">
         <f>VLOOKUP($I90,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值100，与野猪一致</v>
+        <v>生命值100，比起野猪一致</v>
       </c>
       <c r="AQ90" t="str">
         <f>VLOOKUP($I90,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御30，与野猪一致</v>
+        <v>物理防御30，比起野猪一致</v>
       </c>
       <c r="AR90" t="str">
         <f>VLOOKUP($I90,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御35，与野猪一致</v>
+        <v>法术防御35，比起野猪一致</v>
       </c>
       <c r="AS90" t="str">
         <f t="shared" si="43"/>
@@ -15906,7 +15906,7 @@
       </c>
       <c r="AT90" t="str">
         <f>VLOOKUP($I90,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害100，与野猪一致</v>
+        <v>物理伤害100，比起野猪一致</v>
       </c>
     </row>
     <row r="91" spans="1:46">
@@ -16036,15 +16036,15 @@
       </c>
       <c r="AP91" t="str">
         <f>VLOOKUP($I91,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值100，与野猪一致</v>
+        <v>生命值100，比起野猪一致</v>
       </c>
       <c r="AQ91" t="str">
         <f>VLOOKUP($I91,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御30，与野猪一致</v>
+        <v>物理防御30，比起野猪一致</v>
       </c>
       <c r="AR91" t="str">
         <f>VLOOKUP($I91,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御35，与野猪一致</v>
+        <v>法术防御35，比起野猪一致</v>
       </c>
       <c r="AS91" t="str">
         <f t="shared" si="43"/>
@@ -16052,7 +16052,7 @@
       </c>
       <c r="AT91" t="str">
         <f>VLOOKUP($I91,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害100，与野猪一致</v>
+        <v>物理伤害100，比起野猪一致</v>
       </c>
     </row>
     <row r="92" spans="1:46">
@@ -16182,15 +16182,15 @@
       </c>
       <c r="AP92" t="str">
         <f>VLOOKUP($I92,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值80，与野猪-20</v>
+        <v>生命值80，比起野猪-20</v>
       </c>
       <c r="AQ92" t="str">
         <f>VLOOKUP($I92,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御25，与野猪-5</v>
+        <v>物理防御25，比起野猪-5</v>
       </c>
       <c r="AR92" t="str">
         <f>VLOOKUP($I92,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御30，与野猪-5</v>
+        <v>法术防御30，比起野猪-5</v>
       </c>
       <c r="AS92" t="str">
         <f t="shared" si="43"/>
@@ -16198,7 +16198,7 @@
       </c>
       <c r="AT92" t="str">
         <f>VLOOKUP($I92,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>法术伤害130，与野猪-30</v>
+        <v>法术伤害130，比起野猪-30</v>
       </c>
     </row>
     <row r="93" spans="1:46">
@@ -16328,15 +16328,15 @@
       </c>
       <c r="AP93" t="str">
         <f>VLOOKUP($I93,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值80，与野猪-20</v>
+        <v>生命值80，比起野猪-20</v>
       </c>
       <c r="AQ93" t="str">
         <f>VLOOKUP($I93,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御25，与野猪-5</v>
+        <v>物理防御25，比起野猪-5</v>
       </c>
       <c r="AR93" t="str">
         <f>VLOOKUP($I93,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御30，与野猪-5</v>
+        <v>法术防御30，比起野猪-5</v>
       </c>
       <c r="AS93" t="str">
         <f t="shared" si="43"/>
@@ -16344,7 +16344,7 @@
       </c>
       <c r="AT93" t="str">
         <f>VLOOKUP($I93,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>法术伤害130，与野猪-30</v>
+        <v>法术伤害130，比起野猪-30</v>
       </c>
     </row>
     <row r="94" spans="1:46">
@@ -16474,15 +16474,15 @@
       </c>
       <c r="AP94" t="str">
         <f>VLOOKUP($I94,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值80，与野猪-20</v>
+        <v>生命值80，比起野猪-20</v>
       </c>
       <c r="AQ94" t="str">
         <f>VLOOKUP($I94,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御25，与野猪-5</v>
+        <v>物理防御25，比起野猪-5</v>
       </c>
       <c r="AR94" t="str">
         <f>VLOOKUP($I94,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御30，与野猪-5</v>
+        <v>法术防御30，比起野猪-5</v>
       </c>
       <c r="AS94" t="str">
         <f t="shared" si="43"/>
@@ -16490,7 +16490,7 @@
       </c>
       <c r="AT94" t="str">
         <f>VLOOKUP($I94,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>法术伤害130，与野猪-30</v>
+        <v>法术伤害130，比起野猪-30</v>
       </c>
     </row>
     <row r="95" spans="1:46">
@@ -16620,15 +16620,15 @@
       </c>
       <c r="AP95" t="str">
         <f>VLOOKUP($I95,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值80，与野猪-20</v>
+        <v>生命值80，比起野猪-20</v>
       </c>
       <c r="AQ95" t="str">
         <f>VLOOKUP($I95,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御25，与野猪-5</v>
+        <v>物理防御25，比起野猪-5</v>
       </c>
       <c r="AR95" t="str">
         <f>VLOOKUP($I95,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御30，与野猪-5</v>
+        <v>法术防御30，比起野猪-5</v>
       </c>
       <c r="AS95" t="str">
         <f t="shared" si="43"/>
@@ -16636,7 +16636,7 @@
       </c>
       <c r="AT95" t="str">
         <f>VLOOKUP($I95,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>法术伤害130，与野猪-30</v>
+        <v>法术伤害130，比起野猪-30</v>
       </c>
     </row>
     <row r="96" spans="1:46">
@@ -16766,15 +16766,15 @@
       </c>
       <c r="AP96" t="str">
         <f>VLOOKUP($I96,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值100，与野猪一致</v>
+        <v>生命值100，比起野猪一致</v>
       </c>
       <c r="AQ96" t="str">
         <f>VLOOKUP($I96,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御30，与野猪一致</v>
+        <v>物理防御30，比起野猪一致</v>
       </c>
       <c r="AR96" t="str">
         <f>VLOOKUP($I96,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御35，与野猪一致</v>
+        <v>法术防御35，比起野猪一致</v>
       </c>
       <c r="AS96" t="str">
         <f t="shared" si="43"/>
@@ -16782,7 +16782,7 @@
       </c>
       <c r="AT96" t="str">
         <f>VLOOKUP($I96,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害100，与野猪一致</v>
+        <v>物理伤害100，比起野猪一致</v>
       </c>
     </row>
     <row r="97" spans="1:46">
@@ -16912,15 +16912,15 @@
       </c>
       <c r="AP97" t="str">
         <f>VLOOKUP($I97,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值200，与巨人-50</v>
+        <v>生命值200，比起巨人-50</v>
       </c>
       <c r="AQ97" t="str">
         <f>VLOOKUP($I97,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御45，与巨人-5</v>
+        <v>物理防御45，比起巨人-5</v>
       </c>
       <c r="AR97" t="str">
         <f>VLOOKUP($I97,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御45，与巨人-5</v>
+        <v>法术防御45，比起巨人-5</v>
       </c>
       <c r="AS97" t="str">
         <f t="shared" si="43"/>
@@ -16928,7 +16928,7 @@
       </c>
       <c r="AT97" t="str">
         <f>VLOOKUP($I97,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>法术伤害300，与巨人-100</v>
+        <v>法术伤害300，比起巨人-100</v>
       </c>
     </row>
     <row r="98" spans="1:46">
@@ -17058,15 +17058,15 @@
       </c>
       <c r="AP98" t="str">
         <f>VLOOKUP($I98,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值150，与炎魔一致</v>
+        <v>生命值150，比起炎魔一致</v>
       </c>
       <c r="AQ98" t="str">
         <f>VLOOKUP($I98,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御30，与炎魔一致</v>
+        <v>物理防御30，比起炎魔一致</v>
       </c>
       <c r="AR98" t="str">
         <f>VLOOKUP($I98,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御55，与炎魔一致</v>
+        <v>法术防御55，比起炎魔一致</v>
       </c>
       <c r="AS98" t="str">
         <f t="shared" si="43"/>
@@ -17074,7 +17074,7 @@
       </c>
       <c r="AT98" t="str">
         <f>VLOOKUP($I98,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害130，与炎魔+20</v>
+        <v>物理伤害130，比起炎魔+20</v>
       </c>
     </row>
     <row r="99" spans="1:46">
@@ -17204,15 +17204,15 @@
       </c>
       <c r="AP99" t="str">
         <f>VLOOKUP($I99,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值80，与野猪-20</v>
+        <v>生命值80，比起野猪-20</v>
       </c>
       <c r="AQ99" t="str">
         <f>VLOOKUP($I99,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御25，与野猪-5</v>
+        <v>物理防御25，比起野猪-5</v>
       </c>
       <c r="AR99" t="str">
         <f>VLOOKUP($I99,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御30，与野猪-5</v>
+        <v>法术防御30，比起野猪-5</v>
       </c>
       <c r="AS99" t="str">
         <f t="shared" si="43"/>
@@ -17220,7 +17220,7 @@
       </c>
       <c r="AT99" t="str">
         <f>VLOOKUP($I99,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>法术伤害130，与野猪-30</v>
+        <v>法术伤害130，比起野猪-30</v>
       </c>
     </row>
     <row r="100" spans="1:46">
@@ -17350,15 +17350,15 @@
       </c>
       <c r="AP100" t="str">
         <f>VLOOKUP($I100,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值100，与野猪一致</v>
+        <v>生命值100，比起野猪一致</v>
       </c>
       <c r="AQ100" t="str">
         <f>VLOOKUP($I100,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御30，与野猪一致</v>
+        <v>物理防御30，比起野猪一致</v>
       </c>
       <c r="AR100" t="str">
         <f>VLOOKUP($I100,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御35，与野猪一致</v>
+        <v>法术防御35，比起野猪一致</v>
       </c>
       <c r="AS100" t="str">
         <f t="shared" si="43"/>
@@ -17366,7 +17366,7 @@
       </c>
       <c r="AT100" t="str">
         <f>VLOOKUP($I100,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害100，与野猪一致</v>
+        <v>物理伤害100，比起野猪一致</v>
       </c>
     </row>
     <row r="101" spans="1:46">
@@ -17496,15 +17496,15 @@
       </c>
       <c r="AP101" t="str">
         <f>VLOOKUP($I101,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值100，与野猪一致</v>
+        <v>生命值100，比起野猪一致</v>
       </c>
       <c r="AQ101" t="str">
         <f>VLOOKUP($I101,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御30，与野猪一致</v>
+        <v>物理防御30，比起野猪一致</v>
       </c>
       <c r="AR101" t="str">
         <f>VLOOKUP($I101,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御35，与野猪一致</v>
+        <v>法术防御35，比起野猪一致</v>
       </c>
       <c r="AS101" t="str">
         <f t="shared" si="43"/>
@@ -17512,7 +17512,7 @@
       </c>
       <c r="AT101" t="str">
         <f>VLOOKUP($I101,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害100，与野猪一致</v>
+        <v>物理伤害100，比起野猪一致</v>
       </c>
     </row>
     <row r="102" spans="1:46">
@@ -17642,15 +17642,15 @@
       </c>
       <c r="AP102" t="str">
         <f>VLOOKUP($I102,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值150，与炎魔一致</v>
+        <v>生命值150，比起炎魔一致</v>
       </c>
       <c r="AQ102" t="str">
         <f>VLOOKUP($I102,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御30，与炎魔一致</v>
+        <v>物理防御30，比起炎魔一致</v>
       </c>
       <c r="AR102" t="str">
         <f>VLOOKUP($I102,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御55，与炎魔一致</v>
+        <v>法术防御55，比起炎魔一致</v>
       </c>
       <c r="AS102" t="str">
         <f t="shared" si="43"/>
@@ -17658,7 +17658,7 @@
       </c>
       <c r="AT102" t="str">
         <f>VLOOKUP($I102,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害130，与炎魔+20</v>
+        <v>物理伤害130，比起炎魔+20</v>
       </c>
     </row>
     <row r="103" spans="1:46">
@@ -17788,15 +17788,15 @@
       </c>
       <c r="AP103" t="str">
         <f>VLOOKUP($I103,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值250，与巨人一致</v>
+        <v>生命值250，比起巨人一致</v>
       </c>
       <c r="AQ103" t="str">
         <f>VLOOKUP($I103,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御50，与巨人一致</v>
+        <v>物理防御50，比起巨人一致</v>
       </c>
       <c r="AR103" t="str">
         <f>VLOOKUP($I103,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御50，与巨人一致</v>
+        <v>法术防御50，比起巨人一致</v>
       </c>
       <c r="AS103" t="str">
         <f t="shared" si="43"/>
@@ -17804,7 +17804,7 @@
       </c>
       <c r="AT103" t="str">
         <f>VLOOKUP($I103,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害200，与巨人一致</v>
+        <v>物理伤害200，比起巨人一致</v>
       </c>
     </row>
     <row r="104" spans="1:46">
@@ -17934,15 +17934,15 @@
       </c>
       <c r="AP104" t="str">
         <f>VLOOKUP($I104,属性类计算!$G:$AD,19,FALSE)</f>
-        <v>生命值150，与炎魔一致</v>
+        <v>生命值150，比起炎魔一致</v>
       </c>
       <c r="AQ104" t="str">
         <f>VLOOKUP($I104,属性类计算!$G:$AD,20,FALSE)</f>
-        <v>物理防御30，与炎魔一致</v>
+        <v>物理防御30，比起炎魔一致</v>
       </c>
       <c r="AR104" t="str">
         <f>VLOOKUP($I104,属性类计算!$G:$AD,21,FALSE)</f>
-        <v>法术防御55，与炎魔一致</v>
+        <v>法术防御55，比起炎魔一致</v>
       </c>
       <c r="AS104" t="str">
         <f t="shared" si="43"/>
@@ -17950,7 +17950,7 @@
       </c>
       <c r="AT104" t="str">
         <f>VLOOKUP($I104,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害130，与炎魔+20</v>
+        <v>物理伤害130，比起炎魔+20</v>
       </c>
     </row>
   </sheetData>
@@ -17967,8 +17967,8 @@
   <sheetPr/>
   <dimension ref="A2:AE19"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Z24" sqref="Z24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -18197,20 +18197,20 @@
         <v>258</v>
       </c>
       <c r="Y8" t="str">
-        <f>"生命值"&amp;J8&amp;"，与"&amp;U8&amp;IF(O8=0,"一致",IF(O8&gt;0,"+","")&amp;O8)</f>
-        <v>生命值100，与野猪一致</v>
+        <f>"生命值"&amp;J8&amp;"，比起"&amp;U8&amp;IF(O8=0,"一致",IF(O8&gt;0,"+","")&amp;O8)</f>
+        <v>生命值100，比起野猪一致</v>
       </c>
       <c r="Z8" t="str">
-        <f>"物理防御"&amp;K8&amp;"，与"&amp;$U8&amp;IF(M8=0,"一致",IF(M8&gt;0,"+","")&amp;M8)</f>
-        <v>物理防御30，与野猪一致</v>
+        <f>"物理防御"&amp;K8&amp;"，比起"&amp;$U8&amp;IF(M8=0,"一致",IF(M8&gt;0,"+","")&amp;M8)</f>
+        <v>物理防御30，比起野猪一致</v>
       </c>
       <c r="AA8" t="str">
-        <f>"法术防御"&amp;L8&amp;"，与"&amp;$U8&amp;IF(N8=0,"一致",IF(N8&gt;0,"+","")&amp;N8)</f>
-        <v>法术防御35，与野猪一致</v>
+        <f>"法术防御"&amp;L8&amp;"，比起"&amp;$U8&amp;IF(N8=0,"一致",IF(N8&gt;0,"+","")&amp;N8)</f>
+        <v>法术防御35，比起野猪一致</v>
       </c>
       <c r="AC8" t="str">
-        <f t="shared" ref="AC8:AC13" si="0">"法术伤害"&amp;R8&amp;"，与"&amp;$U8&amp;IF(T8=0,"一致",IF(T8&gt;0,"+","")&amp;T8)</f>
-        <v>法术伤害120，与野猪-20</v>
+        <f>"法术伤害"&amp;R8&amp;"，比起"&amp;$U8&amp;IF(T8=0,"一致",IF(T8&gt;0,"+","")&amp;T8)</f>
+        <v>法术伤害120，比起野猪-20</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -18275,7 +18275,7 @@
         <v>100</v>
       </c>
       <c r="T9">
-        <f t="shared" ref="T9:T19" si="1">S9-R9</f>
+        <f t="shared" ref="T9:T19" si="0">S9-R9</f>
         <v>-30</v>
       </c>
       <c r="U9" t="s">
@@ -18288,20 +18288,20 @@
         <v>261</v>
       </c>
       <c r="Y9" t="str">
-        <f t="shared" ref="Y9:Y19" si="2">"生命值"&amp;J9&amp;"，与"&amp;U9&amp;IF(O9=0,"一致",IF(O9&gt;0,"+","")&amp;O9)</f>
-        <v>生命值80，与野猪-20</v>
+        <f t="shared" ref="Y9:Y19" si="1">"生命值"&amp;J9&amp;"，比起"&amp;U9&amp;IF(O9=0,"一致",IF(O9&gt;0,"+","")&amp;O9)</f>
+        <v>生命值80，比起野猪-20</v>
       </c>
       <c r="Z9" t="str">
-        <f t="shared" ref="Z9:Z19" si="3">"物理防御"&amp;K9&amp;"，与"&amp;$U9&amp;IF(M9=0,"一致",IF(M9&gt;0,"+","")&amp;M9)</f>
-        <v>物理防御25，与野猪-5</v>
+        <f t="shared" ref="Z9:Z19" si="2">"物理防御"&amp;K9&amp;"，比起"&amp;$U9&amp;IF(M9=0,"一致",IF(M9&gt;0,"+","")&amp;M9)</f>
+        <v>物理防御25，比起野猪-5</v>
       </c>
       <c r="AA9" t="str">
-        <f t="shared" ref="AA9:AA19" si="4">"法术防御"&amp;L9&amp;"，与"&amp;$U9&amp;IF(N9=0,"一致",IF(N9&gt;0,"+","")&amp;N9)</f>
-        <v>法术防御30，与野猪-5</v>
+        <f t="shared" ref="AA9:AA19" si="3">"法术防御"&amp;L9&amp;"，比起"&amp;$U9&amp;IF(N9=0,"一致",IF(N9&gt;0,"+","")&amp;N9)</f>
+        <v>法术防御30，比起野猪-5</v>
       </c>
       <c r="AC9" t="str">
-        <f t="shared" si="0"/>
-        <v>法术伤害130，与野猪-30</v>
+        <f t="shared" ref="AC9:AC19" si="4">"法术伤害"&amp;R9&amp;"，比起"&amp;$U9&amp;IF(T9=0,"一致",IF(T9&gt;0,"+","")&amp;T9)</f>
+        <v>法术伤害130，比起野猪-30</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -18366,7 +18366,7 @@
         <v>100</v>
       </c>
       <c r="T10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U10" t="s">
@@ -18379,20 +18379,20 @@
         <v>264</v>
       </c>
       <c r="Y10" t="str">
+        <f t="shared" si="1"/>
+        <v>生命值100，比起野猪一致</v>
+      </c>
+      <c r="Z10" t="str">
         <f t="shared" si="2"/>
-        <v>生命值100，与野猪一致</v>
-      </c>
-      <c r="Z10" t="str">
+        <v>物理防御30，比起野猪一致</v>
+      </c>
+      <c r="AA10" t="str">
         <f t="shared" si="3"/>
-        <v>物理防御30，与野猪一致</v>
-      </c>
-      <c r="AA10" t="str">
-        <f t="shared" si="4"/>
-        <v>法术防御35，与野猪一致</v>
+        <v>法术防御35，比起野猪一致</v>
       </c>
       <c r="AC10" t="str">
-        <f>"物理伤害"&amp;R10&amp;"，与"&amp;$U10&amp;IF(T10=0,"一致",IF(T10&gt;0,"+","")&amp;T10)</f>
-        <v>物理伤害100，与野猪一致</v>
+        <f t="shared" ref="AC10:AC15" si="5">"物理伤害"&amp;R10&amp;"，比起"&amp;$U10&amp;IF(T10=0,"一致",IF(T10&gt;0,"+","")&amp;T10)</f>
+        <v>物理伤害100，比起野猪一致</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -18457,7 +18457,7 @@
         <v>100</v>
       </c>
       <c r="T11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-20</v>
       </c>
       <c r="U11" t="s">
@@ -18470,20 +18470,20 @@
         <v>266</v>
       </c>
       <c r="Y11" t="str">
+        <f t="shared" si="1"/>
+        <v>生命值80，比起野猪-20</v>
+      </c>
+      <c r="Z11" t="str">
         <f t="shared" si="2"/>
-        <v>生命值80，与野猪-20</v>
-      </c>
-      <c r="Z11" t="str">
+        <v>物理防御25，比起野猪-5</v>
+      </c>
+      <c r="AA11" t="str">
         <f t="shared" si="3"/>
-        <v>物理防御25，与野猪-5</v>
-      </c>
-      <c r="AA11" t="str">
-        <f t="shared" si="4"/>
-        <v>法术防御30，与野猪-5</v>
+        <v>法术防御30，比起野猪-5</v>
       </c>
       <c r="AC11" t="str">
-        <f t="shared" ref="AC9:AC19" si="5">"物理伤害"&amp;R11&amp;"，与"&amp;$U11&amp;IF(T11=0,"一致",IF(T11&gt;0,"+","")&amp;T11)</f>
-        <v>物理伤害120，与野猪-20</v>
+        <f t="shared" si="5"/>
+        <v>物理伤害120，比起野猪-20</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -18548,7 +18548,7 @@
         <v>150</v>
       </c>
       <c r="T12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U12" t="s">
@@ -18562,20 +18562,20 @@
       </c>
       <c r="X12" s="2"/>
       <c r="Y12" t="str">
+        <f t="shared" si="1"/>
+        <v>生命值150，比起炎魔一致</v>
+      </c>
+      <c r="Z12" t="str">
         <f t="shared" si="2"/>
-        <v>生命值150，与炎魔一致</v>
-      </c>
-      <c r="Z12" t="str">
+        <v>物理防御30，比起炎魔一致</v>
+      </c>
+      <c r="AA12" t="str">
         <f t="shared" si="3"/>
-        <v>物理防御30，与炎魔一致</v>
-      </c>
-      <c r="AA12" t="str">
+        <v>法术防御55，比起炎魔一致</v>
+      </c>
+      <c r="AC12" t="str">
         <f t="shared" si="4"/>
-        <v>法术防御55，与炎魔一致</v>
-      </c>
-      <c r="AC12" t="str">
-        <f t="shared" si="0"/>
-        <v>法术伤害150，与炎魔一致</v>
+        <v>法术伤害150，比起炎魔一致</v>
       </c>
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
@@ -18642,7 +18642,7 @@
         <v>150</v>
       </c>
       <c r="T13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-30</v>
       </c>
       <c r="U13" t="s">
@@ -18656,20 +18656,20 @@
       </c>
       <c r="X13" s="2"/>
       <c r="Y13" t="str">
+        <f t="shared" si="1"/>
+        <v>生命值120，比起炎魔-30</v>
+      </c>
+      <c r="Z13" t="str">
         <f t="shared" si="2"/>
-        <v>生命值120，与炎魔-30</v>
-      </c>
-      <c r="Z13" t="str">
+        <v>物理防御25，比起炎魔-5</v>
+      </c>
+      <c r="AA13" t="str">
         <f t="shared" si="3"/>
-        <v>物理防御25，与炎魔-5</v>
-      </c>
-      <c r="AA13" t="str">
+        <v>法术防御50，比起炎魔-5</v>
+      </c>
+      <c r="AC13" t="str">
         <f t="shared" si="4"/>
-        <v>法术防御50，与炎魔-5</v>
-      </c>
-      <c r="AC13" t="str">
-        <f t="shared" si="0"/>
-        <v>法术伤害180，与炎魔-30</v>
+        <v>法术伤害180，比起炎魔-30</v>
       </c>
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
@@ -18736,7 +18736,7 @@
         <v>150</v>
       </c>
       <c r="T14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="U14" t="s">
@@ -18750,20 +18750,20 @@
       </c>
       <c r="X14" s="2"/>
       <c r="Y14" t="str">
+        <f t="shared" si="1"/>
+        <v>生命值150，比起炎魔一致</v>
+      </c>
+      <c r="Z14" t="str">
         <f t="shared" si="2"/>
-        <v>生命值150，与炎魔一致</v>
-      </c>
-      <c r="Z14" t="str">
+        <v>物理防御30，比起炎魔一致</v>
+      </c>
+      <c r="AA14" t="str">
         <f t="shared" si="3"/>
-        <v>物理防御30，与炎魔一致</v>
-      </c>
-      <c r="AA14" t="str">
-        <f t="shared" si="4"/>
-        <v>法术防御55，与炎魔一致</v>
+        <v>法术防御55，比起炎魔一致</v>
       </c>
       <c r="AC14" t="str">
         <f t="shared" si="5"/>
-        <v>物理伤害130，与炎魔+20</v>
+        <v>物理伤害130，比起炎魔+20</v>
       </c>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
@@ -18830,7 +18830,7 @@
         <v>150</v>
       </c>
       <c r="T15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-10</v>
       </c>
       <c r="U15" t="s">
@@ -18844,20 +18844,20 @@
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="str">
+        <f t="shared" si="1"/>
+        <v>生命值120，比起炎魔-30</v>
+      </c>
+      <c r="Z15" t="str">
         <f t="shared" si="2"/>
-        <v>生命值120，与炎魔-30</v>
-      </c>
-      <c r="Z15" t="str">
+        <v>物理防御25，比起炎魔-5</v>
+      </c>
+      <c r="AA15" t="str">
         <f t="shared" si="3"/>
-        <v>物理防御25，与炎魔-5</v>
-      </c>
-      <c r="AA15" t="str">
-        <f t="shared" si="4"/>
-        <v>法术防御50，与炎魔-5</v>
+        <v>法术防御50，比起炎魔-5</v>
       </c>
       <c r="AC15" t="str">
         <f t="shared" si="5"/>
-        <v>物理伤害160，与炎魔-10</v>
+        <v>物理伤害160，比起炎魔-10</v>
       </c>
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
@@ -18924,7 +18924,7 @@
         <v>200</v>
       </c>
       <c r="T16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-40</v>
       </c>
       <c r="U16" t="s">
@@ -18937,20 +18937,20 @@
         <v>278</v>
       </c>
       <c r="Y16" t="str">
+        <f t="shared" si="1"/>
+        <v>生命值250，比起巨人一致</v>
+      </c>
+      <c r="Z16" t="str">
         <f t="shared" si="2"/>
-        <v>生命值250，与巨人一致</v>
-      </c>
-      <c r="Z16" t="str">
+        <v>物理防御50，比起巨人一致</v>
+      </c>
+      <c r="AA16" t="str">
         <f t="shared" si="3"/>
-        <v>物理防御50，与巨人一致</v>
-      </c>
-      <c r="AA16" t="str">
+        <v>法术防御50，比起巨人一致</v>
+      </c>
+      <c r="AC16" t="str">
         <f t="shared" si="4"/>
-        <v>法术防御50，与巨人一致</v>
-      </c>
-      <c r="AC16" t="str">
-        <f>"法术伤害"&amp;R16&amp;"，与"&amp;$U16&amp;IF(T16=0,"一致",IF(T16&gt;0,"+","")&amp;T16)</f>
-        <v>法术伤害240，与巨人-40</v>
+        <v>法术伤害240，比起巨人-40</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -19015,7 +19015,7 @@
         <v>200</v>
       </c>
       <c r="T17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-100</v>
       </c>
       <c r="U17" t="s">
@@ -19028,20 +19028,20 @@
         <v>280</v>
       </c>
       <c r="Y17" t="str">
+        <f t="shared" si="1"/>
+        <v>生命值200，比起巨人-50</v>
+      </c>
+      <c r="Z17" t="str">
         <f t="shared" si="2"/>
-        <v>生命值200，与巨人-50</v>
-      </c>
-      <c r="Z17" t="str">
+        <v>物理防御45，比起巨人-5</v>
+      </c>
+      <c r="AA17" t="str">
         <f t="shared" si="3"/>
-        <v>物理防御45，与巨人-5</v>
-      </c>
-      <c r="AA17" t="str">
+        <v>法术防御45，比起巨人-5</v>
+      </c>
+      <c r="AC17" t="str">
         <f t="shared" si="4"/>
-        <v>法术防御45，与巨人-5</v>
-      </c>
-      <c r="AC17" t="str">
-        <f>"法术伤害"&amp;R17&amp;"，与"&amp;$U17&amp;IF(T17=0,"一致",IF(T17&gt;0,"+","")&amp;T17)</f>
-        <v>法术伤害300，与巨人-100</v>
+        <v>法术伤害300，比起巨人-100</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -19103,7 +19103,7 @@
         <v>200</v>
       </c>
       <c r="T18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U18" t="s">
@@ -19116,20 +19116,20 @@
         <v>282</v>
       </c>
       <c r="Y18" t="str">
+        <f t="shared" si="1"/>
+        <v>生命值250，比起巨人一致</v>
+      </c>
+      <c r="Z18" t="str">
         <f t="shared" si="2"/>
-        <v>生命值250，与巨人一致</v>
-      </c>
-      <c r="Z18" t="str">
+        <v>物理防御50，比起巨人一致</v>
+      </c>
+      <c r="AA18" t="str">
         <f t="shared" si="3"/>
-        <v>物理防御50，与巨人一致</v>
-      </c>
-      <c r="AA18" t="str">
-        <f t="shared" si="4"/>
-        <v>法术防御50，与巨人一致</v>
+        <v>法术防御50，比起巨人一致</v>
       </c>
       <c r="AC18" t="str">
-        <f t="shared" si="5"/>
-        <v>物理伤害200，与巨人一致</v>
+        <f>"物理伤害"&amp;R18&amp;"，比起"&amp;$U18&amp;IF(T18=0,"一致",IF(T18&gt;0,"+","")&amp;T18)</f>
+        <v>物理伤害200，比起巨人一致</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -19191,7 +19191,7 @@
         <v>200</v>
       </c>
       <c r="T19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-40</v>
       </c>
       <c r="U19" t="s">
@@ -19204,20 +19204,20 @@
         <v>284</v>
       </c>
       <c r="Y19" t="str">
+        <f t="shared" si="1"/>
+        <v>生命值200，比起巨人-50</v>
+      </c>
+      <c r="Z19" t="str">
         <f t="shared" si="2"/>
-        <v>生命值200，与巨人-50</v>
-      </c>
-      <c r="Z19" t="str">
+        <v>物理防御45，比起巨人-5</v>
+      </c>
+      <c r="AA19" t="str">
         <f t="shared" si="3"/>
-        <v>物理防御45，与巨人-5</v>
-      </c>
-      <c r="AA19" t="str">
-        <f t="shared" si="4"/>
-        <v>法术防御45，与巨人-5</v>
+        <v>法术防御45，比起巨人-5</v>
       </c>
       <c r="AC19" t="str">
-        <f t="shared" si="5"/>
-        <v>物理伤害240，与巨人-40</v>
+        <f>"物理伤害"&amp;R19&amp;"，比起"&amp;$U19&amp;IF(T19=0,"一致",IF(T19&gt;0,"+","")&amp;T19)</f>
+        <v>物理伤害240，比起巨人-40</v>
       </c>
     </row>
   </sheetData>

--- a/AA怪物文档/moster_data.xlsx
+++ b/AA怪物文档/moster_data.xlsx
@@ -1927,8 +1927,8 @@
   <sheetPr/>
   <dimension ref="A1:KK104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3158,8 +3158,8 @@
         <v>300</v>
       </c>
       <c r="AC5">
-        <f>AB5-V5</f>
-        <v>-40</v>
+        <f>V5-AB5</f>
+        <v>40</v>
       </c>
       <c r="AD5" t="str">
         <f>VLOOKUP($I5,属性类计算!$G:$AD,15,FALSE)</f>
@@ -3210,11 +3210,11 @@
       </c>
       <c r="AS5" t="str">
         <f>"移动速度为"&amp;V5&amp;",比起"&amp;AD5&amp;IF(AC5=0,"一致",IF(AC5&gt;0,"+","")&amp;AC5)</f>
-        <v>移动速度为340,比起野猪-40</v>
+        <v>移动速度为340,比起野猪+40</v>
       </c>
       <c r="AT5" t="str">
         <f>VLOOKUP($I5,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>法术伤害130，比起野猪-30</v>
+        <v>法术伤害130，比起野猪+30</v>
       </c>
     </row>
     <row r="6" spans="1:46">
@@ -3310,8 +3310,8 @@
         <v>300</v>
       </c>
       <c r="AC6">
-        <f t="shared" ref="AC6:AC37" si="4">AB6-V6</f>
-        <v>-40</v>
+        <f t="shared" ref="AC6:AC37" si="4">V6-AB6</f>
+        <v>40</v>
       </c>
       <c r="AD6" t="str">
         <f>VLOOKUP($I6,属性类计算!$G:$AD,15,FALSE)</f>
@@ -3362,11 +3362,11 @@
       </c>
       <c r="AS6" t="str">
         <f t="shared" ref="AS6:AS37" si="12">"移动速度为"&amp;V6&amp;",比起"&amp;AD6&amp;IF(AC6=0,"一致",IF(AC6&gt;0,"+","")&amp;AC6)</f>
-        <v>移动速度为340,比起野猪-40</v>
+        <v>移动速度为340,比起野猪+40</v>
       </c>
       <c r="AT6" t="str">
         <f>VLOOKUP($I6,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>法术伤害130，比起野猪-30</v>
+        <v>法术伤害130，比起野猪+30</v>
       </c>
     </row>
     <row r="7" spans="1:46">
@@ -3463,7 +3463,7 @@
       </c>
       <c r="AC7">
         <f t="shared" si="4"/>
-        <v>-40</v>
+        <v>40</v>
       </c>
       <c r="AD7" t="str">
         <f>VLOOKUP($I7,属性类计算!$G:$AD,15,FALSE)</f>
@@ -3514,11 +3514,11 @@
       </c>
       <c r="AS7" t="str">
         <f t="shared" si="12"/>
-        <v>移动速度为340,比起野猪-40</v>
+        <v>移动速度为340,比起野猪+40</v>
       </c>
       <c r="AT7" t="str">
         <f>VLOOKUP($I7,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>法术伤害130，比起野猪-30</v>
+        <v>法术伤害130，比起野猪+30</v>
       </c>
     </row>
     <row r="8" spans="1:46">
@@ -3615,7 +3615,7 @@
       </c>
       <c r="AC8">
         <f t="shared" si="4"/>
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AD8" t="str">
         <f>VLOOKUP($I8,属性类计算!$G:$AD,15,FALSE)</f>
@@ -3666,7 +3666,7 @@
       </c>
       <c r="AS8" t="str">
         <f t="shared" si="12"/>
-        <v>移动速度为400,比起野猪-100</v>
+        <v>移动速度为400,比起野猪+100</v>
       </c>
       <c r="AT8" t="str">
         <f>VLOOKUP($I8,属性类计算!$G:$AD,23,FALSE)</f>
@@ -3767,7 +3767,7 @@
       </c>
       <c r="AC9">
         <f t="shared" si="4"/>
-        <v>-40</v>
+        <v>40</v>
       </c>
       <c r="AD9" t="str">
         <f>VLOOKUP($I9,属性类计算!$G:$AD,15,FALSE)</f>
@@ -3818,11 +3818,11 @@
       </c>
       <c r="AS9" t="str">
         <f t="shared" si="12"/>
-        <v>移动速度为340,比起野猪-40</v>
+        <v>移动速度为340,比起野猪+40</v>
       </c>
       <c r="AT9" t="str">
         <f>VLOOKUP($I9,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>法术伤害130，比起野猪-30</v>
+        <v>法术伤害130，比起野猪+30</v>
       </c>
     </row>
     <row r="10" spans="1:46">
@@ -3919,7 +3919,7 @@
       </c>
       <c r="AC10">
         <f t="shared" si="4"/>
-        <v>-40</v>
+        <v>40</v>
       </c>
       <c r="AD10" t="str">
         <f>VLOOKUP($I10,属性类计算!$G:$AD,15,FALSE)</f>
@@ -3970,11 +3970,11 @@
       </c>
       <c r="AS10" t="str">
         <f t="shared" si="12"/>
-        <v>移动速度为340,比起野猪-40</v>
+        <v>移动速度为340,比起野猪+40</v>
       </c>
       <c r="AT10" t="str">
         <f>VLOOKUP($I10,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>法术伤害130，比起野猪-30</v>
+        <v>法术伤害130，比起野猪+30</v>
       </c>
     </row>
     <row r="11" spans="1:46">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="AC11">
         <f t="shared" si="4"/>
-        <v>-220</v>
+        <v>220</v>
       </c>
       <c r="AD11" t="str">
         <f>VLOOKUP($I11,属性类计算!$G:$AD,15,FALSE)</f>
@@ -4122,7 +4122,7 @@
       </c>
       <c r="AS11" t="str">
         <f t="shared" si="12"/>
-        <v>移动速度为520,比起野猪-220</v>
+        <v>移动速度为520,比起野猪+220</v>
       </c>
       <c r="AT11" t="str">
         <f>VLOOKUP($I11,属性类计算!$G:$AD,23,FALSE)</f>
@@ -4223,7 +4223,7 @@
       </c>
       <c r="AC12">
         <f t="shared" si="4"/>
-        <v>160</v>
+        <v>-160</v>
       </c>
       <c r="AD12" t="str">
         <f>VLOOKUP($I12,属性类计算!$G:$AD,15,FALSE)</f>
@@ -4274,11 +4274,11 @@
       </c>
       <c r="AS12" t="str">
         <f t="shared" si="12"/>
-        <v>移动速度为340,比起炎魔+160</v>
+        <v>移动速度为340,比起炎魔-160</v>
       </c>
       <c r="AT12" t="str">
         <f>VLOOKUP($I12,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>法术伤害180，比起炎魔-30</v>
+        <v>法术伤害180，比起炎魔+30</v>
       </c>
     </row>
     <row r="13" spans="1:46">
@@ -4375,7 +4375,7 @@
       </c>
       <c r="AC13">
         <f t="shared" si="4"/>
-        <v>-60</v>
+        <v>60</v>
       </c>
       <c r="AD13" t="str">
         <f>VLOOKUP($I13,属性类计算!$G:$AD,15,FALSE)</f>
@@ -4426,11 +4426,11 @@
       </c>
       <c r="AS13" t="str">
         <f t="shared" si="12"/>
-        <v>移动速度为560,比起炎魔-60</v>
+        <v>移动速度为560,比起炎魔+60</v>
       </c>
       <c r="AT13" t="str">
         <f>VLOOKUP($I13,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害130，比起炎魔+20</v>
+        <v>物理伤害130，比起炎魔-20</v>
       </c>
     </row>
     <row r="14" spans="1:46">
@@ -4527,7 +4527,7 @@
       </c>
       <c r="AC14">
         <f t="shared" si="4"/>
-        <v>-60</v>
+        <v>60</v>
       </c>
       <c r="AD14" t="str">
         <f>VLOOKUP($I14,属性类计算!$G:$AD,15,FALSE)</f>
@@ -4578,11 +4578,11 @@
       </c>
       <c r="AS14" t="str">
         <f t="shared" si="12"/>
-        <v>移动速度为560,比起炎魔-60</v>
+        <v>移动速度为560,比起炎魔+60</v>
       </c>
       <c r="AT14" t="str">
         <f>VLOOKUP($I14,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害130，比起炎魔+20</v>
+        <v>物理伤害130，比起炎魔-20</v>
       </c>
     </row>
     <row r="15" spans="1:46">
@@ -4679,7 +4679,7 @@
       </c>
       <c r="AC15">
         <f t="shared" si="4"/>
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="AD15" t="str">
         <f>VLOOKUP($I15,属性类计算!$G:$AD,15,FALSE)</f>
@@ -4730,11 +4730,11 @@
       </c>
       <c r="AS15" t="str">
         <f t="shared" si="12"/>
-        <v>移动速度为520,比起巨人-20</v>
+        <v>移动速度为520,比起巨人+20</v>
       </c>
       <c r="AT15" t="str">
         <f>VLOOKUP($I15,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>法术伤害300，比起巨人-100</v>
+        <v>法术伤害300，比起巨人+100</v>
       </c>
     </row>
     <row r="16" spans="1:46">
@@ -4831,7 +4831,7 @@
       </c>
       <c r="AC16">
         <f t="shared" si="4"/>
-        <v>-80</v>
+        <v>80</v>
       </c>
       <c r="AD16" t="str">
         <f>VLOOKUP($I16,属性类计算!$G:$AD,15,FALSE)</f>
@@ -4882,7 +4882,7 @@
       </c>
       <c r="AS16" t="str">
         <f t="shared" si="12"/>
-        <v>移动速度为380,比起野猪-80</v>
+        <v>移动速度为380,比起野猪+80</v>
       </c>
       <c r="AT16" t="str">
         <f>VLOOKUP($I16,属性类计算!$G:$AD,23,FALSE)</f>
@@ -4983,7 +4983,7 @@
       </c>
       <c r="AC17">
         <f t="shared" si="4"/>
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="AD17" t="str">
         <f>VLOOKUP($I17,属性类计算!$G:$AD,15,FALSE)</f>
@@ -5034,7 +5034,7 @@
       </c>
       <c r="AS17" t="str">
         <f t="shared" si="12"/>
-        <v>移动速度为420,比起野猪-120</v>
+        <v>移动速度为420,比起野猪+120</v>
       </c>
       <c r="AT17" t="str">
         <f>VLOOKUP($I17,属性类计算!$G:$AD,23,FALSE)</f>
@@ -5135,7 +5135,7 @@
       </c>
       <c r="AC18">
         <f t="shared" si="4"/>
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="AD18" t="str">
         <f>VLOOKUP($I18,属性类计算!$G:$AD,15,FALSE)</f>
@@ -5186,11 +5186,11 @@
       </c>
       <c r="AS18" t="str">
         <f t="shared" si="12"/>
-        <v>移动速度为520,比起炎魔-20</v>
+        <v>移动速度为520,比起炎魔+20</v>
       </c>
       <c r="AT18" t="str">
         <f>VLOOKUP($I18,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害130，比起炎魔+20</v>
+        <v>物理伤害130，比起炎魔-20</v>
       </c>
     </row>
     <row r="19" spans="1:46">
@@ -5287,7 +5287,7 @@
       </c>
       <c r="AC19">
         <f t="shared" si="4"/>
-        <v>160</v>
+        <v>-160</v>
       </c>
       <c r="AD19" t="str">
         <f>VLOOKUP($I19,属性类计算!$G:$AD,15,FALSE)</f>
@@ -5338,11 +5338,11 @@
       </c>
       <c r="AS19" t="str">
         <f t="shared" si="12"/>
-        <v>移动速度为340,比起炎魔+160</v>
+        <v>移动速度为340,比起炎魔-160</v>
       </c>
       <c r="AT19" t="str">
         <f>VLOOKUP($I19,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害160，比起炎魔-10</v>
+        <v>物理伤害160，比起炎魔+10</v>
       </c>
     </row>
     <row r="20" spans="1:46">
@@ -5439,7 +5439,7 @@
       </c>
       <c r="AC20">
         <f t="shared" si="4"/>
-        <v>160</v>
+        <v>-160</v>
       </c>
       <c r="AD20" t="str">
         <f>VLOOKUP($I20,属性类计算!$G:$AD,15,FALSE)</f>
@@ -5490,11 +5490,11 @@
       </c>
       <c r="AS20" t="str">
         <f t="shared" si="12"/>
-        <v>移动速度为340,比起炎魔+160</v>
+        <v>移动速度为340,比起炎魔-160</v>
       </c>
       <c r="AT20" t="str">
         <f>VLOOKUP($I20,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害130，比起炎魔+20</v>
+        <v>物理伤害130，比起炎魔-20</v>
       </c>
     </row>
     <row r="21" spans="1:46">
@@ -5591,7 +5591,7 @@
       </c>
       <c r="AC21">
         <f t="shared" si="4"/>
-        <v>200</v>
+        <v>-200</v>
       </c>
       <c r="AD21" t="str">
         <f>VLOOKUP($I21,属性类计算!$G:$AD,15,FALSE)</f>
@@ -5642,11 +5642,11 @@
       </c>
       <c r="AS21" t="str">
         <f t="shared" si="12"/>
-        <v>移动速度为300,比起炎魔+200</v>
+        <v>移动速度为300,比起炎魔-200</v>
       </c>
       <c r="AT21" t="str">
         <f>VLOOKUP($I21,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害130，比起炎魔+20</v>
+        <v>物理伤害130，比起炎魔-20</v>
       </c>
     </row>
     <row r="22" spans="1:46">
@@ -5743,7 +5743,7 @@
       </c>
       <c r="AC22">
         <f t="shared" si="4"/>
-        <v>200</v>
+        <v>-200</v>
       </c>
       <c r="AD22" t="str">
         <f>VLOOKUP($I22,属性类计算!$G:$AD,15,FALSE)</f>
@@ -5794,11 +5794,11 @@
       </c>
       <c r="AS22" t="str">
         <f t="shared" si="12"/>
-        <v>移动速度为300,比起炎魔+200</v>
+        <v>移动速度为300,比起炎魔-200</v>
       </c>
       <c r="AT22" t="str">
         <f>VLOOKUP($I22,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害130，比起炎魔+20</v>
+        <v>物理伤害130，比起炎魔-20</v>
       </c>
     </row>
     <row r="23" spans="1:46">
@@ -6199,7 +6199,7 @@
       </c>
       <c r="AC25">
         <f t="shared" si="4"/>
-        <v>240</v>
+        <v>-240</v>
       </c>
       <c r="AD25" t="str">
         <f>VLOOKUP($I25,属性类计算!$G:$AD,15,FALSE)</f>
@@ -6250,7 +6250,7 @@
       </c>
       <c r="AS25" t="str">
         <f t="shared" si="12"/>
-        <v>移动速度为260,比起炎魔+240</v>
+        <v>移动速度为260,比起炎魔-240</v>
       </c>
       <c r="AT25" t="str">
         <f>VLOOKUP($I25,属性类计算!$G:$AD,23,FALSE)</f>
@@ -6351,7 +6351,7 @@
       </c>
       <c r="AC26">
         <f t="shared" si="4"/>
-        <v>160</v>
+        <v>-160</v>
       </c>
       <c r="AD26" t="str">
         <f>VLOOKUP($I26,属性类计算!$G:$AD,15,FALSE)</f>
@@ -6402,11 +6402,11 @@
       </c>
       <c r="AS26" t="str">
         <f t="shared" si="12"/>
-        <v>移动速度为340,比起炎魔+160</v>
+        <v>移动速度为340,比起炎魔-160</v>
       </c>
       <c r="AT26" t="str">
         <f>VLOOKUP($I26,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害130，比起炎魔+20</v>
+        <v>物理伤害130，比起炎魔-20</v>
       </c>
     </row>
     <row r="27" spans="1:46">
@@ -6503,7 +6503,7 @@
       </c>
       <c r="AC27">
         <f t="shared" si="4"/>
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="AD27" t="str">
         <f>VLOOKUP($I27,属性类计算!$G:$AD,15,FALSE)</f>
@@ -6554,11 +6554,11 @@
       </c>
       <c r="AS27" t="str">
         <f t="shared" si="12"/>
-        <v>移动速度为420,比起野猪-120</v>
+        <v>移动速度为420,比起野猪+120</v>
       </c>
       <c r="AT27" t="str">
         <f>VLOOKUP($I27,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害120，比起野猪-20</v>
+        <v>物理伤害120，比起野猪+20</v>
       </c>
     </row>
     <row r="28" spans="1:46">
@@ -6655,7 +6655,7 @@
       </c>
       <c r="AC28">
         <f t="shared" si="4"/>
-        <v>-220</v>
+        <v>220</v>
       </c>
       <c r="AD28" t="str">
         <f>VLOOKUP($I28,属性类计算!$G:$AD,15,FALSE)</f>
@@ -6706,11 +6706,11 @@
       </c>
       <c r="AS28" t="str">
         <f t="shared" si="12"/>
-        <v>移动速度为520,比起野猪-220</v>
+        <v>移动速度为520,比起野猪+220</v>
       </c>
       <c r="AT28" t="str">
         <f>VLOOKUP($I28,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害120，比起野猪-20</v>
+        <v>物理伤害120，比起野猪+20</v>
       </c>
     </row>
     <row r="29" spans="1:46">
@@ -6807,7 +6807,7 @@
       </c>
       <c r="AC29">
         <f t="shared" si="4"/>
-        <v>-220</v>
+        <v>220</v>
       </c>
       <c r="AD29" t="str">
         <f>VLOOKUP($I29,属性类计算!$G:$AD,15,FALSE)</f>
@@ -6858,7 +6858,7 @@
       </c>
       <c r="AS29" t="str">
         <f t="shared" si="12"/>
-        <v>移动速度为520,比起野猪-220</v>
+        <v>移动速度为520,比起野猪+220</v>
       </c>
       <c r="AT29" t="str">
         <f>VLOOKUP($I29,属性类计算!$G:$AD,23,FALSE)</f>
@@ -6959,7 +6959,7 @@
       </c>
       <c r="AC30">
         <f t="shared" si="4"/>
-        <v>-220</v>
+        <v>220</v>
       </c>
       <c r="AD30" t="str">
         <f>VLOOKUP($I30,属性类计算!$G:$AD,15,FALSE)</f>
@@ -7010,7 +7010,7 @@
       </c>
       <c r="AS30" t="str">
         <f t="shared" si="12"/>
-        <v>移动速度为520,比起野猪-220</v>
+        <v>移动速度为520,比起野猪+220</v>
       </c>
       <c r="AT30" t="str">
         <f>VLOOKUP($I30,属性类计算!$G:$AD,23,FALSE)</f>
@@ -7111,7 +7111,7 @@
       </c>
       <c r="AC31">
         <f t="shared" si="4"/>
-        <v>160</v>
+        <v>-160</v>
       </c>
       <c r="AD31" t="str">
         <f>VLOOKUP($I31,属性类计算!$G:$AD,15,FALSE)</f>
@@ -7162,11 +7162,11 @@
       </c>
       <c r="AS31" t="str">
         <f t="shared" si="12"/>
-        <v>移动速度为340,比起炎魔+160</v>
+        <v>移动速度为340,比起炎魔-160</v>
       </c>
       <c r="AT31" t="str">
         <f>VLOOKUP($I31,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害130，比起炎魔+20</v>
+        <v>物理伤害130，比起炎魔-20</v>
       </c>
     </row>
     <row r="32" spans="1:46">
@@ -7263,7 +7263,7 @@
       </c>
       <c r="AC32">
         <f t="shared" si="4"/>
-        <v>-40</v>
+        <v>40</v>
       </c>
       <c r="AD32" t="str">
         <f>VLOOKUP($I32,属性类计算!$G:$AD,15,FALSE)</f>
@@ -7314,7 +7314,7 @@
       </c>
       <c r="AS32" t="str">
         <f t="shared" si="12"/>
-        <v>移动速度为340,比起野猪-40</v>
+        <v>移动速度为340,比起野猪+40</v>
       </c>
       <c r="AT32" t="str">
         <f>VLOOKUP($I32,属性类计算!$G:$AD,23,FALSE)</f>
@@ -7415,7 +7415,7 @@
       </c>
       <c r="AC33">
         <f t="shared" si="4"/>
-        <v>-40</v>
+        <v>40</v>
       </c>
       <c r="AD33" t="str">
         <f>VLOOKUP($I33,属性类计算!$G:$AD,15,FALSE)</f>
@@ -7466,7 +7466,7 @@
       </c>
       <c r="AS33" t="str">
         <f t="shared" si="12"/>
-        <v>移动速度为340,比起野猪-40</v>
+        <v>移动速度为340,比起野猪+40</v>
       </c>
       <c r="AT33" t="str">
         <f>VLOOKUP($I33,属性类计算!$G:$AD,23,FALSE)</f>
@@ -7567,7 +7567,7 @@
       </c>
       <c r="AC34">
         <f t="shared" si="4"/>
-        <v>160</v>
+        <v>-160</v>
       </c>
       <c r="AD34" t="str">
         <f>VLOOKUP($I34,属性类计算!$G:$AD,15,FALSE)</f>
@@ -7618,11 +7618,11 @@
       </c>
       <c r="AS34" t="str">
         <f t="shared" si="12"/>
-        <v>移动速度为340,比起炎魔+160</v>
+        <v>移动速度为340,比起炎魔-160</v>
       </c>
       <c r="AT34" t="str">
         <f>VLOOKUP($I34,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>法术伤害180，比起炎魔-30</v>
+        <v>法术伤害180，比起炎魔+30</v>
       </c>
     </row>
     <row r="35" spans="1:46">
@@ -7719,7 +7719,7 @@
       </c>
       <c r="AC35">
         <f t="shared" si="4"/>
-        <v>260</v>
+        <v>-260</v>
       </c>
       <c r="AD35" t="str">
         <f>VLOOKUP($I35,属性类计算!$G:$AD,15,FALSE)</f>
@@ -7770,11 +7770,11 @@
       </c>
       <c r="AS35" t="str">
         <f t="shared" si="12"/>
-        <v>移动速度为240,比起炎魔+260</v>
+        <v>移动速度为240,比起炎魔-260</v>
       </c>
       <c r="AT35" t="str">
         <f>VLOOKUP($I35,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害130，比起炎魔+20</v>
+        <v>物理伤害130，比起炎魔-20</v>
       </c>
     </row>
     <row r="36" spans="1:46">
@@ -7871,7 +7871,7 @@
       </c>
       <c r="AC36">
         <f t="shared" si="4"/>
-        <v>160</v>
+        <v>-160</v>
       </c>
       <c r="AD36" t="str">
         <f>VLOOKUP($I36,属性类计算!$G:$AD,15,FALSE)</f>
@@ -7922,7 +7922,7 @@
       </c>
       <c r="AS36" t="str">
         <f t="shared" si="12"/>
-        <v>移动速度为340,比起炎魔+160</v>
+        <v>移动速度为340,比起炎魔-160</v>
       </c>
       <c r="AT36" t="str">
         <f>VLOOKUP($I36,属性类计算!$G:$AD,23,FALSE)</f>
@@ -8023,7 +8023,7 @@
       </c>
       <c r="AC37">
         <f t="shared" si="4"/>
-        <v>160</v>
+        <v>-160</v>
       </c>
       <c r="AD37" t="str">
         <f>VLOOKUP($I37,属性类计算!$G:$AD,15,FALSE)</f>
@@ -8074,11 +8074,11 @@
       </c>
       <c r="AS37" t="str">
         <f t="shared" si="12"/>
-        <v>移动速度为340,比起炎魔+160</v>
+        <v>移动速度为340,比起炎魔-160</v>
       </c>
       <c r="AT37" t="str">
         <f>VLOOKUP($I37,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害130，比起炎魔+20</v>
+        <v>物理伤害130，比起炎魔-20</v>
       </c>
     </row>
     <row r="38" spans="1:46">
@@ -8174,8 +8174,8 @@
         <v>300</v>
       </c>
       <c r="AC38">
-        <f t="shared" ref="AC38:AC69" si="21">AB38-V38</f>
-        <v>-40</v>
+        <f t="shared" ref="AC38:AC69" si="21">V38-AB38</f>
+        <v>40</v>
       </c>
       <c r="AD38" t="str">
         <f>VLOOKUP($I38,属性类计算!$G:$AD,15,FALSE)</f>
@@ -8226,7 +8226,7 @@
       </c>
       <c r="AS38" t="str">
         <f t="shared" ref="AS38:AS69" si="28">"移动速度为"&amp;V38&amp;",比起"&amp;AD38&amp;IF(AC38=0,"一致",IF(AC38&gt;0,"+","")&amp;AC38)</f>
-        <v>移动速度为340,比起野猪-40</v>
+        <v>移动速度为340,比起野猪+40</v>
       </c>
       <c r="AT38" t="str">
         <f>VLOOKUP($I38,属性类计算!$G:$AD,23,FALSE)</f>
@@ -8327,7 +8327,7 @@
       </c>
       <c r="AC39">
         <f t="shared" si="21"/>
-        <v>160</v>
+        <v>-160</v>
       </c>
       <c r="AD39" t="str">
         <f>VLOOKUP($I39,属性类计算!$G:$AD,15,FALSE)</f>
@@ -8378,11 +8378,11 @@
       </c>
       <c r="AS39" t="str">
         <f t="shared" si="28"/>
-        <v>移动速度为340,比起炎魔+160</v>
+        <v>移动速度为340,比起炎魔-160</v>
       </c>
       <c r="AT39" t="str">
         <f>VLOOKUP($I39,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害130，比起炎魔+20</v>
+        <v>物理伤害130，比起炎魔-20</v>
       </c>
     </row>
     <row r="40" spans="1:46">
@@ -8479,7 +8479,7 @@
       </c>
       <c r="AC40">
         <f t="shared" si="21"/>
-        <v>160</v>
+        <v>-160</v>
       </c>
       <c r="AD40" t="str">
         <f>VLOOKUP($I40,属性类计算!$G:$AD,15,FALSE)</f>
@@ -8530,11 +8530,11 @@
       </c>
       <c r="AS40" t="str">
         <f t="shared" si="28"/>
-        <v>移动速度为340,比起炎魔+160</v>
+        <v>移动速度为340,比起炎魔-160</v>
       </c>
       <c r="AT40" t="str">
         <f>VLOOKUP($I40,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害130，比起炎魔+20</v>
+        <v>物理伤害130，比起炎魔-20</v>
       </c>
     </row>
     <row r="41" spans="1:46">
@@ -8631,7 +8631,7 @@
       </c>
       <c r="AC41">
         <f t="shared" si="21"/>
-        <v>160</v>
+        <v>-160</v>
       </c>
       <c r="AD41" t="str">
         <f>VLOOKUP($I41,属性类计算!$G:$AD,15,FALSE)</f>
@@ -8682,11 +8682,11 @@
       </c>
       <c r="AS41" t="str">
         <f t="shared" si="28"/>
-        <v>移动速度为340,比起炎魔+160</v>
+        <v>移动速度为340,比起炎魔-160</v>
       </c>
       <c r="AT41" t="str">
         <f>VLOOKUP($I41,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>法术伤害180，比起炎魔-30</v>
+        <v>法术伤害180，比起炎魔+30</v>
       </c>
     </row>
     <row r="42" spans="1:46">
@@ -8783,7 +8783,7 @@
       </c>
       <c r="AC42">
         <f t="shared" si="21"/>
-        <v>-40</v>
+        <v>40</v>
       </c>
       <c r="AD42" t="str">
         <f>VLOOKUP($I42,属性类计算!$G:$AD,15,FALSE)</f>
@@ -8834,11 +8834,11 @@
       </c>
       <c r="AS42" t="str">
         <f t="shared" si="28"/>
-        <v>移动速度为340,比起野猪-40</v>
+        <v>移动速度为340,比起野猪+40</v>
       </c>
       <c r="AT42" t="str">
         <f>VLOOKUP($I42,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>法术伤害130，比起野猪-30</v>
+        <v>法术伤害130，比起野猪+30</v>
       </c>
     </row>
     <row r="43" spans="1:46">
@@ -8935,7 +8935,7 @@
       </c>
       <c r="AC43">
         <f t="shared" si="21"/>
-        <v>160</v>
+        <v>-160</v>
       </c>
       <c r="AD43" t="str">
         <f>VLOOKUP($I43,属性类计算!$G:$AD,15,FALSE)</f>
@@ -8986,11 +8986,11 @@
       </c>
       <c r="AS43" t="str">
         <f t="shared" si="28"/>
-        <v>移动速度为340,比起炎魔+160</v>
+        <v>移动速度为340,比起炎魔-160</v>
       </c>
       <c r="AT43" t="str">
         <f>VLOOKUP($I43,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害130，比起炎魔+20</v>
+        <v>物理伤害130，比起炎魔-20</v>
       </c>
     </row>
     <row r="44" spans="1:46">
@@ -9087,7 +9087,7 @@
       </c>
       <c r="AC44">
         <f t="shared" si="21"/>
-        <v>260</v>
+        <v>-260</v>
       </c>
       <c r="AD44" t="str">
         <f>VLOOKUP($I44,属性类计算!$G:$AD,15,FALSE)</f>
@@ -9138,11 +9138,11 @@
       </c>
       <c r="AS44" t="str">
         <f t="shared" si="28"/>
-        <v>移动速度为240,比起炎魔+260</v>
+        <v>移动速度为240,比起炎魔-260</v>
       </c>
       <c r="AT44" t="str">
         <f>VLOOKUP($I44,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害130，比起炎魔+20</v>
+        <v>物理伤害130，比起炎魔-20</v>
       </c>
     </row>
     <row r="45" spans="1:46">
@@ -9239,7 +9239,7 @@
       </c>
       <c r="AC45">
         <f t="shared" si="21"/>
-        <v>60</v>
+        <v>-60</v>
       </c>
       <c r="AD45" t="str">
         <f>VLOOKUP($I45,属性类计算!$G:$AD,15,FALSE)</f>
@@ -9290,7 +9290,7 @@
       </c>
       <c r="AS45" t="str">
         <f t="shared" si="28"/>
-        <v>移动速度为240,比起野猪+60</v>
+        <v>移动速度为240,比起野猪-60</v>
       </c>
       <c r="AT45" t="str">
         <f>VLOOKUP($I45,属性类计算!$G:$AD,23,FALSE)</f>
@@ -9391,7 +9391,7 @@
       </c>
       <c r="AC46">
         <f t="shared" si="21"/>
-        <v>60</v>
+        <v>-60</v>
       </c>
       <c r="AD46" t="str">
         <f>VLOOKUP($I46,属性类计算!$G:$AD,15,FALSE)</f>
@@ -9442,7 +9442,7 @@
       </c>
       <c r="AS46" t="str">
         <f t="shared" si="28"/>
-        <v>移动速度为240,比起野猪+60</v>
+        <v>移动速度为240,比起野猪-60</v>
       </c>
       <c r="AT46" t="str">
         <f>VLOOKUP($I46,属性类计算!$G:$AD,23,FALSE)</f>
@@ -9543,7 +9543,7 @@
       </c>
       <c r="AC47">
         <f t="shared" si="21"/>
-        <v>60</v>
+        <v>-60</v>
       </c>
       <c r="AD47" t="str">
         <f>VLOOKUP($I47,属性类计算!$G:$AD,15,FALSE)</f>
@@ -9594,7 +9594,7 @@
       </c>
       <c r="AS47" t="str">
         <f t="shared" si="28"/>
-        <v>移动速度为240,比起野猪+60</v>
+        <v>移动速度为240,比起野猪-60</v>
       </c>
       <c r="AT47" t="str">
         <f>VLOOKUP($I47,属性类计算!$G:$AD,23,FALSE)</f>
@@ -9695,7 +9695,7 @@
       </c>
       <c r="AC48">
         <f t="shared" si="21"/>
-        <v>160</v>
+        <v>-160</v>
       </c>
       <c r="AD48" t="str">
         <f>VLOOKUP($I48,属性类计算!$G:$AD,15,FALSE)</f>
@@ -9746,11 +9746,11 @@
       </c>
       <c r="AS48" t="str">
         <f t="shared" si="28"/>
-        <v>移动速度为340,比起炎魔+160</v>
+        <v>移动速度为340,比起炎魔-160</v>
       </c>
       <c r="AT48" t="str">
         <f>VLOOKUP($I48,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害130，比起炎魔+20</v>
+        <v>物理伤害130，比起炎魔-20</v>
       </c>
     </row>
     <row r="49" spans="1:46">
@@ -9847,7 +9847,7 @@
       </c>
       <c r="AC49">
         <f t="shared" si="21"/>
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="AD49" t="str">
         <f>VLOOKUP($I49,属性类计算!$G:$AD,15,FALSE)</f>
@@ -9898,11 +9898,11 @@
       </c>
       <c r="AS49" t="str">
         <f t="shared" si="28"/>
-        <v>移动速度为520,比起巨人-20</v>
+        <v>移动速度为520,比起巨人+20</v>
       </c>
       <c r="AT49" t="str">
         <f>VLOOKUP($I49,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>法术伤害240，比起巨人-40</v>
+        <v>法术伤害240，比起巨人+40</v>
       </c>
     </row>
     <row r="50" spans="1:46">
@@ -9999,7 +9999,7 @@
       </c>
       <c r="AC50">
         <f t="shared" si="21"/>
-        <v>300</v>
+        <v>-300</v>
       </c>
       <c r="AD50" t="str">
         <f>VLOOKUP($I50,属性类计算!$G:$AD,15,FALSE)</f>
@@ -10050,11 +10050,11 @@
       </c>
       <c r="AS50" t="str">
         <f t="shared" si="28"/>
-        <v>移动速度为200,比起炎魔+300</v>
+        <v>移动速度为200,比起炎魔-300</v>
       </c>
       <c r="AT50" t="str">
         <f>VLOOKUP($I50,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害130，比起炎魔+20</v>
+        <v>物理伤害130，比起炎魔-20</v>
       </c>
     </row>
     <row r="51" spans="1:46">
@@ -10151,7 +10151,7 @@
       </c>
       <c r="AC51">
         <f t="shared" si="21"/>
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="AD51" t="str">
         <f>VLOOKUP($I51,属性类计算!$G:$AD,15,FALSE)</f>
@@ -10202,7 +10202,7 @@
       </c>
       <c r="AS51" t="str">
         <f t="shared" si="28"/>
-        <v>移动速度为520,比起巨人-20</v>
+        <v>移动速度为520,比起巨人+20</v>
       </c>
       <c r="AT51" t="str">
         <f>VLOOKUP($I51,属性类计算!$G:$AD,23,FALSE)</f>
@@ -10303,7 +10303,7 @@
       </c>
       <c r="AC52">
         <f t="shared" si="21"/>
-        <v>-300</v>
+        <v>300</v>
       </c>
       <c r="AD52" t="str">
         <f>VLOOKUP($I52,属性类计算!$G:$AD,15,FALSE)</f>
@@ -10354,11 +10354,11 @@
       </c>
       <c r="AS52" t="str">
         <f t="shared" si="28"/>
-        <v>移动速度为800,比起巨人-300</v>
+        <v>移动速度为800,比起巨人+300</v>
       </c>
       <c r="AT52" t="str">
         <f>VLOOKUP($I52,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害240，比起巨人-40</v>
+        <v>物理伤害240，比起巨人+40</v>
       </c>
     </row>
     <row r="53" spans="1:46">
@@ -10449,7 +10449,7 @@
       </c>
       <c r="AC53">
         <f t="shared" si="21"/>
-        <v>200</v>
+        <v>-200</v>
       </c>
       <c r="AD53" t="str">
         <f>VLOOKUP($I53,属性类计算!$G:$AD,15,FALSE)</f>
@@ -10500,11 +10500,11 @@
       </c>
       <c r="AS53" t="str">
         <f t="shared" si="28"/>
-        <v>移动速度为300,比起巨人+200</v>
+        <v>移动速度为300,比起巨人-200</v>
       </c>
       <c r="AT53" t="str">
         <f>VLOOKUP($I53,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>法术伤害240，比起巨人-40</v>
+        <v>法术伤害240，比起巨人+40</v>
       </c>
     </row>
     <row r="54" spans="1:46">
@@ -10595,7 +10595,7 @@
       </c>
       <c r="AC54">
         <f t="shared" si="21"/>
-        <v>200</v>
+        <v>-200</v>
       </c>
       <c r="AD54" t="str">
         <f>VLOOKUP($I54,属性类计算!$G:$AD,15,FALSE)</f>
@@ -10646,7 +10646,7 @@
       </c>
       <c r="AS54" t="str">
         <f t="shared" si="28"/>
-        <v>移动速度为300,比起巨人+200</v>
+        <v>移动速度为300,比起巨人-200</v>
       </c>
       <c r="AT54" t="str">
         <f>VLOOKUP($I54,属性类计算!$G:$AD,23,FALSE)</f>
@@ -10887,7 +10887,7 @@
       </c>
       <c r="AC56">
         <f t="shared" si="21"/>
-        <v>160</v>
+        <v>-160</v>
       </c>
       <c r="AD56" t="str">
         <f>VLOOKUP($I56,属性类计算!$G:$AD,15,FALSE)</f>
@@ -10938,11 +10938,11 @@
       </c>
       <c r="AS56" t="str">
         <f t="shared" si="28"/>
-        <v>移动速度为340,比起炎魔+160</v>
+        <v>移动速度为340,比起炎魔-160</v>
       </c>
       <c r="AT56" t="str">
         <f>VLOOKUP($I56,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>法术伤害180，比起炎魔-30</v>
+        <v>法术伤害180，比起炎魔+30</v>
       </c>
     </row>
     <row r="57" spans="1:46">
@@ -11033,7 +11033,7 @@
       </c>
       <c r="AC57">
         <f t="shared" si="21"/>
-        <v>160</v>
+        <v>-160</v>
       </c>
       <c r="AD57" t="str">
         <f>VLOOKUP($I57,属性类计算!$G:$AD,15,FALSE)</f>
@@ -11084,11 +11084,11 @@
       </c>
       <c r="AS57" t="str">
         <f t="shared" si="28"/>
-        <v>移动速度为340,比起炎魔+160</v>
+        <v>移动速度为340,比起炎魔-160</v>
       </c>
       <c r="AT57" t="str">
         <f>VLOOKUP($I57,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害130，比起炎魔+20</v>
+        <v>物理伤害130，比起炎魔-20</v>
       </c>
     </row>
     <row r="58" spans="1:46">
@@ -11179,7 +11179,7 @@
       </c>
       <c r="AC58">
         <f t="shared" si="21"/>
-        <v>200</v>
+        <v>-200</v>
       </c>
       <c r="AD58" t="str">
         <f>VLOOKUP($I58,属性类计算!$G:$AD,15,FALSE)</f>
@@ -11230,7 +11230,7 @@
       </c>
       <c r="AS58" t="str">
         <f t="shared" si="28"/>
-        <v>移动速度为300,比起巨人+200</v>
+        <v>移动速度为300,比起巨人-200</v>
       </c>
       <c r="AT58" t="str">
         <f>VLOOKUP($I58,属性类计算!$G:$AD,23,FALSE)</f>
@@ -11325,7 +11325,7 @@
       </c>
       <c r="AC59">
         <f t="shared" si="21"/>
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="AD59" t="str">
         <f>VLOOKUP($I59,属性类计算!$G:$AD,15,FALSE)</f>
@@ -11376,7 +11376,7 @@
       </c>
       <c r="AS59" t="str">
         <f t="shared" si="28"/>
-        <v>移动速度为320,比起野猪-20</v>
+        <v>移动速度为320,比起野猪+20</v>
       </c>
       <c r="AT59" t="str">
         <f>VLOOKUP($I59,属性类计算!$G:$AD,23,FALSE)</f>
@@ -11471,7 +11471,7 @@
       </c>
       <c r="AC60">
         <f t="shared" si="21"/>
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="AD60" t="str">
         <f>VLOOKUP($I60,属性类计算!$G:$AD,15,FALSE)</f>
@@ -11522,7 +11522,7 @@
       </c>
       <c r="AS60" t="str">
         <f t="shared" si="28"/>
-        <v>移动速度为320,比起野猪-20</v>
+        <v>移动速度为320,比起野猪+20</v>
       </c>
       <c r="AT60" t="str">
         <f>VLOOKUP($I60,属性类计算!$G:$AD,23,FALSE)</f>
@@ -11617,7 +11617,7 @@
       </c>
       <c r="AC61">
         <f t="shared" si="21"/>
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="AD61" t="str">
         <f>VLOOKUP($I61,属性类计算!$G:$AD,15,FALSE)</f>
@@ -11668,7 +11668,7 @@
       </c>
       <c r="AS61" t="str">
         <f t="shared" si="28"/>
-        <v>移动速度为320,比起野猪-20</v>
+        <v>移动速度为320,比起野猪+20</v>
       </c>
       <c r="AT61" t="str">
         <f>VLOOKUP($I61,属性类计算!$G:$AD,23,FALSE)</f>
@@ -11763,7 +11763,7 @@
       </c>
       <c r="AC62">
         <f t="shared" si="21"/>
-        <v>160</v>
+        <v>-160</v>
       </c>
       <c r="AD62" t="str">
         <f>VLOOKUP($I62,属性类计算!$G:$AD,15,FALSE)</f>
@@ -11814,11 +11814,11 @@
       </c>
       <c r="AS62" t="str">
         <f t="shared" si="28"/>
-        <v>移动速度为340,比起炎魔+160</v>
+        <v>移动速度为340,比起炎魔-160</v>
       </c>
       <c r="AT62" t="str">
         <f>VLOOKUP($I62,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害130，比起炎魔+20</v>
+        <v>物理伤害130，比起炎魔-20</v>
       </c>
     </row>
     <row r="63" spans="1:46">
@@ -11909,7 +11909,7 @@
       </c>
       <c r="AC63">
         <f t="shared" si="21"/>
-        <v>-40</v>
+        <v>40</v>
       </c>
       <c r="AD63" t="str">
         <f>VLOOKUP($I63,属性类计算!$G:$AD,15,FALSE)</f>
@@ -11960,7 +11960,7 @@
       </c>
       <c r="AS63" t="str">
         <f t="shared" si="28"/>
-        <v>移动速度为340,比起野猪-40</v>
+        <v>移动速度为340,比起野猪+40</v>
       </c>
       <c r="AT63" t="str">
         <f>VLOOKUP($I63,属性类计算!$G:$AD,23,FALSE)</f>
@@ -12055,7 +12055,7 @@
       </c>
       <c r="AC64">
         <f t="shared" si="21"/>
-        <v>-40</v>
+        <v>40</v>
       </c>
       <c r="AD64" t="str">
         <f>VLOOKUP($I64,属性类计算!$G:$AD,15,FALSE)</f>
@@ -12106,7 +12106,7 @@
       </c>
       <c r="AS64" t="str">
         <f t="shared" si="28"/>
-        <v>移动速度为340,比起野猪-40</v>
+        <v>移动速度为340,比起野猪+40</v>
       </c>
       <c r="AT64" t="str">
         <f>VLOOKUP($I64,属性类计算!$G:$AD,23,FALSE)</f>
@@ -12201,7 +12201,7 @@
       </c>
       <c r="AC65">
         <f t="shared" si="21"/>
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AD65" t="str">
         <f>VLOOKUP($I65,属性类计算!$G:$AD,15,FALSE)</f>
@@ -12252,7 +12252,7 @@
       </c>
       <c r="AS65" t="str">
         <f t="shared" si="28"/>
-        <v>移动速度为200,比起野猪+100</v>
+        <v>移动速度为200,比起野猪-100</v>
       </c>
       <c r="AT65" t="str">
         <f>VLOOKUP($I65,属性类计算!$G:$AD,23,FALSE)</f>
@@ -12347,7 +12347,7 @@
       </c>
       <c r="AC66">
         <f t="shared" si="21"/>
-        <v>-220</v>
+        <v>220</v>
       </c>
       <c r="AD66" t="str">
         <f>VLOOKUP($I66,属性类计算!$G:$AD,15,FALSE)</f>
@@ -12398,7 +12398,7 @@
       </c>
       <c r="AS66" t="str">
         <f t="shared" si="28"/>
-        <v>移动速度为520,比起野猪-220</v>
+        <v>移动速度为520,比起野猪+220</v>
       </c>
       <c r="AT66" t="str">
         <f>VLOOKUP($I66,属性类计算!$G:$AD,23,FALSE)</f>
@@ -12493,7 +12493,7 @@
       </c>
       <c r="AC67">
         <f t="shared" si="21"/>
-        <v>-380</v>
+        <v>380</v>
       </c>
       <c r="AD67" t="str">
         <f>VLOOKUP($I67,属性类计算!$G:$AD,15,FALSE)</f>
@@ -12544,7 +12544,7 @@
       </c>
       <c r="AS67" t="str">
         <f t="shared" si="28"/>
-        <v>移动速度为680,比起野猪-380</v>
+        <v>移动速度为680,比起野猪+380</v>
       </c>
       <c r="AT67" t="str">
         <f>VLOOKUP($I67,属性类计算!$G:$AD,23,FALSE)</f>
@@ -12639,7 +12639,7 @@
       </c>
       <c r="AC68">
         <f t="shared" si="21"/>
-        <v>-40</v>
+        <v>40</v>
       </c>
       <c r="AD68" t="str">
         <f>VLOOKUP($I68,属性类计算!$G:$AD,15,FALSE)</f>
@@ -12690,7 +12690,7 @@
       </c>
       <c r="AS68" t="str">
         <f t="shared" si="28"/>
-        <v>移动速度为340,比起野猪-40</v>
+        <v>移动速度为340,比起野猪+40</v>
       </c>
       <c r="AT68" t="str">
         <f>VLOOKUP($I68,属性类计算!$G:$AD,23,FALSE)</f>
@@ -12785,7 +12785,7 @@
       </c>
       <c r="AC69">
         <f t="shared" si="21"/>
-        <v>-40</v>
+        <v>40</v>
       </c>
       <c r="AD69" t="str">
         <f>VLOOKUP($I69,属性类计算!$G:$AD,15,FALSE)</f>
@@ -12836,7 +12836,7 @@
       </c>
       <c r="AS69" t="str">
         <f t="shared" si="28"/>
-        <v>移动速度为340,比起野猪-40</v>
+        <v>移动速度为340,比起野猪+40</v>
       </c>
       <c r="AT69" t="str">
         <f>VLOOKUP($I69,属性类计算!$G:$AD,23,FALSE)</f>
@@ -12930,8 +12930,8 @@
         <v>300</v>
       </c>
       <c r="AC70">
-        <f t="shared" ref="AC70:AC104" si="36">AB70-V70</f>
-        <v>-40</v>
+        <f t="shared" ref="AC70:AC101" si="36">V70-AB70</f>
+        <v>40</v>
       </c>
       <c r="AD70" t="str">
         <f>VLOOKUP($I70,属性类计算!$G:$AD,15,FALSE)</f>
@@ -12982,7 +12982,7 @@
       </c>
       <c r="AS70" t="str">
         <f t="shared" ref="AS70:AS104" si="43">"移动速度为"&amp;V70&amp;",比起"&amp;AD70&amp;IF(AC70=0,"一致",IF(AC70&gt;0,"+","")&amp;AC70)</f>
-        <v>移动速度为340,比起野猪-40</v>
+        <v>移动速度为340,比起野猪+40</v>
       </c>
       <c r="AT70" t="str">
         <f>VLOOKUP($I70,属性类计算!$G:$AD,23,FALSE)</f>
@@ -13077,7 +13077,7 @@
       </c>
       <c r="AC71">
         <f t="shared" si="36"/>
-        <v>-40</v>
+        <v>40</v>
       </c>
       <c r="AD71" t="str">
         <f>VLOOKUP($I71,属性类计算!$G:$AD,15,FALSE)</f>
@@ -13128,7 +13128,7 @@
       </c>
       <c r="AS71" t="str">
         <f t="shared" si="43"/>
-        <v>移动速度为340,比起野猪-40</v>
+        <v>移动速度为340,比起野猪+40</v>
       </c>
       <c r="AT71" t="str">
         <f>VLOOKUP($I71,属性类计算!$G:$AD,23,FALSE)</f>
@@ -13223,7 +13223,7 @@
       </c>
       <c r="AC72">
         <f t="shared" si="36"/>
-        <v>160</v>
+        <v>-160</v>
       </c>
       <c r="AD72" t="str">
         <f>VLOOKUP($I72,属性类计算!$G:$AD,15,FALSE)</f>
@@ -13274,11 +13274,11 @@
       </c>
       <c r="AS72" t="str">
         <f t="shared" si="43"/>
-        <v>移动速度为340,比起巨人+160</v>
+        <v>移动速度为340,比起巨人-160</v>
       </c>
       <c r="AT72" t="str">
         <f>VLOOKUP($I72,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>法术伤害300，比起巨人-100</v>
+        <v>法术伤害300，比起巨人+100</v>
       </c>
     </row>
     <row r="73" spans="1:46">
@@ -13369,7 +13369,7 @@
       </c>
       <c r="AC73">
         <f t="shared" si="36"/>
-        <v>160</v>
+        <v>-160</v>
       </c>
       <c r="AD73" t="str">
         <f>VLOOKUP($I73,属性类计算!$G:$AD,15,FALSE)</f>
@@ -13420,11 +13420,11 @@
       </c>
       <c r="AS73" t="str">
         <f t="shared" si="43"/>
-        <v>移动速度为340,比起炎魔+160</v>
+        <v>移动速度为340,比起炎魔-160</v>
       </c>
       <c r="AT73" t="str">
         <f>VLOOKUP($I73,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>法术伤害180，比起炎魔-30</v>
+        <v>法术伤害180，比起炎魔+30</v>
       </c>
     </row>
     <row r="74" spans="1:46">
@@ -13515,7 +13515,7 @@
       </c>
       <c r="AC74">
         <f t="shared" si="36"/>
-        <v>-40</v>
+        <v>40</v>
       </c>
       <c r="AD74" t="str">
         <f>VLOOKUP($I74,属性类计算!$G:$AD,15,FALSE)</f>
@@ -13566,11 +13566,11 @@
       </c>
       <c r="AS74" t="str">
         <f t="shared" si="43"/>
-        <v>移动速度为340,比起野猪-40</v>
+        <v>移动速度为340,比起野猪+40</v>
       </c>
       <c r="AT74" t="str">
         <f>VLOOKUP($I74,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>法术伤害130，比起野猪-30</v>
+        <v>法术伤害130，比起野猪+30</v>
       </c>
     </row>
     <row r="75" spans="1:46">
@@ -13661,7 +13661,7 @@
       </c>
       <c r="AC75">
         <f t="shared" si="36"/>
-        <v>-40</v>
+        <v>40</v>
       </c>
       <c r="AD75" t="str">
         <f>VLOOKUP($I75,属性类计算!$G:$AD,15,FALSE)</f>
@@ -13712,11 +13712,11 @@
       </c>
       <c r="AS75" t="str">
         <f t="shared" si="43"/>
-        <v>移动速度为340,比起野猪-40</v>
+        <v>移动速度为340,比起野猪+40</v>
       </c>
       <c r="AT75" t="str">
         <f>VLOOKUP($I75,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>法术伤害130，比起野猪-30</v>
+        <v>法术伤害130，比起野猪+30</v>
       </c>
     </row>
     <row r="76" spans="1:46">
@@ -13807,7 +13807,7 @@
       </c>
       <c r="AC76">
         <f t="shared" si="36"/>
-        <v>-40</v>
+        <v>40</v>
       </c>
       <c r="AD76" t="str">
         <f>VLOOKUP($I76,属性类计算!$G:$AD,15,FALSE)</f>
@@ -13858,11 +13858,11 @@
       </c>
       <c r="AS76" t="str">
         <f t="shared" si="43"/>
-        <v>移动速度为340,比起野猪-40</v>
+        <v>移动速度为340,比起野猪+40</v>
       </c>
       <c r="AT76" t="str">
         <f>VLOOKUP($I76,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>法术伤害130，比起野猪-30</v>
+        <v>法术伤害130，比起野猪+30</v>
       </c>
     </row>
     <row r="77" spans="1:46">
@@ -13953,7 +13953,7 @@
       </c>
       <c r="AC77">
         <f t="shared" si="36"/>
-        <v>-40</v>
+        <v>40</v>
       </c>
       <c r="AD77" t="str">
         <f>VLOOKUP($I77,属性类计算!$G:$AD,15,FALSE)</f>
@@ -14004,11 +14004,11 @@
       </c>
       <c r="AS77" t="str">
         <f t="shared" si="43"/>
-        <v>移动速度为340,比起野猪-40</v>
+        <v>移动速度为340,比起野猪+40</v>
       </c>
       <c r="AT77" t="str">
         <f>VLOOKUP($I77,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>法术伤害130，比起野猪-30</v>
+        <v>法术伤害130，比起野猪+30</v>
       </c>
     </row>
     <row r="78" spans="1:46">
@@ -14099,7 +14099,7 @@
       </c>
       <c r="AC78">
         <f t="shared" si="36"/>
-        <v>-40</v>
+        <v>40</v>
       </c>
       <c r="AD78" t="str">
         <f>VLOOKUP($I78,属性类计算!$G:$AD,15,FALSE)</f>
@@ -14150,11 +14150,11 @@
       </c>
       <c r="AS78" t="str">
         <f t="shared" si="43"/>
-        <v>移动速度为340,比起野猪-40</v>
+        <v>移动速度为340,比起野猪+40</v>
       </c>
       <c r="AT78" t="str">
         <f>VLOOKUP($I78,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>法术伤害130，比起野猪-30</v>
+        <v>法术伤害130，比起野猪+30</v>
       </c>
     </row>
     <row r="79" spans="1:46">
@@ -14245,7 +14245,7 @@
       </c>
       <c r="AC79">
         <f t="shared" si="36"/>
-        <v>-160</v>
+        <v>160</v>
       </c>
       <c r="AD79" t="str">
         <f>VLOOKUP($I79,属性类计算!$G:$AD,15,FALSE)</f>
@@ -14296,11 +14296,11 @@
       </c>
       <c r="AS79" t="str">
         <f t="shared" si="43"/>
-        <v>移动速度为460,比起野猪-160</v>
+        <v>移动速度为460,比起野猪+160</v>
       </c>
       <c r="AT79" t="str">
         <f>VLOOKUP($I79,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>法术伤害130，比起野猪-30</v>
+        <v>法术伤害130，比起野猪+30</v>
       </c>
     </row>
     <row r="80" spans="1:46">
@@ -14391,7 +14391,7 @@
       </c>
       <c r="AC80">
         <f t="shared" si="36"/>
-        <v>-160</v>
+        <v>160</v>
       </c>
       <c r="AD80" t="str">
         <f>VLOOKUP($I80,属性类计算!$G:$AD,15,FALSE)</f>
@@ -14442,11 +14442,11 @@
       </c>
       <c r="AS80" t="str">
         <f t="shared" si="43"/>
-        <v>移动速度为460,比起野猪-160</v>
+        <v>移动速度为460,比起野猪+160</v>
       </c>
       <c r="AT80" t="str">
         <f>VLOOKUP($I80,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>法术伤害130，比起野猪-30</v>
+        <v>法术伤害130，比起野猪+30</v>
       </c>
     </row>
     <row r="81" spans="1:46">
@@ -14537,7 +14537,7 @@
       </c>
       <c r="AC81">
         <f t="shared" si="36"/>
-        <v>-160</v>
+        <v>160</v>
       </c>
       <c r="AD81" t="str">
         <f>VLOOKUP($I81,属性类计算!$G:$AD,15,FALSE)</f>
@@ -14588,11 +14588,11 @@
       </c>
       <c r="AS81" t="str">
         <f t="shared" si="43"/>
-        <v>移动速度为460,比起野猪-160</v>
+        <v>移动速度为460,比起野猪+160</v>
       </c>
       <c r="AT81" t="str">
         <f>VLOOKUP($I81,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>法术伤害130，比起野猪-30</v>
+        <v>法术伤害130，比起野猪+30</v>
       </c>
     </row>
     <row r="82" spans="1:46">
@@ -14683,7 +14683,7 @@
       </c>
       <c r="AC82">
         <f t="shared" si="36"/>
-        <v>-160</v>
+        <v>160</v>
       </c>
       <c r="AD82" t="str">
         <f>VLOOKUP($I82,属性类计算!$G:$AD,15,FALSE)</f>
@@ -14734,7 +14734,7 @@
       </c>
       <c r="AS82" t="str">
         <f t="shared" si="43"/>
-        <v>移动速度为460,比起野猪-160</v>
+        <v>移动速度为460,比起野猪+160</v>
       </c>
       <c r="AT82" t="str">
         <f>VLOOKUP($I82,属性类计算!$G:$AD,23,FALSE)</f>
@@ -14829,7 +14829,7 @@
       </c>
       <c r="AC83">
         <f t="shared" si="36"/>
-        <v>-160</v>
+        <v>160</v>
       </c>
       <c r="AD83" t="str">
         <f>VLOOKUP($I83,属性类计算!$G:$AD,15,FALSE)</f>
@@ -14880,7 +14880,7 @@
       </c>
       <c r="AS83" t="str">
         <f t="shared" si="43"/>
-        <v>移动速度为460,比起野猪-160</v>
+        <v>移动速度为460,比起野猪+160</v>
       </c>
       <c r="AT83" t="str">
         <f>VLOOKUP($I83,属性类计算!$G:$AD,23,FALSE)</f>
@@ -14975,7 +14975,7 @@
       </c>
       <c r="AC84">
         <f t="shared" si="36"/>
-        <v>-160</v>
+        <v>160</v>
       </c>
       <c r="AD84" t="str">
         <f>VLOOKUP($I84,属性类计算!$G:$AD,15,FALSE)</f>
@@ -15026,7 +15026,7 @@
       </c>
       <c r="AS84" t="str">
         <f t="shared" si="43"/>
-        <v>移动速度为460,比起野猪-160</v>
+        <v>移动速度为460,比起野猪+160</v>
       </c>
       <c r="AT84" t="str">
         <f>VLOOKUP($I84,属性类计算!$G:$AD,23,FALSE)</f>
@@ -15121,7 +15121,7 @@
       </c>
       <c r="AC85">
         <f t="shared" si="36"/>
-        <v>-160</v>
+        <v>160</v>
       </c>
       <c r="AD85" t="str">
         <f>VLOOKUP($I85,属性类计算!$G:$AD,15,FALSE)</f>
@@ -15172,7 +15172,7 @@
       </c>
       <c r="AS85" t="str">
         <f t="shared" si="43"/>
-        <v>移动速度为460,比起野猪-160</v>
+        <v>移动速度为460,比起野猪+160</v>
       </c>
       <c r="AT85" t="str">
         <f>VLOOKUP($I85,属性类计算!$G:$AD,23,FALSE)</f>
@@ -15267,7 +15267,7 @@
       </c>
       <c r="AC86">
         <f t="shared" si="36"/>
-        <v>-160</v>
+        <v>160</v>
       </c>
       <c r="AD86" t="str">
         <f>VLOOKUP($I86,属性类计算!$G:$AD,15,FALSE)</f>
@@ -15318,7 +15318,7 @@
       </c>
       <c r="AS86" t="str">
         <f t="shared" si="43"/>
-        <v>移动速度为460,比起野猪-160</v>
+        <v>移动速度为460,比起野猪+160</v>
       </c>
       <c r="AT86" t="str">
         <f>VLOOKUP($I86,属性类计算!$G:$AD,23,FALSE)</f>
@@ -15413,7 +15413,7 @@
       </c>
       <c r="AC87">
         <f t="shared" si="36"/>
-        <v>-40</v>
+        <v>40</v>
       </c>
       <c r="AD87" t="str">
         <f>VLOOKUP($I87,属性类计算!$G:$AD,15,FALSE)</f>
@@ -15464,7 +15464,7 @@
       </c>
       <c r="AS87" t="str">
         <f t="shared" si="43"/>
-        <v>移动速度为340,比起野猪-40</v>
+        <v>移动速度为340,比起野猪+40</v>
       </c>
       <c r="AT87" t="str">
         <f>VLOOKUP($I87,属性类计算!$G:$AD,23,FALSE)</f>
@@ -15559,7 +15559,7 @@
       </c>
       <c r="AC88">
         <f t="shared" si="36"/>
-        <v>160</v>
+        <v>-160</v>
       </c>
       <c r="AD88" t="str">
         <f>VLOOKUP($I88,属性类计算!$G:$AD,15,FALSE)</f>
@@ -15610,11 +15610,11 @@
       </c>
       <c r="AS88" t="str">
         <f t="shared" si="43"/>
-        <v>移动速度为340,比起炎魔+160</v>
+        <v>移动速度为340,比起炎魔-160</v>
       </c>
       <c r="AT88" t="str">
         <f>VLOOKUP($I88,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>法术伤害180，比起炎魔-30</v>
+        <v>法术伤害180，比起炎魔+30</v>
       </c>
     </row>
     <row r="89" spans="1:46">
@@ -15705,7 +15705,7 @@
       </c>
       <c r="AC89">
         <f t="shared" si="36"/>
-        <v>-40</v>
+        <v>40</v>
       </c>
       <c r="AD89" t="str">
         <f>VLOOKUP($I89,属性类计算!$G:$AD,15,FALSE)</f>
@@ -15756,7 +15756,7 @@
       </c>
       <c r="AS89" t="str">
         <f t="shared" si="43"/>
-        <v>移动速度为340,比起野猪-40</v>
+        <v>移动速度为340,比起野猪+40</v>
       </c>
       <c r="AT89" t="str">
         <f>VLOOKUP($I89,属性类计算!$G:$AD,23,FALSE)</f>
@@ -15851,7 +15851,7 @@
       </c>
       <c r="AC90">
         <f t="shared" si="36"/>
-        <v>-50</v>
+        <v>50</v>
       </c>
       <c r="AD90" t="str">
         <f>VLOOKUP($I90,属性类计算!$G:$AD,15,FALSE)</f>
@@ -15902,7 +15902,7 @@
       </c>
       <c r="AS90" t="str">
         <f t="shared" si="43"/>
-        <v>移动速度为350,比起野猪-50</v>
+        <v>移动速度为350,比起野猪+50</v>
       </c>
       <c r="AT90" t="str">
         <f>VLOOKUP($I90,属性类计算!$G:$AD,23,FALSE)</f>
@@ -15997,7 +15997,7 @@
       </c>
       <c r="AC91">
         <f t="shared" si="36"/>
-        <v>-40</v>
+        <v>40</v>
       </c>
       <c r="AD91" t="str">
         <f>VLOOKUP($I91,属性类计算!$G:$AD,15,FALSE)</f>
@@ -16048,7 +16048,7 @@
       </c>
       <c r="AS91" t="str">
         <f t="shared" si="43"/>
-        <v>移动速度为340,比起野猪-40</v>
+        <v>移动速度为340,比起野猪+40</v>
       </c>
       <c r="AT91" t="str">
         <f>VLOOKUP($I91,属性类计算!$G:$AD,23,FALSE)</f>
@@ -16143,7 +16143,7 @@
       </c>
       <c r="AC92">
         <f t="shared" si="36"/>
-        <v>-40</v>
+        <v>40</v>
       </c>
       <c r="AD92" t="str">
         <f>VLOOKUP($I92,属性类计算!$G:$AD,15,FALSE)</f>
@@ -16194,11 +16194,11 @@
       </c>
       <c r="AS92" t="str">
         <f t="shared" si="43"/>
-        <v>移动速度为340,比起野猪-40</v>
+        <v>移动速度为340,比起野猪+40</v>
       </c>
       <c r="AT92" t="str">
         <f>VLOOKUP($I92,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>法术伤害130，比起野猪-30</v>
+        <v>法术伤害130，比起野猪+30</v>
       </c>
     </row>
     <row r="93" spans="1:46">
@@ -16289,7 +16289,7 @@
       </c>
       <c r="AC93">
         <f t="shared" si="36"/>
-        <v>-40</v>
+        <v>40</v>
       </c>
       <c r="AD93" t="str">
         <f>VLOOKUP($I93,属性类计算!$G:$AD,15,FALSE)</f>
@@ -16340,11 +16340,11 @@
       </c>
       <c r="AS93" t="str">
         <f t="shared" si="43"/>
-        <v>移动速度为340,比起野猪-40</v>
+        <v>移动速度为340,比起野猪+40</v>
       </c>
       <c r="AT93" t="str">
         <f>VLOOKUP($I93,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>法术伤害130，比起野猪-30</v>
+        <v>法术伤害130，比起野猪+30</v>
       </c>
     </row>
     <row r="94" spans="1:46">
@@ -16435,7 +16435,7 @@
       </c>
       <c r="AC94">
         <f t="shared" si="36"/>
-        <v>-40</v>
+        <v>40</v>
       </c>
       <c r="AD94" t="str">
         <f>VLOOKUP($I94,属性类计算!$G:$AD,15,FALSE)</f>
@@ -16486,11 +16486,11 @@
       </c>
       <c r="AS94" t="str">
         <f t="shared" si="43"/>
-        <v>移动速度为340,比起野猪-40</v>
+        <v>移动速度为340,比起野猪+40</v>
       </c>
       <c r="AT94" t="str">
         <f>VLOOKUP($I94,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>法术伤害130，比起野猪-30</v>
+        <v>法术伤害130，比起野猪+30</v>
       </c>
     </row>
     <row r="95" spans="1:46">
@@ -16581,7 +16581,7 @@
       </c>
       <c r="AC95">
         <f t="shared" si="36"/>
-        <v>-40</v>
+        <v>40</v>
       </c>
       <c r="AD95" t="str">
         <f>VLOOKUP($I95,属性类计算!$G:$AD,15,FALSE)</f>
@@ -16632,11 +16632,11 @@
       </c>
       <c r="AS95" t="str">
         <f t="shared" si="43"/>
-        <v>移动速度为340,比起野猪-40</v>
+        <v>移动速度为340,比起野猪+40</v>
       </c>
       <c r="AT95" t="str">
         <f>VLOOKUP($I95,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>法术伤害130，比起野猪-30</v>
+        <v>法术伤害130，比起野猪+30</v>
       </c>
     </row>
     <row r="96" spans="1:46">
@@ -16873,7 +16873,7 @@
       </c>
       <c r="AC97">
         <f t="shared" si="36"/>
-        <v>200</v>
+        <v>-200</v>
       </c>
       <c r="AD97" t="str">
         <f>VLOOKUP($I97,属性类计算!$G:$AD,15,FALSE)</f>
@@ -16924,11 +16924,11 @@
       </c>
       <c r="AS97" t="str">
         <f t="shared" si="43"/>
-        <v>移动速度为300,比起巨人+200</v>
+        <v>移动速度为300,比起巨人-200</v>
       </c>
       <c r="AT97" t="str">
         <f>VLOOKUP($I97,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>法术伤害300，比起巨人-100</v>
+        <v>法术伤害300，比起巨人+100</v>
       </c>
     </row>
     <row r="98" spans="1:46">
@@ -17019,7 +17019,7 @@
       </c>
       <c r="AC98">
         <f t="shared" si="36"/>
-        <v>160</v>
+        <v>-160</v>
       </c>
       <c r="AD98" t="str">
         <f>VLOOKUP($I98,属性类计算!$G:$AD,15,FALSE)</f>
@@ -17070,11 +17070,11 @@
       </c>
       <c r="AS98" t="str">
         <f t="shared" si="43"/>
-        <v>移动速度为340,比起炎魔+160</v>
+        <v>移动速度为340,比起炎魔-160</v>
       </c>
       <c r="AT98" t="str">
         <f>VLOOKUP($I98,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害130，比起炎魔+20</v>
+        <v>物理伤害130，比起炎魔-20</v>
       </c>
     </row>
     <row r="99" spans="1:46">
@@ -17165,7 +17165,7 @@
       </c>
       <c r="AC99">
         <f t="shared" si="36"/>
-        <v>-40</v>
+        <v>40</v>
       </c>
       <c r="AD99" t="str">
         <f>VLOOKUP($I99,属性类计算!$G:$AD,15,FALSE)</f>
@@ -17216,11 +17216,11 @@
       </c>
       <c r="AS99" t="str">
         <f t="shared" si="43"/>
-        <v>移动速度为340,比起野猪-40</v>
+        <v>移动速度为340,比起野猪+40</v>
       </c>
       <c r="AT99" t="str">
         <f>VLOOKUP($I99,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>法术伤害130，比起野猪-30</v>
+        <v>法术伤害130，比起野猪+30</v>
       </c>
     </row>
     <row r="100" spans="1:46">
@@ -17311,7 +17311,7 @@
       </c>
       <c r="AC100">
         <f t="shared" si="36"/>
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AD100" t="str">
         <f>VLOOKUP($I100,属性类计算!$G:$AD,15,FALSE)</f>
@@ -17362,7 +17362,7 @@
       </c>
       <c r="AS100" t="str">
         <f t="shared" si="43"/>
-        <v>移动速度为200,比起野猪+100</v>
+        <v>移动速度为200,比起野猪-100</v>
       </c>
       <c r="AT100" t="str">
         <f>VLOOKUP($I100,属性类计算!$G:$AD,23,FALSE)</f>
@@ -17457,7 +17457,7 @@
       </c>
       <c r="AC101">
         <f t="shared" si="36"/>
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AD101" t="str">
         <f>VLOOKUP($I101,属性类计算!$G:$AD,15,FALSE)</f>
@@ -17508,7 +17508,7 @@
       </c>
       <c r="AS101" t="str">
         <f t="shared" si="43"/>
-        <v>移动速度为200,比起野猪+100</v>
+        <v>移动速度为200,比起野猪-100</v>
       </c>
       <c r="AT101" t="str">
         <f>VLOOKUP($I101,属性类计算!$G:$AD,23,FALSE)</f>
@@ -17602,8 +17602,8 @@
         <v>500</v>
       </c>
       <c r="AC102">
-        <f t="shared" si="36"/>
-        <v>160</v>
+        <f>V102-AB102</f>
+        <v>-160</v>
       </c>
       <c r="AD102" t="str">
         <f>VLOOKUP($I102,属性类计算!$G:$AD,15,FALSE)</f>
@@ -17654,11 +17654,11 @@
       </c>
       <c r="AS102" t="str">
         <f t="shared" si="43"/>
-        <v>移动速度为340,比起炎魔+160</v>
+        <v>移动速度为340,比起炎魔-160</v>
       </c>
       <c r="AT102" t="str">
         <f>VLOOKUP($I102,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害130，比起炎魔+20</v>
+        <v>物理伤害130，比起炎魔-20</v>
       </c>
     </row>
     <row r="103" spans="1:46">
@@ -17748,8 +17748,8 @@
         <v>500</v>
       </c>
       <c r="AC103">
-        <f t="shared" si="36"/>
-        <v>500</v>
+        <f>V103-AB103</f>
+        <v>-500</v>
       </c>
       <c r="AD103" t="str">
         <f>VLOOKUP($I103,属性类计算!$G:$AD,15,FALSE)</f>
@@ -17800,7 +17800,7 @@
       </c>
       <c r="AS103" t="str">
         <f t="shared" si="43"/>
-        <v>移动速度为0,比起巨人+500</v>
+        <v>移动速度为0,比起巨人-500</v>
       </c>
       <c r="AT103" t="str">
         <f>VLOOKUP($I103,属性类计算!$G:$AD,23,FALSE)</f>
@@ -17894,8 +17894,8 @@
         <v>500</v>
       </c>
       <c r="AC104">
-        <f t="shared" si="36"/>
-        <v>200</v>
+        <f>V104-AB104</f>
+        <v>-200</v>
       </c>
       <c r="AD104" t="str">
         <f>VLOOKUP($I104,属性类计算!$G:$AD,15,FALSE)</f>
@@ -17946,11 +17946,11 @@
       </c>
       <c r="AS104" t="str">
         <f t="shared" si="43"/>
-        <v>移动速度为300,比起炎魔+200</v>
+        <v>移动速度为300,比起炎魔-200</v>
       </c>
       <c r="AT104" t="str">
         <f>VLOOKUP($I104,属性类计算!$G:$AD,23,FALSE)</f>
-        <v>物理伤害130，比起炎魔+20</v>
+        <v>物理伤害130，比起炎魔-20</v>
       </c>
     </row>
   </sheetData>
@@ -17967,8 +17967,8 @@
   <sheetPr/>
   <dimension ref="A2:AE19"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Z24" sqref="Z24"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -18184,8 +18184,8 @@
         <v>100</v>
       </c>
       <c r="T8">
-        <f>S8-R8</f>
-        <v>-20</v>
+        <f>R8-S8</f>
+        <v>20</v>
       </c>
       <c r="U8" t="s">
         <v>257</v>
@@ -18210,7 +18210,7 @@
       </c>
       <c r="AC8" t="str">
         <f>"法术伤害"&amp;R8&amp;"，比起"&amp;$U8&amp;IF(T8=0,"一致",IF(T8&gt;0,"+","")&amp;T8)</f>
-        <v>法术伤害120，比起野猪-20</v>
+        <v>法术伤害120，比起野猪+20</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -18275,8 +18275,8 @@
         <v>100</v>
       </c>
       <c r="T9">
-        <f t="shared" ref="T9:T19" si="0">S9-R9</f>
-        <v>-30</v>
+        <f t="shared" ref="T9:T19" si="0">R9-S9</f>
+        <v>30</v>
       </c>
       <c r="U9" t="s">
         <v>257</v>
@@ -18301,7 +18301,7 @@
       </c>
       <c r="AC9" t="str">
         <f t="shared" ref="AC9:AC19" si="4">"法术伤害"&amp;R9&amp;"，比起"&amp;$U9&amp;IF(T9=0,"一致",IF(T9&gt;0,"+","")&amp;T9)</f>
-        <v>法术伤害130，比起野猪-30</v>
+        <v>法术伤害130，比起野猪+30</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -18458,7 +18458,7 @@
       </c>
       <c r="T11">
         <f t="shared" si="0"/>
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="U11" t="s">
         <v>257</v>
@@ -18483,7 +18483,7 @@
       </c>
       <c r="AC11" t="str">
         <f t="shared" si="5"/>
-        <v>物理伤害120，比起野猪-20</v>
+        <v>物理伤害120，比起野猪+20</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -18643,7 +18643,7 @@
       </c>
       <c r="T13">
         <f t="shared" si="0"/>
-        <v>-30</v>
+        <v>30</v>
       </c>
       <c r="U13" t="s">
         <v>85</v>
@@ -18669,7 +18669,7 @@
       </c>
       <c r="AC13" t="str">
         <f t="shared" si="4"/>
-        <v>法术伤害180，比起炎魔-30</v>
+        <v>法术伤害180，比起炎魔+30</v>
       </c>
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
@@ -18737,7 +18737,7 @@
       </c>
       <c r="T14">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>-20</v>
       </c>
       <c r="U14" t="s">
         <v>85</v>
@@ -18763,7 +18763,7 @@
       </c>
       <c r="AC14" t="str">
         <f t="shared" si="5"/>
-        <v>物理伤害130，比起炎魔+20</v>
+        <v>物理伤害130，比起炎魔-20</v>
       </c>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
@@ -18831,7 +18831,7 @@
       </c>
       <c r="T15">
         <f t="shared" si="0"/>
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="U15" t="s">
         <v>85</v>
@@ -18857,7 +18857,7 @@
       </c>
       <c r="AC15" t="str">
         <f t="shared" si="5"/>
-        <v>物理伤害160，比起炎魔-10</v>
+        <v>物理伤害160，比起炎魔+10</v>
       </c>
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
@@ -18925,7 +18925,7 @@
       </c>
       <c r="T16">
         <f t="shared" si="0"/>
-        <v>-40</v>
+        <v>40</v>
       </c>
       <c r="U16" t="s">
         <v>277</v>
@@ -18950,7 +18950,7 @@
       </c>
       <c r="AC16" t="str">
         <f t="shared" si="4"/>
-        <v>法术伤害240，比起巨人-40</v>
+        <v>法术伤害240，比起巨人+40</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -19016,7 +19016,7 @@
       </c>
       <c r="T17">
         <f t="shared" si="0"/>
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="U17" t="s">
         <v>277</v>
@@ -19041,7 +19041,7 @@
       </c>
       <c r="AC17" t="str">
         <f t="shared" si="4"/>
-        <v>法术伤害300，比起巨人-100</v>
+        <v>法术伤害300，比起巨人+100</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -19192,7 +19192,7 @@
       </c>
       <c r="T19">
         <f t="shared" si="0"/>
-        <v>-40</v>
+        <v>40</v>
       </c>
       <c r="U19" t="s">
         <v>277</v>
@@ -19217,7 +19217,7 @@
       </c>
       <c r="AC19" t="str">
         <f>"物理伤害"&amp;R19&amp;"，比起"&amp;$U19&amp;IF(T19=0,"一致",IF(T19&gt;0,"+","")&amp;T19)</f>
-        <v>物理伤害240，比起巨人-40</v>
+        <v>物理伤害240，比起巨人+40</v>
       </c>
     </row>
   </sheetData>
